--- a/data/offweb.xlsx
+++ b/data/offweb.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="541">
   <si>
     <t>此文稿由 Numbers 表格导出。所有表格均已转换为 Excel 工作表。每张 Numbers 工作表上的所有其他对象都已放置在单独的工作表中。请注意其中的公式计算可能与 Excel 不同。</t>
   </si>
@@ -1716,7 +1716,7 @@
     <t>logoOnTime</t>
   </si>
   <si>
-    <t>type</t>
+    <t>activityType</t>
   </si>
   <si>
     <t>contentTitle</t>
@@ -3376,6 +3376,9 @@
 The blue book released conference also invited industry experts to analyze the county market environment and make predictions on future trends; invite business managers who successfully operate the county market to share innovative projects.The person in charge of the Multidisciplinary Development Alliance is invited to share the current status and prospects of the county-level hospitals's development and construction. He also made some suggestions for county-level development. The guests discussed extensively about opportunities and challenges, and shared problems and confusions.</t>
   </si>
   <si>
+    <t>companyType</t>
+  </si>
+  <si>
     <t>中国医药企业管理协会</t>
   </si>
   <si>
@@ -4021,7 +4024,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -4087,6 +4090,11 @@
     <font>
       <sz val="11"/>
       <color indexed="30"/>
+      <name val="Menlo"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="31"/>
       <name val="Menlo"/>
     </font>
   </fonts>
@@ -4189,19 +4197,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="32"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="35"/>
+        <fgColor indexed="33"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -4244,6 +4246,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="42"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -5137,121 +5145,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="33"/>
+        <color indexed="34"/>
       </left>
       <right style="thin">
-        <color indexed="33"/>
-      </right>
-      <top style="thin">
-        <color indexed="33"/>
-      </top>
-      <bottom style="thin">
         <color indexed="34"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="33"/>
-      </left>
-      <right style="thin">
-        <color indexed="33"/>
-      </right>
-      <top style="thin">
-        <color indexed="33"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="33"/>
-      </left>
-      <right style="thin">
-        <color indexed="16"/>
       </right>
       <top style="thin">
         <color indexed="34"/>
       </top>
       <bottom style="thin">
-        <color indexed="33"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="33"/>
-      </right>
-      <top style="thin">
-        <color indexed="34"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="33"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="33"/>
-      </left>
-      <right style="thin">
-        <color indexed="16"/>
-      </right>
-      <top style="thin">
-        <color indexed="33"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="33"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="33"/>
-      </right>
-      <top style="thin">
-        <color indexed="33"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="33"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="33"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="33"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="33"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="33"/>
-      </left>
-      <right style="thin">
-        <color indexed="34"/>
-      </right>
-      <top style="thin">
-        <color indexed="33"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="33"/>
+        <color indexed="35"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5260,28 +5163,13 @@
         <color indexed="34"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="34"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="34"/>
       </top>
       <bottom style="thin">
-        <color indexed="33"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="34"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="33"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="33"/>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5293,7 +5181,127 @@
         <color indexed="16"/>
       </right>
       <top style="thin">
-        <color indexed="33"/>
+        <color indexed="35"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="34"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="34"/>
+      </right>
+      <top style="thin">
+        <color indexed="35"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="34"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="34"/>
+      </left>
+      <right style="thin">
+        <color indexed="16"/>
+      </right>
+      <top style="thin">
+        <color indexed="34"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="34"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="34"/>
+      </right>
+      <top style="thin">
+        <color indexed="34"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="34"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="34"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="34"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="34"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="34"/>
+      </left>
+      <right style="thin">
+        <color indexed="35"/>
+      </right>
+      <top style="thin">
+        <color indexed="34"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="34"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="35"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="34"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="35"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="34"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="34"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="35"/>
+      </left>
+      <right style="thin">
+        <color indexed="16"/>
+      </right>
+      <top style="thin">
+        <color indexed="34"/>
       </top>
       <bottom style="thin">
         <color indexed="16"/>
@@ -5305,13 +5313,43 @@
         <color indexed="16"/>
       </left>
       <right style="thin">
-        <color indexed="33"/>
+        <color indexed="34"/>
       </right>
       <top style="thin">
-        <color indexed="33"/>
+        <color indexed="34"/>
       </top>
       <bottom style="thin">
-        <color indexed="33"/>
+        <color indexed="34"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="35"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="35"/>
+      </left>
+      <right style="thin">
+        <color indexed="34"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5320,85 +5358,55 @@
         <color indexed="34"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="34"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="34"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="34"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="34"/>
+        <color indexed="35"/>
       </left>
       <right style="thin">
-        <color indexed="33"/>
+        <color indexed="34"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="34"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="33"/>
+        <color indexed="35"/>
       </left>
       <right style="thin">
-        <color indexed="33"/>
+        <color indexed="34"/>
       </right>
       <top style="thin">
-        <color indexed="33"/>
+        <color indexed="34"/>
       </top>
       <bottom style="thin">
-        <color indexed="33"/>
+        <color indexed="34"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="34"/>
+        <color indexed="35"/>
       </left>
       <right style="thin">
-        <color indexed="33"/>
+        <color indexed="34"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="33"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="34"/>
-      </left>
-      <right style="thin">
-        <color indexed="33"/>
-      </right>
-      <top style="thin">
-        <color indexed="33"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="33"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="34"/>
-      </left>
-      <right style="thin">
-        <color indexed="33"/>
-      </right>
-      <top style="thin">
-        <color indexed="33"/>
       </top>
       <bottom style="thin">
         <color indexed="18"/>
@@ -5407,16 +5415,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="34"/>
+        <color indexed="35"/>
       </left>
       <right style="thin">
-        <color indexed="33"/>
+        <color indexed="34"/>
       </right>
       <top style="thin">
         <color indexed="18"/>
       </top>
       <bottom style="thin">
-        <color indexed="33"/>
+        <color indexed="34"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5426,7 +5434,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="267">
+  <cellXfs count="268">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -6048,15 +6056,15 @@
     <xf numFmtId="49" fontId="0" fillId="16" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="11" fillId="16" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -6077,6 +6085,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="7" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="60" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
@@ -6267,6 +6278,7 @@
       <rgbColor rgb="ffb6ceff"/>
       <rgbColor rgb="ffffe9b7"/>
       <rgbColor rgb="ff222222"/>
+      <rgbColor rgb="ffce9178"/>
       <rgbColor rgb="ffdbdbdb"/>
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
@@ -7565,7 +7577,7 @@
     </row>
     <row r="23">
       <c r="B23" t="s" s="3">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -7576,7 +7588,7 @@
         <v>5</v>
       </c>
       <c r="D24" t="s" s="5">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -11949,7 +11961,9 @@
       <c r="H2" t="s" s="206">
         <v>326</v>
       </c>
-      <c r="I2" s="207"/>
+      <c r="I2" s="207">
+        <v>26</v>
+      </c>
       <c r="J2" t="s" s="205">
         <v>327</v>
       </c>
@@ -11962,7 +11976,7 @@
       <c r="M2" t="s" s="204">
         <v>330</v>
       </c>
-      <c r="N2" s="208">
+      <c r="N2" s="207">
         <v>1</v>
       </c>
       <c r="O2" t="s" s="204">
@@ -11980,7 +11994,7 @@
       <c r="D3" t="s" s="203">
         <v>333</v>
       </c>
-      <c r="E3" s="209"/>
+      <c r="E3" s="208"/>
       <c r="F3" t="s" s="203">
         <v>334</v>
       </c>
@@ -11990,7 +12004,9 @@
       <c r="H3" t="s" s="204">
         <v>44</v>
       </c>
-      <c r="I3" s="207"/>
+      <c r="I3" s="207">
+        <v>27</v>
+      </c>
       <c r="J3" t="s" s="204">
         <v>336</v>
       </c>
@@ -12003,8 +12019,8 @@
       <c r="M3" t="s" s="204">
         <v>339</v>
       </c>
-      <c r="N3" s="207"/>
-      <c r="O3" s="208">
+      <c r="N3" s="209"/>
+      <c r="O3" s="207">
         <v>4</v>
       </c>
     </row>
@@ -12019,7 +12035,7 @@
       <c r="D4" t="s" s="203">
         <v>341</v>
       </c>
-      <c r="E4" s="209"/>
+      <c r="E4" s="208"/>
       <c r="F4" t="s" s="210">
         <v>342</v>
       </c>
@@ -12029,7 +12045,7 @@
       <c r="H4" t="s" s="204">
         <v>44</v>
       </c>
-      <c r="I4" s="207"/>
+      <c r="I4" s="209"/>
       <c r="J4" t="s" s="204">
         <v>336</v>
       </c>
@@ -12042,8 +12058,8 @@
       <c r="M4" t="s" s="204">
         <v>346</v>
       </c>
-      <c r="N4" s="207"/>
-      <c r="O4" s="208">
+      <c r="N4" s="209"/>
+      <c r="O4" s="207">
         <v>5</v>
       </c>
     </row>
@@ -12054,11 +12070,11 @@
       <c r="B5" t="s" s="204">
         <v>347</v>
       </c>
-      <c r="C5" s="207"/>
+      <c r="C5" s="209"/>
       <c r="D5" t="s" s="204">
         <v>348</v>
       </c>
-      <c r="E5" s="207"/>
+      <c r="E5" s="209"/>
       <c r="F5" t="s" s="205">
         <v>334</v>
       </c>
@@ -12068,7 +12084,7 @@
       <c r="H5" t="s" s="204">
         <v>44</v>
       </c>
-      <c r="I5" s="207"/>
+      <c r="I5" s="209"/>
       <c r="J5" t="s" s="204">
         <v>336</v>
       </c>
@@ -12081,8 +12097,8 @@
       <c r="M5" t="s" s="204">
         <v>351</v>
       </c>
-      <c r="N5" s="207"/>
-      <c r="O5" s="208">
+      <c r="N5" s="209"/>
+      <c r="O5" s="207">
         <v>6</v>
       </c>
     </row>
@@ -12108,8 +12124,8 @@
       <c r="G6" t="s" s="205">
         <v>357</v>
       </c>
-      <c r="H6" s="207"/>
-      <c r="I6" s="207"/>
+      <c r="H6" s="209"/>
+      <c r="I6" s="209"/>
       <c r="J6" t="s" s="204">
         <v>358</v>
       </c>
@@ -12122,8 +12138,8 @@
       <c r="M6" t="s" s="204">
         <v>361</v>
       </c>
-      <c r="N6" s="207"/>
-      <c r="O6" s="208">
+      <c r="N6" s="209"/>
+      <c r="O6" s="207">
         <v>7</v>
       </c>
     </row>
@@ -12140,15 +12156,15 @@
       <c r="D7" t="s" s="204">
         <v>364</v>
       </c>
-      <c r="E7" s="207"/>
+      <c r="E7" s="209"/>
       <c r="F7" t="s" s="205">
         <v>365</v>
       </c>
       <c r="G7" t="s" s="205">
         <v>366</v>
       </c>
-      <c r="H7" s="207"/>
-      <c r="I7" s="207"/>
+      <c r="H7" s="209"/>
+      <c r="I7" s="209"/>
       <c r="J7" t="s" s="204">
         <v>358</v>
       </c>
@@ -12161,10 +12177,10 @@
       <c r="M7" t="s" s="204">
         <v>369</v>
       </c>
-      <c r="N7" s="208">
+      <c r="N7" s="207">
         <v>0</v>
       </c>
-      <c r="O7" s="208">
+      <c r="O7" s="207">
         <v>8</v>
       </c>
     </row>
@@ -12638,164 +12654,164 @@
       <c r="C1" t="s" s="28">
         <v>78</v>
       </c>
-      <c r="D1" t="s" s="28">
-        <v>316</v>
+      <c r="D1" t="s" s="217">
+        <v>401</v>
       </c>
       <c r="E1" t="s" s="28">
         <v>314</v>
       </c>
-      <c r="F1" s="217"/>
+      <c r="F1" s="218"/>
     </row>
     <row r="2" ht="50.25" customHeight="1">
       <c r="A2" s="132">
         <v>1</v>
       </c>
-      <c r="B2" s="218">
+      <c r="B2" s="219">
         <v>0</v>
       </c>
-      <c r="C2" t="s" s="219">
-        <v>401</v>
-      </c>
-      <c r="D2" t="s" s="220">
+      <c r="C2" t="s" s="220">
         <v>402</v>
       </c>
-      <c r="E2" t="s" s="220">
+      <c r="D2" t="s" s="221">
         <v>403</v>
       </c>
-      <c r="F2" s="221"/>
+      <c r="E2" t="s" s="221">
+        <v>404</v>
+      </c>
+      <c r="F2" s="222"/>
     </row>
     <row r="3" ht="16.35" customHeight="1">
       <c r="A3" s="132">
         <v>1</v>
       </c>
-      <c r="B3" s="222">
+      <c r="B3" s="223">
         <v>1</v>
       </c>
-      <c r="C3" t="s" s="223">
-        <v>404</v>
+      <c r="C3" t="s" s="224">
+        <v>405</v>
       </c>
       <c r="D3" t="s" s="184">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E3" t="s" s="184">
-        <v>405</v>
-      </c>
-      <c r="F3" s="221"/>
+        <v>406</v>
+      </c>
+      <c r="F3" s="222"/>
     </row>
     <row r="4" ht="26.05" customHeight="1">
       <c r="A4" s="132">
         <v>1</v>
       </c>
-      <c r="B4" s="222">
+      <c r="B4" s="223">
         <v>2</v>
       </c>
-      <c r="C4" t="s" s="223">
-        <v>406</v>
+      <c r="C4" t="s" s="224">
+        <v>407</v>
       </c>
       <c r="D4" t="s" s="184">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E4" t="s" s="184">
-        <v>408</v>
-      </c>
-      <c r="F4" s="221"/>
+        <v>409</v>
+      </c>
+      <c r="F4" s="222"/>
     </row>
     <row r="5" ht="26.05" customHeight="1">
       <c r="A5" s="132">
         <v>1</v>
       </c>
-      <c r="B5" s="222">
+      <c r="B5" s="223">
         <v>3</v>
       </c>
-      <c r="C5" t="s" s="224">
+      <c r="C5" t="s" s="225">
         <v>95</v>
       </c>
-      <c r="D5" t="s" s="225">
-        <v>407</v>
-      </c>
-      <c r="E5" t="s" s="225">
-        <v>409</v>
-      </c>
-      <c r="F5" s="221"/>
+      <c r="D5" t="s" s="226">
+        <v>408</v>
+      </c>
+      <c r="E5" t="s" s="226">
+        <v>410</v>
+      </c>
+      <c r="F5" s="222"/>
     </row>
     <row r="6" ht="51" customHeight="1">
       <c r="A6" s="132">
         <v>0</v>
       </c>
-      <c r="B6" s="222">
+      <c r="B6" s="223">
         <v>4</v>
       </c>
-      <c r="C6" t="s" s="219">
-        <v>401</v>
-      </c>
-      <c r="D6" t="s" s="220">
+      <c r="C6" t="s" s="220">
         <v>402</v>
       </c>
-      <c r="E6" t="s" s="220">
+      <c r="D6" t="s" s="221">
         <v>403</v>
       </c>
-      <c r="F6" s="221"/>
+      <c r="E6" t="s" s="221">
+        <v>404</v>
+      </c>
+      <c r="F6" s="222"/>
     </row>
     <row r="7" ht="14.7" customHeight="1">
       <c r="A7" s="132">
         <v>0</v>
       </c>
-      <c r="B7" s="222">
+      <c r="B7" s="223">
         <v>5</v>
       </c>
-      <c r="C7" t="s" s="223">
-        <v>404</v>
+      <c r="C7" t="s" s="224">
+        <v>405</v>
       </c>
       <c r="D7" t="s" s="184">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E7" t="s" s="184">
-        <v>405</v>
-      </c>
-      <c r="F7" s="221"/>
+        <v>406</v>
+      </c>
+      <c r="F7" s="222"/>
     </row>
     <row r="8" ht="14.7" customHeight="1">
       <c r="A8" s="132">
         <v>0</v>
       </c>
-      <c r="B8" s="222">
+      <c r="B8" s="223">
         <v>6</v>
       </c>
-      <c r="C8" t="s" s="223">
-        <v>406</v>
+      <c r="C8" t="s" s="224">
+        <v>407</v>
       </c>
       <c r="D8" t="s" s="184">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E8" t="s" s="184">
-        <v>408</v>
-      </c>
-      <c r="F8" s="221"/>
+        <v>409</v>
+      </c>
+      <c r="F8" s="222"/>
     </row>
     <row r="9" ht="14.7" customHeight="1">
       <c r="A9" s="132">
         <v>0</v>
       </c>
-      <c r="B9" s="222">
+      <c r="B9" s="223">
         <v>7</v>
       </c>
-      <c r="C9" t="s" s="223">
+      <c r="C9" t="s" s="224">
         <v>95</v>
       </c>
       <c r="D9" t="s" s="184">
-        <v>407</v>
-      </c>
-      <c r="E9" t="s" s="225">
-        <v>409</v>
-      </c>
-      <c r="F9" s="221"/>
+        <v>408</v>
+      </c>
+      <c r="E9" t="s" s="226">
+        <v>410</v>
+      </c>
+      <c r="F9" s="222"/>
     </row>
     <row r="10" ht="14.7" customHeight="1">
       <c r="A10" s="50"/>
-      <c r="B10" s="226"/>
-      <c r="C10" s="227"/>
-      <c r="D10" s="227"/>
-      <c r="E10" s="228"/>
+      <c r="B10" s="227"/>
+      <c r="C10" s="228"/>
+      <c r="D10" s="228"/>
+      <c r="E10" s="229"/>
       <c r="F10" s="21"/>
     </row>
   </sheetData>
@@ -12820,1206 +12836,1206 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="229" customWidth="1"/>
-    <col min="2" max="2" width="90.4688" style="229" customWidth="1"/>
-    <col min="3" max="3" width="45.7891" style="229" customWidth="1"/>
-    <col min="4" max="256" width="16.3516" style="229" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="230" customWidth="1"/>
+    <col min="2" max="2" width="90.4688" style="230" customWidth="1"/>
+    <col min="3" max="3" width="45.7891" style="230" customWidth="1"/>
+    <col min="4" max="256" width="16.3516" style="230" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.35" customHeight="1">
-      <c r="A1" t="s" s="230">
+      <c r="A1" t="s" s="231">
         <v>25</v>
       </c>
-      <c r="B1" t="s" s="231">
-        <v>411</v>
-      </c>
-      <c r="C1" t="s" s="230">
+      <c r="B1" t="s" s="232">
         <v>412</v>
       </c>
+      <c r="C1" t="s" s="231">
+        <v>413</v>
+      </c>
     </row>
     <row r="2" ht="14.7" customHeight="1">
-      <c r="A2" s="232">
+      <c r="A2" s="233">
         <v>0</v>
       </c>
-      <c r="B2" t="s" s="233">
-        <v>413</v>
-      </c>
-      <c r="C2" s="234"/>
+      <c r="B2" t="s" s="234">
+        <v>414</v>
+      </c>
+      <c r="C2" s="235"/>
     </row>
     <row r="3" ht="14.7" customHeight="1">
-      <c r="A3" s="235">
+      <c r="A3" s="236">
         <v>1</v>
       </c>
-      <c r="B3" t="s" s="233">
-        <v>414</v>
-      </c>
-      <c r="C3" s="236"/>
+      <c r="B3" t="s" s="234">
+        <v>415</v>
+      </c>
+      <c r="C3" s="237"/>
     </row>
     <row r="4" ht="14.7" customHeight="1">
-      <c r="A4" s="237">
+      <c r="A4" s="238">
         <v>2</v>
       </c>
-      <c r="B4" t="s" s="238">
-        <v>415</v>
-      </c>
-      <c r="C4" s="236"/>
+      <c r="B4" t="s" s="239">
+        <v>416</v>
+      </c>
+      <c r="C4" s="237"/>
     </row>
     <row r="5" ht="14.35" customHeight="1">
-      <c r="A5" s="239">
+      <c r="A5" s="240">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="240">
-        <v>416</v>
-      </c>
-      <c r="C5" s="236"/>
+      <c r="B5" t="s" s="241">
+        <v>417</v>
+      </c>
+      <c r="C5" s="237"/>
     </row>
     <row r="6" ht="14.05" customHeight="1">
-      <c r="A6" s="239">
+      <c r="A6" s="240">
         <v>4</v>
       </c>
-      <c r="B6" t="s" s="241">
-        <v>417</v>
-      </c>
-      <c r="C6" s="236"/>
+      <c r="B6" t="s" s="242">
+        <v>418</v>
+      </c>
+      <c r="C6" s="237"/>
     </row>
     <row r="7" ht="14.05" customHeight="1">
-      <c r="A7" s="239">
+      <c r="A7" s="240">
         <v>5</v>
       </c>
-      <c r="B7" t="s" s="241">
-        <v>418</v>
-      </c>
-      <c r="C7" s="236"/>
+      <c r="B7" t="s" s="242">
+        <v>419</v>
+      </c>
+      <c r="C7" s="237"/>
     </row>
     <row r="8" ht="14.05" customHeight="1">
-      <c r="A8" s="239">
+      <c r="A8" s="240">
         <v>6</v>
       </c>
-      <c r="B8" t="s" s="241">
-        <v>419</v>
-      </c>
-      <c r="C8" s="236"/>
+      <c r="B8" t="s" s="242">
+        <v>420</v>
+      </c>
+      <c r="C8" s="237"/>
     </row>
     <row r="9" ht="14.05" customHeight="1">
-      <c r="A9" s="239">
+      <c r="A9" s="240">
         <v>7</v>
       </c>
-      <c r="B9" t="s" s="241">
+      <c r="B9" t="s" s="242">
+        <v>421</v>
+      </c>
+      <c r="C9" s="237"/>
+    </row>
+    <row r="10" ht="14.35" customHeight="1">
+      <c r="A10" s="240">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s" s="243">
+        <v>422</v>
+      </c>
+      <c r="C10" s="244"/>
+    </row>
+    <row r="11" ht="14.7" customHeight="1">
+      <c r="A11" s="236">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s" s="245">
+        <v>423</v>
+      </c>
+      <c r="C11" s="244"/>
+    </row>
+    <row r="12" ht="14.7" customHeight="1">
+      <c r="A12" s="236">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s" s="246">
+        <v>424</v>
+      </c>
+      <c r="C12" s="244"/>
+    </row>
+    <row r="13" ht="15.7" customHeight="1">
+      <c r="A13" s="238">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s" s="247">
+        <v>425</v>
+      </c>
+      <c r="C13" s="237"/>
+    </row>
+    <row r="14" ht="15.7" customHeight="1">
+      <c r="A14" s="238">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s" s="247">
+        <v>426</v>
+      </c>
+      <c r="C14" s="237"/>
+    </row>
+    <row r="15" ht="14.7" customHeight="1">
+      <c r="A15" s="238">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s" s="247">
+        <v>427</v>
+      </c>
+      <c r="C15" s="237"/>
+    </row>
+    <row r="16" ht="15.7" customHeight="1">
+      <c r="A16" s="238">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s" s="247">
+        <v>428</v>
+      </c>
+      <c r="C16" s="237"/>
+    </row>
+    <row r="17" ht="15.7" customHeight="1">
+      <c r="A17" s="238">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s" s="247">
+        <v>429</v>
+      </c>
+      <c r="C17" s="237"/>
+    </row>
+    <row r="18" ht="15.7" customHeight="1">
+      <c r="A18" s="238">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s" s="247">
+        <v>430</v>
+      </c>
+      <c r="C18" s="237"/>
+    </row>
+    <row r="19" ht="15.7" customHeight="1">
+      <c r="A19" s="238">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s" s="247">
+        <v>431</v>
+      </c>
+      <c r="C19" s="237"/>
+    </row>
+    <row r="20" ht="15.7" customHeight="1">
+      <c r="A20" s="238">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s" s="247">
+        <v>432</v>
+      </c>
+      <c r="C20" s="237"/>
+    </row>
+    <row r="21" ht="15.7" customHeight="1">
+      <c r="A21" s="238">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s" s="247">
+        <v>433</v>
+      </c>
+      <c r="C21" s="237"/>
+    </row>
+    <row r="22" ht="15.7" customHeight="1">
+      <c r="A22" s="238">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s" s="247">
+        <v>434</v>
+      </c>
+      <c r="C22" s="237"/>
+    </row>
+    <row r="23" ht="15.7" customHeight="1">
+      <c r="A23" s="238">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s" s="247">
+        <v>434</v>
+      </c>
+      <c r="C23" s="237"/>
+    </row>
+    <row r="24" ht="14.7" customHeight="1">
+      <c r="A24" s="238">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s" s="247">
+        <v>435</v>
+      </c>
+      <c r="C24" s="237"/>
+    </row>
+    <row r="25" ht="14.7" customHeight="1">
+      <c r="A25" s="238">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s" s="247">
+        <v>436</v>
+      </c>
+      <c r="C25" s="237"/>
+    </row>
+    <row r="26" ht="14.7" customHeight="1">
+      <c r="A26" s="238">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s" s="247">
+        <v>437</v>
+      </c>
+      <c r="C26" s="237"/>
+    </row>
+    <row r="27" ht="14.7" customHeight="1">
+      <c r="A27" s="240">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s" s="248">
         <v>420</v>
       </c>
-      <c r="C9" s="236"/>
-    </row>
-    <row r="10" ht="14.35" customHeight="1">
-      <c r="A10" s="239">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s" s="242">
-        <v>421</v>
-      </c>
-      <c r="C10" s="243"/>
-    </row>
-    <row r="11" ht="14.7" customHeight="1">
-      <c r="A11" s="235">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s" s="244">
-        <v>422</v>
-      </c>
-      <c r="C11" s="243"/>
-    </row>
-    <row r="12" ht="14.7" customHeight="1">
-      <c r="A12" s="235">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s" s="245">
-        <v>423</v>
-      </c>
-      <c r="C12" s="243"/>
-    </row>
-    <row r="13" ht="15.7" customHeight="1">
-      <c r="A13" s="237">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s" s="246">
-        <v>424</v>
-      </c>
-      <c r="C13" s="236"/>
-    </row>
-    <row r="14" ht="15.7" customHeight="1">
-      <c r="A14" s="237">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s" s="246">
-        <v>425</v>
-      </c>
-      <c r="C14" s="236"/>
-    </row>
-    <row r="15" ht="14.7" customHeight="1">
-      <c r="A15" s="237">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s" s="246">
-        <v>426</v>
-      </c>
-      <c r="C15" s="236"/>
-    </row>
-    <row r="16" ht="15.7" customHeight="1">
-      <c r="A16" s="237">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s" s="246">
-        <v>427</v>
-      </c>
-      <c r="C16" s="236"/>
-    </row>
-    <row r="17" ht="15.7" customHeight="1">
-      <c r="A17" s="237">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s" s="246">
-        <v>428</v>
-      </c>
-      <c r="C17" s="236"/>
-    </row>
-    <row r="18" ht="15.7" customHeight="1">
-      <c r="A18" s="237">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s" s="246">
-        <v>429</v>
-      </c>
-      <c r="C18" s="236"/>
-    </row>
-    <row r="19" ht="15.7" customHeight="1">
-      <c r="A19" s="237">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s" s="246">
-        <v>430</v>
-      </c>
-      <c r="C19" s="236"/>
-    </row>
-    <row r="20" ht="15.7" customHeight="1">
-      <c r="A20" s="237">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s" s="246">
-        <v>431</v>
-      </c>
-      <c r="C20" s="236"/>
-    </row>
-    <row r="21" ht="15.7" customHeight="1">
-      <c r="A21" s="237">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s" s="246">
-        <v>432</v>
-      </c>
-      <c r="C21" s="236"/>
-    </row>
-    <row r="22" ht="15.7" customHeight="1">
-      <c r="A22" s="237">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s" s="246">
-        <v>433</v>
-      </c>
-      <c r="C22" s="236"/>
-    </row>
-    <row r="23" ht="15.7" customHeight="1">
-      <c r="A23" s="237">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s" s="246">
-        <v>433</v>
-      </c>
-      <c r="C23" s="236"/>
-    </row>
-    <row r="24" ht="14.7" customHeight="1">
-      <c r="A24" s="237">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s" s="246">
-        <v>434</v>
-      </c>
-      <c r="C24" s="236"/>
-    </row>
-    <row r="25" ht="14.7" customHeight="1">
-      <c r="A25" s="237">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s" s="246">
-        <v>435</v>
-      </c>
-      <c r="C25" s="236"/>
-    </row>
-    <row r="26" ht="14.7" customHeight="1">
-      <c r="A26" s="237">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s" s="246">
-        <v>436</v>
-      </c>
-      <c r="C26" s="236"/>
-    </row>
-    <row r="27" ht="14.7" customHeight="1">
-      <c r="A27" s="239">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s" s="247">
-        <v>419</v>
-      </c>
-      <c r="C27" s="236"/>
+      <c r="C27" s="237"/>
     </row>
     <row r="28" ht="14.7" customHeight="1">
-      <c r="A28" s="237">
+      <c r="A28" s="238">
         <v>26</v>
       </c>
-      <c r="B28" t="s" s="248">
+      <c r="B28" t="s" s="249">
         <v>373</v>
       </c>
-      <c r="C28" s="236"/>
+      <c r="C28" s="237"/>
     </row>
     <row r="29" ht="14.7" customHeight="1">
-      <c r="A29" s="237">
+      <c r="A29" s="238">
         <v>27</v>
       </c>
-      <c r="B29" t="s" s="249">
+      <c r="B29" t="s" s="250">
         <v>379</v>
       </c>
-      <c r="C29" s="236"/>
+      <c r="C29" s="237"/>
     </row>
     <row r="30" ht="16" customHeight="1">
-      <c r="A30" s="237">
+      <c r="A30" s="238">
         <v>28</v>
       </c>
-      <c r="B30" t="s" s="250">
-        <v>437</v>
-      </c>
-      <c r="C30" s="236"/>
+      <c r="B30" t="s" s="251">
+        <v>438</v>
+      </c>
+      <c r="C30" s="237"/>
     </row>
     <row r="31" ht="16" customHeight="1">
-      <c r="A31" s="237">
+      <c r="A31" s="238">
         <v>29</v>
       </c>
-      <c r="B31" t="s" s="250">
-        <v>438</v>
-      </c>
-      <c r="C31" s="236"/>
+      <c r="B31" t="s" s="251">
+        <v>439</v>
+      </c>
+      <c r="C31" s="237"/>
     </row>
     <row r="32" ht="16" customHeight="1">
-      <c r="A32" s="237">
+      <c r="A32" s="238">
         <v>30</v>
       </c>
-      <c r="B32" t="s" s="251">
-        <v>439</v>
-      </c>
-      <c r="C32" s="252"/>
+      <c r="B32" t="s" s="252">
+        <v>440</v>
+      </c>
+      <c r="C32" s="253"/>
     </row>
     <row r="33" ht="16" customHeight="1">
-      <c r="A33" s="237">
+      <c r="A33" s="238">
         <v>31</v>
       </c>
-      <c r="B33" t="s" s="251">
-        <v>440</v>
-      </c>
-      <c r="C33" s="252"/>
+      <c r="B33" t="s" s="252">
+        <v>441</v>
+      </c>
+      <c r="C33" s="253"/>
     </row>
     <row r="34" ht="16" customHeight="1">
-      <c r="A34" s="237">
+      <c r="A34" s="238">
         <v>32</v>
       </c>
-      <c r="B34" t="s" s="250">
-        <v>441</v>
-      </c>
-      <c r="C34" s="252"/>
+      <c r="B34" t="s" s="251">
+        <v>442</v>
+      </c>
+      <c r="C34" s="253"/>
     </row>
     <row r="35" ht="16" customHeight="1">
-      <c r="A35" s="237">
+      <c r="A35" s="238">
         <v>33</v>
       </c>
-      <c r="B35" t="s" s="250">
-        <v>442</v>
-      </c>
-      <c r="C35" s="252"/>
+      <c r="B35" t="s" s="251">
+        <v>443</v>
+      </c>
+      <c r="C35" s="253"/>
     </row>
     <row r="36" ht="16" customHeight="1">
-      <c r="A36" s="239">
+      <c r="A36" s="240">
         <v>34</v>
       </c>
-      <c r="B36" t="s" s="253">
-        <v>443</v>
-      </c>
-      <c r="C36" s="254"/>
+      <c r="B36" t="s" s="254">
+        <v>444</v>
+      </c>
+      <c r="C36" s="255"/>
     </row>
     <row r="37" ht="16" customHeight="1">
-      <c r="A37" s="237">
+      <c r="A37" s="238">
         <v>35</v>
       </c>
-      <c r="B37" t="s" s="250">
-        <v>444</v>
-      </c>
-      <c r="C37" s="252"/>
+      <c r="B37" t="s" s="251">
+        <v>445</v>
+      </c>
+      <c r="C37" s="253"/>
     </row>
     <row r="38" ht="25" customHeight="1">
-      <c r="A38" s="239">
+      <c r="A38" s="240">
         <v>36</v>
       </c>
-      <c r="B38" t="s" s="253">
-        <v>445</v>
-      </c>
-      <c r="C38" s="254"/>
+      <c r="B38" t="s" s="254">
+        <v>446</v>
+      </c>
+      <c r="C38" s="255"/>
     </row>
     <row r="39" ht="16" customHeight="1">
-      <c r="A39" s="237">
+      <c r="A39" s="238">
         <v>37</v>
       </c>
-      <c r="B39" t="s" s="250">
-        <v>446</v>
-      </c>
-      <c r="C39" s="252"/>
+      <c r="B39" t="s" s="251">
+        <v>447</v>
+      </c>
+      <c r="C39" s="253"/>
     </row>
     <row r="40" ht="15.65" customHeight="1">
-      <c r="A40" s="239">
+      <c r="A40" s="240">
         <v>38</v>
       </c>
-      <c r="B40" t="s" s="255">
-        <v>447</v>
-      </c>
-      <c r="C40" s="254"/>
+      <c r="B40" t="s" s="256">
+        <v>448</v>
+      </c>
+      <c r="C40" s="255"/>
     </row>
     <row r="41" ht="15.35" customHeight="1">
-      <c r="A41" s="239">
+      <c r="A41" s="240">
         <v>39</v>
       </c>
-      <c r="B41" t="s" s="256">
-        <v>448</v>
-      </c>
-      <c r="C41" s="254"/>
+      <c r="B41" t="s" s="257">
+        <v>449</v>
+      </c>
+      <c r="C41" s="255"/>
     </row>
     <row r="42" ht="15.35" customHeight="1">
-      <c r="A42" s="239">
+      <c r="A42" s="240">
         <v>40</v>
       </c>
-      <c r="B42" t="s" s="256">
-        <v>449</v>
-      </c>
-      <c r="C42" s="254"/>
+      <c r="B42" t="s" s="257">
+        <v>450</v>
+      </c>
+      <c r="C42" s="255"/>
     </row>
     <row r="43" ht="15.35" customHeight="1">
-      <c r="A43" s="239">
+      <c r="A43" s="240">
         <v>41</v>
       </c>
-      <c r="B43" t="s" s="256">
-        <v>450</v>
-      </c>
-      <c r="C43" s="254"/>
+      <c r="B43" t="s" s="257">
+        <v>451</v>
+      </c>
+      <c r="C43" s="255"/>
     </row>
     <row r="44" ht="15.35" customHeight="1">
-      <c r="A44" s="239">
+      <c r="A44" s="240">
         <v>42</v>
       </c>
-      <c r="B44" t="s" s="256">
-        <v>451</v>
-      </c>
-      <c r="C44" s="254"/>
+      <c r="B44" t="s" s="257">
+        <v>452</v>
+      </c>
+      <c r="C44" s="255"/>
     </row>
     <row r="45" ht="15.35" customHeight="1">
-      <c r="A45" s="239">
+      <c r="A45" s="240">
         <v>43</v>
       </c>
-      <c r="B45" t="s" s="256">
-        <v>452</v>
-      </c>
-      <c r="C45" s="254"/>
+      <c r="B45" t="s" s="257">
+        <v>453</v>
+      </c>
+      <c r="C45" s="255"/>
     </row>
     <row r="46" ht="15.35" customHeight="1">
-      <c r="A46" s="239">
+      <c r="A46" s="240">
         <v>44</v>
       </c>
-      <c r="B46" t="s" s="256">
-        <v>453</v>
-      </c>
-      <c r="C46" s="254"/>
+      <c r="B46" t="s" s="257">
+        <v>454</v>
+      </c>
+      <c r="C46" s="255"/>
     </row>
     <row r="47" ht="15.35" customHeight="1">
-      <c r="A47" s="239">
+      <c r="A47" s="240">
         <v>45</v>
       </c>
-      <c r="B47" t="s" s="256">
-        <v>454</v>
-      </c>
-      <c r="C47" s="254"/>
+      <c r="B47" t="s" s="257">
+        <v>455</v>
+      </c>
+      <c r="C47" s="255"/>
     </row>
     <row r="48" ht="15.35" customHeight="1">
-      <c r="A48" s="239">
+      <c r="A48" s="240">
         <v>46</v>
       </c>
-      <c r="B48" t="s" s="256">
-        <v>455</v>
-      </c>
-      <c r="C48" s="254"/>
+      <c r="B48" t="s" s="257">
+        <v>456</v>
+      </c>
+      <c r="C48" s="255"/>
     </row>
     <row r="49" ht="15.35" customHeight="1">
-      <c r="A49" s="239">
+      <c r="A49" s="240">
         <v>47</v>
       </c>
-      <c r="B49" t="s" s="256">
-        <v>456</v>
-      </c>
-      <c r="C49" s="254"/>
+      <c r="B49" t="s" s="257">
+        <v>457</v>
+      </c>
+      <c r="C49" s="255"/>
     </row>
     <row r="50" ht="15.35" customHeight="1">
-      <c r="A50" s="239">
+      <c r="A50" s="240">
         <v>48</v>
       </c>
-      <c r="B50" t="s" s="256">
-        <v>457</v>
-      </c>
-      <c r="C50" s="254"/>
+      <c r="B50" t="s" s="257">
+        <v>458</v>
+      </c>
+      <c r="C50" s="255"/>
     </row>
     <row r="51" ht="15.35" customHeight="1">
-      <c r="A51" s="239">
+      <c r="A51" s="240">
         <v>49</v>
       </c>
-      <c r="B51" t="s" s="256">
-        <v>458</v>
-      </c>
-      <c r="C51" s="254"/>
+      <c r="B51" t="s" s="257">
+        <v>459</v>
+      </c>
+      <c r="C51" s="255"/>
     </row>
     <row r="52" ht="15.35" customHeight="1">
-      <c r="A52" s="239">
+      <c r="A52" s="240">
         <v>50</v>
       </c>
-      <c r="B52" t="s" s="256">
-        <v>459</v>
-      </c>
-      <c r="C52" s="254"/>
+      <c r="B52" t="s" s="257">
+        <v>460</v>
+      </c>
+      <c r="C52" s="255"/>
     </row>
     <row r="53" ht="15.35" customHeight="1">
-      <c r="A53" s="239">
+      <c r="A53" s="240">
         <v>51</v>
       </c>
-      <c r="B53" t="s" s="256">
-        <v>460</v>
-      </c>
-      <c r="C53" s="254"/>
+      <c r="B53" t="s" s="257">
+        <v>461</v>
+      </c>
+      <c r="C53" s="255"/>
     </row>
     <row r="54" ht="15.35" customHeight="1">
-      <c r="A54" s="239">
+      <c r="A54" s="240">
         <v>52</v>
       </c>
-      <c r="B54" t="s" s="256">
-        <v>461</v>
-      </c>
-      <c r="C54" s="254"/>
+      <c r="B54" t="s" s="257">
+        <v>462</v>
+      </c>
+      <c r="C54" s="255"/>
     </row>
     <row r="55" ht="15.35" customHeight="1">
-      <c r="A55" s="239">
+      <c r="A55" s="240">
         <v>53</v>
       </c>
-      <c r="B55" t="s" s="256">
-        <v>462</v>
-      </c>
-      <c r="C55" s="254"/>
+      <c r="B55" t="s" s="257">
+        <v>463</v>
+      </c>
+      <c r="C55" s="255"/>
     </row>
     <row r="56" ht="15.35" customHeight="1">
-      <c r="A56" s="239">
+      <c r="A56" s="240">
         <v>54</v>
       </c>
-      <c r="B56" t="s" s="256">
-        <v>463</v>
-      </c>
-      <c r="C56" s="254"/>
+      <c r="B56" t="s" s="257">
+        <v>464</v>
+      </c>
+      <c r="C56" s="255"/>
     </row>
     <row r="57" ht="15.35" customHeight="1">
-      <c r="A57" s="239">
+      <c r="A57" s="240">
         <v>55</v>
       </c>
-      <c r="B57" t="s" s="256">
-        <v>464</v>
-      </c>
-      <c r="C57" s="254"/>
+      <c r="B57" t="s" s="257">
+        <v>465</v>
+      </c>
+      <c r="C57" s="255"/>
     </row>
     <row r="58" ht="15.35" customHeight="1">
-      <c r="A58" s="239">
+      <c r="A58" s="240">
         <v>56</v>
       </c>
-      <c r="B58" t="s" s="256">
-        <v>465</v>
-      </c>
-      <c r="C58" s="254"/>
+      <c r="B58" t="s" s="257">
+        <v>466</v>
+      </c>
+      <c r="C58" s="255"/>
     </row>
     <row r="59" ht="15.35" customHeight="1">
-      <c r="A59" s="239">
+      <c r="A59" s="240">
         <v>57</v>
       </c>
-      <c r="B59" t="s" s="256">
-        <v>466</v>
-      </c>
-      <c r="C59" s="254"/>
+      <c r="B59" t="s" s="257">
+        <v>467</v>
+      </c>
+      <c r="C59" s="255"/>
     </row>
     <row r="60" ht="15.35" customHeight="1">
-      <c r="A60" s="239">
+      <c r="A60" s="240">
         <v>58</v>
       </c>
-      <c r="B60" t="s" s="256">
-        <v>467</v>
-      </c>
-      <c r="C60" s="254"/>
+      <c r="B60" t="s" s="257">
+        <v>468</v>
+      </c>
+      <c r="C60" s="255"/>
     </row>
     <row r="61" ht="15.35" customHeight="1">
-      <c r="A61" s="239">
+      <c r="A61" s="240">
         <v>59</v>
       </c>
-      <c r="B61" t="s" s="256">
-        <v>468</v>
-      </c>
-      <c r="C61" s="254"/>
+      <c r="B61" t="s" s="257">
+        <v>469</v>
+      </c>
+      <c r="C61" s="255"/>
     </row>
     <row r="62" ht="15.35" customHeight="1">
-      <c r="A62" s="239">
+      <c r="A62" s="240">
         <v>60</v>
       </c>
-      <c r="B62" t="s" s="256">
-        <v>469</v>
-      </c>
-      <c r="C62" s="254"/>
+      <c r="B62" t="s" s="257">
+        <v>470</v>
+      </c>
+      <c r="C62" s="255"/>
     </row>
     <row r="63" ht="15.35" customHeight="1">
-      <c r="A63" s="239">
+      <c r="A63" s="240">
         <v>61</v>
       </c>
-      <c r="B63" t="s" s="256">
-        <v>470</v>
-      </c>
-      <c r="C63" s="254"/>
+      <c r="B63" t="s" s="257">
+        <v>471</v>
+      </c>
+      <c r="C63" s="255"/>
     </row>
     <row r="64" ht="15.35" customHeight="1">
-      <c r="A64" s="239">
+      <c r="A64" s="240">
         <v>62</v>
       </c>
-      <c r="B64" t="s" s="257">
-        <v>471</v>
-      </c>
-      <c r="C64" s="254"/>
+      <c r="B64" t="s" s="258">
+        <v>472</v>
+      </c>
+      <c r="C64" s="255"/>
     </row>
     <row r="65" ht="15.35" customHeight="1">
-      <c r="A65" s="239">
+      <c r="A65" s="240">
         <v>63</v>
       </c>
-      <c r="B65" t="s" s="257">
-        <v>472</v>
-      </c>
-      <c r="C65" s="254"/>
+      <c r="B65" t="s" s="258">
+        <v>473</v>
+      </c>
+      <c r="C65" s="255"/>
     </row>
     <row r="66" ht="15.35" customHeight="1">
-      <c r="A66" s="239">
+      <c r="A66" s="240">
         <v>64</v>
       </c>
-      <c r="B66" t="s" s="257">
-        <v>473</v>
-      </c>
-      <c r="C66" s="254"/>
+      <c r="B66" t="s" s="258">
+        <v>474</v>
+      </c>
+      <c r="C66" s="255"/>
     </row>
     <row r="67" ht="15.35" customHeight="1">
-      <c r="A67" s="239">
+      <c r="A67" s="240">
         <v>65</v>
       </c>
-      <c r="B67" t="s" s="257">
-        <v>474</v>
-      </c>
-      <c r="C67" s="254"/>
+      <c r="B67" t="s" s="258">
+        <v>475</v>
+      </c>
+      <c r="C67" s="255"/>
     </row>
     <row r="68" ht="15.35" customHeight="1">
-      <c r="A68" s="239">
+      <c r="A68" s="240">
         <v>66</v>
       </c>
-      <c r="B68" t="s" s="257">
-        <v>475</v>
-      </c>
-      <c r="C68" s="254"/>
+      <c r="B68" t="s" s="258">
+        <v>476</v>
+      </c>
+      <c r="C68" s="255"/>
     </row>
     <row r="69" ht="15.35" customHeight="1">
-      <c r="A69" s="239">
+      <c r="A69" s="240">
         <v>67</v>
       </c>
-      <c r="B69" t="s" s="257">
-        <v>476</v>
-      </c>
-      <c r="C69" s="254"/>
+      <c r="B69" t="s" s="258">
+        <v>477</v>
+      </c>
+      <c r="C69" s="255"/>
     </row>
     <row r="70" ht="15.35" customHeight="1">
-      <c r="A70" s="239">
+      <c r="A70" s="240">
         <v>68</v>
       </c>
-      <c r="B70" t="s" s="257">
-        <v>477</v>
-      </c>
-      <c r="C70" s="254"/>
+      <c r="B70" t="s" s="258">
+        <v>478</v>
+      </c>
+      <c r="C70" s="255"/>
     </row>
     <row r="71" ht="15.35" customHeight="1">
-      <c r="A71" s="239">
+      <c r="A71" s="240">
         <v>69</v>
       </c>
-      <c r="B71" t="s" s="257">
-        <v>478</v>
-      </c>
-      <c r="C71" s="254"/>
+      <c r="B71" t="s" s="258">
+        <v>479</v>
+      </c>
+      <c r="C71" s="255"/>
     </row>
     <row r="72" ht="15.35" customHeight="1">
-      <c r="A72" s="239">
+      <c r="A72" s="240">
         <v>70</v>
       </c>
-      <c r="B72" t="s" s="257">
-        <v>479</v>
-      </c>
-      <c r="C72" s="254"/>
+      <c r="B72" t="s" s="258">
+        <v>480</v>
+      </c>
+      <c r="C72" s="255"/>
     </row>
     <row r="73" ht="15.35" customHeight="1">
-      <c r="A73" s="239">
+      <c r="A73" s="240">
         <v>71</v>
       </c>
-      <c r="B73" t="s" s="257">
-        <v>480</v>
-      </c>
-      <c r="C73" s="254"/>
+      <c r="B73" t="s" s="258">
+        <v>481</v>
+      </c>
+      <c r="C73" s="255"/>
     </row>
     <row r="74" ht="15.35" customHeight="1">
-      <c r="A74" s="239">
+      <c r="A74" s="240">
         <v>72</v>
       </c>
-      <c r="B74" t="s" s="258">
-        <v>481</v>
-      </c>
-      <c r="C74" s="254"/>
+      <c r="B74" t="s" s="259">
+        <v>482</v>
+      </c>
+      <c r="C74" s="255"/>
     </row>
     <row r="75" ht="15.35" customHeight="1">
-      <c r="A75" s="239">
+      <c r="A75" s="240">
         <v>73</v>
       </c>
-      <c r="B75" t="s" s="258">
-        <v>482</v>
-      </c>
-      <c r="C75" s="254"/>
+      <c r="B75" t="s" s="259">
+        <v>483</v>
+      </c>
+      <c r="C75" s="255"/>
     </row>
     <row r="76" ht="15.35" customHeight="1">
-      <c r="A76" s="239">
+      <c r="A76" s="240">
         <v>74</v>
       </c>
-      <c r="B76" t="s" s="258">
-        <v>483</v>
-      </c>
-      <c r="C76" s="254"/>
+      <c r="B76" t="s" s="259">
+        <v>484</v>
+      </c>
+      <c r="C76" s="255"/>
     </row>
     <row r="77" ht="15.35" customHeight="1">
-      <c r="A77" s="239">
+      <c r="A77" s="240">
         <v>75</v>
       </c>
-      <c r="B77" t="s" s="258">
-        <v>484</v>
-      </c>
-      <c r="C77" s="254"/>
+      <c r="B77" t="s" s="259">
+        <v>485</v>
+      </c>
+      <c r="C77" s="255"/>
     </row>
     <row r="78" ht="15.35" customHeight="1">
-      <c r="A78" s="239">
+      <c r="A78" s="240">
         <v>76</v>
       </c>
-      <c r="B78" t="s" s="258">
-        <v>485</v>
-      </c>
-      <c r="C78" s="254"/>
+      <c r="B78" t="s" s="259">
+        <v>486</v>
+      </c>
+      <c r="C78" s="255"/>
     </row>
     <row r="79" ht="15.35" customHeight="1">
-      <c r="A79" s="239">
+      <c r="A79" s="240">
         <v>77</v>
       </c>
-      <c r="B79" t="s" s="258">
-        <v>486</v>
-      </c>
-      <c r="C79" s="254"/>
+      <c r="B79" t="s" s="259">
+        <v>487</v>
+      </c>
+      <c r="C79" s="255"/>
     </row>
     <row r="80" ht="15.35" customHeight="1">
-      <c r="A80" s="239">
+      <c r="A80" s="240">
         <v>78</v>
       </c>
-      <c r="B80" t="s" s="258">
-        <v>487</v>
-      </c>
-      <c r="C80" s="254"/>
+      <c r="B80" t="s" s="259">
+        <v>488</v>
+      </c>
+      <c r="C80" s="255"/>
     </row>
     <row r="81" ht="15.35" customHeight="1">
-      <c r="A81" s="239">
+      <c r="A81" s="240">
         <v>79</v>
       </c>
-      <c r="B81" t="s" s="258">
-        <v>488</v>
-      </c>
-      <c r="C81" s="254"/>
+      <c r="B81" t="s" s="259">
+        <v>489</v>
+      </c>
+      <c r="C81" s="255"/>
     </row>
     <row r="82" ht="15.35" customHeight="1">
-      <c r="A82" s="239">
+      <c r="A82" s="240">
         <v>80</v>
       </c>
-      <c r="B82" t="s" s="258">
-        <v>489</v>
-      </c>
-      <c r="C82" s="254"/>
+      <c r="B82" t="s" s="259">
+        <v>490</v>
+      </c>
+      <c r="C82" s="255"/>
     </row>
     <row r="83" ht="15.35" customHeight="1">
-      <c r="A83" s="239">
+      <c r="A83" s="240">
         <v>81</v>
       </c>
-      <c r="B83" t="s" s="258">
-        <v>490</v>
-      </c>
-      <c r="C83" s="254"/>
+      <c r="B83" t="s" s="259">
+        <v>491</v>
+      </c>
+      <c r="C83" s="255"/>
     </row>
     <row r="84" ht="15.35" customHeight="1">
-      <c r="A84" s="239">
+      <c r="A84" s="240">
         <v>82</v>
       </c>
-      <c r="B84" t="s" s="259">
-        <v>491</v>
-      </c>
-      <c r="C84" s="254"/>
+      <c r="B84" t="s" s="260">
+        <v>492</v>
+      </c>
+      <c r="C84" s="255"/>
     </row>
     <row r="85" ht="15.35" customHeight="1">
-      <c r="A85" s="239">
+      <c r="A85" s="240">
         <v>83</v>
       </c>
-      <c r="B85" t="s" s="259">
-        <v>492</v>
-      </c>
-      <c r="C85" s="254"/>
+      <c r="B85" t="s" s="260">
+        <v>493</v>
+      </c>
+      <c r="C85" s="255"/>
     </row>
     <row r="86" ht="15.35" customHeight="1">
-      <c r="A86" s="239">
+      <c r="A86" s="240">
         <v>84</v>
       </c>
-      <c r="B86" t="s" s="259">
-        <v>493</v>
-      </c>
-      <c r="C86" s="254"/>
+      <c r="B86" t="s" s="260">
+        <v>494</v>
+      </c>
+      <c r="C86" s="255"/>
     </row>
     <row r="87" ht="15.35" customHeight="1">
-      <c r="A87" s="239">
+      <c r="A87" s="240">
         <v>85</v>
       </c>
-      <c r="B87" t="s" s="259">
-        <v>494</v>
-      </c>
-      <c r="C87" s="254"/>
+      <c r="B87" t="s" s="260">
+        <v>495</v>
+      </c>
+      <c r="C87" s="255"/>
     </row>
     <row r="88" ht="15.35" customHeight="1">
-      <c r="A88" s="239">
+      <c r="A88" s="240">
         <v>86</v>
       </c>
-      <c r="B88" t="s" s="259">
-        <v>495</v>
-      </c>
-      <c r="C88" s="254"/>
+      <c r="B88" t="s" s="260">
+        <v>496</v>
+      </c>
+      <c r="C88" s="255"/>
     </row>
     <row r="89" ht="15.35" customHeight="1">
-      <c r="A89" s="239">
+      <c r="A89" s="240">
         <v>87</v>
       </c>
-      <c r="B89" t="s" s="259">
-        <v>496</v>
-      </c>
-      <c r="C89" s="254"/>
+      <c r="B89" t="s" s="260">
+        <v>497</v>
+      </c>
+      <c r="C89" s="255"/>
     </row>
     <row r="90" ht="15.35" customHeight="1">
-      <c r="A90" s="239">
+      <c r="A90" s="240">
         <v>88</v>
       </c>
-      <c r="B90" t="s" s="259">
-        <v>497</v>
-      </c>
-      <c r="C90" s="254"/>
+      <c r="B90" t="s" s="260">
+        <v>498</v>
+      </c>
+      <c r="C90" s="255"/>
     </row>
     <row r="91" ht="15.35" customHeight="1">
-      <c r="A91" s="239">
+      <c r="A91" s="240">
         <v>89</v>
       </c>
-      <c r="B91" t="s" s="259">
-        <v>498</v>
-      </c>
-      <c r="C91" s="254"/>
+      <c r="B91" t="s" s="260">
+        <v>499</v>
+      </c>
+      <c r="C91" s="255"/>
     </row>
     <row r="92" ht="15.35" customHeight="1">
-      <c r="A92" s="239">
+      <c r="A92" s="240">
         <v>90</v>
       </c>
-      <c r="B92" t="s" s="260">
-        <v>499</v>
-      </c>
-      <c r="C92" s="254"/>
+      <c r="B92" t="s" s="261">
+        <v>500</v>
+      </c>
+      <c r="C92" s="255"/>
     </row>
     <row r="93" ht="15.35" customHeight="1">
-      <c r="A93" s="239">
+      <c r="A93" s="240">
         <v>91</v>
       </c>
-      <c r="B93" t="s" s="260">
-        <v>500</v>
-      </c>
-      <c r="C93" s="254"/>
+      <c r="B93" t="s" s="261">
+        <v>501</v>
+      </c>
+      <c r="C93" s="255"/>
     </row>
     <row r="94" ht="15.35" customHeight="1">
-      <c r="A94" s="239">
+      <c r="A94" s="240">
         <v>92</v>
       </c>
-      <c r="B94" t="s" s="260">
-        <v>501</v>
-      </c>
-      <c r="C94" s="254"/>
+      <c r="B94" t="s" s="261">
+        <v>502</v>
+      </c>
+      <c r="C94" s="255"/>
     </row>
     <row r="95" ht="15.35" customHeight="1">
-      <c r="A95" s="239">
+      <c r="A95" s="240">
         <v>93</v>
       </c>
-      <c r="B95" t="s" s="260">
-        <v>502</v>
-      </c>
-      <c r="C95" s="254"/>
+      <c r="B95" t="s" s="261">
+        <v>503</v>
+      </c>
+      <c r="C95" s="255"/>
     </row>
     <row r="96" ht="15.35" customHeight="1">
-      <c r="A96" s="239">
+      <c r="A96" s="240">
         <v>94</v>
       </c>
-      <c r="B96" t="s" s="260">
-        <v>503</v>
-      </c>
-      <c r="C96" s="254"/>
+      <c r="B96" t="s" s="261">
+        <v>504</v>
+      </c>
+      <c r="C96" s="255"/>
     </row>
     <row r="97" ht="15.35" customHeight="1">
-      <c r="A97" s="239">
+      <c r="A97" s="240">
         <v>95</v>
       </c>
-      <c r="B97" t="s" s="260">
-        <v>504</v>
-      </c>
-      <c r="C97" s="254"/>
+      <c r="B97" t="s" s="261">
+        <v>505</v>
+      </c>
+      <c r="C97" s="255"/>
     </row>
     <row r="98" ht="15.35" customHeight="1">
-      <c r="A98" s="239">
+      <c r="A98" s="240">
         <v>96</v>
       </c>
-      <c r="B98" t="s" s="260">
-        <v>505</v>
-      </c>
-      <c r="C98" s="254"/>
+      <c r="B98" t="s" s="261">
+        <v>506</v>
+      </c>
+      <c r="C98" s="255"/>
     </row>
     <row r="99" ht="15.35" customHeight="1">
-      <c r="A99" s="239">
+      <c r="A99" s="240">
         <v>97</v>
       </c>
-      <c r="B99" t="s" s="260">
-        <v>506</v>
-      </c>
-      <c r="C99" s="254"/>
+      <c r="B99" t="s" s="261">
+        <v>507</v>
+      </c>
+      <c r="C99" s="255"/>
     </row>
     <row r="100" ht="15.35" customHeight="1">
-      <c r="A100" s="239">
+      <c r="A100" s="240">
         <v>98</v>
       </c>
-      <c r="B100" t="s" s="260">
-        <v>507</v>
-      </c>
-      <c r="C100" s="254"/>
+      <c r="B100" t="s" s="261">
+        <v>508</v>
+      </c>
+      <c r="C100" s="255"/>
     </row>
     <row r="101" ht="15.35" customHeight="1">
-      <c r="A101" s="239">
+      <c r="A101" s="240">
         <v>99</v>
       </c>
-      <c r="B101" t="s" s="260">
-        <v>508</v>
-      </c>
-      <c r="C101" s="254"/>
+      <c r="B101" t="s" s="261">
+        <v>509</v>
+      </c>
+      <c r="C101" s="255"/>
     </row>
     <row r="102" ht="15.35" customHeight="1">
-      <c r="A102" s="239">
+      <c r="A102" s="240">
         <v>100</v>
       </c>
-      <c r="B102" t="s" s="260">
-        <v>509</v>
-      </c>
-      <c r="C102" s="254"/>
+      <c r="B102" t="s" s="261">
+        <v>510</v>
+      </c>
+      <c r="C102" s="255"/>
     </row>
     <row r="103" ht="15.35" customHeight="1">
-      <c r="A103" s="239">
+      <c r="A103" s="240">
         <v>101</v>
       </c>
-      <c r="B103" t="s" s="260">
-        <v>510</v>
-      </c>
-      <c r="C103" s="254"/>
+      <c r="B103" t="s" s="261">
+        <v>511</v>
+      </c>
+      <c r="C103" s="255"/>
     </row>
     <row r="104" ht="15.35" customHeight="1">
-      <c r="A104" s="239">
+      <c r="A104" s="240">
         <v>102</v>
       </c>
-      <c r="B104" t="s" s="260">
-        <v>511</v>
-      </c>
-      <c r="C104" s="254"/>
+      <c r="B104" t="s" s="261">
+        <v>512</v>
+      </c>
+      <c r="C104" s="255"/>
     </row>
     <row r="105" ht="15.35" customHeight="1">
-      <c r="A105" s="239">
+      <c r="A105" s="240">
         <v>103</v>
       </c>
-      <c r="B105" t="s" s="260">
-        <v>512</v>
-      </c>
-      <c r="C105" s="254"/>
+      <c r="B105" t="s" s="261">
+        <v>513</v>
+      </c>
+      <c r="C105" s="255"/>
     </row>
     <row r="106" ht="15.35" customHeight="1">
-      <c r="A106" s="239">
+      <c r="A106" s="240">
         <v>104</v>
       </c>
-      <c r="B106" t="s" s="259">
-        <v>513</v>
-      </c>
-      <c r="C106" s="254"/>
+      <c r="B106" t="s" s="260">
+        <v>514</v>
+      </c>
+      <c r="C106" s="255"/>
     </row>
     <row r="107" ht="15.35" customHeight="1">
-      <c r="A107" s="239">
+      <c r="A107" s="240">
         <v>105</v>
       </c>
-      <c r="B107" t="s" s="259">
-        <v>514</v>
-      </c>
-      <c r="C107" s="254"/>
+      <c r="B107" t="s" s="260">
+        <v>515</v>
+      </c>
+      <c r="C107" s="255"/>
     </row>
     <row r="108" ht="15.35" customHeight="1">
-      <c r="A108" s="239">
+      <c r="A108" s="240">
         <v>106</v>
       </c>
-      <c r="B108" t="s" s="259">
-        <v>515</v>
-      </c>
-      <c r="C108" s="254"/>
+      <c r="B108" t="s" s="260">
+        <v>516</v>
+      </c>
+      <c r="C108" s="255"/>
     </row>
     <row r="109" ht="15.35" customHeight="1">
-      <c r="A109" s="239">
+      <c r="A109" s="240">
         <v>107</v>
       </c>
-      <c r="B109" t="s" s="259">
-        <v>516</v>
-      </c>
-      <c r="C109" s="254"/>
+      <c r="B109" t="s" s="260">
+        <v>517</v>
+      </c>
+      <c r="C109" s="255"/>
     </row>
     <row r="110" ht="15.35" customHeight="1">
-      <c r="A110" s="239">
+      <c r="A110" s="240">
         <v>108</v>
       </c>
-      <c r="B110" t="s" s="259">
-        <v>517</v>
-      </c>
-      <c r="C110" s="254"/>
+      <c r="B110" t="s" s="260">
+        <v>518</v>
+      </c>
+      <c r="C110" s="255"/>
     </row>
     <row r="111" ht="15.35" customHeight="1">
-      <c r="A111" s="239">
+      <c r="A111" s="240">
         <v>109</v>
       </c>
-      <c r="B111" t="s" s="259">
-        <v>518</v>
-      </c>
-      <c r="C111" s="254"/>
+      <c r="B111" t="s" s="260">
+        <v>519</v>
+      </c>
+      <c r="C111" s="255"/>
     </row>
     <row r="112" ht="15.35" customHeight="1">
-      <c r="A112" s="239">
+      <c r="A112" s="240">
         <v>110</v>
       </c>
-      <c r="B112" t="s" s="259">
-        <v>519</v>
-      </c>
-      <c r="C112" s="254"/>
+      <c r="B112" t="s" s="260">
+        <v>520</v>
+      </c>
+      <c r="C112" s="255"/>
     </row>
     <row r="113" ht="15.35" customHeight="1">
-      <c r="A113" s="239">
+      <c r="A113" s="240">
         <v>111</v>
       </c>
-      <c r="B113" t="s" s="259">
-        <v>520</v>
-      </c>
-      <c r="C113" s="254"/>
+      <c r="B113" t="s" s="260">
+        <v>521</v>
+      </c>
+      <c r="C113" s="255"/>
     </row>
     <row r="114" ht="15.35" customHeight="1">
-      <c r="A114" s="239">
+      <c r="A114" s="240">
         <v>112</v>
       </c>
-      <c r="B114" t="s" s="259">
-        <v>521</v>
-      </c>
-      <c r="C114" s="254"/>
+      <c r="B114" t="s" s="260">
+        <v>522</v>
+      </c>
+      <c r="C114" s="255"/>
     </row>
     <row r="115" ht="15.35" customHeight="1">
-      <c r="A115" s="239">
+      <c r="A115" s="240">
         <v>113</v>
       </c>
-      <c r="B115" t="s" s="259">
-        <v>522</v>
-      </c>
-      <c r="C115" s="254"/>
+      <c r="B115" t="s" s="260">
+        <v>523</v>
+      </c>
+      <c r="C115" s="255"/>
     </row>
     <row r="116" ht="15.35" customHeight="1">
-      <c r="A116" s="239">
+      <c r="A116" s="240">
         <v>114</v>
       </c>
-      <c r="B116" t="s" s="259">
-        <v>523</v>
-      </c>
-      <c r="C116" s="254"/>
+      <c r="B116" t="s" s="260">
+        <v>524</v>
+      </c>
+      <c r="C116" s="255"/>
     </row>
     <row r="117" ht="15.35" customHeight="1">
-      <c r="A117" s="239">
+      <c r="A117" s="240">
         <v>115</v>
       </c>
-      <c r="B117" t="s" s="259">
-        <v>524</v>
-      </c>
-      <c r="C117" s="254"/>
+      <c r="B117" t="s" s="260">
+        <v>525</v>
+      </c>
+      <c r="C117" s="255"/>
     </row>
     <row r="118" ht="15.35" customHeight="1">
-      <c r="A118" s="239">
+      <c r="A118" s="240">
         <v>116</v>
       </c>
-      <c r="B118" t="s" s="259">
-        <v>525</v>
-      </c>
-      <c r="C118" s="254"/>
+      <c r="B118" t="s" s="260">
+        <v>526</v>
+      </c>
+      <c r="C118" s="255"/>
     </row>
     <row r="119" ht="15.35" customHeight="1">
-      <c r="A119" s="239">
+      <c r="A119" s="240">
         <v>117</v>
       </c>
-      <c r="B119" t="s" s="259">
-        <v>526</v>
-      </c>
-      <c r="C119" s="254"/>
+      <c r="B119" t="s" s="260">
+        <v>527</v>
+      </c>
+      <c r="C119" s="255"/>
     </row>
     <row r="120" ht="15.35" customHeight="1">
-      <c r="A120" s="239">
+      <c r="A120" s="240">
         <v>118</v>
       </c>
-      <c r="B120" t="s" s="259">
-        <v>527</v>
-      </c>
-      <c r="C120" s="254"/>
+      <c r="B120" t="s" s="260">
+        <v>528</v>
+      </c>
+      <c r="C120" s="255"/>
     </row>
     <row r="121" ht="15.35" customHeight="1">
-      <c r="A121" s="239">
+      <c r="A121" s="240">
         <v>119</v>
       </c>
-      <c r="B121" t="s" s="259">
-        <v>528</v>
-      </c>
-      <c r="C121" s="254"/>
+      <c r="B121" t="s" s="260">
+        <v>529</v>
+      </c>
+      <c r="C121" s="255"/>
     </row>
     <row r="122" ht="15.35" customHeight="1">
-      <c r="A122" s="239">
+      <c r="A122" s="240">
         <v>120</v>
       </c>
-      <c r="B122" t="s" s="259">
-        <v>529</v>
-      </c>
-      <c r="C122" s="254"/>
+      <c r="B122" t="s" s="260">
+        <v>530</v>
+      </c>
+      <c r="C122" s="255"/>
     </row>
     <row r="123" ht="15.35" customHeight="1">
-      <c r="A123" s="239">
+      <c r="A123" s="240">
         <v>121</v>
       </c>
-      <c r="B123" t="s" s="259">
-        <v>530</v>
-      </c>
-      <c r="C123" s="254"/>
+      <c r="B123" t="s" s="260">
+        <v>531</v>
+      </c>
+      <c r="C123" s="255"/>
     </row>
     <row r="124" ht="15.35" customHeight="1">
-      <c r="A124" s="239">
+      <c r="A124" s="240">
         <v>122</v>
       </c>
-      <c r="B124" t="s" s="259">
-        <v>531</v>
-      </c>
-      <c r="C124" s="254"/>
+      <c r="B124" t="s" s="260">
+        <v>532</v>
+      </c>
+      <c r="C124" s="255"/>
     </row>
     <row r="125" ht="15.35" customHeight="1">
-      <c r="A125" s="239">
+      <c r="A125" s="240">
         <v>123</v>
       </c>
-      <c r="B125" t="s" s="259">
-        <v>532</v>
-      </c>
-      <c r="C125" s="254"/>
+      <c r="B125" t="s" s="260">
+        <v>533</v>
+      </c>
+      <c r="C125" s="255"/>
     </row>
     <row r="126" ht="15.35" customHeight="1">
-      <c r="A126" s="239">
+      <c r="A126" s="240">
         <v>124</v>
       </c>
-      <c r="B126" t="s" s="259">
-        <v>533</v>
-      </c>
-      <c r="C126" s="254"/>
+      <c r="B126" t="s" s="260">
+        <v>534</v>
+      </c>
+      <c r="C126" s="255"/>
     </row>
     <row r="127" ht="15.35" customHeight="1">
-      <c r="A127" s="239">
+      <c r="A127" s="240">
         <v>125</v>
       </c>
-      <c r="B127" t="s" s="259">
-        <v>534</v>
-      </c>
-      <c r="C127" s="254"/>
+      <c r="B127" t="s" s="260">
+        <v>535</v>
+      </c>
+      <c r="C127" s="255"/>
     </row>
     <row r="128" ht="15.65" customHeight="1">
-      <c r="A128" s="239">
+      <c r="A128" s="240">
         <v>126</v>
       </c>
-      <c r="B128" t="s" s="261">
-        <v>535</v>
-      </c>
-      <c r="C128" s="254"/>
+      <c r="B128" t="s" s="262">
+        <v>536</v>
+      </c>
+      <c r="C128" s="255"/>
     </row>
     <row r="129" ht="14.7" customHeight="1">
-      <c r="A129" s="235">
+      <c r="A129" s="236">
         <v>127</v>
       </c>
-      <c r="B129" t="s" s="262">
-        <v>536</v>
-      </c>
-      <c r="C129" s="243"/>
+      <c r="B129" t="s" s="263">
+        <v>537</v>
+      </c>
+      <c r="C129" s="244"/>
     </row>
     <row r="130" ht="14.7" customHeight="1">
-      <c r="A130" s="235">
+      <c r="A130" s="236">
         <v>128</v>
       </c>
-      <c r="B130" t="s" s="263">
-        <v>537</v>
-      </c>
-      <c r="C130" s="243"/>
+      <c r="B130" t="s" s="264">
+        <v>538</v>
+      </c>
+      <c r="C130" s="244"/>
     </row>
     <row r="131" ht="14.7" customHeight="1">
-      <c r="A131" s="235">
+      <c r="A131" s="236">
         <v>129</v>
       </c>
-      <c r="B131" t="s" s="263">
-        <v>538</v>
-      </c>
-      <c r="C131" s="243"/>
+      <c r="B131" t="s" s="264">
+        <v>539</v>
+      </c>
+      <c r="C131" s="244"/>
     </row>
     <row r="132" ht="14.7" customHeight="1">
-      <c r="A132" s="235">
+      <c r="A132" s="236">
         <v>130</v>
       </c>
-      <c r="B132" t="s" s="264">
-        <v>539</v>
-      </c>
-      <c r="C132" s="243"/>
+      <c r="B132" t="s" s="265">
+        <v>540</v>
+      </c>
+      <c r="C132" s="244"/>
     </row>
     <row r="133" ht="15.65" customHeight="1">
-      <c r="A133" s="265"/>
-      <c r="B133" s="266"/>
-      <c r="C133" s="254"/>
+      <c r="A133" s="266"/>
+      <c r="B133" s="267"/>
+      <c r="C133" s="255"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/data/offweb.xlsx
+++ b/data/offweb.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="549">
   <si>
     <t>此文稿由 Numbers 表格导出。所有表格均已转换为 Excel 工作表。每张 Numbers 工作表上的所有其他对象都已放置在单独的工作表中。请注意其中的公式计算可能与 Excel 不同。</t>
   </si>
@@ -317,7 +317,7 @@
     <t>2020-06-04</t>
   </si>
   <si>
-    <t>27</t>
+    <t>60</t>
   </si>
   <si>
     <t>27
@@ -380,7 +380,7 @@
     <t>伯云•变</t>
   </si>
   <si>
-    <t>29</t>
+    <t>62</t>
   </si>
   <si>
     <t>46
@@ -441,7 +441,7 @@
     <t>The Pharmaceutical Industry's Trending in the Healthcare Reform</t>
   </si>
   <si>
-    <t>57</t>
+    <t>61</t>
   </si>
   <si>
     <t>77
@@ -478,7 +478,7 @@
     <t>Change &amp; Opportunity</t>
   </si>
   <si>
-    <t>59</t>
+    <t>63</t>
   </si>
   <si>
     <t>96
@@ -1305,6 +1305,38 @@
   </si>
   <si>
     <t>President, CphMRA</t>
+  </si>
+  <si>
+    <t>主持人</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="华文宋体"/>
+      </rPr>
+      <t>竞悦咨询</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="华文宋体"/>
+      </rPr>
+      <t>高级顾问</t>
+    </r>
+  </si>
+  <si>
+    <t>Presenter</t>
   </si>
   <si>
     <t>speakers</t>
@@ -2195,6 +2227,9 @@
     <t>北京</t>
   </si>
   <si>
+    <t>27</t>
+  </si>
+  <si>
     <t>Above Data</t>
   </si>
   <si>
@@ -4025,13 +4060,13 @@
     <t>/public/img_logo_cooperator_guidance_CPEA.png</t>
   </si>
   <si>
-    <t>/public/img_logo_cooperator_guidance_CPA.png</t>
+    <t>/public/img_logo_cooperator_guidance_SATDCofCPA.png</t>
   </si>
   <si>
     <t>/public/img_logo_cooperator_gold-sponsor_CphMRA.png</t>
   </si>
   <si>
-    <t>/public/img_logo_cooperator_gold-sponsor_pharbers.svg</t>
+    <t>/public/img_logo_cooperator_gold-sponsor_pharbers.png</t>
   </si>
 </sst>
 </file>
@@ -4878,7 +4913,9 @@
       <left style="thin">
         <color indexed="16"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
@@ -4888,7 +4925,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
       <right style="thin">
         <color indexed="8"/>
       </right>
@@ -5337,7 +5376,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="266">
+  <cellXfs count="271">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -5665,6 +5704,9 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="42" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -5713,7 +5755,19 @@
     <xf numFmtId="49" fontId="10" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -8264,7 +8318,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -8780,7 +8834,7 @@
       <c r="A29" s="29">
         <v>1</v>
       </c>
-      <c r="B29" t="s" s="107">
+      <c r="B29" t="s" s="109">
         <v>159</v>
       </c>
       <c r="C29" s="108"/>
@@ -8799,7 +8853,7 @@
       <c r="B30" t="s" s="107">
         <v>161</v>
       </c>
-      <c r="C30" s="109"/>
+      <c r="C30" s="110"/>
       <c r="D30" t="s" s="107">
         <v>162</v>
       </c>
@@ -8812,14 +8866,14 @@
       <c r="A31" s="93">
         <v>1</v>
       </c>
-      <c r="B31" t="s" s="110">
+      <c r="B31" t="s" s="111">
         <v>95</v>
       </c>
-      <c r="C31" s="111"/>
-      <c r="D31" t="s" s="112">
+      <c r="C31" s="112"/>
+      <c r="D31" t="s" s="113">
         <v>163</v>
       </c>
-      <c r="E31" t="s" s="113">
+      <c r="E31" t="s" s="114">
         <v>164</v>
       </c>
       <c r="F31" s="89">
@@ -8830,11 +8884,11 @@
       <c r="A32" s="29">
         <v>0</v>
       </c>
-      <c r="B32" t="s" s="114">
+      <c r="B32" t="s" s="115">
         <v>165</v>
       </c>
       <c r="C32" s="86"/>
-      <c r="D32" t="s" s="115">
+      <c r="D32" t="s" s="116">
         <v>166</v>
       </c>
       <c r="E32" t="s" s="88">
@@ -8848,11 +8902,11 @@
       <c r="A33" s="29">
         <v>0</v>
       </c>
-      <c r="B33" t="s" s="116">
+      <c r="B33" t="s" s="117">
         <v>167</v>
       </c>
       <c r="C33" s="90"/>
-      <c r="D33" t="s" s="117">
+      <c r="D33" t="s" s="118">
         <v>168</v>
       </c>
       <c r="E33" t="s" s="92">
@@ -8866,11 +8920,11 @@
       <c r="A34" s="93">
         <v>0</v>
       </c>
-      <c r="B34" t="s" s="118">
+      <c r="B34" t="s" s="119">
         <v>169</v>
       </c>
       <c r="C34" s="90"/>
-      <c r="D34" t="s" s="117">
+      <c r="D34" t="s" s="118">
         <v>170</v>
       </c>
       <c r="E34" t="s" s="95">
@@ -8884,11 +8938,11 @@
       <c r="A35" s="93">
         <v>0</v>
       </c>
-      <c r="B35" t="s" s="119">
+      <c r="B35" t="s" s="120">
         <v>171</v>
       </c>
       <c r="C35" s="90"/>
-      <c r="D35" t="s" s="117">
+      <c r="D35" t="s" s="118">
         <v>172</v>
       </c>
       <c r="E35" t="s" s="97">
@@ -8902,11 +8956,11 @@
       <c r="A36" s="93">
         <v>0</v>
       </c>
-      <c r="B36" t="s" s="119">
+      <c r="B36" t="s" s="120">
         <v>173</v>
       </c>
       <c r="C36" s="90"/>
-      <c r="D36" t="s" s="117">
+      <c r="D36" t="s" s="118">
         <v>174</v>
       </c>
       <c r="E36" t="s" s="95">
@@ -8920,11 +8974,11 @@
       <c r="A37" s="93">
         <v>0</v>
       </c>
-      <c r="B37" t="s" s="119">
+      <c r="B37" t="s" s="120">
         <v>175</v>
       </c>
       <c r="C37" s="90"/>
-      <c r="D37" t="s" s="120">
+      <c r="D37" t="s" s="121">
         <v>176</v>
       </c>
       <c r="E37" t="s" s="95">
@@ -8938,17 +8992,17 @@
       <c r="A38" s="93">
         <v>0</v>
       </c>
-      <c r="B38" t="s" s="119">
+      <c r="B38" t="s" s="120">
         <v>177</v>
       </c>
       <c r="C38" s="90"/>
-      <c r="D38" t="s" s="117">
+      <c r="D38" t="s" s="118">
         <v>178</v>
       </c>
       <c r="E38" t="s" s="99">
         <v>103</v>
       </c>
-      <c r="F38" s="121">
+      <c r="F38" s="122">
         <v>36</v>
       </c>
     </row>
@@ -8956,17 +9010,17 @@
       <c r="A39" s="93">
         <v>0</v>
       </c>
-      <c r="B39" t="s" s="119">
+      <c r="B39" t="s" s="120">
         <v>179</v>
       </c>
       <c r="C39" s="90"/>
-      <c r="D39" t="s" s="122">
+      <c r="D39" t="s" s="123">
         <v>180</v>
       </c>
       <c r="E39" t="s" s="102">
         <v>106</v>
       </c>
-      <c r="F39" s="121">
+      <c r="F39" s="122">
         <v>37</v>
       </c>
     </row>
@@ -8974,17 +9028,17 @@
       <c r="A40" s="93">
         <v>0</v>
       </c>
-      <c r="B40" t="s" s="123">
+      <c r="B40" t="s" s="124">
         <v>181</v>
       </c>
       <c r="C40" s="104"/>
-      <c r="D40" t="s" s="124">
+      <c r="D40" t="s" s="125">
         <v>182</v>
       </c>
       <c r="E40" t="s" s="105">
         <v>109</v>
       </c>
-      <c r="F40" s="121">
+      <c r="F40" s="122">
         <v>38</v>
       </c>
     </row>
@@ -8992,7 +9046,7 @@
       <c r="A41" s="29">
         <v>0</v>
       </c>
-      <c r="B41" t="s" s="125">
+      <c r="B41" t="s" s="109">
         <v>183</v>
       </c>
       <c r="C41" s="108"/>
@@ -9010,7 +9064,7 @@
       <c r="A42" s="29">
         <v>0</v>
       </c>
-      <c r="B42" t="s" s="125">
+      <c r="B42" t="s" s="109">
         <v>185</v>
       </c>
       <c r="C42" s="108"/>
@@ -9028,7 +9082,7 @@
       <c r="A43" s="29">
         <v>0</v>
       </c>
-      <c r="B43" t="s" s="125">
+      <c r="B43" t="s" s="109">
         <v>187</v>
       </c>
       <c r="C43" s="108"/>
@@ -9046,7 +9100,7 @@
       <c r="A44" s="29">
         <v>0</v>
       </c>
-      <c r="B44" t="s" s="125">
+      <c r="B44" t="s" s="109">
         <v>189</v>
       </c>
       <c r="C44" s="108"/>
@@ -9064,7 +9118,7 @@
       <c r="A45" s="29">
         <v>0</v>
       </c>
-      <c r="B45" t="s" s="125">
+      <c r="B45" t="s" s="109">
         <v>191</v>
       </c>
       <c r="C45" s="108"/>
@@ -9082,7 +9136,7 @@
       <c r="A46" s="29">
         <v>0</v>
       </c>
-      <c r="B46" t="s" s="125">
+      <c r="B46" t="s" s="109">
         <v>193</v>
       </c>
       <c r="C46" s="108"/>
@@ -9100,7 +9154,7 @@
       <c r="A47" s="29">
         <v>0</v>
       </c>
-      <c r="B47" t="s" s="125">
+      <c r="B47" t="s" s="109">
         <v>195</v>
       </c>
       <c r="C47" s="108"/>
@@ -9118,7 +9172,7 @@
       <c r="A48" s="29">
         <v>0</v>
       </c>
-      <c r="B48" t="s" s="125">
+      <c r="B48" t="s" s="109">
         <v>197</v>
       </c>
       <c r="C48" s="108"/>
@@ -9136,7 +9190,7 @@
       <c r="A49" s="29">
         <v>0</v>
       </c>
-      <c r="B49" t="s" s="125">
+      <c r="B49" t="s" s="109">
         <v>199</v>
       </c>
       <c r="C49" s="108"/>
@@ -9154,11 +9208,11 @@
       <c r="A50" s="29">
         <v>0</v>
       </c>
-      <c r="B50" t="s" s="125">
+      <c r="B50" t="s" s="109">
         <v>201</v>
       </c>
       <c r="C50" s="108"/>
-      <c r="D50" t="s" s="125">
+      <c r="D50" t="s" s="109">
         <v>202</v>
       </c>
       <c r="E50" t="s" s="107">
@@ -9172,11 +9226,11 @@
       <c r="A51" s="29">
         <v>0</v>
       </c>
-      <c r="B51" t="s" s="125">
+      <c r="B51" t="s" s="109">
         <v>201</v>
       </c>
       <c r="C51" s="108"/>
-      <c r="D51" t="s" s="125">
+      <c r="D51" t="s" s="109">
         <v>203</v>
       </c>
       <c r="E51" t="s" s="88">
@@ -9190,11 +9244,11 @@
       <c r="A52" s="29">
         <v>0</v>
       </c>
-      <c r="B52" t="s" s="125">
+      <c r="B52" t="s" s="109">
         <v>204</v>
       </c>
       <c r="C52" s="108"/>
-      <c r="D52" t="s" s="125">
+      <c r="D52" t="s" s="109">
         <v>205</v>
       </c>
       <c r="E52" t="s" s="88">
@@ -9208,11 +9262,11 @@
       <c r="A53" s="29">
         <v>0</v>
       </c>
-      <c r="B53" t="s" s="125">
+      <c r="B53" t="s" s="109">
         <v>206</v>
       </c>
       <c r="C53" s="108"/>
-      <c r="D53" t="s" s="125">
+      <c r="D53" t="s" s="109">
         <v>207</v>
       </c>
       <c r="E53" t="s" s="107">
@@ -9226,11 +9280,11 @@
       <c r="A54" s="29">
         <v>0</v>
       </c>
-      <c r="B54" t="s" s="125">
+      <c r="B54" t="s" s="109">
         <v>208</v>
       </c>
       <c r="C54" s="108"/>
-      <c r="D54" t="s" s="125">
+      <c r="D54" t="s" s="109">
         <v>209</v>
       </c>
       <c r="E54" t="s" s="107">
@@ -9244,11 +9298,11 @@
       <c r="A55" s="29">
         <v>0</v>
       </c>
-      <c r="B55" t="s" s="125">
+      <c r="B55" t="s" s="109">
         <v>210</v>
       </c>
       <c r="C55" s="108"/>
-      <c r="D55" t="s" s="125">
+      <c r="D55" t="s" s="109">
         <v>211</v>
       </c>
       <c r="E55" s="108"/>
@@ -9260,11 +9314,11 @@
       <c r="A56" s="29">
         <v>0</v>
       </c>
-      <c r="B56" t="s" s="125">
+      <c r="B56" t="s" s="109">
         <v>212</v>
       </c>
       <c r="C56" s="108"/>
-      <c r="D56" t="s" s="125">
+      <c r="D56" t="s" s="109">
         <v>213</v>
       </c>
       <c r="E56" s="108"/>
@@ -9276,11 +9330,11 @@
       <c r="A57" s="29">
         <v>0</v>
       </c>
-      <c r="B57" t="s" s="125">
+      <c r="B57" t="s" s="109">
         <v>214</v>
       </c>
       <c r="C57" s="108"/>
-      <c r="D57" t="s" s="125">
+      <c r="D57" t="s" s="109">
         <v>215</v>
       </c>
       <c r="E57" s="108"/>
@@ -9292,11 +9346,11 @@
       <c r="A58" s="29">
         <v>0</v>
       </c>
-      <c r="B58" t="s" s="125">
+      <c r="B58" t="s" s="109">
         <v>216</v>
       </c>
       <c r="C58" s="108"/>
-      <c r="D58" t="s" s="125">
+      <c r="D58" t="s" s="109">
         <v>217</v>
       </c>
       <c r="E58" s="108"/>
@@ -9308,11 +9362,11 @@
       <c r="A59" s="29">
         <v>0</v>
       </c>
-      <c r="B59" t="s" s="125">
+      <c r="B59" t="s" s="109">
         <v>218</v>
       </c>
       <c r="C59" s="108"/>
-      <c r="D59" t="s" s="125">
+      <c r="D59" t="s" s="109">
         <v>219</v>
       </c>
       <c r="E59" s="108"/>
@@ -9324,10 +9378,10 @@
       <c r="A60" s="29">
         <v>0</v>
       </c>
-      <c r="B60" t="s" s="125">
+      <c r="B60" t="s" s="109">
         <v>220</v>
       </c>
-      <c r="C60" s="109"/>
+      <c r="C60" s="110"/>
       <c r="D60" t="s" s="107">
         <v>221</v>
       </c>
@@ -9337,21 +9391,97 @@
       </c>
     </row>
     <row r="61" ht="20" customHeight="1">
-      <c r="A61" s="126">
+      <c r="A61" s="93">
         <v>0</v>
       </c>
-      <c r="B61" t="s" s="127">
+      <c r="B61" t="s" s="126">
         <v>173</v>
       </c>
-      <c r="C61" s="90"/>
-      <c r="D61" t="s" s="128">
+      <c r="C61" s="104"/>
+      <c r="D61" t="s" s="127">
         <v>222</v>
       </c>
-      <c r="E61" t="s" s="129">
+      <c r="E61" t="s" s="107">
         <v>164</v>
       </c>
       <c r="F61" s="89">
         <v>59</v>
+      </c>
+    </row>
+    <row r="62" ht="20" customHeight="1">
+      <c r="A62" s="29">
+        <v>1</v>
+      </c>
+      <c r="B62" t="s" s="109">
+        <v>159</v>
+      </c>
+      <c r="C62" t="s" s="109">
+        <v>223</v>
+      </c>
+      <c r="D62" t="s" s="109">
+        <v>224</v>
+      </c>
+      <c r="E62" s="108"/>
+      <c r="F62" s="89">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" ht="20" customHeight="1">
+      <c r="A63" s="29">
+        <v>0</v>
+      </c>
+      <c r="B63" t="s" s="109">
+        <v>218</v>
+      </c>
+      <c r="C63" t="s" s="128">
+        <v>225</v>
+      </c>
+      <c r="D63" t="s" s="109">
+        <v>219</v>
+      </c>
+      <c r="E63" s="108"/>
+      <c r="F63" s="89">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" ht="20" customHeight="1">
+      <c r="A64" s="93">
+        <v>1</v>
+      </c>
+      <c r="B64" t="s" s="111">
+        <v>95</v>
+      </c>
+      <c r="C64" t="s" s="129">
+        <v>223</v>
+      </c>
+      <c r="D64" t="s" s="130">
+        <v>163</v>
+      </c>
+      <c r="E64" t="s" s="107">
+        <v>164</v>
+      </c>
+      <c r="F64" s="89">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" ht="20" customHeight="1">
+      <c r="A65" s="131">
+        <v>0</v>
+      </c>
+      <c r="B65" t="s" s="132">
+        <v>173</v>
+      </c>
+      <c r="C65" t="s" s="102">
+        <v>225</v>
+      </c>
+      <c r="D65" t="s" s="133">
+        <v>222</v>
+      </c>
+      <c r="E65" t="s" s="134">
+        <v>164</v>
+      </c>
+      <c r="F65" s="89">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -9374,2519 +9504,2519 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="20" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="130" customWidth="1"/>
-    <col min="2" max="2" width="34.5" style="130" customWidth="1"/>
-    <col min="3" max="4" width="16.3516" style="130" customWidth="1"/>
-    <col min="5" max="5" width="21.6719" style="130" customWidth="1"/>
-    <col min="6" max="8" width="16.3516" style="130" customWidth="1"/>
-    <col min="9" max="9" width="22.3516" style="130" customWidth="1"/>
-    <col min="10" max="256" width="16.3516" style="130" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="135" customWidth="1"/>
+    <col min="2" max="2" width="34.5" style="135" customWidth="1"/>
+    <col min="3" max="4" width="16.3516" style="135" customWidth="1"/>
+    <col min="5" max="5" width="21.6719" style="135" customWidth="1"/>
+    <col min="6" max="8" width="16.3516" style="135" customWidth="1"/>
+    <col min="9" max="9" width="22.3516" style="135" customWidth="1"/>
+    <col min="10" max="256" width="16.3516" style="135" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="34.5" customHeight="1">
       <c r="A1" t="s" s="26">
         <v>20</v>
       </c>
-      <c r="B1" t="s" s="131">
+      <c r="B1" t="s" s="136">
         <v>21</v>
       </c>
-      <c r="C1" t="s" s="131">
+      <c r="C1" t="s" s="136">
         <v>22</v>
       </c>
-      <c r="D1" t="s" s="131">
+      <c r="D1" t="s" s="136">
         <v>23</v>
       </c>
-      <c r="E1" t="s" s="131">
+      <c r="E1" t="s" s="136">
         <v>42</v>
       </c>
-      <c r="F1" t="s" s="131">
+      <c r="F1" t="s" s="136">
         <v>43</v>
       </c>
-      <c r="G1" t="s" s="131">
-        <v>223</v>
-      </c>
-      <c r="H1" t="s" s="131">
+      <c r="G1" t="s" s="136">
+        <v>226</v>
+      </c>
+      <c r="H1" t="s" s="136">
         <v>27</v>
       </c>
-      <c r="I1" t="s" s="132">
-        <v>224</v>
+      <c r="I1" t="s" s="137">
+        <v>227</v>
       </c>
     </row>
     <row r="2" ht="35" customHeight="1">
-      <c r="A2" s="133">
+      <c r="A2" s="138">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="134">
-        <v>225</v>
-      </c>
-      <c r="C2" s="135"/>
-      <c r="D2" t="s" s="134">
-        <v>226</v>
-      </c>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="136">
+      <c r="B2" t="s" s="139">
+        <v>228</v>
+      </c>
+      <c r="C2" s="140"/>
+      <c r="D2" t="s" s="139">
+        <v>229</v>
+      </c>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="141">
         <v>2</v>
       </c>
-      <c r="H2" s="137">
+      <c r="H2" s="142">
         <v>0</v>
       </c>
-      <c r="I2" t="s" s="138">
-        <v>227</v>
+      <c r="I2" t="s" s="143">
+        <v>230</v>
       </c>
     </row>
     <row r="3" ht="14.75" customHeight="1">
-      <c r="A3" s="133">
+      <c r="A3" s="138">
         <v>1</v>
       </c>
-      <c r="B3" t="s" s="134">
-        <v>228</v>
-      </c>
-      <c r="C3" s="135"/>
-      <c r="D3" t="s" s="134">
-        <v>229</v>
-      </c>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="139">
+      <c r="B3" t="s" s="139">
+        <v>231</v>
+      </c>
+      <c r="C3" s="140"/>
+      <c r="D3" t="s" s="139">
+        <v>232</v>
+      </c>
+      <c r="E3" s="140"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="144">
         <v>5</v>
       </c>
-      <c r="H3" s="140">
+      <c r="H3" s="145">
         <v>1</v>
       </c>
-      <c r="I3" t="s" s="138">
-        <v>227</v>
+      <c r="I3" t="s" s="143">
+        <v>230</v>
       </c>
     </row>
     <row r="4" ht="14.75" customHeight="1">
-      <c r="A4" s="133">
+      <c r="A4" s="138">
         <v>1</v>
       </c>
-      <c r="B4" t="s" s="141">
-        <v>230</v>
+      <c r="B4" t="s" s="146">
+        <v>233</v>
       </c>
       <c r="C4" s="40"/>
       <c r="D4" s="40"/>
       <c r="E4" s="40"/>
       <c r="F4" s="40"/>
-      <c r="G4" s="142">
+      <c r="G4" s="147">
         <v>2</v>
       </c>
-      <c r="H4" s="140">
+      <c r="H4" s="145">
         <v>2</v>
       </c>
-      <c r="I4" t="s" s="143">
-        <v>231</v>
+      <c r="I4" t="s" s="148">
+        <v>234</v>
       </c>
     </row>
     <row r="5" ht="14.75" customHeight="1">
       <c r="A5" s="93">
         <v>1</v>
       </c>
-      <c r="B5" t="s" s="144">
-        <v>232</v>
-      </c>
-      <c r="C5" s="145"/>
-      <c r="D5" s="145"/>
-      <c r="E5" s="146">
+      <c r="B5" t="s" s="149">
+        <v>235</v>
+      </c>
+      <c r="C5" s="150"/>
+      <c r="D5" s="150"/>
+      <c r="E5" s="151">
         <v>1578547800000</v>
       </c>
-      <c r="F5" s="146">
+      <c r="F5" s="151">
         <v>1578549600000</v>
       </c>
-      <c r="G5" s="145"/>
-      <c r="H5" s="147">
+      <c r="G5" s="150"/>
+      <c r="H5" s="152">
         <v>3</v>
       </c>
-      <c r="I5" t="s" s="148">
-        <v>233</v>
+      <c r="I5" t="s" s="153">
+        <v>236</v>
       </c>
     </row>
     <row r="6" ht="14.75" customHeight="1">
-      <c r="A6" s="133">
+      <c r="A6" s="138">
         <v>1</v>
       </c>
-      <c r="B6" t="s" s="149">
-        <v>234</v>
-      </c>
-      <c r="C6" s="145"/>
-      <c r="D6" s="145"/>
-      <c r="E6" s="146">
+      <c r="B6" t="s" s="154">
+        <v>237</v>
+      </c>
+      <c r="C6" s="150"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="151">
         <v>1578549600000</v>
       </c>
-      <c r="F6" s="146">
+      <c r="F6" s="151">
         <v>1578550200000</v>
       </c>
-      <c r="G6" t="s" s="149">
-        <v>235</v>
-      </c>
-      <c r="H6" s="150">
+      <c r="G6" t="s" s="154">
+        <v>238</v>
+      </c>
+      <c r="H6" s="155">
         <v>4</v>
       </c>
-      <c r="I6" t="s" s="148">
-        <v>233</v>
+      <c r="I6" t="s" s="153">
+        <v>236</v>
       </c>
     </row>
     <row r="7" ht="14.75" customHeight="1">
-      <c r="A7" s="133">
+      <c r="A7" s="138">
         <v>1</v>
       </c>
-      <c r="B7" t="s" s="149">
+      <c r="B7" t="s" s="154">
+        <v>239</v>
+      </c>
+      <c r="C7" s="150"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="151">
+        <v>1578550200000</v>
+      </c>
+      <c r="F7" s="151">
+        <v>1578552000000</v>
+      </c>
+      <c r="G7" s="156">
+        <v>1</v>
+      </c>
+      <c r="H7" s="152">
+        <v>5</v>
+      </c>
+      <c r="I7" t="s" s="153">
         <v>236</v>
       </c>
-      <c r="C7" s="145"/>
-      <c r="D7" s="145"/>
-      <c r="E7" s="146">
-        <v>1578550200000</v>
-      </c>
-      <c r="F7" s="146">
+    </row>
+    <row r="8" ht="14.75" customHeight="1">
+      <c r="A8" s="138">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s" s="157">
+        <v>240</v>
+      </c>
+      <c r="C8" s="150"/>
+      <c r="D8" s="150"/>
+      <c r="E8" s="151">
         <v>1578552000000</v>
       </c>
-      <c r="G7" s="151">
+      <c r="F8" s="151">
+        <v>1578553800000</v>
+      </c>
+      <c r="G8" s="151">
+        <v>2</v>
+      </c>
+      <c r="H8" s="155">
+        <v>6</v>
+      </c>
+      <c r="I8" t="s" s="153">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" ht="14.75" customHeight="1">
+      <c r="A9" s="138">
         <v>1</v>
       </c>
-      <c r="H7" s="147">
-        <v>5</v>
-      </c>
-      <c r="I7" t="s" s="148">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="8" ht="14.75" customHeight="1">
-      <c r="A8" s="133">
+      <c r="B9" t="s" s="154">
+        <v>241</v>
+      </c>
+      <c r="C9" s="150"/>
+      <c r="D9" s="150"/>
+      <c r="E9" s="151">
+        <v>1578553800000</v>
+      </c>
+      <c r="F9" s="151">
+        <v>1578555000000</v>
+      </c>
+      <c r="G9" s="158"/>
+      <c r="H9" s="152">
+        <v>7</v>
+      </c>
+      <c r="I9" t="s" s="153">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" ht="14.75" customHeight="1">
+      <c r="A10" s="138">
         <v>1</v>
       </c>
-      <c r="B8" t="s" s="152">
-        <v>237</v>
-      </c>
-      <c r="C8" s="145"/>
-      <c r="D8" s="145"/>
-      <c r="E8" s="146">
-        <v>1578552000000</v>
-      </c>
-      <c r="F8" s="146">
-        <v>1578553800000</v>
-      </c>
-      <c r="G8" s="146">
-        <v>2</v>
-      </c>
-      <c r="H8" s="150">
-        <v>6</v>
-      </c>
-      <c r="I8" t="s" s="148">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="9" ht="14.75" customHeight="1">
-      <c r="A9" s="133">
+      <c r="B10" t="s" s="154">
+        <v>242</v>
+      </c>
+      <c r="C10" s="150"/>
+      <c r="D10" s="150"/>
+      <c r="E10" s="151">
+        <v>1578555000000</v>
+      </c>
+      <c r="F10" s="151">
+        <v>1578556800000</v>
+      </c>
+      <c r="G10" s="156">
+        <v>3</v>
+      </c>
+      <c r="H10" s="155">
+        <v>8</v>
+      </c>
+      <c r="I10" t="s" s="153">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11" ht="20" customHeight="1">
+      <c r="A11" s="138">
         <v>1</v>
       </c>
-      <c r="B9" t="s" s="149">
-        <v>238</v>
-      </c>
-      <c r="C9" s="145"/>
-      <c r="D9" s="145"/>
-      <c r="E9" s="146">
-        <v>1578553800000</v>
-      </c>
-      <c r="F9" s="146">
-        <v>1578555000000</v>
-      </c>
-      <c r="G9" s="153"/>
-      <c r="H9" s="147">
-        <v>7</v>
-      </c>
-      <c r="I9" t="s" s="148">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="10" ht="14.75" customHeight="1">
-      <c r="A10" s="133">
+      <c r="B11" t="s" s="154">
+        <v>243</v>
+      </c>
+      <c r="C11" s="150"/>
+      <c r="D11" s="150"/>
+      <c r="E11" s="151">
+        <v>1578556800000</v>
+      </c>
+      <c r="F11" s="151">
+        <v>1578558600000</v>
+      </c>
+      <c r="G11" s="156">
+        <v>4</v>
+      </c>
+      <c r="H11" s="152">
+        <v>9</v>
+      </c>
+      <c r="I11" t="s" s="153">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" ht="20" customHeight="1">
+      <c r="A12" s="138">
         <v>1</v>
       </c>
-      <c r="B10" t="s" s="149">
-        <v>239</v>
-      </c>
-      <c r="C10" s="145"/>
-      <c r="D10" s="145"/>
-      <c r="E10" s="146">
-        <v>1578555000000</v>
-      </c>
-      <c r="F10" s="146">
-        <v>1578556800000</v>
-      </c>
-      <c r="G10" s="151">
-        <v>3</v>
-      </c>
-      <c r="H10" s="150">
-        <v>8</v>
-      </c>
-      <c r="I10" t="s" s="148">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="11" ht="20" customHeight="1">
-      <c r="A11" s="133">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s" s="149">
-        <v>240</v>
-      </c>
-      <c r="C11" s="145"/>
-      <c r="D11" s="145"/>
-      <c r="E11" s="146">
-        <v>1578556800000</v>
-      </c>
-      <c r="F11" s="146">
+      <c r="B12" t="s" s="154">
+        <v>244</v>
+      </c>
+      <c r="C12" s="150"/>
+      <c r="D12" s="150"/>
+      <c r="E12" s="151">
         <v>1578558600000</v>
       </c>
-      <c r="G11" s="151">
-        <v>4</v>
-      </c>
-      <c r="H11" s="147">
-        <v>9</v>
-      </c>
-      <c r="I11" t="s" s="148">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="12" ht="20" customHeight="1">
-      <c r="A12" s="133">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s" s="149">
-        <v>241</v>
-      </c>
-      <c r="C12" s="145"/>
-      <c r="D12" s="145"/>
-      <c r="E12" s="146">
-        <v>1578558600000</v>
-      </c>
-      <c r="F12" s="146">
+      <c r="F12" s="151">
         <v>1578559800000</v>
       </c>
-      <c r="G12" s="145"/>
-      <c r="H12" s="150">
+      <c r="G12" s="150"/>
+      <c r="H12" s="155">
         <v>10</v>
       </c>
-      <c r="I12" t="s" s="148">
-        <v>233</v>
+      <c r="I12" t="s" s="153">
+        <v>236</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="93">
         <v>1</v>
       </c>
-      <c r="B13" t="s" s="154">
-        <v>232</v>
-      </c>
-      <c r="C13" s="155"/>
-      <c r="D13" s="155"/>
-      <c r="E13" s="156">
+      <c r="B13" t="s" s="159">
+        <v>235</v>
+      </c>
+      <c r="C13" s="160"/>
+      <c r="D13" s="160"/>
+      <c r="E13" s="161">
         <v>1571203800000</v>
       </c>
-      <c r="F13" s="156">
+      <c r="F13" s="161">
         <v>1571205600000</v>
       </c>
-      <c r="G13" s="155"/>
-      <c r="H13" s="157">
+      <c r="G13" s="160"/>
+      <c r="H13" s="162">
         <v>11</v>
       </c>
-      <c r="I13" t="s" s="158">
-        <v>242</v>
+      <c r="I13" t="s" s="163">
+        <v>245</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
-      <c r="A14" s="133">
+      <c r="A14" s="138">
         <v>1</v>
       </c>
-      <c r="B14" t="s" s="159">
-        <v>234</v>
-      </c>
-      <c r="C14" s="155"/>
-      <c r="D14" s="155"/>
-      <c r="E14" s="156">
+      <c r="B14" t="s" s="164">
+        <v>237</v>
+      </c>
+      <c r="C14" s="160"/>
+      <c r="D14" s="160"/>
+      <c r="E14" s="161">
         <v>1571205600000</v>
       </c>
-      <c r="F14" s="156">
+      <c r="F14" s="161">
         <v>1571206200000</v>
       </c>
-      <c r="G14" s="156">
+      <c r="G14" s="161">
         <v>0</v>
       </c>
-      <c r="H14" s="156">
+      <c r="H14" s="161">
         <v>12</v>
       </c>
-      <c r="I14" t="s" s="158">
-        <v>242</v>
+      <c r="I14" t="s" s="163">
+        <v>245</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1">
-      <c r="A15" s="133">
+      <c r="A15" s="138">
         <v>1</v>
       </c>
-      <c r="B15" t="s" s="160">
-        <v>243</v>
-      </c>
-      <c r="C15" s="155"/>
-      <c r="D15" s="155"/>
-      <c r="E15" s="156">
+      <c r="B15" t="s" s="165">
+        <v>246</v>
+      </c>
+      <c r="C15" s="160"/>
+      <c r="D15" s="160"/>
+      <c r="E15" s="161">
         <v>1571206200000</v>
       </c>
-      <c r="F15" s="156">
+      <c r="F15" s="161">
         <v>1571208000000</v>
       </c>
-      <c r="G15" s="156">
+      <c r="G15" s="161">
         <v>22</v>
       </c>
-      <c r="H15" s="157">
+      <c r="H15" s="162">
         <v>13</v>
       </c>
-      <c r="I15" t="s" s="158">
-        <v>242</v>
+      <c r="I15" t="s" s="163">
+        <v>245</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
-      <c r="A16" s="133">
+      <c r="A16" s="138">
         <v>1</v>
       </c>
-      <c r="B16" t="s" s="160">
+      <c r="B16" t="s" s="165">
+        <v>247</v>
+      </c>
+      <c r="C16" s="160"/>
+      <c r="D16" s="160"/>
+      <c r="E16" s="161">
+        <v>1571208000000</v>
+      </c>
+      <c r="F16" s="161">
+        <v>1571209800000</v>
+      </c>
+      <c r="G16" s="161">
+        <v>2</v>
+      </c>
+      <c r="H16" s="161">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s" s="163">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="17" ht="20" customHeight="1">
+      <c r="A17" s="138">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s" s="165">
+        <v>241</v>
+      </c>
+      <c r="C17" s="160"/>
+      <c r="D17" s="160"/>
+      <c r="E17" s="161">
+        <v>1571209800000</v>
+      </c>
+      <c r="F17" s="161">
+        <v>1571211000000</v>
+      </c>
+      <c r="G17" s="160"/>
+      <c r="H17" s="166">
+        <v>15</v>
+      </c>
+      <c r="I17" t="s" s="167">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="18" ht="20" customHeight="1">
+      <c r="A18" s="138">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s" s="165">
+        <v>248</v>
+      </c>
+      <c r="C18" s="160"/>
+      <c r="D18" s="160"/>
+      <c r="E18" s="161">
+        <v>1571211000000</v>
+      </c>
+      <c r="F18" s="161">
+        <v>1571212800000</v>
+      </c>
+      <c r="G18" s="161">
+        <v>4</v>
+      </c>
+      <c r="H18" s="161">
+        <v>16</v>
+      </c>
+      <c r="I18" t="s" s="163">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="19" ht="20" customHeight="1">
+      <c r="A19" s="138">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s" s="165">
+        <v>249</v>
+      </c>
+      <c r="C19" s="160"/>
+      <c r="D19" s="160"/>
+      <c r="E19" s="161">
+        <v>1571212800000</v>
+      </c>
+      <c r="F19" s="161">
+        <v>1571214600000</v>
+      </c>
+      <c r="G19" s="161">
+        <v>19</v>
+      </c>
+      <c r="H19" s="162">
+        <v>17</v>
+      </c>
+      <c r="I19" t="s" s="163">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="20" ht="20" customHeight="1">
+      <c r="A20" s="138">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s" s="165">
         <v>244</v>
       </c>
-      <c r="C16" s="155"/>
-      <c r="D16" s="155"/>
-      <c r="E16" s="156">
-        <v>1571208000000</v>
-      </c>
-      <c r="F16" s="156">
-        <v>1571209800000</v>
-      </c>
-      <c r="G16" s="156">
+      <c r="C20" s="160"/>
+      <c r="D20" s="160"/>
+      <c r="E20" s="161">
+        <v>1571214600000</v>
+      </c>
+      <c r="F20" s="161">
+        <v>1571215800000</v>
+      </c>
+      <c r="G20" s="160"/>
+      <c r="H20" s="168">
+        <v>18</v>
+      </c>
+      <c r="I20" t="s" s="167">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="21" ht="20" customHeight="1">
+      <c r="A21" s="138">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s" s="169">
+        <v>235</v>
+      </c>
+      <c r="C21" s="170"/>
+      <c r="D21" s="170"/>
+      <c r="E21" s="171">
+        <v>1567575000000</v>
+      </c>
+      <c r="F21" s="171">
+        <v>1567576800000</v>
+      </c>
+      <c r="G21" s="170"/>
+      <c r="H21" s="172">
+        <v>19</v>
+      </c>
+      <c r="I21" t="s" s="173">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="22" ht="20" customHeight="1">
+      <c r="A22" s="138">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s" s="169">
+        <v>237</v>
+      </c>
+      <c r="C22" s="170"/>
+      <c r="D22" s="170"/>
+      <c r="E22" s="171">
+        <v>1567576800000</v>
+      </c>
+      <c r="F22" s="171">
+        <v>1567577400000</v>
+      </c>
+      <c r="G22" s="171">
+        <v>0</v>
+      </c>
+      <c r="H22" s="171">
+        <v>20</v>
+      </c>
+      <c r="I22" t="s" s="174">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="23" ht="20" customHeight="1">
+      <c r="A23" s="138">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s" s="169">
+        <v>251</v>
+      </c>
+      <c r="C23" s="170"/>
+      <c r="D23" s="170"/>
+      <c r="E23" s="171">
+        <v>1567577400000</v>
+      </c>
+      <c r="F23" s="171">
+        <v>1567579200000</v>
+      </c>
+      <c r="G23" s="171">
+        <v>6</v>
+      </c>
+      <c r="H23" s="175">
+        <v>21</v>
+      </c>
+      <c r="I23" t="s" s="174">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="24" ht="20" customHeight="1">
+      <c r="A24" s="138">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s" s="169">
+        <v>252</v>
+      </c>
+      <c r="C24" s="170"/>
+      <c r="D24" s="170"/>
+      <c r="E24" s="171">
+        <v>1567579200000</v>
+      </c>
+      <c r="F24" s="171">
+        <v>1567581000000</v>
+      </c>
+      <c r="G24" s="171">
+        <v>7</v>
+      </c>
+      <c r="H24" s="171">
+        <v>22</v>
+      </c>
+      <c r="I24" t="s" s="174">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="25" ht="20" customHeight="1">
+      <c r="A25" s="138">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s" s="169">
+        <v>241</v>
+      </c>
+      <c r="C25" s="170"/>
+      <c r="D25" s="170"/>
+      <c r="E25" s="171">
+        <v>1567581000000</v>
+      </c>
+      <c r="F25" s="171">
+        <v>1567582200000</v>
+      </c>
+      <c r="G25" s="170"/>
+      <c r="H25" s="172">
+        <v>23</v>
+      </c>
+      <c r="I25" t="s" s="173">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="26" ht="20" customHeight="1">
+      <c r="A26" s="138">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s" s="169">
+        <v>253</v>
+      </c>
+      <c r="C26" s="170"/>
+      <c r="D26" s="170"/>
+      <c r="E26" s="171">
+        <v>1567582200000</v>
+      </c>
+      <c r="F26" s="171">
+        <v>1567583400000</v>
+      </c>
+      <c r="G26" s="171">
+        <v>4</v>
+      </c>
+      <c r="H26" s="171">
+        <v>24</v>
+      </c>
+      <c r="I26" t="s" s="174">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="27" ht="20" customHeight="1">
+      <c r="A27" s="138">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s" s="169">
+        <v>247</v>
+      </c>
+      <c r="C27" s="170"/>
+      <c r="D27" s="170"/>
+      <c r="E27" s="171">
+        <v>1567583400000</v>
+      </c>
+      <c r="F27" s="171">
+        <v>1567585200000</v>
+      </c>
+      <c r="G27" s="171">
         <v>2</v>
       </c>
-      <c r="H16" s="156">
-        <v>14</v>
-      </c>
-      <c r="I16" t="s" s="158">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="17" ht="20" customHeight="1">
-      <c r="A17" s="133">
+      <c r="H27" s="175">
+        <v>25</v>
+      </c>
+      <c r="I27" t="s" s="174">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28" ht="20" customHeight="1">
+      <c r="A28" s="138">
         <v>1</v>
       </c>
-      <c r="B17" t="s" s="160">
-        <v>238</v>
-      </c>
-      <c r="C17" s="155"/>
-      <c r="D17" s="155"/>
-      <c r="E17" s="156">
-        <v>1571209800000</v>
-      </c>
-      <c r="F17" s="156">
-        <v>1571211000000</v>
-      </c>
-      <c r="G17" s="155"/>
-      <c r="H17" s="161">
-        <v>15</v>
-      </c>
-      <c r="I17" t="s" s="162">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="18" ht="20" customHeight="1">
-      <c r="A18" s="133">
+      <c r="B28" t="s" s="169">
+        <v>244</v>
+      </c>
+      <c r="C28" s="170"/>
+      <c r="D28" s="170"/>
+      <c r="E28" s="171">
+        <v>1567585200000</v>
+      </c>
+      <c r="F28" s="171">
+        <v>1567586400000</v>
+      </c>
+      <c r="G28" s="170"/>
+      <c r="H28" s="176">
+        <v>26</v>
+      </c>
+      <c r="I28" t="s" s="173">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" ht="20" customHeight="1">
+      <c r="A29" s="138">
         <v>1</v>
       </c>
-      <c r="B18" t="s" s="160">
-        <v>245</v>
-      </c>
-      <c r="C18" s="155"/>
-      <c r="D18" s="155"/>
-      <c r="E18" s="156">
-        <v>1571211000000</v>
-      </c>
-      <c r="F18" s="156">
-        <v>1571212800000</v>
-      </c>
-      <c r="G18" s="156">
-        <v>4</v>
-      </c>
-      <c r="H18" s="156">
-        <v>16</v>
-      </c>
-      <c r="I18" t="s" s="158">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="19" ht="20" customHeight="1">
-      <c r="A19" s="133">
+      <c r="B29" t="s" s="177">
+        <v>254</v>
+      </c>
+      <c r="C29" s="178"/>
+      <c r="D29" s="178"/>
+      <c r="E29" s="179">
+        <v>1591250400000</v>
+      </c>
+      <c r="F29" s="179">
+        <v>1591252200000</v>
+      </c>
+      <c r="G29" s="179">
+        <v>23</v>
+      </c>
+      <c r="H29" s="180">
+        <v>27</v>
+      </c>
+      <c r="I29" s="181"/>
+    </row>
+    <row r="30" ht="20" customHeight="1">
+      <c r="A30" s="138">
         <v>1</v>
       </c>
-      <c r="B19" t="s" s="160">
-        <v>246</v>
-      </c>
-      <c r="C19" s="155"/>
-      <c r="D19" s="155"/>
-      <c r="E19" s="156">
-        <v>1571212800000</v>
-      </c>
-      <c r="F19" s="156">
-        <v>1571214600000</v>
-      </c>
-      <c r="G19" s="156">
-        <v>19</v>
-      </c>
-      <c r="H19" s="157">
-        <v>17</v>
-      </c>
-      <c r="I19" t="s" s="158">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="20" ht="20" customHeight="1">
-      <c r="A20" s="133">
+      <c r="B30" t="s" s="177">
+        <v>255</v>
+      </c>
+      <c r="C30" s="178"/>
+      <c r="D30" s="178"/>
+      <c r="E30" s="179">
+        <v>1591252200000</v>
+      </c>
+      <c r="F30" s="179">
+        <v>1591254000000</v>
+      </c>
+      <c r="G30" s="179">
+        <v>24</v>
+      </c>
+      <c r="H30" s="179">
+        <v>28</v>
+      </c>
+      <c r="I30" s="181"/>
+    </row>
+    <row r="31" ht="20" customHeight="1">
+      <c r="A31" s="138">
         <v>1</v>
       </c>
-      <c r="B20" t="s" s="160">
+      <c r="B31" t="s" s="177">
+        <v>256</v>
+      </c>
+      <c r="C31" s="178"/>
+      <c r="D31" s="178"/>
+      <c r="E31" s="179">
+        <v>1591254000000</v>
+      </c>
+      <c r="F31" s="179">
+        <v>1591255800000</v>
+      </c>
+      <c r="G31" s="179">
+        <v>25</v>
+      </c>
+      <c r="H31" s="180">
+        <v>29</v>
+      </c>
+      <c r="I31" s="181"/>
+    </row>
+    <row r="32" ht="20" customHeight="1">
+      <c r="A32" s="138">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s" s="177">
         <v>241</v>
       </c>
-      <c r="C20" s="155"/>
-      <c r="D20" s="155"/>
-      <c r="E20" s="156">
-        <v>1571214600000</v>
-      </c>
-      <c r="F20" s="156">
-        <v>1571215800000</v>
-      </c>
-      <c r="G20" s="155"/>
-      <c r="H20" s="163">
-        <v>18</v>
-      </c>
-      <c r="I20" t="s" s="162">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="21" ht="20" customHeight="1">
-      <c r="A21" s="133">
+      <c r="C32" s="178"/>
+      <c r="D32" s="178"/>
+      <c r="E32" s="179">
+        <v>1591255800000</v>
+      </c>
+      <c r="F32" s="179">
+        <v>1591256700000</v>
+      </c>
+      <c r="G32" s="178"/>
+      <c r="H32" s="179">
+        <v>30</v>
+      </c>
+      <c r="I32" s="181"/>
+    </row>
+    <row r="33" ht="20" customHeight="1">
+      <c r="A33" s="138">
         <v>1</v>
       </c>
-      <c r="B21" t="s" s="164">
-        <v>232</v>
-      </c>
-      <c r="C21" s="165"/>
-      <c r="D21" s="165"/>
-      <c r="E21" s="166">
-        <v>1567575000000</v>
-      </c>
-      <c r="F21" s="166">
-        <v>1567576800000</v>
-      </c>
-      <c r="G21" s="165"/>
-      <c r="H21" s="167">
-        <v>19</v>
-      </c>
-      <c r="I21" t="s" s="168">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="22" ht="20" customHeight="1">
-      <c r="A22" s="133">
+      <c r="B33" t="s" s="177">
+        <v>257</v>
+      </c>
+      <c r="C33" s="178"/>
+      <c r="D33" s="178"/>
+      <c r="E33" s="179">
+        <v>1591256700000</v>
+      </c>
+      <c r="F33" s="179">
+        <v>1591257900000</v>
+      </c>
+      <c r="G33" s="179">
+        <v>26</v>
+      </c>
+      <c r="H33" s="180">
+        <v>31</v>
+      </c>
+      <c r="I33" s="181"/>
+    </row>
+    <row r="34" ht="20" customHeight="1">
+      <c r="A34" s="138">
         <v>1</v>
       </c>
-      <c r="B22" t="s" s="164">
-        <v>234</v>
-      </c>
-      <c r="C22" s="165"/>
-      <c r="D22" s="165"/>
-      <c r="E22" s="166">
-        <v>1567576800000</v>
-      </c>
-      <c r="F22" s="166">
-        <v>1567577400000</v>
-      </c>
-      <c r="G22" s="166">
+      <c r="B34" t="s" s="177">
+        <v>258</v>
+      </c>
+      <c r="C34" s="178"/>
+      <c r="D34" s="178"/>
+      <c r="E34" s="179">
+        <v>1591257900000</v>
+      </c>
+      <c r="F34" s="179">
+        <v>1591259700000</v>
+      </c>
+      <c r="G34" s="179">
+        <v>27</v>
+      </c>
+      <c r="H34" s="179">
+        <v>32</v>
+      </c>
+      <c r="I34" s="181"/>
+    </row>
+    <row r="35" ht="20" customHeight="1">
+      <c r="A35" s="138">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s" s="177">
+        <v>259</v>
+      </c>
+      <c r="C35" s="178"/>
+      <c r="D35" s="178"/>
+      <c r="E35" s="179">
+        <v>1591259700000</v>
+      </c>
+      <c r="F35" s="179">
+        <v>1591261500000</v>
+      </c>
+      <c r="G35" s="179">
+        <v>28</v>
+      </c>
+      <c r="H35" s="180">
+        <v>33</v>
+      </c>
+      <c r="I35" s="181"/>
+    </row>
+    <row r="36" ht="20" customHeight="1">
+      <c r="A36" s="138">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s" s="177">
+        <v>260</v>
+      </c>
+      <c r="C36" s="178"/>
+      <c r="D36" s="178"/>
+      <c r="E36" s="179">
+        <v>1591261500000</v>
+      </c>
+      <c r="F36" s="179">
+        <v>1591263000000</v>
+      </c>
+      <c r="G36" s="179">
+        <v>60</v>
+      </c>
+      <c r="H36" s="179">
+        <v>34</v>
+      </c>
+      <c r="I36" s="181"/>
+    </row>
+    <row r="37" ht="20" customHeight="1">
+      <c r="A37" s="138">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s" s="182">
+        <v>261</v>
+      </c>
+      <c r="C37" s="183"/>
+      <c r="D37" s="183"/>
+      <c r="E37" s="184">
+        <v>1591318800000</v>
+      </c>
+      <c r="F37" s="184">
+        <v>1591319400000</v>
+      </c>
+      <c r="G37" s="184">
+        <v>9</v>
+      </c>
+      <c r="H37" s="185">
+        <v>35</v>
+      </c>
+      <c r="I37" s="186"/>
+    </row>
+    <row r="38" ht="20" customHeight="1">
+      <c r="A38" s="138">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s" s="182">
+        <v>262</v>
+      </c>
+      <c r="C38" s="183"/>
+      <c r="D38" s="183"/>
+      <c r="E38" s="184">
+        <v>1591319400000</v>
+      </c>
+      <c r="F38" s="184">
+        <v>1591321200000</v>
+      </c>
+      <c r="G38" s="184">
+        <v>10</v>
+      </c>
+      <c r="H38" s="184">
+        <v>36</v>
+      </c>
+      <c r="I38" s="186"/>
+    </row>
+    <row r="39" ht="20" customHeight="1">
+      <c r="A39" s="138">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s" s="182">
+        <v>263</v>
+      </c>
+      <c r="C39" s="183"/>
+      <c r="D39" s="183"/>
+      <c r="E39" s="184">
+        <v>1591321200000</v>
+      </c>
+      <c r="F39" s="184">
+        <v>1591324200000</v>
+      </c>
+      <c r="G39" s="184">
         <v>0</v>
       </c>
-      <c r="H22" s="166">
-        <v>20</v>
-      </c>
-      <c r="I22" t="s" s="169">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="23" ht="20" customHeight="1">
-      <c r="A23" s="133">
+      <c r="H39" s="185">
+        <v>37</v>
+      </c>
+      <c r="I39" s="186"/>
+    </row>
+    <row r="40" ht="20" customHeight="1">
+      <c r="A40" s="138">
         <v>1</v>
       </c>
-      <c r="B23" t="s" s="164">
-        <v>248</v>
-      </c>
-      <c r="C23" s="165"/>
-      <c r="D23" s="165"/>
-      <c r="E23" s="166">
-        <v>1567577400000</v>
-      </c>
-      <c r="F23" s="166">
-        <v>1567579200000</v>
-      </c>
-      <c r="G23" s="166">
-        <v>6</v>
-      </c>
-      <c r="H23" s="170">
-        <v>21</v>
-      </c>
-      <c r="I23" t="s" s="169">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="24" ht="20" customHeight="1">
-      <c r="A24" s="133">
+      <c r="B40" t="s" s="182">
+        <v>264</v>
+      </c>
+      <c r="C40" s="183"/>
+      <c r="D40" s="183"/>
+      <c r="E40" s="184">
+        <v>1591324200000</v>
+      </c>
+      <c r="F40" s="184">
+        <v>1591326000000</v>
+      </c>
+      <c r="G40" s="184">
+        <v>11</v>
+      </c>
+      <c r="H40" s="184">
+        <v>38</v>
+      </c>
+      <c r="I40" s="186"/>
+    </row>
+    <row r="41" ht="20" customHeight="1">
+      <c r="A41" s="138">
         <v>1</v>
       </c>
-      <c r="B24" t="s" s="164">
-        <v>249</v>
-      </c>
-      <c r="C24" s="165"/>
-      <c r="D24" s="165"/>
-      <c r="E24" s="166">
-        <v>1567579200000</v>
-      </c>
-      <c r="F24" s="166">
-        <v>1567581000000</v>
-      </c>
-      <c r="G24" s="166">
-        <v>7</v>
-      </c>
-      <c r="H24" s="166">
-        <v>22</v>
-      </c>
-      <c r="I24" t="s" s="169">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="25" ht="20" customHeight="1">
-      <c r="A25" s="133">
+      <c r="B41" t="s" s="182">
+        <v>265</v>
+      </c>
+      <c r="C41" s="183"/>
+      <c r="D41" s="183"/>
+      <c r="E41" s="184">
+        <v>1591326600000</v>
+      </c>
+      <c r="F41" s="184">
+        <v>1591327500000</v>
+      </c>
+      <c r="G41" s="184">
+        <v>2</v>
+      </c>
+      <c r="H41" s="185">
+        <v>39</v>
+      </c>
+      <c r="I41" s="186"/>
+    </row>
+    <row r="42" ht="20" customHeight="1">
+      <c r="A42" s="138">
         <v>1</v>
       </c>
-      <c r="B25" t="s" s="164">
-        <v>238</v>
-      </c>
-      <c r="C25" s="165"/>
-      <c r="D25" s="165"/>
-      <c r="E25" s="166">
-        <v>1567581000000</v>
-      </c>
-      <c r="F25" s="166">
-        <v>1567582200000</v>
-      </c>
-      <c r="G25" s="165"/>
-      <c r="H25" s="167">
-        <v>23</v>
-      </c>
-      <c r="I25" t="s" s="168">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="26" ht="20" customHeight="1">
-      <c r="A26" s="133">
+      <c r="B42" t="s" s="182">
+        <v>266</v>
+      </c>
+      <c r="C42" s="183"/>
+      <c r="D42" s="183"/>
+      <c r="E42" s="184">
+        <v>1591327500000</v>
+      </c>
+      <c r="F42" s="184">
+        <v>1591329600000</v>
+      </c>
+      <c r="G42" s="183"/>
+      <c r="H42" s="187">
+        <v>40</v>
+      </c>
+      <c r="I42" s="188"/>
+    </row>
+    <row r="43" ht="20" customHeight="1">
+      <c r="A43" s="138">
         <v>1</v>
       </c>
-      <c r="B26" t="s" s="164">
-        <v>250</v>
-      </c>
-      <c r="C26" s="165"/>
-      <c r="D26" s="165"/>
-      <c r="E26" s="166">
-        <v>1567582200000</v>
-      </c>
-      <c r="F26" s="166">
-        <v>1567583400000</v>
-      </c>
-      <c r="G26" s="166">
-        <v>4</v>
-      </c>
-      <c r="H26" s="166">
-        <v>24</v>
-      </c>
-      <c r="I26" t="s" s="169">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="27" ht="20" customHeight="1">
-      <c r="A27" s="133">
+      <c r="B43" t="s" s="182">
+        <v>267</v>
+      </c>
+      <c r="C43" s="183"/>
+      <c r="D43" s="183"/>
+      <c r="E43" s="184">
+        <v>1591329600000</v>
+      </c>
+      <c r="F43" s="184">
+        <v>1591336800000</v>
+      </c>
+      <c r="G43" s="183"/>
+      <c r="H43" s="189">
+        <v>41</v>
+      </c>
+      <c r="I43" s="188"/>
+    </row>
+    <row r="44" ht="20" customHeight="1">
+      <c r="A44" s="138">
         <v>1</v>
       </c>
-      <c r="B27" t="s" s="164">
-        <v>244</v>
-      </c>
-      <c r="C27" s="165"/>
-      <c r="D27" s="165"/>
-      <c r="E27" s="166">
-        <v>1567583400000</v>
-      </c>
-      <c r="F27" s="166">
-        <v>1567585200000</v>
-      </c>
-      <c r="G27" s="166">
-        <v>2</v>
-      </c>
-      <c r="H27" s="170">
-        <v>25</v>
-      </c>
-      <c r="I27" t="s" s="169">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="28" ht="20" customHeight="1">
-      <c r="A28" s="133">
-        <v>1</v>
-      </c>
-      <c r="B28" t="s" s="164">
-        <v>241</v>
-      </c>
-      <c r="C28" s="165"/>
-      <c r="D28" s="165"/>
-      <c r="E28" s="166">
-        <v>1567585200000</v>
-      </c>
-      <c r="F28" s="166">
-        <v>1567586400000</v>
-      </c>
-      <c r="G28" s="165"/>
-      <c r="H28" s="171">
-        <v>26</v>
-      </c>
-      <c r="I28" t="s" s="168">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="29" ht="20" customHeight="1">
-      <c r="A29" s="133">
-        <v>1</v>
-      </c>
-      <c r="B29" t="s" s="172">
-        <v>251</v>
-      </c>
-      <c r="C29" s="173"/>
-      <c r="D29" s="173"/>
-      <c r="E29" s="174">
-        <v>1591250400000</v>
-      </c>
-      <c r="F29" s="174">
-        <v>1591252200000</v>
-      </c>
-      <c r="G29" s="174">
-        <v>23</v>
-      </c>
-      <c r="H29" s="175">
-        <v>27</v>
-      </c>
-      <c r="I29" s="176"/>
-    </row>
-    <row r="30" ht="20" customHeight="1">
-      <c r="A30" s="133">
-        <v>1</v>
-      </c>
-      <c r="B30" t="s" s="172">
-        <v>252</v>
-      </c>
-      <c r="C30" s="173"/>
-      <c r="D30" s="173"/>
-      <c r="E30" s="174">
-        <v>1591252200000</v>
-      </c>
-      <c r="F30" s="174">
-        <v>1591254000000</v>
-      </c>
-      <c r="G30" s="174">
-        <v>24</v>
-      </c>
-      <c r="H30" s="174">
-        <v>28</v>
-      </c>
-      <c r="I30" s="176"/>
-    </row>
-    <row r="31" ht="20" customHeight="1">
-      <c r="A31" s="133">
-        <v>1</v>
-      </c>
-      <c r="B31" t="s" s="172">
-        <v>253</v>
-      </c>
-      <c r="C31" s="173"/>
-      <c r="D31" s="173"/>
-      <c r="E31" s="174">
-        <v>1591254000000</v>
-      </c>
-      <c r="F31" s="174">
-        <v>1591255800000</v>
-      </c>
-      <c r="G31" s="174">
-        <v>25</v>
-      </c>
-      <c r="H31" s="175">
-        <v>29</v>
-      </c>
-      <c r="I31" s="176"/>
-    </row>
-    <row r="32" ht="20" customHeight="1">
-      <c r="A32" s="133">
-        <v>1</v>
-      </c>
-      <c r="B32" t="s" s="172">
-        <v>238</v>
-      </c>
-      <c r="C32" s="173"/>
-      <c r="D32" s="173"/>
-      <c r="E32" s="174">
-        <v>1591255800000</v>
-      </c>
-      <c r="F32" s="174">
-        <v>1591256700000</v>
-      </c>
-      <c r="G32" s="173"/>
-      <c r="H32" s="174">
-        <v>30</v>
-      </c>
-      <c r="I32" s="176"/>
-    </row>
-    <row r="33" ht="20" customHeight="1">
-      <c r="A33" s="133">
-        <v>1</v>
-      </c>
-      <c r="B33" t="s" s="172">
-        <v>254</v>
-      </c>
-      <c r="C33" s="173"/>
-      <c r="D33" s="173"/>
-      <c r="E33" s="174">
-        <v>1591256700000</v>
-      </c>
-      <c r="F33" s="174">
-        <v>1591257900000</v>
-      </c>
-      <c r="G33" s="174">
-        <v>26</v>
-      </c>
-      <c r="H33" s="175">
-        <v>31</v>
-      </c>
-      <c r="I33" s="176"/>
-    </row>
-    <row r="34" ht="20" customHeight="1">
-      <c r="A34" s="133">
-        <v>1</v>
-      </c>
-      <c r="B34" t="s" s="172">
-        <v>255</v>
-      </c>
-      <c r="C34" s="173"/>
-      <c r="D34" s="173"/>
-      <c r="E34" s="174">
-        <v>1591257900000</v>
-      </c>
-      <c r="F34" s="174">
-        <v>1591259700000</v>
-      </c>
-      <c r="G34" s="174">
-        <v>27</v>
-      </c>
-      <c r="H34" s="174">
-        <v>32</v>
-      </c>
-      <c r="I34" s="176"/>
-    </row>
-    <row r="35" ht="20" customHeight="1">
-      <c r="A35" s="133">
-        <v>1</v>
-      </c>
-      <c r="B35" t="s" s="172">
-        <v>256</v>
-      </c>
-      <c r="C35" s="173"/>
-      <c r="D35" s="173"/>
-      <c r="E35" s="174">
-        <v>1591259700000</v>
-      </c>
-      <c r="F35" s="174">
-        <v>1591261500000</v>
-      </c>
-      <c r="G35" s="174">
-        <v>28</v>
-      </c>
-      <c r="H35" s="175">
-        <v>33</v>
-      </c>
-      <c r="I35" s="176"/>
-    </row>
-    <row r="36" ht="20" customHeight="1">
-      <c r="A36" s="133">
-        <v>1</v>
-      </c>
-      <c r="B36" t="s" s="172">
-        <v>257</v>
-      </c>
-      <c r="C36" s="173"/>
-      <c r="D36" s="173"/>
-      <c r="E36" s="174">
-        <v>1591261500000</v>
-      </c>
-      <c r="F36" s="174">
-        <v>1591263000000</v>
-      </c>
-      <c r="G36" s="174">
-        <v>27</v>
-      </c>
-      <c r="H36" s="174">
-        <v>34</v>
-      </c>
-      <c r="I36" s="176"/>
-    </row>
-    <row r="37" ht="20" customHeight="1">
-      <c r="A37" s="133">
-        <v>1</v>
-      </c>
-      <c r="B37" t="s" s="177">
-        <v>258</v>
-      </c>
-      <c r="C37" s="178"/>
-      <c r="D37" s="178"/>
-      <c r="E37" s="179">
-        <v>1591318800000</v>
-      </c>
-      <c r="F37" s="179">
-        <v>1591319400000</v>
-      </c>
-      <c r="G37" s="179">
-        <v>9</v>
-      </c>
-      <c r="H37" s="180">
-        <v>35</v>
-      </c>
-      <c r="I37" s="181"/>
-    </row>
-    <row r="38" ht="20" customHeight="1">
-      <c r="A38" s="133">
-        <v>1</v>
-      </c>
-      <c r="B38" t="s" s="177">
-        <v>259</v>
-      </c>
-      <c r="C38" s="178"/>
-      <c r="D38" s="178"/>
-      <c r="E38" s="179">
-        <v>1591319400000</v>
-      </c>
-      <c r="F38" s="179">
-        <v>1591321200000</v>
-      </c>
-      <c r="G38" s="179">
-        <v>10</v>
-      </c>
-      <c r="H38" s="179">
-        <v>36</v>
-      </c>
-      <c r="I38" s="181"/>
-    </row>
-    <row r="39" ht="20" customHeight="1">
-      <c r="A39" s="133">
-        <v>1</v>
-      </c>
-      <c r="B39" t="s" s="177">
-        <v>260</v>
-      </c>
-      <c r="C39" s="178"/>
-      <c r="D39" s="178"/>
-      <c r="E39" s="179">
-        <v>1591321200000</v>
-      </c>
-      <c r="F39" s="179">
-        <v>1591324200000</v>
-      </c>
-      <c r="G39" s="179">
-        <v>0</v>
-      </c>
-      <c r="H39" s="180">
-        <v>37</v>
-      </c>
-      <c r="I39" s="181"/>
-    </row>
-    <row r="40" ht="20" customHeight="1">
-      <c r="A40" s="133">
-        <v>1</v>
-      </c>
-      <c r="B40" t="s" s="177">
-        <v>261</v>
-      </c>
-      <c r="C40" s="178"/>
-      <c r="D40" s="178"/>
-      <c r="E40" s="179">
-        <v>1591324200000</v>
-      </c>
-      <c r="F40" s="179">
-        <v>1591326000000</v>
-      </c>
-      <c r="G40" s="179">
-        <v>11</v>
-      </c>
-      <c r="H40" s="179">
-        <v>38</v>
-      </c>
-      <c r="I40" s="181"/>
-    </row>
-    <row r="41" ht="20" customHeight="1">
-      <c r="A41" s="133">
-        <v>1</v>
-      </c>
-      <c r="B41" t="s" s="177">
-        <v>262</v>
-      </c>
-      <c r="C41" s="178"/>
-      <c r="D41" s="178"/>
-      <c r="E41" s="179">
-        <v>1591326600000</v>
-      </c>
-      <c r="F41" s="179">
-        <v>1591327500000</v>
-      </c>
-      <c r="G41" s="179">
-        <v>2</v>
-      </c>
-      <c r="H41" s="180">
-        <v>39</v>
-      </c>
-      <c r="I41" s="181"/>
-    </row>
-    <row r="42" ht="20" customHeight="1">
-      <c r="A42" s="133">
-        <v>1</v>
-      </c>
-      <c r="B42" t="s" s="177">
-        <v>263</v>
-      </c>
-      <c r="C42" s="178"/>
-      <c r="D42" s="178"/>
-      <c r="E42" s="179">
-        <v>1591327500000</v>
-      </c>
-      <c r="F42" s="179">
-        <v>1591329600000</v>
-      </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="182">
-        <v>40</v>
-      </c>
-      <c r="I42" s="183"/>
-    </row>
-    <row r="43" ht="20" customHeight="1">
-      <c r="A43" s="133">
-        <v>1</v>
-      </c>
-      <c r="B43" t="s" s="177">
-        <v>264</v>
-      </c>
-      <c r="C43" s="178"/>
-      <c r="D43" s="178"/>
-      <c r="E43" s="179">
-        <v>1591329600000</v>
-      </c>
-      <c r="F43" s="179">
-        <v>1591336800000</v>
-      </c>
-      <c r="G43" s="178"/>
-      <c r="H43" s="184">
-        <v>41</v>
-      </c>
-      <c r="I43" s="183"/>
-    </row>
-    <row r="44" ht="20" customHeight="1">
-      <c r="A44" s="133">
-        <v>1</v>
-      </c>
-      <c r="B44" t="s" s="185">
-        <v>265</v>
+      <c r="B44" t="s" s="190">
+        <v>268</v>
       </c>
       <c r="C44" s="40"/>
       <c r="D44" s="40"/>
-      <c r="E44" s="142">
+      <c r="E44" s="147">
         <v>1591336800000</v>
       </c>
-      <c r="F44" s="142">
+      <c r="F44" s="147">
         <v>1591338600000</v>
       </c>
-      <c r="G44" s="142">
+      <c r="G44" s="147">
         <v>12</v>
       </c>
-      <c r="H44" s="136">
+      <c r="H44" s="141">
         <v>42</v>
       </c>
-      <c r="I44" s="186"/>
+      <c r="I44" s="191"/>
     </row>
     <row r="45" ht="20" customHeight="1">
-      <c r="A45" s="133">
+      <c r="A45" s="138">
         <v>1</v>
       </c>
-      <c r="B45" t="s" s="185">
-        <v>266</v>
+      <c r="B45" t="s" s="190">
+        <v>269</v>
       </c>
       <c r="C45" s="40"/>
       <c r="D45" s="40"/>
-      <c r="E45" s="142">
+      <c r="E45" s="147">
         <v>1591338600000</v>
       </c>
-      <c r="F45" s="142">
+      <c r="F45" s="147">
         <v>1591340400000</v>
       </c>
-      <c r="G45" s="142">
+      <c r="G45" s="147">
         <v>13</v>
       </c>
-      <c r="H45" s="139">
+      <c r="H45" s="144">
         <v>43</v>
       </c>
-      <c r="I45" s="186"/>
+      <c r="I45" s="191"/>
     </row>
     <row r="46" ht="20" customHeight="1">
-      <c r="A46" s="133">
+      <c r="A46" s="138">
         <v>1</v>
       </c>
-      <c r="B46" t="s" s="185">
-        <v>267</v>
+      <c r="B46" t="s" s="190">
+        <v>270</v>
       </c>
       <c r="C46" s="40"/>
       <c r="D46" s="40"/>
-      <c r="E46" s="142">
+      <c r="E46" s="147">
         <v>1591340400000</v>
       </c>
-      <c r="F46" s="142">
+      <c r="F46" s="147">
         <v>1591342200000</v>
       </c>
-      <c r="G46" s="142">
+      <c r="G46" s="147">
         <v>14</v>
       </c>
-      <c r="H46" s="136">
+      <c r="H46" s="141">
         <v>44</v>
       </c>
-      <c r="I46" s="186"/>
+      <c r="I46" s="191"/>
     </row>
     <row r="47" ht="20" customHeight="1">
-      <c r="A47" s="133">
+      <c r="A47" s="138">
         <v>1</v>
       </c>
-      <c r="B47" t="s" s="185">
-        <v>238</v>
+      <c r="B47" t="s" s="190">
+        <v>241</v>
       </c>
       <c r="C47" s="40"/>
       <c r="D47" s="40"/>
-      <c r="E47" s="142">
+      <c r="E47" s="147">
         <v>1591342200000</v>
       </c>
-      <c r="F47" s="142">
+      <c r="F47" s="147">
         <v>1591344000000</v>
       </c>
       <c r="G47" s="40"/>
-      <c r="H47" s="140">
+      <c r="H47" s="145">
         <v>45</v>
       </c>
-      <c r="I47" s="187"/>
+      <c r="I47" s="192"/>
     </row>
     <row r="48" ht="20" customHeight="1">
-      <c r="A48" s="133">
+      <c r="A48" s="138">
         <v>1</v>
       </c>
-      <c r="B48" t="s" s="188">
-        <v>268</v>
-      </c>
-      <c r="C48" s="189"/>
-      <c r="D48" s="189"/>
-      <c r="E48" s="190">
+      <c r="B48" t="s" s="193">
+        <v>271</v>
+      </c>
+      <c r="C48" s="194"/>
+      <c r="D48" s="194"/>
+      <c r="E48" s="195">
         <v>1591344000000</v>
       </c>
-      <c r="F48" s="190">
+      <c r="F48" s="195">
         <v>1591345800000</v>
       </c>
-      <c r="G48" s="190">
+      <c r="G48" s="195">
         <v>15</v>
       </c>
-      <c r="H48" s="190">
+      <c r="H48" s="195">
         <v>46</v>
       </c>
-      <c r="I48" s="191"/>
+      <c r="I48" s="196"/>
     </row>
     <row r="49" ht="20" customHeight="1">
-      <c r="A49" s="133">
+      <c r="A49" s="138">
         <v>1</v>
       </c>
-      <c r="B49" t="s" s="188">
-        <v>269</v>
-      </c>
-      <c r="C49" s="189"/>
-      <c r="D49" s="189"/>
-      <c r="E49" s="190">
+      <c r="B49" t="s" s="193">
+        <v>272</v>
+      </c>
+      <c r="C49" s="194"/>
+      <c r="D49" s="194"/>
+      <c r="E49" s="195">
         <v>1591345800000</v>
       </c>
-      <c r="F49" s="190">
+      <c r="F49" s="195">
         <v>1591347600000</v>
       </c>
-      <c r="G49" s="190">
+      <c r="G49" s="195">
         <v>16</v>
       </c>
-      <c r="H49" s="192">
+      <c r="H49" s="197">
         <v>47</v>
       </c>
-      <c r="I49" s="191"/>
+      <c r="I49" s="196"/>
     </row>
     <row r="50" ht="20" customHeight="1">
-      <c r="A50" s="133">
+      <c r="A50" s="138">
         <v>1</v>
       </c>
-      <c r="B50" t="s" s="188">
-        <v>270</v>
-      </c>
-      <c r="C50" s="189"/>
-      <c r="D50" s="189"/>
-      <c r="E50" s="190">
+      <c r="B50" t="s" s="193">
+        <v>273</v>
+      </c>
+      <c r="C50" s="194"/>
+      <c r="D50" s="194"/>
+      <c r="E50" s="195">
         <v>1591347600000</v>
       </c>
-      <c r="F50" s="190">
+      <c r="F50" s="195">
         <v>1591349400000</v>
       </c>
-      <c r="G50" s="190">
+      <c r="G50" s="195">
         <v>17</v>
       </c>
-      <c r="H50" s="190">
+      <c r="H50" s="195">
         <v>48</v>
       </c>
-      <c r="I50" s="191"/>
+      <c r="I50" s="196"/>
     </row>
     <row r="51" ht="20" customHeight="1">
-      <c r="A51" s="133">
+      <c r="A51" s="138">
         <v>1</v>
       </c>
-      <c r="B51" t="s" s="188">
-        <v>271</v>
-      </c>
-      <c r="C51" s="189"/>
-      <c r="D51" s="189"/>
-      <c r="E51" s="190">
+      <c r="B51" t="s" s="193">
+        <v>274</v>
+      </c>
+      <c r="C51" s="194"/>
+      <c r="D51" s="194"/>
+      <c r="E51" s="195">
         <v>1591349400000</v>
       </c>
-      <c r="F51" s="190">
+      <c r="F51" s="195">
         <v>1591351200000</v>
       </c>
-      <c r="G51" s="190">
-        <v>29</v>
-      </c>
-      <c r="H51" s="192">
+      <c r="G51" s="195">
+        <v>62</v>
+      </c>
+      <c r="H51" s="197">
         <v>49</v>
       </c>
-      <c r="I51" s="191"/>
+      <c r="I51" s="196"/>
     </row>
     <row r="52" ht="20" customHeight="1">
-      <c r="A52" s="133">
+      <c r="A52" s="138">
         <v>0</v>
       </c>
-      <c r="B52" t="s" s="134">
-        <v>272</v>
-      </c>
-      <c r="C52" s="135"/>
-      <c r="D52" t="s" s="134">
-        <v>273</v>
-      </c>
-      <c r="E52" s="135"/>
-      <c r="F52" s="135"/>
-      <c r="G52" s="136">
+      <c r="B52" t="s" s="139">
+        <v>275</v>
+      </c>
+      <c r="C52" s="140"/>
+      <c r="D52" t="s" s="139">
+        <v>276</v>
+      </c>
+      <c r="E52" s="140"/>
+      <c r="F52" s="140"/>
+      <c r="G52" s="141">
         <v>32</v>
       </c>
-      <c r="H52" s="193">
+      <c r="H52" s="198">
         <v>50</v>
       </c>
-      <c r="I52" t="s" s="138">
-        <v>274</v>
+      <c r="I52" t="s" s="143">
+        <v>277</v>
       </c>
     </row>
     <row r="53" ht="20" customHeight="1">
-      <c r="A53" s="133">
+      <c r="A53" s="138">
         <v>0</v>
       </c>
-      <c r="B53" t="s" s="134">
-        <v>275</v>
-      </c>
-      <c r="C53" s="135"/>
-      <c r="D53" t="s" s="134">
-        <v>276</v>
-      </c>
-      <c r="E53" s="135"/>
-      <c r="F53" s="135"/>
-      <c r="G53" s="139">
+      <c r="B53" t="s" s="139">
+        <v>278</v>
+      </c>
+      <c r="C53" s="140"/>
+      <c r="D53" t="s" s="139">
+        <v>279</v>
+      </c>
+      <c r="E53" s="140"/>
+      <c r="F53" s="140"/>
+      <c r="G53" s="144">
         <v>35</v>
       </c>
-      <c r="H53" s="193">
+      <c r="H53" s="198">
         <v>51</v>
       </c>
-      <c r="I53" t="s" s="138">
-        <v>274</v>
+      <c r="I53" t="s" s="143">
+        <v>277</v>
       </c>
     </row>
     <row r="54" ht="20" customHeight="1">
-      <c r="A54" s="133">
+      <c r="A54" s="138">
         <v>0</v>
       </c>
-      <c r="B54" t="s" s="141">
+      <c r="B54" t="s" s="146">
         <v>39</v>
       </c>
       <c r="C54" s="40"/>
       <c r="D54" s="40"/>
       <c r="E54" s="40"/>
       <c r="F54" s="40"/>
-      <c r="G54" s="142">
+      <c r="G54" s="147">
         <v>32</v>
       </c>
-      <c r="H54" s="193">
+      <c r="H54" s="198">
         <v>52</v>
       </c>
-      <c r="I54" t="s" s="143">
-        <v>277</v>
+      <c r="I54" t="s" s="148">
+        <v>280</v>
       </c>
     </row>
     <row r="55" ht="20" customHeight="1">
       <c r="A55" s="93">
         <v>0</v>
       </c>
-      <c r="B55" t="s" s="144">
-        <v>278</v>
-      </c>
-      <c r="C55" s="145"/>
-      <c r="D55" s="145"/>
-      <c r="E55" s="146">
+      <c r="B55" t="s" s="149">
+        <v>281</v>
+      </c>
+      <c r="C55" s="150"/>
+      <c r="D55" s="150"/>
+      <c r="E55" s="151">
         <v>1578547800000</v>
       </c>
-      <c r="F55" s="146">
+      <c r="F55" s="151">
         <v>1578549600000</v>
       </c>
-      <c r="G55" s="145"/>
-      <c r="H55" s="193">
+      <c r="G55" s="150"/>
+      <c r="H55" s="198">
         <v>53</v>
       </c>
-      <c r="I55" t="s" s="148">
-        <v>279</v>
+      <c r="I55" t="s" s="153">
+        <v>282</v>
       </c>
     </row>
     <row r="56" ht="20" customHeight="1">
-      <c r="A56" s="133">
+      <c r="A56" s="138">
         <v>0</v>
       </c>
-      <c r="B56" t="s" s="149">
-        <v>280</v>
-      </c>
-      <c r="C56" s="145"/>
-      <c r="D56" s="145"/>
-      <c r="E56" s="146">
+      <c r="B56" t="s" s="154">
+        <v>283</v>
+      </c>
+      <c r="C56" s="150"/>
+      <c r="D56" s="150"/>
+      <c r="E56" s="151">
         <v>1578549600000</v>
       </c>
-      <c r="F56" s="146">
+      <c r="F56" s="151">
         <v>1578550200000</v>
       </c>
-      <c r="G56" t="s" s="149">
-        <v>281</v>
-      </c>
-      <c r="H56" s="193">
+      <c r="G56" t="s" s="154">
+        <v>284</v>
+      </c>
+      <c r="H56" s="198">
         <v>54</v>
       </c>
-      <c r="I56" t="s" s="148">
-        <v>279</v>
+      <c r="I56" t="s" s="153">
+        <v>282</v>
       </c>
     </row>
     <row r="57" ht="20" customHeight="1">
-      <c r="A57" s="133">
+      <c r="A57" s="138">
         <v>0</v>
       </c>
-      <c r="B57" t="s" s="149">
+      <c r="B57" t="s" s="154">
+        <v>285</v>
+      </c>
+      <c r="C57" s="150"/>
+      <c r="D57" s="150"/>
+      <c r="E57" s="151">
+        <v>1578550200000</v>
+      </c>
+      <c r="F57" s="151">
+        <v>1578552000000</v>
+      </c>
+      <c r="G57" s="156">
+        <v>31</v>
+      </c>
+      <c r="H57" s="198">
+        <v>55</v>
+      </c>
+      <c r="I57" t="s" s="153">
         <v>282</v>
       </c>
-      <c r="C57" s="145"/>
-      <c r="D57" s="145"/>
-      <c r="E57" s="146">
-        <v>1578550200000</v>
-      </c>
-      <c r="F57" s="146">
+    </row>
+    <row r="58" ht="20" customHeight="1">
+      <c r="A58" s="138">
+        <v>0</v>
+      </c>
+      <c r="B58" t="s" s="157">
+        <v>240</v>
+      </c>
+      <c r="C58" s="150"/>
+      <c r="D58" s="150"/>
+      <c r="E58" s="151">
         <v>1578552000000</v>
       </c>
-      <c r="G57" s="151">
-        <v>31</v>
-      </c>
-      <c r="H57" s="193">
-        <v>55</v>
-      </c>
-      <c r="I57" t="s" s="148">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="58" ht="20" customHeight="1">
-      <c r="A58" s="133">
+      <c r="F58" s="151">
+        <v>1578553800000</v>
+      </c>
+      <c r="G58" s="151">
+        <v>32</v>
+      </c>
+      <c r="H58" s="198">
+        <v>56</v>
+      </c>
+      <c r="I58" t="s" s="153">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="59" ht="20" customHeight="1">
+      <c r="A59" s="138">
         <v>0</v>
       </c>
-      <c r="B58" t="s" s="152">
-        <v>237</v>
-      </c>
-      <c r="C58" s="145"/>
-      <c r="D58" s="145"/>
-      <c r="E58" s="146">
-        <v>1578552000000</v>
-      </c>
-      <c r="F58" s="146">
+      <c r="B59" t="s" s="154">
+        <v>286</v>
+      </c>
+      <c r="C59" s="150"/>
+      <c r="D59" s="150"/>
+      <c r="E59" s="151">
         <v>1578553800000</v>
       </c>
-      <c r="G58" s="146">
-        <v>32</v>
-      </c>
-      <c r="H58" s="193">
-        <v>56</v>
-      </c>
-      <c r="I58" t="s" s="148">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="59" ht="20" customHeight="1">
-      <c r="A59" s="133">
+      <c r="F59" s="151">
+        <v>1578555000000</v>
+      </c>
+      <c r="G59" s="158"/>
+      <c r="H59" s="198">
+        <v>57</v>
+      </c>
+      <c r="I59" t="s" s="153">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="60" ht="20" customHeight="1">
+      <c r="A60" s="138">
         <v>0</v>
       </c>
-      <c r="B59" t="s" s="149">
-        <v>283</v>
-      </c>
-      <c r="C59" s="145"/>
-      <c r="D59" s="145"/>
-      <c r="E59" s="146">
-        <v>1578553800000</v>
-      </c>
-      <c r="F59" s="146">
+      <c r="B60" t="s" s="154">
+        <v>287</v>
+      </c>
+      <c r="C60" s="150"/>
+      <c r="D60" s="150"/>
+      <c r="E60" s="151">
         <v>1578555000000</v>
       </c>
-      <c r="G59" s="153"/>
-      <c r="H59" s="193">
-        <v>57</v>
-      </c>
-      <c r="I59" t="s" s="148">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="60" ht="20" customHeight="1">
-      <c r="A60" s="133">
+      <c r="F60" s="151">
+        <v>1578556800000</v>
+      </c>
+      <c r="G60" s="156">
+        <v>33</v>
+      </c>
+      <c r="H60" s="198">
+        <v>58</v>
+      </c>
+      <c r="I60" t="s" s="153">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="61" ht="20" customHeight="1">
+      <c r="A61" s="138">
         <v>0</v>
       </c>
-      <c r="B60" t="s" s="149">
-        <v>284</v>
-      </c>
-      <c r="C60" s="145"/>
-      <c r="D60" s="145"/>
-      <c r="E60" s="146">
-        <v>1578555000000</v>
-      </c>
-      <c r="F60" s="146">
+      <c r="B61" t="s" s="154">
+        <v>288</v>
+      </c>
+      <c r="C61" s="150"/>
+      <c r="D61" s="150"/>
+      <c r="E61" s="151">
         <v>1578556800000</v>
       </c>
-      <c r="G60" s="151">
-        <v>33</v>
-      </c>
-      <c r="H60" s="193">
-        <v>58</v>
-      </c>
-      <c r="I60" t="s" s="148">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="61" ht="20" customHeight="1">
-      <c r="A61" s="133">
+      <c r="F61" s="151">
+        <v>1578558600000</v>
+      </c>
+      <c r="G61" s="156">
+        <v>34</v>
+      </c>
+      <c r="H61" s="198">
+        <v>59</v>
+      </c>
+      <c r="I61" t="s" s="153">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="62" ht="20" customHeight="1">
+      <c r="A62" s="138">
         <v>0</v>
       </c>
-      <c r="B61" t="s" s="149">
-        <v>285</v>
-      </c>
-      <c r="C61" s="145"/>
-      <c r="D61" s="145"/>
-      <c r="E61" s="146">
-        <v>1578556800000</v>
-      </c>
-      <c r="F61" s="146">
+      <c r="B62" t="s" s="154">
+        <v>289</v>
+      </c>
+      <c r="C62" s="150"/>
+      <c r="D62" s="150"/>
+      <c r="E62" s="151">
         <v>1578558600000</v>
       </c>
-      <c r="G61" s="151">
-        <v>34</v>
-      </c>
-      <c r="H61" s="193">
-        <v>59</v>
-      </c>
-      <c r="I61" t="s" s="148">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="62" ht="20" customHeight="1">
-      <c r="A62" s="133">
-        <v>0</v>
-      </c>
-      <c r="B62" t="s" s="149">
-        <v>286</v>
-      </c>
-      <c r="C62" s="145"/>
-      <c r="D62" s="145"/>
-      <c r="E62" s="146">
-        <v>1578558600000</v>
-      </c>
-      <c r="F62" s="146">
+      <c r="F62" s="151">
         <v>1578559800000</v>
       </c>
-      <c r="G62" s="145"/>
-      <c r="H62" s="193">
+      <c r="G62" s="150"/>
+      <c r="H62" s="198">
         <v>60</v>
       </c>
-      <c r="I62" t="s" s="148">
-        <v>279</v>
+      <c r="I62" t="s" s="153">
+        <v>282</v>
       </c>
     </row>
     <row r="63" ht="20" customHeight="1">
       <c r="A63" s="93">
         <v>0</v>
       </c>
-      <c r="B63" t="s" s="154">
-        <v>278</v>
-      </c>
-      <c r="C63" s="155"/>
-      <c r="D63" s="155"/>
-      <c r="E63" s="156">
+      <c r="B63" t="s" s="159">
+        <v>281</v>
+      </c>
+      <c r="C63" s="160"/>
+      <c r="D63" s="160"/>
+      <c r="E63" s="161">
         <v>1571203800000</v>
       </c>
-      <c r="F63" s="156">
+      <c r="F63" s="161">
         <v>1571205600000</v>
       </c>
-      <c r="G63" s="155"/>
-      <c r="H63" s="192">
+      <c r="G63" s="160"/>
+      <c r="H63" s="197">
         <v>61</v>
       </c>
-      <c r="I63" t="s" s="158">
-        <v>287</v>
+      <c r="I63" t="s" s="163">
+        <v>290</v>
       </c>
     </row>
     <row r="64" ht="20" customHeight="1">
-      <c r="A64" s="133">
+      <c r="A64" s="138">
         <v>0</v>
       </c>
-      <c r="B64" t="s" s="159">
-        <v>280</v>
-      </c>
-      <c r="C64" s="155"/>
-      <c r="D64" s="155"/>
-      <c r="E64" s="156">
+      <c r="B64" t="s" s="164">
+        <v>283</v>
+      </c>
+      <c r="C64" s="160"/>
+      <c r="D64" s="160"/>
+      <c r="E64" s="161">
         <v>1571205600000</v>
       </c>
-      <c r="F64" s="156">
+      <c r="F64" s="161">
         <v>1571206200000</v>
       </c>
-      <c r="G64" s="156">
+      <c r="G64" s="161">
         <v>30</v>
       </c>
-      <c r="H64" s="192">
+      <c r="H64" s="197">
         <v>62</v>
       </c>
-      <c r="I64" t="s" s="158">
-        <v>287</v>
+      <c r="I64" t="s" s="163">
+        <v>290</v>
       </c>
     </row>
     <row r="65" ht="20" customHeight="1">
-      <c r="A65" s="133">
+      <c r="A65" s="138">
         <v>0</v>
       </c>
-      <c r="B65" t="s" s="160">
+      <c r="B65" t="s" s="165">
+        <v>291</v>
+      </c>
+      <c r="C65" s="160"/>
+      <c r="D65" s="160"/>
+      <c r="E65" s="161">
+        <v>1571206200000</v>
+      </c>
+      <c r="F65" s="161">
+        <v>1571208000000</v>
+      </c>
+      <c r="G65" s="161">
+        <v>52</v>
+      </c>
+      <c r="H65" s="197">
+        <v>63</v>
+      </c>
+      <c r="I65" t="s" s="163">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="66" ht="20" customHeight="1">
+      <c r="A66" s="138">
+        <v>0</v>
+      </c>
+      <c r="B66" t="s" s="164">
+        <v>292</v>
+      </c>
+      <c r="C66" s="160"/>
+      <c r="D66" s="160"/>
+      <c r="E66" s="161">
+        <v>1571208000000</v>
+      </c>
+      <c r="F66" s="161">
+        <v>1571209800000</v>
+      </c>
+      <c r="G66" s="161">
+        <v>32</v>
+      </c>
+      <c r="H66" s="197">
+        <v>64</v>
+      </c>
+      <c r="I66" t="s" s="163">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="67" ht="20" customHeight="1">
+      <c r="A67" s="138">
+        <v>0</v>
+      </c>
+      <c r="B67" t="s" s="164">
+        <v>286</v>
+      </c>
+      <c r="C67" s="160"/>
+      <c r="D67" s="160"/>
+      <c r="E67" s="161">
+        <v>1571209800000</v>
+      </c>
+      <c r="F67" s="161">
+        <v>1571211000000</v>
+      </c>
+      <c r="G67" s="160"/>
+      <c r="H67" s="197">
+        <v>65</v>
+      </c>
+      <c r="I67" t="s" s="163">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="68" ht="20" customHeight="1">
+      <c r="A68" s="138">
+        <v>0</v>
+      </c>
+      <c r="B68" t="s" s="164">
         <v>288</v>
       </c>
-      <c r="C65" s="155"/>
-      <c r="D65" s="155"/>
-      <c r="E65" s="156">
-        <v>1571206200000</v>
-      </c>
-      <c r="F65" s="156">
-        <v>1571208000000</v>
-      </c>
-      <c r="G65" s="156">
-        <v>52</v>
-      </c>
-      <c r="H65" s="192">
-        <v>63</v>
-      </c>
-      <c r="I65" t="s" s="158">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="66" ht="20" customHeight="1">
-      <c r="A66" s="133">
+      <c r="C68" s="160"/>
+      <c r="D68" s="160"/>
+      <c r="E68" s="161">
+        <v>1571211000000</v>
+      </c>
+      <c r="F68" s="161">
+        <v>1571212800000</v>
+      </c>
+      <c r="G68" s="161">
+        <v>34</v>
+      </c>
+      <c r="H68" s="197">
+        <v>66</v>
+      </c>
+      <c r="I68" t="s" s="163">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="69" ht="20" customHeight="1">
+      <c r="A69" s="138">
         <v>0</v>
       </c>
-      <c r="B66" t="s" s="159">
+      <c r="B69" t="s" s="164">
+        <v>293</v>
+      </c>
+      <c r="C69" s="160"/>
+      <c r="D69" s="160"/>
+      <c r="E69" s="161">
+        <v>1571212800000</v>
+      </c>
+      <c r="F69" s="161">
+        <v>1571214600000</v>
+      </c>
+      <c r="G69" s="161">
+        <v>49</v>
+      </c>
+      <c r="H69" s="197">
+        <v>67</v>
+      </c>
+      <c r="I69" t="s" s="163">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="70" ht="20" customHeight="1">
+      <c r="A70" s="138">
+        <v>0</v>
+      </c>
+      <c r="B70" t="s" s="165">
         <v>289</v>
       </c>
-      <c r="C66" s="155"/>
-      <c r="D66" s="155"/>
-      <c r="E66" s="156">
-        <v>1571208000000</v>
-      </c>
-      <c r="F66" s="156">
-        <v>1571209800000</v>
-      </c>
-      <c r="G66" s="156">
+      <c r="C70" s="160"/>
+      <c r="D70" s="160"/>
+      <c r="E70" s="161">
+        <v>1571214600000</v>
+      </c>
+      <c r="F70" s="161">
+        <v>1571215800000</v>
+      </c>
+      <c r="G70" s="160"/>
+      <c r="H70" s="197">
+        <v>68</v>
+      </c>
+      <c r="I70" t="s" s="163">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="71" ht="20" customHeight="1">
+      <c r="A71" s="138">
+        <v>0</v>
+      </c>
+      <c r="B71" t="s" s="199">
+        <v>281</v>
+      </c>
+      <c r="C71" s="170"/>
+      <c r="D71" s="170"/>
+      <c r="E71" s="171">
+        <v>1567575000000</v>
+      </c>
+      <c r="F71" s="171">
+        <v>1567576800000</v>
+      </c>
+      <c r="G71" s="170"/>
+      <c r="H71" s="198">
+        <v>69</v>
+      </c>
+      <c r="I71" t="s" s="173">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="72" ht="20" customHeight="1">
+      <c r="A72" s="138">
+        <v>0</v>
+      </c>
+      <c r="B72" t="s" s="199">
+        <v>283</v>
+      </c>
+      <c r="C72" s="170"/>
+      <c r="D72" s="170"/>
+      <c r="E72" s="171">
+        <v>1567576800000</v>
+      </c>
+      <c r="F72" s="171">
+        <v>1567577400000</v>
+      </c>
+      <c r="G72" s="171">
+        <v>30</v>
+      </c>
+      <c r="H72" s="198">
+        <v>70</v>
+      </c>
+      <c r="I72" t="s" s="173">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="73" ht="20" customHeight="1">
+      <c r="A73" s="138">
+        <v>0</v>
+      </c>
+      <c r="B73" t="s" s="169">
+        <v>295</v>
+      </c>
+      <c r="C73" s="170"/>
+      <c r="D73" s="170"/>
+      <c r="E73" s="171">
+        <v>1567577400000</v>
+      </c>
+      <c r="F73" s="171">
+        <v>1567579200000</v>
+      </c>
+      <c r="G73" s="171">
+        <v>36</v>
+      </c>
+      <c r="H73" s="198">
+        <v>71</v>
+      </c>
+      <c r="I73" t="s" s="173">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="74" ht="20" customHeight="1">
+      <c r="A74" s="138">
+        <v>0</v>
+      </c>
+      <c r="B74" t="s" s="199">
+        <v>296</v>
+      </c>
+      <c r="C74" s="170"/>
+      <c r="D74" s="170"/>
+      <c r="E74" s="171">
+        <v>1567579200000</v>
+      </c>
+      <c r="F74" s="171">
+        <v>1567581000000</v>
+      </c>
+      <c r="G74" s="171">
+        <v>37</v>
+      </c>
+      <c r="H74" s="198">
+        <v>72</v>
+      </c>
+      <c r="I74" t="s" s="173">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="75" ht="20" customHeight="1">
+      <c r="A75" s="138">
+        <v>0</v>
+      </c>
+      <c r="B75" t="s" s="199">
+        <v>286</v>
+      </c>
+      <c r="C75" s="170"/>
+      <c r="D75" s="170"/>
+      <c r="E75" s="171">
+        <v>1567581000000</v>
+      </c>
+      <c r="F75" s="171">
+        <v>1567582200000</v>
+      </c>
+      <c r="G75" s="170"/>
+      <c r="H75" s="198">
+        <v>73</v>
+      </c>
+      <c r="I75" t="s" s="173">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="76" ht="20" customHeight="1">
+      <c r="A76" s="138">
+        <v>0</v>
+      </c>
+      <c r="B76" t="s" s="199">
+        <v>297</v>
+      </c>
+      <c r="C76" s="170"/>
+      <c r="D76" s="170"/>
+      <c r="E76" s="171">
+        <v>1567582200000</v>
+      </c>
+      <c r="F76" s="171">
+        <v>1567583400000</v>
+      </c>
+      <c r="G76" s="171">
+        <v>34</v>
+      </c>
+      <c r="H76" s="198">
+        <v>74</v>
+      </c>
+      <c r="I76" t="s" s="173">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="77" ht="20" customHeight="1">
+      <c r="A77" s="138">
+        <v>0</v>
+      </c>
+      <c r="B77" t="s" s="199">
+        <v>292</v>
+      </c>
+      <c r="C77" s="170"/>
+      <c r="D77" s="170"/>
+      <c r="E77" s="171">
+        <v>1567583400000</v>
+      </c>
+      <c r="F77" s="171">
+        <v>1567585200000</v>
+      </c>
+      <c r="G77" s="171">
         <v>32</v>
       </c>
-      <c r="H66" s="192">
-        <v>64</v>
-      </c>
-      <c r="I66" t="s" s="158">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="67" ht="20" customHeight="1">
-      <c r="A67" s="133">
+      <c r="H77" s="198">
+        <v>75</v>
+      </c>
+      <c r="I77" t="s" s="173">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="78" ht="20" customHeight="1">
+      <c r="A78" s="138">
         <v>0</v>
       </c>
-      <c r="B67" t="s" s="159">
-        <v>283</v>
-      </c>
-      <c r="C67" s="155"/>
-      <c r="D67" s="155"/>
-      <c r="E67" s="156">
-        <v>1571209800000</v>
-      </c>
-      <c r="F67" s="156">
-        <v>1571211000000</v>
-      </c>
-      <c r="G67" s="155"/>
-      <c r="H67" s="192">
-        <v>65</v>
-      </c>
-      <c r="I67" t="s" s="158">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="68" ht="20" customHeight="1">
-      <c r="A68" s="133">
+      <c r="B78" t="s" s="199">
+        <v>289</v>
+      </c>
+      <c r="C78" s="170"/>
+      <c r="D78" s="170"/>
+      <c r="E78" s="171">
+        <v>1567585200000</v>
+      </c>
+      <c r="F78" s="171">
+        <v>1567586400000</v>
+      </c>
+      <c r="G78" s="170"/>
+      <c r="H78" s="198">
+        <v>76</v>
+      </c>
+      <c r="I78" t="s" s="173">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="79" ht="20" customHeight="1">
+      <c r="A79" s="138">
         <v>0</v>
       </c>
-      <c r="B68" t="s" s="159">
-        <v>285</v>
-      </c>
-      <c r="C68" s="155"/>
-      <c r="D68" s="155"/>
-      <c r="E68" s="156">
-        <v>1571211000000</v>
-      </c>
-      <c r="F68" s="156">
-        <v>1571212800000</v>
-      </c>
-      <c r="G68" s="156">
-        <v>34</v>
-      </c>
-      <c r="H68" s="192">
-        <v>66</v>
-      </c>
-      <c r="I68" t="s" s="158">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="69" ht="20" customHeight="1">
-      <c r="A69" s="133">
+      <c r="B79" t="s" s="200">
+        <v>298</v>
+      </c>
+      <c r="C79" s="178"/>
+      <c r="D79" s="178"/>
+      <c r="E79" s="179">
+        <v>1591250400000</v>
+      </c>
+      <c r="F79" s="179">
+        <v>1591252200000</v>
+      </c>
+      <c r="G79" s="179">
+        <v>53</v>
+      </c>
+      <c r="H79" s="197">
+        <v>77</v>
+      </c>
+      <c r="I79" s="181"/>
+    </row>
+    <row r="80" ht="20" customHeight="1">
+      <c r="A80" s="138">
         <v>0</v>
       </c>
-      <c r="B69" t="s" s="159">
-        <v>290</v>
-      </c>
-      <c r="C69" s="155"/>
-      <c r="D69" s="155"/>
-      <c r="E69" s="156">
-        <v>1571212800000</v>
-      </c>
-      <c r="F69" s="156">
-        <v>1571214600000</v>
-      </c>
-      <c r="G69" s="156">
-        <v>49</v>
-      </c>
-      <c r="H69" s="192">
-        <v>67</v>
-      </c>
-      <c r="I69" t="s" s="158">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="70" ht="20" customHeight="1">
-      <c r="A70" s="133">
+      <c r="B80" t="s" s="200">
+        <v>299</v>
+      </c>
+      <c r="C80" s="178"/>
+      <c r="D80" s="178"/>
+      <c r="E80" s="179">
+        <v>1591252200000</v>
+      </c>
+      <c r="F80" s="179">
+        <v>1591254000000</v>
+      </c>
+      <c r="G80" s="179">
+        <v>54</v>
+      </c>
+      <c r="H80" s="197">
+        <v>78</v>
+      </c>
+      <c r="I80" s="181"/>
+    </row>
+    <row r="81" ht="20" customHeight="1">
+      <c r="A81" s="138">
         <v>0</v>
       </c>
-      <c r="B70" t="s" s="160">
-        <v>286</v>
-      </c>
-      <c r="C70" s="155"/>
-      <c r="D70" s="155"/>
-      <c r="E70" s="156">
-        <v>1571214600000</v>
-      </c>
-      <c r="F70" s="156">
-        <v>1571215800000</v>
-      </c>
-      <c r="G70" s="155"/>
-      <c r="H70" s="192">
-        <v>68</v>
-      </c>
-      <c r="I70" t="s" s="158">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="71" ht="20" customHeight="1">
-      <c r="A71" s="133">
+      <c r="B81" t="s" s="200">
+        <v>300</v>
+      </c>
+      <c r="C81" s="178"/>
+      <c r="D81" s="178"/>
+      <c r="E81" s="179">
+        <v>1591254000000</v>
+      </c>
+      <c r="F81" s="179">
+        <v>1591255800000</v>
+      </c>
+      <c r="G81" s="179">
+        <v>55</v>
+      </c>
+      <c r="H81" s="197">
+        <v>79</v>
+      </c>
+      <c r="I81" s="181"/>
+    </row>
+    <row r="82" ht="20" customHeight="1">
+      <c r="A82" s="138">
         <v>0</v>
       </c>
-      <c r="B71" t="s" s="194">
-        <v>278</v>
-      </c>
-      <c r="C71" s="165"/>
-      <c r="D71" s="165"/>
-      <c r="E71" s="166">
-        <v>1567575000000</v>
-      </c>
-      <c r="F71" s="166">
-        <v>1567576800000</v>
-      </c>
-      <c r="G71" s="165"/>
-      <c r="H71" s="193">
-        <v>69</v>
-      </c>
-      <c r="I71" t="s" s="168">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="72" ht="20" customHeight="1">
-      <c r="A72" s="133">
+      <c r="B82" t="s" s="200">
+        <v>301</v>
+      </c>
+      <c r="C82" s="178"/>
+      <c r="D82" s="178"/>
+      <c r="E82" s="179">
+        <v>1591255800000</v>
+      </c>
+      <c r="F82" s="179">
+        <v>1591256700000</v>
+      </c>
+      <c r="G82" s="178"/>
+      <c r="H82" s="197">
+        <v>80</v>
+      </c>
+      <c r="I82" s="181"/>
+    </row>
+    <row r="83" ht="20" customHeight="1">
+      <c r="A83" s="138">
         <v>0</v>
       </c>
-      <c r="B72" t="s" s="194">
-        <v>280</v>
-      </c>
-      <c r="C72" s="165"/>
-      <c r="D72" s="165"/>
-      <c r="E72" s="166">
-        <v>1567576800000</v>
-      </c>
-      <c r="F72" s="166">
-        <v>1567577400000</v>
-      </c>
-      <c r="G72" s="166">
+      <c r="B83" t="s" s="200">
+        <v>302</v>
+      </c>
+      <c r="C83" s="178"/>
+      <c r="D83" s="178"/>
+      <c r="E83" s="179">
+        <v>1591256700000</v>
+      </c>
+      <c r="F83" s="179">
+        <v>1591257900000</v>
+      </c>
+      <c r="G83" s="179">
+        <v>56</v>
+      </c>
+      <c r="H83" s="197">
+        <v>81</v>
+      </c>
+      <c r="I83" s="181"/>
+    </row>
+    <row r="84" ht="20" customHeight="1">
+      <c r="A84" s="138">
+        <v>0</v>
+      </c>
+      <c r="B84" t="s" s="177">
+        <v>258</v>
+      </c>
+      <c r="C84" s="178"/>
+      <c r="D84" s="178"/>
+      <c r="E84" s="179">
+        <v>1591257900000</v>
+      </c>
+      <c r="F84" s="179">
+        <v>1591259700000</v>
+      </c>
+      <c r="G84" s="179">
+        <v>57</v>
+      </c>
+      <c r="H84" s="197">
+        <v>82</v>
+      </c>
+      <c r="I84" s="181"/>
+    </row>
+    <row r="85" ht="20" customHeight="1">
+      <c r="A85" s="138">
+        <v>0</v>
+      </c>
+      <c r="B85" t="s" s="200">
+        <v>303</v>
+      </c>
+      <c r="C85" s="178"/>
+      <c r="D85" s="178"/>
+      <c r="E85" s="179">
+        <v>1591259700000</v>
+      </c>
+      <c r="F85" s="179">
+        <v>1591261500000</v>
+      </c>
+      <c r="G85" s="179">
+        <v>58</v>
+      </c>
+      <c r="H85" s="197">
+        <v>83</v>
+      </c>
+      <c r="I85" s="181"/>
+    </row>
+    <row r="86" ht="20" customHeight="1">
+      <c r="A86" s="138">
+        <v>0</v>
+      </c>
+      <c r="B86" t="s" s="177">
+        <v>289</v>
+      </c>
+      <c r="C86" s="178"/>
+      <c r="D86" s="178"/>
+      <c r="E86" s="179">
+        <v>1591261500000</v>
+      </c>
+      <c r="F86" s="179">
+        <v>1591263000000</v>
+      </c>
+      <c r="G86" s="179">
+        <v>61</v>
+      </c>
+      <c r="H86" s="197">
+        <v>84</v>
+      </c>
+      <c r="I86" s="181"/>
+    </row>
+    <row r="87" ht="20" customHeight="1">
+      <c r="A87" s="138">
+        <v>0</v>
+      </c>
+      <c r="B87" t="s" s="201">
+        <v>304</v>
+      </c>
+      <c r="C87" s="183"/>
+      <c r="D87" s="183"/>
+      <c r="E87" s="184">
+        <v>1591318800000</v>
+      </c>
+      <c r="F87" s="184">
+        <v>1591319400000</v>
+      </c>
+      <c r="G87" s="184">
+        <v>39</v>
+      </c>
+      <c r="H87" s="197">
+        <v>85</v>
+      </c>
+      <c r="I87" s="186"/>
+    </row>
+    <row r="88" ht="20" customHeight="1">
+      <c r="A88" s="138">
+        <v>0</v>
+      </c>
+      <c r="B88" t="s" s="201">
+        <v>305</v>
+      </c>
+      <c r="C88" s="183"/>
+      <c r="D88" s="183"/>
+      <c r="E88" s="184">
+        <v>1591319400000</v>
+      </c>
+      <c r="F88" s="184">
+        <v>1591321200000</v>
+      </c>
+      <c r="G88" s="184">
+        <v>40</v>
+      </c>
+      <c r="H88" s="197">
+        <v>86</v>
+      </c>
+      <c r="I88" s="186"/>
+    </row>
+    <row r="89" ht="20" customHeight="1">
+      <c r="A89" s="138">
+        <v>0</v>
+      </c>
+      <c r="B89" t="s" s="201">
+        <v>306</v>
+      </c>
+      <c r="C89" s="183"/>
+      <c r="D89" s="183"/>
+      <c r="E89" s="184">
+        <v>1591321200000</v>
+      </c>
+      <c r="F89" s="184">
+        <v>1591324200000</v>
+      </c>
+      <c r="G89" s="184">
         <v>30</v>
       </c>
-      <c r="H72" s="193">
-        <v>70</v>
-      </c>
-      <c r="I72" t="s" s="168">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="73" ht="20" customHeight="1">
-      <c r="A73" s="133">
+      <c r="H89" s="197">
+        <v>87</v>
+      </c>
+      <c r="I89" s="186"/>
+    </row>
+    <row r="90" ht="20" customHeight="1">
+      <c r="A90" s="138">
         <v>0</v>
       </c>
-      <c r="B73" t="s" s="164">
-        <v>292</v>
-      </c>
-      <c r="C73" s="165"/>
-      <c r="D73" s="165"/>
-      <c r="E73" s="166">
-        <v>1567577400000</v>
-      </c>
-      <c r="F73" s="166">
-        <v>1567579200000</v>
-      </c>
-      <c r="G73" s="166">
-        <v>36</v>
-      </c>
-      <c r="H73" s="193">
-        <v>71</v>
-      </c>
-      <c r="I73" t="s" s="168">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="74" ht="20" customHeight="1">
-      <c r="A74" s="133">
+      <c r="B90" t="s" s="201">
+        <v>307</v>
+      </c>
+      <c r="C90" s="183"/>
+      <c r="D90" s="183"/>
+      <c r="E90" s="184">
+        <v>1591324200000</v>
+      </c>
+      <c r="F90" s="184">
+        <v>1591326000000</v>
+      </c>
+      <c r="G90" s="184">
+        <v>41</v>
+      </c>
+      <c r="H90" s="197">
+        <v>88</v>
+      </c>
+      <c r="I90" s="186"/>
+    </row>
+    <row r="91" ht="20" customHeight="1">
+      <c r="A91" s="138">
         <v>0</v>
       </c>
-      <c r="B74" t="s" s="194">
-        <v>293</v>
-      </c>
-      <c r="C74" s="165"/>
-      <c r="D74" s="165"/>
-      <c r="E74" s="166">
-        <v>1567579200000</v>
-      </c>
-      <c r="F74" s="166">
-        <v>1567581000000</v>
-      </c>
-      <c r="G74" s="166">
-        <v>37</v>
-      </c>
-      <c r="H74" s="193">
-        <v>72</v>
-      </c>
-      <c r="I74" t="s" s="168">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="75" ht="20" customHeight="1">
-      <c r="A75" s="133">
+      <c r="B91" t="s" s="182">
+        <v>308</v>
+      </c>
+      <c r="C91" s="183"/>
+      <c r="D91" s="183"/>
+      <c r="E91" s="184">
+        <v>1591326600000</v>
+      </c>
+      <c r="F91" s="184">
+        <v>1591327500000</v>
+      </c>
+      <c r="G91" s="184">
+        <v>32</v>
+      </c>
+      <c r="H91" s="197">
+        <v>89</v>
+      </c>
+      <c r="I91" s="186"/>
+    </row>
+    <row r="92" ht="20" customHeight="1">
+      <c r="A92" s="138">
         <v>0</v>
       </c>
-      <c r="B75" t="s" s="194">
-        <v>283</v>
-      </c>
-      <c r="C75" s="165"/>
-      <c r="D75" s="165"/>
-      <c r="E75" s="166">
-        <v>1567581000000</v>
-      </c>
-      <c r="F75" s="166">
-        <v>1567582200000</v>
-      </c>
-      <c r="G75" s="165"/>
-      <c r="H75" s="193">
-        <v>73</v>
-      </c>
-      <c r="I75" t="s" s="168">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="76" ht="20" customHeight="1">
-      <c r="A76" s="133">
+      <c r="B92" t="s" s="201">
+        <v>309</v>
+      </c>
+      <c r="C92" s="183"/>
+      <c r="D92" s="183"/>
+      <c r="E92" s="184">
+        <v>1591327500000</v>
+      </c>
+      <c r="F92" s="184">
+        <v>1591329600000</v>
+      </c>
+      <c r="G92" s="183"/>
+      <c r="H92" s="198">
+        <v>90</v>
+      </c>
+      <c r="I92" s="188"/>
+    </row>
+    <row r="93" ht="20" customHeight="1">
+      <c r="A93" s="138">
         <v>0</v>
       </c>
-      <c r="B76" t="s" s="194">
-        <v>294</v>
-      </c>
-      <c r="C76" s="165"/>
-      <c r="D76" s="165"/>
-      <c r="E76" s="166">
-        <v>1567582200000</v>
-      </c>
-      <c r="F76" s="166">
-        <v>1567583400000</v>
-      </c>
-      <c r="G76" s="166">
-        <v>34</v>
-      </c>
-      <c r="H76" s="193">
-        <v>74</v>
-      </c>
-      <c r="I76" t="s" s="168">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="77" ht="20" customHeight="1">
-      <c r="A77" s="133">
+      <c r="B93" t="s" s="201">
+        <v>310</v>
+      </c>
+      <c r="C93" s="183"/>
+      <c r="D93" s="183"/>
+      <c r="E93" s="184">
+        <v>1591329600000</v>
+      </c>
+      <c r="F93" s="184">
+        <v>1591336800000</v>
+      </c>
+      <c r="G93" s="183"/>
+      <c r="H93" s="198">
+        <v>91</v>
+      </c>
+      <c r="I93" s="188"/>
+    </row>
+    <row r="94" ht="20" customHeight="1">
+      <c r="A94" s="138">
         <v>0</v>
       </c>
-      <c r="B77" t="s" s="194">
-        <v>289</v>
-      </c>
-      <c r="C77" s="165"/>
-      <c r="D77" s="165"/>
-      <c r="E77" s="166">
-        <v>1567583400000</v>
-      </c>
-      <c r="F77" s="166">
-        <v>1567585200000</v>
-      </c>
-      <c r="G77" s="166">
-        <v>32</v>
-      </c>
-      <c r="H77" s="193">
-        <v>75</v>
-      </c>
-      <c r="I77" t="s" s="168">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="78" ht="20" customHeight="1">
-      <c r="A78" s="133">
-        <v>0</v>
-      </c>
-      <c r="B78" t="s" s="194">
-        <v>286</v>
-      </c>
-      <c r="C78" s="165"/>
-      <c r="D78" s="165"/>
-      <c r="E78" s="166">
-        <v>1567585200000</v>
-      </c>
-      <c r="F78" s="166">
-        <v>1567586400000</v>
-      </c>
-      <c r="G78" s="165"/>
-      <c r="H78" s="193">
-        <v>76</v>
-      </c>
-      <c r="I78" t="s" s="168">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="79" ht="20" customHeight="1">
-      <c r="A79" s="133">
-        <v>0</v>
-      </c>
-      <c r="B79" t="s" s="195">
-        <v>295</v>
-      </c>
-      <c r="C79" s="173"/>
-      <c r="D79" s="173"/>
-      <c r="E79" s="174">
-        <v>1591250400000</v>
-      </c>
-      <c r="F79" s="174">
-        <v>1591252200000</v>
-      </c>
-      <c r="G79" s="174">
-        <v>53</v>
-      </c>
-      <c r="H79" s="192">
-        <v>77</v>
-      </c>
-      <c r="I79" s="176"/>
-    </row>
-    <row r="80" ht="20" customHeight="1">
-      <c r="A80" s="133">
-        <v>0</v>
-      </c>
-      <c r="B80" t="s" s="195">
-        <v>296</v>
-      </c>
-      <c r="C80" s="173"/>
-      <c r="D80" s="173"/>
-      <c r="E80" s="174">
-        <v>1591252200000</v>
-      </c>
-      <c r="F80" s="174">
-        <v>1591254000000</v>
-      </c>
-      <c r="G80" s="174">
-        <v>54</v>
-      </c>
-      <c r="H80" s="192">
-        <v>78</v>
-      </c>
-      <c r="I80" s="176"/>
-    </row>
-    <row r="81" ht="20" customHeight="1">
-      <c r="A81" s="133">
-        <v>0</v>
-      </c>
-      <c r="B81" t="s" s="195">
-        <v>297</v>
-      </c>
-      <c r="C81" s="173"/>
-      <c r="D81" s="173"/>
-      <c r="E81" s="174">
-        <v>1591254000000</v>
-      </c>
-      <c r="F81" s="174">
-        <v>1591255800000</v>
-      </c>
-      <c r="G81" s="174">
-        <v>55</v>
-      </c>
-      <c r="H81" s="192">
-        <v>79</v>
-      </c>
-      <c r="I81" s="176"/>
-    </row>
-    <row r="82" ht="20" customHeight="1">
-      <c r="A82" s="133">
-        <v>0</v>
-      </c>
-      <c r="B82" t="s" s="195">
-        <v>298</v>
-      </c>
-      <c r="C82" s="173"/>
-      <c r="D82" s="173"/>
-      <c r="E82" s="174">
-        <v>1591255800000</v>
-      </c>
-      <c r="F82" s="174">
-        <v>1591256700000</v>
-      </c>
-      <c r="G82" s="173"/>
-      <c r="H82" s="192">
-        <v>80</v>
-      </c>
-      <c r="I82" s="176"/>
-    </row>
-    <row r="83" ht="20" customHeight="1">
-      <c r="A83" s="133">
-        <v>0</v>
-      </c>
-      <c r="B83" t="s" s="195">
-        <v>299</v>
-      </c>
-      <c r="C83" s="173"/>
-      <c r="D83" s="173"/>
-      <c r="E83" s="174">
-        <v>1591256700000</v>
-      </c>
-      <c r="F83" s="174">
-        <v>1591257900000</v>
-      </c>
-      <c r="G83" s="174">
-        <v>56</v>
-      </c>
-      <c r="H83" s="192">
-        <v>81</v>
-      </c>
-      <c r="I83" s="176"/>
-    </row>
-    <row r="84" ht="20" customHeight="1">
-      <c r="A84" s="133">
-        <v>0</v>
-      </c>
-      <c r="B84" t="s" s="172">
-        <v>255</v>
-      </c>
-      <c r="C84" s="173"/>
-      <c r="D84" s="173"/>
-      <c r="E84" s="174">
-        <v>1591257900000</v>
-      </c>
-      <c r="F84" s="174">
-        <v>1591259700000</v>
-      </c>
-      <c r="G84" s="174">
-        <v>57</v>
-      </c>
-      <c r="H84" s="192">
-        <v>82</v>
-      </c>
-      <c r="I84" s="176"/>
-    </row>
-    <row r="85" ht="20" customHeight="1">
-      <c r="A85" s="133">
-        <v>0</v>
-      </c>
-      <c r="B85" t="s" s="195">
-        <v>300</v>
-      </c>
-      <c r="C85" s="173"/>
-      <c r="D85" s="173"/>
-      <c r="E85" s="174">
-        <v>1591259700000</v>
-      </c>
-      <c r="F85" s="174">
-        <v>1591261500000</v>
-      </c>
-      <c r="G85" s="174">
-        <v>58</v>
-      </c>
-      <c r="H85" s="192">
-        <v>83</v>
-      </c>
-      <c r="I85" s="176"/>
-    </row>
-    <row r="86" ht="20" customHeight="1">
-      <c r="A86" s="133">
-        <v>0</v>
-      </c>
-      <c r="B86" t="s" s="172">
-        <v>286</v>
-      </c>
-      <c r="C86" s="173"/>
-      <c r="D86" s="173"/>
-      <c r="E86" s="174">
-        <v>1591261500000</v>
-      </c>
-      <c r="F86" s="174">
-        <v>1591263000000</v>
-      </c>
-      <c r="G86" s="174">
-        <v>57</v>
-      </c>
-      <c r="H86" s="192">
-        <v>84</v>
-      </c>
-      <c r="I86" s="176"/>
-    </row>
-    <row r="87" ht="20" customHeight="1">
-      <c r="A87" s="133">
-        <v>0</v>
-      </c>
-      <c r="B87" t="s" s="196">
-        <v>301</v>
-      </c>
-      <c r="C87" s="178"/>
-      <c r="D87" s="178"/>
-      <c r="E87" s="179">
-        <v>1591318800000</v>
-      </c>
-      <c r="F87" s="179">
-        <v>1591319400000</v>
-      </c>
-      <c r="G87" s="179">
-        <v>39</v>
-      </c>
-      <c r="H87" s="192">
-        <v>85</v>
-      </c>
-      <c r="I87" s="181"/>
-    </row>
-    <row r="88" ht="20" customHeight="1">
-      <c r="A88" s="133">
-        <v>0</v>
-      </c>
-      <c r="B88" t="s" s="196">
-        <v>302</v>
-      </c>
-      <c r="C88" s="178"/>
-      <c r="D88" s="178"/>
-      <c r="E88" s="179">
-        <v>1591319400000</v>
-      </c>
-      <c r="F88" s="179">
-        <v>1591321200000</v>
-      </c>
-      <c r="G88" s="179">
-        <v>40</v>
-      </c>
-      <c r="H88" s="192">
-        <v>86</v>
-      </c>
-      <c r="I88" s="181"/>
-    </row>
-    <row r="89" ht="20" customHeight="1">
-      <c r="A89" s="133">
-        <v>0</v>
-      </c>
-      <c r="B89" t="s" s="196">
-        <v>303</v>
-      </c>
-      <c r="C89" s="178"/>
-      <c r="D89" s="178"/>
-      <c r="E89" s="179">
-        <v>1591321200000</v>
-      </c>
-      <c r="F89" s="179">
-        <v>1591324200000</v>
-      </c>
-      <c r="G89" s="179">
-        <v>30</v>
-      </c>
-      <c r="H89" s="192">
-        <v>87</v>
-      </c>
-      <c r="I89" s="181"/>
-    </row>
-    <row r="90" ht="20" customHeight="1">
-      <c r="A90" s="133">
-        <v>0</v>
-      </c>
-      <c r="B90" t="s" s="196">
-        <v>304</v>
-      </c>
-      <c r="C90" s="178"/>
-      <c r="D90" s="178"/>
-      <c r="E90" s="179">
-        <v>1591324200000</v>
-      </c>
-      <c r="F90" s="179">
-        <v>1591326000000</v>
-      </c>
-      <c r="G90" s="179">
-        <v>41</v>
-      </c>
-      <c r="H90" s="192">
-        <v>88</v>
-      </c>
-      <c r="I90" s="181"/>
-    </row>
-    <row r="91" ht="20" customHeight="1">
-      <c r="A91" s="133">
-        <v>0</v>
-      </c>
-      <c r="B91" t="s" s="177">
-        <v>305</v>
-      </c>
-      <c r="C91" s="178"/>
-      <c r="D91" s="178"/>
-      <c r="E91" s="179">
-        <v>1591326600000</v>
-      </c>
-      <c r="F91" s="179">
-        <v>1591327500000</v>
-      </c>
-      <c r="G91" s="179">
-        <v>32</v>
-      </c>
-      <c r="H91" s="192">
-        <v>89</v>
-      </c>
-      <c r="I91" s="181"/>
-    </row>
-    <row r="92" ht="20" customHeight="1">
-      <c r="A92" s="133">
-        <v>0</v>
-      </c>
-      <c r="B92" t="s" s="196">
-        <v>306</v>
-      </c>
-      <c r="C92" s="178"/>
-      <c r="D92" s="178"/>
-      <c r="E92" s="179">
-        <v>1591327500000</v>
-      </c>
-      <c r="F92" s="179">
-        <v>1591329600000</v>
-      </c>
-      <c r="G92" s="178"/>
-      <c r="H92" s="193">
-        <v>90</v>
-      </c>
-      <c r="I92" s="183"/>
-    </row>
-    <row r="93" ht="20" customHeight="1">
-      <c r="A93" s="133">
-        <v>0</v>
-      </c>
-      <c r="B93" t="s" s="196">
-        <v>307</v>
-      </c>
-      <c r="C93" s="178"/>
-      <c r="D93" s="178"/>
-      <c r="E93" s="179">
-        <v>1591329600000</v>
-      </c>
-      <c r="F93" s="179">
-        <v>1591336800000</v>
-      </c>
-      <c r="G93" s="178"/>
-      <c r="H93" s="193">
-        <v>91</v>
-      </c>
-      <c r="I93" s="183"/>
-    </row>
-    <row r="94" ht="20" customHeight="1">
-      <c r="A94" s="133">
-        <v>0</v>
-      </c>
-      <c r="B94" t="s" s="141">
-        <v>308</v>
+      <c r="B94" t="s" s="146">
+        <v>311</v>
       </c>
       <c r="C94" s="40"/>
       <c r="D94" s="40"/>
-      <c r="E94" s="142">
+      <c r="E94" s="147">
         <v>1591336800000</v>
       </c>
-      <c r="F94" s="142">
+      <c r="F94" s="147">
         <v>1591338600000</v>
       </c>
-      <c r="G94" s="142">
+      <c r="G94" s="147">
         <v>42</v>
       </c>
-      <c r="H94" s="192">
+      <c r="H94" s="197">
         <v>92</v>
       </c>
-      <c r="I94" s="186"/>
+      <c r="I94" s="191"/>
     </row>
     <row r="95" ht="20" customHeight="1">
-      <c r="A95" s="133">
+      <c r="A95" s="138">
         <v>0</v>
       </c>
-      <c r="B95" t="s" s="141">
-        <v>309</v>
+      <c r="B95" t="s" s="146">
+        <v>312</v>
       </c>
       <c r="C95" s="40"/>
       <c r="D95" s="40"/>
-      <c r="E95" s="142">
+      <c r="E95" s="147">
         <v>1591338600000</v>
       </c>
-      <c r="F95" s="142">
+      <c r="F95" s="147">
         <v>1591340400000</v>
       </c>
-      <c r="G95" s="142">
+      <c r="G95" s="147">
         <v>43</v>
       </c>
-      <c r="H95" s="192">
+      <c r="H95" s="197">
         <v>93</v>
       </c>
-      <c r="I95" s="186"/>
+      <c r="I95" s="191"/>
     </row>
     <row r="96" ht="20" customHeight="1">
-      <c r="A96" s="133">
+      <c r="A96" s="138">
         <v>0</v>
       </c>
-      <c r="B96" t="s" s="141">
-        <v>310</v>
+      <c r="B96" t="s" s="146">
+        <v>313</v>
       </c>
       <c r="C96" s="40"/>
       <c r="D96" s="40"/>
-      <c r="E96" s="142">
+      <c r="E96" s="147">
         <v>1591340400000</v>
       </c>
-      <c r="F96" s="142">
+      <c r="F96" s="147">
         <v>1591342200000</v>
       </c>
-      <c r="G96" s="142">
+      <c r="G96" s="147">
         <v>44</v>
       </c>
-      <c r="H96" s="192">
+      <c r="H96" s="197">
         <v>94</v>
       </c>
-      <c r="I96" s="186"/>
+      <c r="I96" s="191"/>
     </row>
     <row r="97" ht="20" customHeight="1">
-      <c r="A97" s="133">
+      <c r="A97" s="138">
         <v>0</v>
       </c>
-      <c r="B97" t="s" s="141">
-        <v>298</v>
+      <c r="B97" t="s" s="146">
+        <v>301</v>
       </c>
       <c r="C97" s="40"/>
       <c r="D97" s="40"/>
-      <c r="E97" s="142">
+      <c r="E97" s="147">
         <v>1591342200000</v>
       </c>
-      <c r="F97" s="142">
+      <c r="F97" s="147">
         <v>1591344000000</v>
       </c>
       <c r="G97" s="40"/>
-      <c r="H97" s="193">
+      <c r="H97" s="198">
         <v>95</v>
       </c>
-      <c r="I97" s="187"/>
+      <c r="I97" s="192"/>
     </row>
     <row r="98" ht="20" customHeight="1">
-      <c r="A98" s="133">
+      <c r="A98" s="138">
         <v>0</v>
       </c>
-      <c r="B98" t="s" s="188">
-        <v>311</v>
-      </c>
-      <c r="C98" s="189"/>
-      <c r="D98" s="189"/>
-      <c r="E98" s="190">
+      <c r="B98" t="s" s="193">
+        <v>314</v>
+      </c>
+      <c r="C98" s="194"/>
+      <c r="D98" s="194"/>
+      <c r="E98" s="195">
         <v>1591344000000</v>
       </c>
-      <c r="F98" s="190">
+      <c r="F98" s="195">
         <v>1591345800000</v>
       </c>
-      <c r="G98" s="190">
+      <c r="G98" s="195">
         <v>45</v>
       </c>
-      <c r="H98" s="192">
+      <c r="H98" s="197">
         <v>96</v>
       </c>
-      <c r="I98" s="191"/>
+      <c r="I98" s="196"/>
     </row>
     <row r="99" ht="20" customHeight="1">
-      <c r="A99" s="133">
+      <c r="A99" s="138">
         <v>0</v>
       </c>
-      <c r="B99" t="s" s="188">
-        <v>312</v>
-      </c>
-      <c r="C99" s="189"/>
-      <c r="D99" s="189"/>
-      <c r="E99" s="190">
+      <c r="B99" t="s" s="193">
+        <v>315</v>
+      </c>
+      <c r="C99" s="194"/>
+      <c r="D99" s="194"/>
+      <c r="E99" s="195">
         <v>1591345800000</v>
       </c>
-      <c r="F99" s="190">
+      <c r="F99" s="195">
         <v>1591347600000</v>
       </c>
-      <c r="G99" s="190">
+      <c r="G99" s="195">
         <v>46</v>
       </c>
-      <c r="H99" s="192">
+      <c r="H99" s="197">
         <v>97</v>
       </c>
-      <c r="I99" s="191"/>
+      <c r="I99" s="196"/>
     </row>
     <row r="100" ht="20" customHeight="1">
-      <c r="A100" s="133">
+      <c r="A100" s="138">
         <v>0</v>
       </c>
-      <c r="B100" t="s" s="188">
-        <v>313</v>
-      </c>
-      <c r="C100" s="189"/>
-      <c r="D100" s="189"/>
-      <c r="E100" s="190">
+      <c r="B100" t="s" s="193">
+        <v>316</v>
+      </c>
+      <c r="C100" s="194"/>
+      <c r="D100" s="194"/>
+      <c r="E100" s="195">
         <v>1591347600000</v>
       </c>
-      <c r="F100" s="190">
+      <c r="F100" s="195">
         <v>1591349400000</v>
       </c>
-      <c r="G100" s="190">
+      <c r="G100" s="195">
         <v>47</v>
       </c>
-      <c r="H100" s="192">
+      <c r="H100" s="197">
         <v>98</v>
       </c>
-      <c r="I100" s="191"/>
+      <c r="I100" s="196"/>
     </row>
     <row r="101" ht="20" customHeight="1">
-      <c r="A101" s="197">
+      <c r="A101" s="202">
         <v>0</v>
       </c>
-      <c r="B101" t="s" s="198">
-        <v>314</v>
-      </c>
-      <c r="C101" s="189"/>
-      <c r="D101" s="189"/>
-      <c r="E101" s="190">
+      <c r="B101" t="s" s="203">
+        <v>317</v>
+      </c>
+      <c r="C101" s="194"/>
+      <c r="D101" s="194"/>
+      <c r="E101" s="195">
         <v>1591349400000</v>
       </c>
-      <c r="F101" s="190">
+      <c r="F101" s="195">
         <v>1591351200000</v>
       </c>
-      <c r="G101" s="190">
-        <v>59</v>
-      </c>
-      <c r="H101" s="192">
+      <c r="G101" s="195">
+        <v>63</v>
+      </c>
+      <c r="H101" s="197">
         <v>99</v>
       </c>
-      <c r="I101" s="191"/>
+      <c r="I101" s="196"/>
     </row>
     <row r="102" ht="20" customHeight="1">
-      <c r="A102" s="199">
+      <c r="A102" s="204">
         <v>1</v>
       </c>
-      <c r="B102" s="198"/>
-      <c r="C102" s="189"/>
-      <c r="D102" s="189"/>
-      <c r="E102" s="189"/>
-      <c r="F102" s="189"/>
+      <c r="B102" s="203"/>
+      <c r="C102" s="194"/>
+      <c r="D102" s="194"/>
+      <c r="E102" s="194"/>
+      <c r="F102" s="194"/>
       <c r="G102" s="106">
         <v>8</v>
       </c>
-      <c r="H102" s="192">
+      <c r="H102" s="197">
         <v>100</v>
       </c>
-      <c r="I102" s="191"/>
+      <c r="I102" s="196"/>
     </row>
     <row r="103" ht="20" customHeight="1">
-      <c r="A103" s="199">
+      <c r="A103" s="204">
         <v>0</v>
       </c>
-      <c r="B103" s="198"/>
-      <c r="C103" s="189"/>
-      <c r="D103" s="189"/>
-      <c r="E103" s="189"/>
-      <c r="F103" s="189"/>
-      <c r="G103" s="200">
+      <c r="B103" s="203"/>
+      <c r="C103" s="194"/>
+      <c r="D103" s="194"/>
+      <c r="E103" s="194"/>
+      <c r="F103" s="194"/>
+      <c r="G103" s="205">
         <v>38</v>
       </c>
-      <c r="H103" s="192">
+      <c r="H103" s="197">
         <v>101</v>
       </c>
-      <c r="I103" s="191"/>
+      <c r="I103" s="196"/>
     </row>
     <row r="104" ht="20" customHeight="1">
-      <c r="A104" s="199">
+      <c r="A104" s="204">
         <v>1</v>
       </c>
-      <c r="B104" s="198"/>
-      <c r="C104" s="189"/>
-      <c r="D104" s="189"/>
-      <c r="E104" s="189"/>
-      <c r="F104" s="189"/>
-      <c r="G104" s="190">
+      <c r="B104" s="203"/>
+      <c r="C104" s="194"/>
+      <c r="D104" s="194"/>
+      <c r="E104" s="194"/>
+      <c r="F104" s="194"/>
+      <c r="G104" s="195">
         <v>18</v>
       </c>
-      <c r="H104" s="192">
+      <c r="H104" s="197">
         <v>102</v>
       </c>
-      <c r="I104" s="191"/>
+      <c r="I104" s="196"/>
     </row>
     <row r="105" ht="20" customHeight="1">
-      <c r="A105" s="199">
+      <c r="A105" s="204">
         <v>0</v>
       </c>
-      <c r="B105" s="198"/>
-      <c r="C105" s="189"/>
-      <c r="D105" s="189"/>
-      <c r="E105" s="189"/>
-      <c r="F105" s="189"/>
-      <c r="G105" s="190">
+      <c r="B105" s="203"/>
+      <c r="C105" s="194"/>
+      <c r="D105" s="194"/>
+      <c r="E105" s="194"/>
+      <c r="F105" s="194"/>
+      <c r="G105" s="195">
         <v>48</v>
       </c>
-      <c r="H105" s="192">
+      <c r="H105" s="197">
         <v>103</v>
       </c>
-      <c r="I105" s="191"/>
+      <c r="I105" s="196"/>
     </row>
     <row r="106" ht="23.45" customHeight="1">
-      <c r="A106" s="199">
+      <c r="A106" s="204">
         <v>1</v>
       </c>
-      <c r="B106" s="198"/>
-      <c r="C106" s="189"/>
-      <c r="D106" s="189"/>
-      <c r="E106" s="189"/>
-      <c r="F106" s="189"/>
-      <c r="G106" s="190">
+      <c r="B106" s="203"/>
+      <c r="C106" s="194"/>
+      <c r="D106" s="194"/>
+      <c r="E106" s="194"/>
+      <c r="F106" s="194"/>
+      <c r="G106" s="195">
         <v>20</v>
       </c>
-      <c r="H106" s="192">
+      <c r="H106" s="197">
         <v>104</v>
       </c>
-      <c r="I106" s="191"/>
+      <c r="I106" s="196"/>
     </row>
     <row r="107" ht="23.45" customHeight="1">
-      <c r="A107" s="199">
+      <c r="A107" s="204">
         <v>0</v>
       </c>
-      <c r="B107" s="198"/>
-      <c r="C107" s="189"/>
-      <c r="D107" s="189"/>
-      <c r="E107" s="189"/>
-      <c r="F107" s="189"/>
-      <c r="G107" s="190">
+      <c r="B107" s="203"/>
+      <c r="C107" s="194"/>
+      <c r="D107" s="194"/>
+      <c r="E107" s="194"/>
+      <c r="F107" s="194"/>
+      <c r="G107" s="195">
         <v>50</v>
       </c>
-      <c r="H107" s="192">
+      <c r="H107" s="197">
         <v>105</v>
       </c>
-      <c r="I107" s="191"/>
+      <c r="I107" s="196"/>
     </row>
     <row r="108" ht="23.45" customHeight="1">
-      <c r="A108" s="199">
+      <c r="A108" s="204">
         <v>1</v>
       </c>
-      <c r="B108" s="198"/>
-      <c r="C108" s="189"/>
-      <c r="D108" s="189"/>
-      <c r="E108" s="189"/>
-      <c r="F108" s="189"/>
-      <c r="G108" s="190">
+      <c r="B108" s="203"/>
+      <c r="C108" s="194"/>
+      <c r="D108" s="194"/>
+      <c r="E108" s="194"/>
+      <c r="F108" s="194"/>
+      <c r="G108" s="195">
         <v>21</v>
       </c>
-      <c r="H108" s="192">
+      <c r="H108" s="197">
         <v>106</v>
       </c>
-      <c r="I108" s="191"/>
+      <c r="I108" s="196"/>
     </row>
     <row r="109" ht="23.45" customHeight="1">
-      <c r="A109" s="199">
+      <c r="A109" s="204">
         <v>0</v>
       </c>
-      <c r="B109" s="198"/>
-      <c r="C109" s="189"/>
-      <c r="D109" s="189"/>
-      <c r="E109" s="189"/>
-      <c r="F109" s="189"/>
-      <c r="G109" s="190">
+      <c r="B109" s="203"/>
+      <c r="C109" s="194"/>
+      <c r="D109" s="194"/>
+      <c r="E109" s="194"/>
+      <c r="F109" s="194"/>
+      <c r="G109" s="195">
         <v>51</v>
       </c>
-      <c r="H109" s="192">
+      <c r="H109" s="197">
         <v>107</v>
       </c>
-      <c r="I109" s="191"/>
+      <c r="I109" s="196"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -11908,19 +12038,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="20" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="201" customWidth="1"/>
-    <col min="2" max="2" width="35.6719" style="201" customWidth="1"/>
-    <col min="3" max="4" width="16.3516" style="201" customWidth="1"/>
-    <col min="5" max="5" width="21.3516" style="201" customWidth="1"/>
-    <col min="6" max="6" width="19" style="201" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="201" customWidth="1"/>
-    <col min="8" max="8" width="26.1719" style="201" customWidth="1"/>
-    <col min="9" max="10" width="16.3516" style="201" customWidth="1"/>
-    <col min="11" max="11" width="31.5" style="201" customWidth="1"/>
-    <col min="12" max="12" width="16.3516" style="201" customWidth="1"/>
-    <col min="13" max="13" width="129.5" style="201" customWidth="1"/>
-    <col min="14" max="16" width="16.3516" style="201" customWidth="1"/>
-    <col min="17" max="256" width="8.85156" style="201" customWidth="1"/>
+    <col min="1" max="1" width="8.85156" style="206" customWidth="1"/>
+    <col min="2" max="2" width="35.6719" style="206" customWidth="1"/>
+    <col min="3" max="4" width="16.3516" style="206" customWidth="1"/>
+    <col min="5" max="5" width="21.3516" style="206" customWidth="1"/>
+    <col min="6" max="6" width="19" style="206" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="206" customWidth="1"/>
+    <col min="8" max="8" width="26.1719" style="206" customWidth="1"/>
+    <col min="9" max="10" width="16.3516" style="206" customWidth="1"/>
+    <col min="11" max="11" width="31.5" style="206" customWidth="1"/>
+    <col min="12" max="12" width="16.3516" style="206" customWidth="1"/>
+    <col min="13" max="13" width="129.5" style="206" customWidth="1"/>
+    <col min="14" max="16" width="16.3516" style="206" customWidth="1"/>
+    <col min="17" max="256" width="8.85156" style="206" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="32.8" customHeight="1">
@@ -11940,341 +12070,341 @@
         <v>43</v>
       </c>
       <c r="F1" t="s" s="54">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="G1" t="s" s="54">
-        <v>316</v>
-      </c>
-      <c r="H1" t="s" s="202">
-        <v>317</v>
-      </c>
-      <c r="I1" t="s" s="203">
-        <v>318</v>
-      </c>
-      <c r="J1" t="s" s="203">
         <v>319</v>
       </c>
-      <c r="K1" t="s" s="203">
+      <c r="H1" t="s" s="207">
         <v>320</v>
       </c>
-      <c r="L1" t="s" s="203">
+      <c r="I1" t="s" s="208">
         <v>321</v>
       </c>
-      <c r="M1" t="s" s="203">
+      <c r="J1" t="s" s="208">
         <v>322</v>
       </c>
-      <c r="N1" t="s" s="203">
+      <c r="K1" t="s" s="208">
         <v>323</v>
       </c>
-      <c r="O1" t="s" s="204">
+      <c r="L1" t="s" s="208">
+        <v>324</v>
+      </c>
+      <c r="M1" t="s" s="208">
+        <v>325</v>
+      </c>
+      <c r="N1" t="s" s="208">
+        <v>326</v>
+      </c>
+      <c r="O1" t="s" s="209">
         <v>45</v>
       </c>
-      <c r="P1" t="s" s="205">
-        <v>324</v>
+      <c r="P1" t="s" s="210">
+        <v>327</v>
       </c>
     </row>
     <row r="2" ht="191.7" customHeight="1">
-      <c r="A2" s="206">
+      <c r="A2" s="211">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="207">
-        <v>325</v>
-      </c>
-      <c r="C2" t="s" s="207">
-        <v>326</v>
-      </c>
-      <c r="D2" t="s" s="207">
-        <v>327</v>
-      </c>
-      <c r="E2" t="s" s="208">
+      <c r="B2" t="s" s="212">
+        <v>328</v>
+      </c>
+      <c r="C2" t="s" s="212">
+        <v>329</v>
+      </c>
+      <c r="D2" t="s" s="212">
+        <v>330</v>
+      </c>
+      <c r="E2" t="s" s="213">
         <v>35</v>
       </c>
-      <c r="F2" t="s" s="207">
-        <v>328</v>
-      </c>
-      <c r="G2" t="s" s="209">
-        <v>329</v>
-      </c>
-      <c r="H2" t="s" s="210">
-        <v>330</v>
-      </c>
-      <c r="I2" s="211">
+      <c r="F2" t="s" s="212">
+        <v>331</v>
+      </c>
+      <c r="G2" t="s" s="214">
+        <v>332</v>
+      </c>
+      <c r="H2" t="s" s="215">
+        <v>333</v>
+      </c>
+      <c r="I2" s="216">
         <v>26</v>
       </c>
-      <c r="J2" t="s" s="209">
-        <v>331</v>
-      </c>
-      <c r="K2" t="s" s="209">
-        <v>332</v>
-      </c>
-      <c r="L2" t="s" s="209">
-        <v>333</v>
-      </c>
-      <c r="M2" t="s" s="208">
+      <c r="J2" t="s" s="214">
         <v>334</v>
       </c>
-      <c r="N2" s="211">
+      <c r="K2" t="s" s="214">
+        <v>335</v>
+      </c>
+      <c r="L2" t="s" s="214">
+        <v>336</v>
+      </c>
+      <c r="M2" t="s" s="213">
+        <v>337</v>
+      </c>
+      <c r="N2" s="216">
         <v>1</v>
       </c>
-      <c r="O2" t="s" s="208">
-        <v>335</v>
-      </c>
-      <c r="P2" t="s" s="208">
-        <v>335</v>
+      <c r="O2" t="s" s="213">
+        <v>338</v>
+      </c>
+      <c r="P2" t="s" s="213">
+        <v>338</v>
       </c>
     </row>
     <row r="3" ht="150.8" customHeight="1">
-      <c r="A3" s="206">
+      <c r="A3" s="211">
         <v>1</v>
       </c>
-      <c r="B3" t="s" s="207">
-        <v>336</v>
-      </c>
-      <c r="C3" s="210"/>
-      <c r="D3" t="s" s="207">
-        <v>337</v>
-      </c>
-      <c r="E3" s="212"/>
-      <c r="F3" t="s" s="207">
-        <v>338</v>
-      </c>
-      <c r="G3" t="s" s="209">
+      <c r="B3" t="s" s="212">
         <v>339</v>
       </c>
-      <c r="H3" t="s" s="208">
-        <v>48</v>
-      </c>
-      <c r="I3" s="211">
+      <c r="C3" s="215"/>
+      <c r="D3" t="s" s="212">
+        <v>340</v>
+      </c>
+      <c r="E3" s="217"/>
+      <c r="F3" t="s" s="212">
+        <v>341</v>
+      </c>
+      <c r="G3" t="s" s="214">
+        <v>342</v>
+      </c>
+      <c r="H3" t="s" s="213">
+        <v>343</v>
+      </c>
+      <c r="I3" s="216">
         <v>27</v>
       </c>
-      <c r="J3" t="s" s="208">
-        <v>340</v>
-      </c>
-      <c r="K3" t="s" s="209">
+      <c r="J3" t="s" s="213">
+        <v>344</v>
+      </c>
+      <c r="K3" t="s" s="214">
+        <v>345</v>
+      </c>
+      <c r="L3" t="s" s="213">
+        <v>346</v>
+      </c>
+      <c r="M3" t="s" s="213">
+        <v>347</v>
+      </c>
+      <c r="N3" s="218"/>
+      <c r="O3" s="216">
+        <v>4</v>
+      </c>
+      <c r="P3" s="218"/>
+    </row>
+    <row r="4" ht="146.75" customHeight="1">
+      <c r="A4" s="211">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s" s="212">
+        <v>348</v>
+      </c>
+      <c r="C4" s="215"/>
+      <c r="D4" t="s" s="212">
+        <v>349</v>
+      </c>
+      <c r="E4" s="217"/>
+      <c r="F4" t="s" s="219">
+        <v>350</v>
+      </c>
+      <c r="G4" t="s" s="214">
+        <v>351</v>
+      </c>
+      <c r="H4" t="s" s="213">
+        <v>343</v>
+      </c>
+      <c r="I4" s="218"/>
+      <c r="J4" t="s" s="213">
+        <v>344</v>
+      </c>
+      <c r="K4" t="s" s="214">
+        <v>352</v>
+      </c>
+      <c r="L4" t="s" s="214">
+        <v>353</v>
+      </c>
+      <c r="M4" t="s" s="213">
+        <v>354</v>
+      </c>
+      <c r="N4" s="218"/>
+      <c r="O4" s="216">
+        <v>5</v>
+      </c>
+      <c r="P4" s="218"/>
+    </row>
+    <row r="5" ht="124.85" customHeight="1">
+      <c r="A5" s="211">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s" s="213">
+        <v>355</v>
+      </c>
+      <c r="C5" s="218"/>
+      <c r="D5" t="s" s="213">
+        <v>356</v>
+      </c>
+      <c r="E5" s="218"/>
+      <c r="F5" t="s" s="214">
         <v>341</v>
       </c>
-      <c r="L3" t="s" s="208">
+      <c r="G5" t="s" s="214">
         <v>342</v>
       </c>
-      <c r="M3" t="s" s="208">
+      <c r="H5" t="s" s="213">
         <v>343</v>
       </c>
-      <c r="N3" s="213"/>
-      <c r="O3" s="211">
-        <v>4</v>
-      </c>
-      <c r="P3" s="213"/>
-    </row>
-    <row r="4" ht="146.75" customHeight="1">
-      <c r="A4" s="206">
+      <c r="I5" s="218"/>
+      <c r="J5" t="s" s="213">
+        <v>344</v>
+      </c>
+      <c r="K5" t="s" s="214">
+        <v>357</v>
+      </c>
+      <c r="L5" t="s" s="213">
+        <v>358</v>
+      </c>
+      <c r="M5" t="s" s="213">
+        <v>359</v>
+      </c>
+      <c r="N5" s="218"/>
+      <c r="O5" s="216">
+        <v>6</v>
+      </c>
+      <c r="P5" s="218"/>
+    </row>
+    <row r="6" ht="200.35" customHeight="1">
+      <c r="A6" s="211">
         <v>1</v>
       </c>
-      <c r="B4" t="s" s="207">
-        <v>344</v>
-      </c>
-      <c r="C4" s="210"/>
-      <c r="D4" t="s" s="207">
-        <v>345</v>
-      </c>
-      <c r="E4" s="212"/>
-      <c r="F4" t="s" s="214">
-        <v>346</v>
-      </c>
-      <c r="G4" t="s" s="209">
-        <v>347</v>
-      </c>
-      <c r="H4" t="s" s="208">
-        <v>48</v>
-      </c>
-      <c r="I4" s="213"/>
-      <c r="J4" t="s" s="208">
-        <v>340</v>
-      </c>
-      <c r="K4" t="s" s="209">
-        <v>348</v>
-      </c>
-      <c r="L4" t="s" s="209">
-        <v>349</v>
-      </c>
-      <c r="M4" t="s" s="208">
-        <v>350</v>
-      </c>
-      <c r="N4" s="213"/>
-      <c r="O4" s="211">
-        <v>5</v>
-      </c>
-      <c r="P4" s="213"/>
-    </row>
-    <row r="5" ht="124.85" customHeight="1">
-      <c r="A5" s="206">
+      <c r="B6" t="s" s="214">
+        <v>360</v>
+      </c>
+      <c r="C6" t="s" s="214">
+        <v>361</v>
+      </c>
+      <c r="D6" t="s" s="213">
+        <v>362</v>
+      </c>
+      <c r="E6" t="s" s="213">
+        <v>363</v>
+      </c>
+      <c r="F6" t="s" s="214">
+        <v>364</v>
+      </c>
+      <c r="G6" t="s" s="214">
+        <v>365</v>
+      </c>
+      <c r="H6" s="218"/>
+      <c r="I6" s="218"/>
+      <c r="J6" t="s" s="213">
+        <v>366</v>
+      </c>
+      <c r="K6" t="s" s="213">
+        <v>367</v>
+      </c>
+      <c r="L6" t="s" s="214">
+        <v>368</v>
+      </c>
+      <c r="M6" t="s" s="213">
+        <v>369</v>
+      </c>
+      <c r="N6" s="218"/>
+      <c r="O6" s="216">
+        <v>7</v>
+      </c>
+      <c r="P6" s="218"/>
+    </row>
+    <row r="7" ht="296" customHeight="1">
+      <c r="A7" s="211">
         <v>1</v>
       </c>
-      <c r="B5" t="s" s="208">
-        <v>351</v>
-      </c>
-      <c r="C5" s="213"/>
-      <c r="D5" t="s" s="208">
-        <v>352</v>
-      </c>
-      <c r="E5" s="213"/>
-      <c r="F5" t="s" s="209">
-        <v>338</v>
-      </c>
-      <c r="G5" t="s" s="209">
-        <v>339</v>
-      </c>
-      <c r="H5" t="s" s="208">
-        <v>48</v>
-      </c>
-      <c r="I5" s="213"/>
-      <c r="J5" t="s" s="208">
-        <v>340</v>
-      </c>
-      <c r="K5" t="s" s="209">
-        <v>353</v>
-      </c>
-      <c r="L5" t="s" s="208">
-        <v>354</v>
-      </c>
-      <c r="M5" t="s" s="208">
-        <v>355</v>
-      </c>
-      <c r="N5" s="213"/>
-      <c r="O5" s="211">
-        <v>6</v>
-      </c>
-      <c r="P5" s="213"/>
-    </row>
-    <row r="6" ht="200.35" customHeight="1">
-      <c r="A6" s="206">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s" s="209">
-        <v>356</v>
-      </c>
-      <c r="C6" t="s" s="209">
-        <v>357</v>
-      </c>
-      <c r="D6" t="s" s="208">
-        <v>358</v>
-      </c>
-      <c r="E6" t="s" s="208">
-        <v>359</v>
-      </c>
-      <c r="F6" t="s" s="209">
-        <v>360</v>
-      </c>
-      <c r="G6" t="s" s="209">
-        <v>361</v>
-      </c>
-      <c r="H6" s="213"/>
-      <c r="I6" s="213"/>
-      <c r="J6" t="s" s="208">
-        <v>362</v>
-      </c>
-      <c r="K6" t="s" s="208">
-        <v>363</v>
-      </c>
-      <c r="L6" t="s" s="209">
-        <v>364</v>
-      </c>
-      <c r="M6" t="s" s="208">
-        <v>365</v>
-      </c>
-      <c r="N6" s="213"/>
-      <c r="O6" s="211">
-        <v>7</v>
-      </c>
-      <c r="P6" s="213"/>
-    </row>
-    <row r="7" ht="296" customHeight="1">
-      <c r="A7" s="206">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s" s="209">
+      <c r="B7" t="s" s="214">
+        <v>370</v>
+      </c>
+      <c r="C7" t="s" s="214">
+        <v>371</v>
+      </c>
+      <c r="D7" t="s" s="213">
+        <v>372</v>
+      </c>
+      <c r="E7" s="218"/>
+      <c r="F7" t="s" s="214">
+        <v>373</v>
+      </c>
+      <c r="G7" t="s" s="214">
+        <v>374</v>
+      </c>
+      <c r="H7" s="218"/>
+      <c r="I7" s="218"/>
+      <c r="J7" t="s" s="213">
         <v>366</v>
       </c>
-      <c r="C7" t="s" s="209">
-        <v>367</v>
-      </c>
-      <c r="D7" t="s" s="208">
-        <v>368</v>
-      </c>
-      <c r="E7" s="213"/>
-      <c r="F7" t="s" s="209">
-        <v>369</v>
-      </c>
-      <c r="G7" t="s" s="209">
-        <v>370</v>
-      </c>
-      <c r="H7" s="213"/>
-      <c r="I7" s="213"/>
-      <c r="J7" t="s" s="208">
-        <v>362</v>
-      </c>
-      <c r="K7" t="s" s="208">
-        <v>371</v>
-      </c>
-      <c r="L7" t="s" s="209">
-        <v>372</v>
-      </c>
-      <c r="M7" t="s" s="208">
-        <v>373</v>
-      </c>
-      <c r="N7" s="211">
+      <c r="K7" t="s" s="213">
+        <v>375</v>
+      </c>
+      <c r="L7" t="s" s="214">
+        <v>376</v>
+      </c>
+      <c r="M7" t="s" s="213">
+        <v>377</v>
+      </c>
+      <c r="N7" s="216">
         <v>0</v>
       </c>
-      <c r="O7" s="211">
+      <c r="O7" s="216">
         <v>8</v>
       </c>
-      <c r="P7" s="213"/>
+      <c r="P7" s="218"/>
     </row>
     <row r="8" ht="32" customHeight="1">
       <c r="A8" s="29">
         <v>0</v>
       </c>
       <c r="B8" t="s" s="56">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C8" t="s" s="56">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="D8" t="s" s="56">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="E8" t="s" s="57">
         <v>35</v>
       </c>
       <c r="F8" t="s" s="56">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="G8" t="s" s="60">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="H8" t="s" s="30">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="I8" s="66"/>
       <c r="J8" t="s" s="60">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="K8" t="s" s="60">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="L8" t="s" s="60">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="M8" t="s" s="57">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="N8" s="64">
         <v>3</v>
       </c>
       <c r="O8" t="s" s="57">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="P8" t="s" s="57">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="9" ht="14.7" customHeight="1">
@@ -12282,34 +12412,34 @@
         <v>0</v>
       </c>
       <c r="B9" t="s" s="56">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C9" s="30"/>
       <c r="D9" t="s" s="56">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E9" s="34"/>
-      <c r="F9" t="s" s="215">
-        <v>382</v>
+      <c r="F9" t="s" s="220">
+        <v>386</v>
       </c>
       <c r="G9" t="s" s="60">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="H9" t="s" s="57">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="I9" s="66"/>
       <c r="J9" t="s" s="57">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="K9" t="s" s="60">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="L9" t="s" s="57">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="M9" t="s" s="57">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="N9" s="66"/>
       <c r="O9" s="64">
@@ -12322,34 +12452,34 @@
         <v>0</v>
       </c>
       <c r="B10" t="s" s="56">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C10" s="30"/>
       <c r="D10" t="s" s="56">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="E10" s="34"/>
-      <c r="F10" t="s" s="216">
-        <v>387</v>
+      <c r="F10" t="s" s="221">
+        <v>391</v>
       </c>
       <c r="G10" t="s" s="60">
+        <v>392</v>
+      </c>
+      <c r="H10" t="s" s="57">
         <v>388</v>
-      </c>
-      <c r="H10" t="s" s="57">
-        <v>384</v>
       </c>
       <c r="I10" s="66"/>
       <c r="J10" t="s" s="57">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="K10" t="s" s="60">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="L10" t="s" s="60">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="M10" t="s" s="57">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="N10" s="66"/>
       <c r="O10" s="64">
@@ -12362,34 +12492,34 @@
         <v>0</v>
       </c>
       <c r="B11" t="s" s="57">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C11" s="66"/>
       <c r="D11" t="s" s="57">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="E11" s="66"/>
       <c r="F11" t="s" s="60">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="G11" t="s" s="60">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="H11" t="s" s="57">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="I11" s="66"/>
       <c r="J11" t="s" s="57">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="K11" t="s" s="60">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="L11" t="s" s="57">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M11" t="s" s="57">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="N11" s="66"/>
       <c r="O11" s="64">
@@ -12402,36 +12532,36 @@
         <v>0</v>
       </c>
       <c r="B12" t="s" s="60">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C12" t="s" s="60">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="D12" t="s" s="57">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="E12" t="s" s="57">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="F12" t="s" s="60">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="G12" t="s" s="60">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="H12" s="66"/>
       <c r="I12" s="66"/>
       <c r="J12" t="s" s="57">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="K12" t="s" s="57">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="L12" t="s" s="60">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="M12" t="s" s="57">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="N12" s="66"/>
       <c r="O12" s="64">
@@ -12440,38 +12570,38 @@
       <c r="P12" s="66"/>
     </row>
     <row r="13" ht="20" customHeight="1">
-      <c r="A13" s="217">
+      <c r="A13" s="222">
         <v>0</v>
       </c>
       <c r="B13" t="s" s="60">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C13" t="s" s="60">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="D13" t="s" s="57">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="E13" s="66"/>
       <c r="F13" t="s" s="60">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="G13" t="s" s="60">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="H13" s="66"/>
       <c r="I13" s="66"/>
       <c r="J13" t="s" s="57">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="K13" t="s" s="57">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="L13" t="s" s="60">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="M13" t="s" s="57">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="N13" s="64">
         <v>2</v>
@@ -12482,7 +12612,7 @@
       <c r="P13" s="66"/>
     </row>
     <row r="14" ht="20" customHeight="1">
-      <c r="A14" s="218"/>
+      <c r="A14" s="223"/>
       <c r="B14" s="60"/>
       <c r="C14" s="60"/>
       <c r="D14" s="57"/>
@@ -12494,13 +12624,13 @@
       <c r="J14" s="57"/>
       <c r="K14" s="57"/>
       <c r="L14" s="60"/>
-      <c r="M14" s="219"/>
+      <c r="M14" s="224"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
       <c r="P14" s="66"/>
     </row>
     <row r="15" ht="20" customHeight="1">
-      <c r="A15" s="218"/>
+      <c r="A15" s="223"/>
       <c r="B15" s="60"/>
       <c r="C15" s="60"/>
       <c r="D15" s="57"/>
@@ -12512,13 +12642,13 @@
       <c r="J15" s="57"/>
       <c r="K15" s="57"/>
       <c r="L15" s="60"/>
-      <c r="M15" s="219"/>
+      <c r="M15" s="224"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
       <c r="P15" s="66"/>
     </row>
     <row r="16" ht="20" customHeight="1">
-      <c r="A16" s="218"/>
+      <c r="A16" s="223"/>
       <c r="B16" s="60"/>
       <c r="C16" s="60"/>
       <c r="D16" s="57"/>
@@ -12530,13 +12660,13 @@
       <c r="J16" s="57"/>
       <c r="K16" s="57"/>
       <c r="L16" s="60"/>
-      <c r="M16" s="219"/>
+      <c r="M16" s="224"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
       <c r="P16" s="66"/>
     </row>
     <row r="17" ht="20" customHeight="1">
-      <c r="A17" s="218"/>
+      <c r="A17" s="223"/>
       <c r="B17" s="60"/>
       <c r="C17" s="60"/>
       <c r="D17" s="57"/>
@@ -12548,13 +12678,13 @@
       <c r="J17" s="57"/>
       <c r="K17" s="57"/>
       <c r="L17" s="60"/>
-      <c r="M17" s="219"/>
+      <c r="M17" s="224"/>
       <c r="N17" s="66"/>
       <c r="O17" s="66"/>
       <c r="P17" s="66"/>
     </row>
     <row r="18" ht="20" customHeight="1">
-      <c r="A18" s="218"/>
+      <c r="A18" s="223"/>
       <c r="B18" s="60"/>
       <c r="C18" s="60"/>
       <c r="D18" s="57"/>
@@ -12566,13 +12696,13 @@
       <c r="J18" s="57"/>
       <c r="K18" s="57"/>
       <c r="L18" s="60"/>
-      <c r="M18" s="219"/>
+      <c r="M18" s="224"/>
       <c r="N18" s="66"/>
       <c r="O18" s="66"/>
       <c r="P18" s="66"/>
     </row>
     <row r="19" ht="20" customHeight="1">
-      <c r="A19" s="218"/>
+      <c r="A19" s="223"/>
       <c r="B19" s="60"/>
       <c r="C19" s="60"/>
       <c r="D19" s="57"/>
@@ -12584,13 +12714,13 @@
       <c r="J19" s="57"/>
       <c r="K19" s="57"/>
       <c r="L19" s="60"/>
-      <c r="M19" s="219"/>
+      <c r="M19" s="224"/>
       <c r="N19" s="66"/>
       <c r="O19" s="66"/>
       <c r="P19" s="66"/>
     </row>
     <row r="20" ht="20" customHeight="1">
-      <c r="A20" s="218"/>
+      <c r="A20" s="223"/>
       <c r="B20" s="60"/>
       <c r="C20" s="60"/>
       <c r="D20" s="57"/>
@@ -12602,13 +12732,13 @@
       <c r="J20" s="57"/>
       <c r="K20" s="57"/>
       <c r="L20" s="60"/>
-      <c r="M20" s="219"/>
+      <c r="M20" s="224"/>
       <c r="N20" s="66"/>
       <c r="O20" s="66"/>
       <c r="P20" s="66"/>
     </row>
     <row r="21" ht="20" customHeight="1">
-      <c r="A21" s="218"/>
+      <c r="A21" s="223"/>
       <c r="B21" s="60"/>
       <c r="C21" s="60"/>
       <c r="D21" s="57"/>
@@ -12620,13 +12750,13 @@
       <c r="J21" s="57"/>
       <c r="K21" s="57"/>
       <c r="L21" s="60"/>
-      <c r="M21" s="219"/>
+      <c r="M21" s="224"/>
       <c r="N21" s="66"/>
       <c r="O21" s="66"/>
       <c r="P21" s="66"/>
     </row>
     <row r="22" ht="20" customHeight="1">
-      <c r="A22" s="218"/>
+      <c r="A22" s="223"/>
       <c r="B22" s="60"/>
       <c r="C22" s="60"/>
       <c r="D22" s="57"/>
@@ -12638,13 +12768,13 @@
       <c r="J22" s="57"/>
       <c r="K22" s="57"/>
       <c r="L22" s="60"/>
-      <c r="M22" s="219"/>
+      <c r="M22" s="224"/>
       <c r="N22" s="66"/>
       <c r="O22" s="66"/>
       <c r="P22" s="66"/>
     </row>
     <row r="23" ht="20" customHeight="1">
-      <c r="A23" s="218"/>
+      <c r="A23" s="223"/>
       <c r="B23" s="60"/>
       <c r="C23" s="60"/>
       <c r="D23" s="57"/>
@@ -12656,13 +12786,13 @@
       <c r="J23" s="57"/>
       <c r="K23" s="57"/>
       <c r="L23" s="60"/>
-      <c r="M23" s="219"/>
+      <c r="M23" s="224"/>
       <c r="N23" s="66"/>
       <c r="O23" s="66"/>
       <c r="P23" s="66"/>
     </row>
     <row r="24" ht="20" customHeight="1">
-      <c r="A24" s="218"/>
+      <c r="A24" s="223"/>
       <c r="B24" s="60"/>
       <c r="C24" s="60"/>
       <c r="D24" s="57"/>
@@ -12674,7 +12804,7 @@
       <c r="J24" s="57"/>
       <c r="K24" s="57"/>
       <c r="L24" s="60"/>
-      <c r="M24" s="219"/>
+      <c r="M24" s="224"/>
       <c r="N24" s="66"/>
       <c r="O24" s="66"/>
       <c r="P24" s="66"/>
@@ -12699,13 +12829,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="220" customWidth="1"/>
-    <col min="2" max="2" width="7.35156" style="220" customWidth="1"/>
-    <col min="3" max="3" width="38" style="220" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="220" customWidth="1"/>
-    <col min="5" max="5" width="52.8516" style="220" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="220" customWidth="1"/>
-    <col min="7" max="256" width="16.3516" style="220" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="225" customWidth="1"/>
+    <col min="2" max="2" width="7.35156" style="225" customWidth="1"/>
+    <col min="3" max="3" width="38" style="225" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="225" customWidth="1"/>
+    <col min="5" max="5" width="52.8516" style="225" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="225" customWidth="1"/>
+    <col min="7" max="256" width="16.3516" style="225" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -12718,164 +12848,164 @@
       <c r="C1" t="s" s="28">
         <v>82</v>
       </c>
-      <c r="D1" t="s" s="221">
-        <v>406</v>
+      <c r="D1" t="s" s="226">
+        <v>410</v>
       </c>
       <c r="E1" t="s" s="28">
-        <v>317</v>
-      </c>
-      <c r="F1" s="222"/>
+        <v>320</v>
+      </c>
+      <c r="F1" s="227"/>
     </row>
     <row r="2" ht="50.25" customHeight="1">
-      <c r="A2" s="133">
+      <c r="A2" s="138">
         <v>1</v>
       </c>
-      <c r="B2" s="223">
+      <c r="B2" s="228">
         <v>0</v>
       </c>
-      <c r="C2" t="s" s="224">
-        <v>407</v>
-      </c>
-      <c r="D2" t="s" s="225">
-        <v>408</v>
-      </c>
-      <c r="E2" t="s" s="225">
-        <v>409</v>
-      </c>
-      <c r="F2" s="226"/>
+      <c r="C2" t="s" s="229">
+        <v>411</v>
+      </c>
+      <c r="D2" t="s" s="230">
+        <v>412</v>
+      </c>
+      <c r="E2" t="s" s="230">
+        <v>413</v>
+      </c>
+      <c r="F2" s="231"/>
     </row>
     <row r="3" ht="16.35" customHeight="1">
-      <c r="A3" s="133">
+      <c r="A3" s="138">
         <v>1</v>
       </c>
-      <c r="B3" s="227">
+      <c r="B3" s="232">
         <v>1</v>
       </c>
-      <c r="C3" t="s" s="228">
-        <v>410</v>
-      </c>
-      <c r="D3" t="s" s="185">
-        <v>408</v>
-      </c>
-      <c r="E3" t="s" s="185">
+      <c r="C3" t="s" s="233">
+        <v>414</v>
+      </c>
+      <c r="D3" t="s" s="190">
+        <v>412</v>
+      </c>
+      <c r="E3" t="s" s="190">
+        <v>415</v>
+      </c>
+      <c r="F3" s="231"/>
+    </row>
+    <row r="4" ht="26.05" customHeight="1">
+      <c r="A4" s="138">
+        <v>1</v>
+      </c>
+      <c r="B4" s="232">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s" s="233">
+        <v>416</v>
+      </c>
+      <c r="D4" t="s" s="190">
+        <v>417</v>
+      </c>
+      <c r="E4" t="s" s="190">
+        <v>418</v>
+      </c>
+      <c r="F4" s="231"/>
+    </row>
+    <row r="5" ht="26.05" customHeight="1">
+      <c r="A5" s="138">
+        <v>1</v>
+      </c>
+      <c r="B5" s="232">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s" s="234">
+        <v>99</v>
+      </c>
+      <c r="D5" t="s" s="235">
+        <v>417</v>
+      </c>
+      <c r="E5" t="s" s="235">
+        <v>419</v>
+      </c>
+      <c r="F5" s="231"/>
+    </row>
+    <row r="6" ht="51" customHeight="1">
+      <c r="A6" s="138">
+        <v>0</v>
+      </c>
+      <c r="B6" s="232">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s" s="229">
         <v>411</v>
       </c>
-      <c r="F3" s="226"/>
-    </row>
-    <row r="4" ht="26.05" customHeight="1">
-      <c r="A4" s="133">
-        <v>1</v>
-      </c>
-      <c r="B4" s="227">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s" s="228">
+      <c r="D6" t="s" s="230">
         <v>412</v>
       </c>
-      <c r="D4" t="s" s="185">
+      <c r="E6" t="s" s="230">
         <v>413</v>
       </c>
-      <c r="E4" t="s" s="185">
+      <c r="F6" s="231"/>
+    </row>
+    <row r="7" ht="14.7" customHeight="1">
+      <c r="A7" s="138">
+        <v>0</v>
+      </c>
+      <c r="B7" s="232">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s" s="233">
         <v>414</v>
       </c>
-      <c r="F4" s="226"/>
-    </row>
-    <row r="5" ht="26.05" customHeight="1">
-      <c r="A5" s="133">
-        <v>1</v>
-      </c>
-      <c r="B5" s="227">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s" s="229">
+      <c r="D7" t="s" s="190">
+        <v>412</v>
+      </c>
+      <c r="E7" t="s" s="190">
+        <v>415</v>
+      </c>
+      <c r="F7" s="231"/>
+    </row>
+    <row r="8" ht="14.7" customHeight="1">
+      <c r="A8" s="138">
+        <v>0</v>
+      </c>
+      <c r="B8" s="232">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s" s="233">
+        <v>416</v>
+      </c>
+      <c r="D8" t="s" s="190">
+        <v>417</v>
+      </c>
+      <c r="E8" t="s" s="190">
+        <v>418</v>
+      </c>
+      <c r="F8" s="231"/>
+    </row>
+    <row r="9" ht="14.7" customHeight="1">
+      <c r="A9" s="138">
+        <v>0</v>
+      </c>
+      <c r="B9" s="232">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s" s="233">
         <v>99</v>
       </c>
-      <c r="D5" t="s" s="230">
-        <v>413</v>
-      </c>
-      <c r="E5" t="s" s="230">
-        <v>415</v>
-      </c>
-      <c r="F5" s="226"/>
-    </row>
-    <row r="6" ht="51" customHeight="1">
-      <c r="A6" s="133">
-        <v>0</v>
-      </c>
-      <c r="B6" s="227">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s" s="224">
-        <v>407</v>
-      </c>
-      <c r="D6" t="s" s="225">
-        <v>408</v>
-      </c>
-      <c r="E6" t="s" s="225">
-        <v>409</v>
-      </c>
-      <c r="F6" s="226"/>
-    </row>
-    <row r="7" ht="14.7" customHeight="1">
-      <c r="A7" s="133">
-        <v>0</v>
-      </c>
-      <c r="B7" s="227">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s" s="228">
-        <v>410</v>
-      </c>
-      <c r="D7" t="s" s="185">
-        <v>408</v>
-      </c>
-      <c r="E7" t="s" s="185">
-        <v>411</v>
-      </c>
-      <c r="F7" s="226"/>
-    </row>
-    <row r="8" ht="14.7" customHeight="1">
-      <c r="A8" s="133">
-        <v>0</v>
-      </c>
-      <c r="B8" s="227">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s" s="228">
-        <v>412</v>
-      </c>
-      <c r="D8" t="s" s="185">
-        <v>413</v>
-      </c>
-      <c r="E8" t="s" s="185">
-        <v>414</v>
-      </c>
-      <c r="F8" s="226"/>
-    </row>
-    <row r="9" ht="14.7" customHeight="1">
-      <c r="A9" s="133">
-        <v>0</v>
-      </c>
-      <c r="B9" s="227">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s" s="228">
-        <v>99</v>
-      </c>
-      <c r="D9" t="s" s="185">
-        <v>413</v>
-      </c>
-      <c r="E9" t="s" s="230">
-        <v>415</v>
-      </c>
-      <c r="F9" s="226"/>
+      <c r="D9" t="s" s="190">
+        <v>417</v>
+      </c>
+      <c r="E9" t="s" s="235">
+        <v>419</v>
+      </c>
+      <c r="F9" s="231"/>
     </row>
     <row r="10" ht="14.7" customHeight="1">
       <c r="A10" s="51"/>
-      <c r="B10" s="231"/>
-      <c r="C10" s="232"/>
-      <c r="D10" s="232"/>
-      <c r="E10" s="233"/>
+      <c r="B10" s="236"/>
+      <c r="C10" s="237"/>
+      <c r="D10" s="237"/>
+      <c r="E10" s="238"/>
       <c r="F10" s="21"/>
     </row>
   </sheetData>
@@ -12898,11 +13028,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="234" customWidth="1"/>
-    <col min="2" max="2" width="90.5" style="234" customWidth="1"/>
-    <col min="3" max="3" width="45.8516" style="234" customWidth="1"/>
-    <col min="4" max="5" width="16.3516" style="234" customWidth="1"/>
-    <col min="6" max="256" width="16.3516" style="234" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="239" customWidth="1"/>
+    <col min="2" max="2" width="90.5" style="239" customWidth="1"/>
+    <col min="3" max="3" width="45.8516" style="239" customWidth="1"/>
+    <col min="4" max="5" width="16.3516" style="239" customWidth="1"/>
+    <col min="6" max="256" width="16.3516" style="239" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.35" customHeight="1">
@@ -12910,1460 +13040,1472 @@
         <v>27</v>
       </c>
       <c r="B1" t="s" s="27">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C1" t="s" s="28">
-        <v>417</v>
-      </c>
-      <c r="D1" s="235"/>
+        <v>421</v>
+      </c>
+      <c r="D1" s="240"/>
       <c r="E1" s="9"/>
     </row>
     <row r="2" ht="14.7" customHeight="1">
-      <c r="A2" s="236">
+      <c r="A2" s="241">
         <v>0</v>
       </c>
-      <c r="B2" t="s" s="237">
-        <v>418</v>
-      </c>
-      <c r="C2" s="238"/>
+      <c r="B2" t="s" s="242">
+        <v>422</v>
+      </c>
+      <c r="C2" s="243"/>
       <c r="D2" s="48"/>
       <c r="E2" s="12"/>
     </row>
     <row r="3" ht="14.7" customHeight="1">
-      <c r="A3" s="239">
+      <c r="A3" s="244">
         <v>1</v>
       </c>
-      <c r="B3" t="s" s="237">
-        <v>419</v>
-      </c>
-      <c r="C3" s="240"/>
+      <c r="B3" t="s" s="242">
+        <v>423</v>
+      </c>
+      <c r="C3" s="245"/>
       <c r="D3" s="48"/>
       <c r="E3" s="12"/>
     </row>
     <row r="4" ht="14.7" customHeight="1">
-      <c r="A4" s="241">
+      <c r="A4" s="246">
         <v>2</v>
       </c>
-      <c r="B4" t="s" s="242">
-        <v>420</v>
-      </c>
-      <c r="C4" s="240"/>
+      <c r="B4" t="s" s="247">
+        <v>424</v>
+      </c>
+      <c r="C4" s="245"/>
       <c r="D4" s="48"/>
       <c r="E4" s="12"/>
     </row>
     <row r="5" ht="14.35" customHeight="1">
-      <c r="A5" s="227">
+      <c r="A5" s="232">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="243">
-        <v>421</v>
-      </c>
-      <c r="C5" s="240"/>
+      <c r="B5" t="s" s="248">
+        <v>425</v>
+      </c>
+      <c r="C5" s="245"/>
       <c r="D5" s="48"/>
       <c r="E5" s="12"/>
     </row>
     <row r="6" ht="14.05" customHeight="1">
-      <c r="A6" s="227">
+      <c r="A6" s="232">
         <v>4</v>
       </c>
-      <c r="B6" t="s" s="244">
-        <v>422</v>
-      </c>
-      <c r="C6" s="240"/>
+      <c r="B6" t="s" s="249">
+        <v>426</v>
+      </c>
+      <c r="C6" s="245"/>
       <c r="D6" s="48"/>
       <c r="E6" s="12"/>
     </row>
     <row r="7" ht="14.05" customHeight="1">
-      <c r="A7" s="227">
+      <c r="A7" s="232">
         <v>5</v>
       </c>
-      <c r="B7" t="s" s="244">
-        <v>423</v>
-      </c>
-      <c r="C7" s="240"/>
+      <c r="B7" t="s" s="249">
+        <v>427</v>
+      </c>
+      <c r="C7" s="245"/>
       <c r="D7" s="48"/>
       <c r="E7" s="12"/>
     </row>
     <row r="8" ht="14.05" customHeight="1">
-      <c r="A8" s="227">
+      <c r="A8" s="232">
         <v>6</v>
       </c>
-      <c r="B8" t="s" s="244">
-        <v>424</v>
-      </c>
-      <c r="C8" s="240"/>
+      <c r="B8" t="s" s="249">
+        <v>428</v>
+      </c>
+      <c r="C8" s="245"/>
       <c r="D8" s="48"/>
       <c r="E8" s="12"/>
     </row>
     <row r="9" ht="14.05" customHeight="1">
-      <c r="A9" s="227">
+      <c r="A9" s="232">
         <v>7</v>
       </c>
-      <c r="B9" t="s" s="244">
-        <v>425</v>
-      </c>
-      <c r="C9" s="240"/>
+      <c r="B9" t="s" s="249">
+        <v>429</v>
+      </c>
+      <c r="C9" s="245"/>
       <c r="D9" s="48"/>
       <c r="E9" s="12"/>
     </row>
     <row r="10" ht="14.35" customHeight="1">
-      <c r="A10" s="227">
+      <c r="A10" s="232">
         <v>8</v>
       </c>
-      <c r="B10" t="s" s="245">
-        <v>426</v>
+      <c r="B10" t="s" s="250">
+        <v>430</v>
       </c>
       <c r="C10" s="40"/>
       <c r="D10" s="48"/>
       <c r="E10" s="12"/>
     </row>
     <row r="11" ht="14.7" customHeight="1">
-      <c r="A11" s="239">
+      <c r="A11" s="244">
         <v>9</v>
       </c>
-      <c r="B11" t="s" s="246">
-        <v>427</v>
+      <c r="B11" t="s" s="251">
+        <v>431</v>
       </c>
       <c r="C11" s="40"/>
       <c r="D11" s="48"/>
       <c r="E11" s="12"/>
     </row>
     <row r="12" ht="14.7" customHeight="1">
-      <c r="A12" s="239">
+      <c r="A12" s="244">
         <v>10</v>
       </c>
-      <c r="B12" t="s" s="247">
-        <v>428</v>
+      <c r="B12" t="s" s="252">
+        <v>432</v>
       </c>
       <c r="C12" s="40"/>
       <c r="D12" s="48"/>
       <c r="E12" s="12"/>
     </row>
     <row r="13" ht="15.7" customHeight="1">
-      <c r="A13" s="241">
+      <c r="A13" s="246">
         <v>11</v>
       </c>
-      <c r="B13" t="s" s="248">
-        <v>429</v>
-      </c>
-      <c r="C13" s="240"/>
+      <c r="B13" t="s" s="253">
+        <v>433</v>
+      </c>
+      <c r="C13" s="245"/>
       <c r="D13" s="48"/>
       <c r="E13" s="12"/>
     </row>
     <row r="14" ht="15.7" customHeight="1">
-      <c r="A14" s="241">
+      <c r="A14" s="246">
         <v>12</v>
       </c>
-      <c r="B14" t="s" s="248">
-        <v>430</v>
-      </c>
-      <c r="C14" s="240"/>
+      <c r="B14" t="s" s="253">
+        <v>434</v>
+      </c>
+      <c r="C14" s="245"/>
       <c r="D14" s="48"/>
       <c r="E14" s="12"/>
     </row>
     <row r="15" ht="14.7" customHeight="1">
-      <c r="A15" s="241">
+      <c r="A15" s="246">
         <v>13</v>
       </c>
-      <c r="B15" t="s" s="249">
-        <v>431</v>
-      </c>
-      <c r="C15" s="240"/>
+      <c r="B15" t="s" s="254">
+        <v>435</v>
+      </c>
+      <c r="C15" s="245"/>
       <c r="D15" s="48"/>
       <c r="E15" s="12"/>
     </row>
     <row r="16" ht="15.7" customHeight="1">
-      <c r="A16" s="241">
+      <c r="A16" s="246">
         <v>14</v>
       </c>
-      <c r="B16" t="s" s="248">
-        <v>432</v>
-      </c>
-      <c r="C16" s="240"/>
+      <c r="B16" t="s" s="253">
+        <v>436</v>
+      </c>
+      <c r="C16" s="245"/>
       <c r="D16" s="48"/>
       <c r="E16" s="12"/>
     </row>
     <row r="17" ht="15.7" customHeight="1">
-      <c r="A17" s="241">
+      <c r="A17" s="246">
         <v>15</v>
       </c>
-      <c r="B17" t="s" s="248">
-        <v>433</v>
-      </c>
-      <c r="C17" s="240"/>
+      <c r="B17" t="s" s="253">
+        <v>437</v>
+      </c>
+      <c r="C17" s="245"/>
       <c r="D17" s="48"/>
       <c r="E17" s="12"/>
     </row>
     <row r="18" ht="15.7" customHeight="1">
-      <c r="A18" s="241">
+      <c r="A18" s="246">
         <v>16</v>
       </c>
-      <c r="B18" t="s" s="248">
-        <v>434</v>
-      </c>
-      <c r="C18" s="240"/>
+      <c r="B18" t="s" s="253">
+        <v>438</v>
+      </c>
+      <c r="C18" s="245"/>
       <c r="D18" s="48"/>
       <c r="E18" s="12"/>
     </row>
     <row r="19" ht="15.7" customHeight="1">
-      <c r="A19" s="241">
+      <c r="A19" s="246">
         <v>17</v>
       </c>
-      <c r="B19" t="s" s="248">
-        <v>435</v>
-      </c>
-      <c r="C19" s="240"/>
+      <c r="B19" t="s" s="253">
+        <v>439</v>
+      </c>
+      <c r="C19" s="245"/>
       <c r="D19" s="48"/>
       <c r="E19" s="12"/>
     </row>
     <row r="20" ht="15.7" customHeight="1">
-      <c r="A20" s="241">
+      <c r="A20" s="246">
         <v>18</v>
       </c>
-      <c r="B20" t="s" s="248">
-        <v>436</v>
-      </c>
-      <c r="C20" s="240"/>
+      <c r="B20" t="s" s="253">
+        <v>440</v>
+      </c>
+      <c r="C20" s="245"/>
       <c r="D20" s="48"/>
       <c r="E20" s="12"/>
     </row>
     <row r="21" ht="15.7" customHeight="1">
-      <c r="A21" s="241">
+      <c r="A21" s="246">
         <v>19</v>
       </c>
-      <c r="B21" t="s" s="249">
-        <v>437</v>
-      </c>
-      <c r="C21" s="240"/>
+      <c r="B21" t="s" s="254">
+        <v>441</v>
+      </c>
+      <c r="C21" s="245"/>
       <c r="D21" s="48"/>
       <c r="E21" s="12"/>
     </row>
     <row r="22" ht="15.7" customHeight="1">
-      <c r="A22" s="241">
+      <c r="A22" s="246">
         <v>20</v>
       </c>
-      <c r="B22" t="s" s="248">
-        <v>438</v>
-      </c>
-      <c r="C22" s="240"/>
+      <c r="B22" t="s" s="253">
+        <v>442</v>
+      </c>
+      <c r="C22" s="245"/>
       <c r="D22" s="48"/>
       <c r="E22" s="12"/>
     </row>
     <row r="23" ht="15.7" customHeight="1">
-      <c r="A23" s="241">
+      <c r="A23" s="246">
         <v>21</v>
       </c>
-      <c r="B23" t="s" s="248">
-        <v>438</v>
-      </c>
-      <c r="C23" s="240"/>
+      <c r="B23" t="s" s="253">
+        <v>442</v>
+      </c>
+      <c r="C23" s="245"/>
       <c r="D23" s="48"/>
       <c r="E23" s="12"/>
     </row>
     <row r="24" ht="14.7" customHeight="1">
-      <c r="A24" s="241">
+      <c r="A24" s="246">
         <v>22</v>
       </c>
-      <c r="B24" t="s" s="248">
-        <v>439</v>
-      </c>
-      <c r="C24" s="240"/>
+      <c r="B24" t="s" s="253">
+        <v>443</v>
+      </c>
+      <c r="C24" s="245"/>
       <c r="D24" s="48"/>
       <c r="E24" s="12"/>
     </row>
     <row r="25" ht="14.7" customHeight="1">
-      <c r="A25" s="241">
+      <c r="A25" s="246">
         <v>23</v>
       </c>
-      <c r="B25" t="s" s="248">
-        <v>440</v>
-      </c>
-      <c r="C25" s="240"/>
+      <c r="B25" t="s" s="253">
+        <v>444</v>
+      </c>
+      <c r="C25" s="245"/>
       <c r="D25" s="48"/>
       <c r="E25" s="12"/>
     </row>
     <row r="26" ht="14.7" customHeight="1">
-      <c r="A26" s="241">
+      <c r="A26" s="246">
         <v>24</v>
       </c>
-      <c r="B26" t="s" s="248">
-        <v>441</v>
-      </c>
-      <c r="C26" s="240"/>
+      <c r="B26" t="s" s="253">
+        <v>445</v>
+      </c>
+      <c r="C26" s="245"/>
       <c r="D26" s="48"/>
       <c r="E26" s="12"/>
     </row>
     <row r="27" ht="14.7" customHeight="1">
-      <c r="A27" s="227">
+      <c r="A27" s="232">
         <v>25</v>
       </c>
-      <c r="B27" t="s" s="250">
-        <v>424</v>
-      </c>
-      <c r="C27" s="240"/>
+      <c r="B27" t="s" s="255">
+        <v>428</v>
+      </c>
+      <c r="C27" s="245"/>
       <c r="D27" s="48"/>
       <c r="E27" s="12"/>
     </row>
     <row r="28" ht="14.7" customHeight="1">
-      <c r="A28" s="241">
+      <c r="A28" s="246">
         <v>26</v>
       </c>
-      <c r="B28" t="s" s="251">
-        <v>377</v>
-      </c>
-      <c r="C28" s="240"/>
+      <c r="B28" t="s" s="256">
+        <v>381</v>
+      </c>
+      <c r="C28" s="245"/>
       <c r="D28" s="48"/>
       <c r="E28" s="12"/>
     </row>
     <row r="29" ht="14.7" customHeight="1">
-      <c r="A29" s="241">
+      <c r="A29" s="246">
         <v>27</v>
       </c>
-      <c r="B29" t="s" s="252">
-        <v>384</v>
-      </c>
-      <c r="C29" s="240"/>
+      <c r="B29" t="s" s="257">
+        <v>388</v>
+      </c>
+      <c r="C29" s="245"/>
       <c r="D29" s="48"/>
       <c r="E29" s="12"/>
     </row>
     <row r="30" ht="16" customHeight="1">
-      <c r="A30" s="241">
+      <c r="A30" s="246">
         <v>28</v>
       </c>
-      <c r="B30" t="s" s="253">
-        <v>442</v>
-      </c>
-      <c r="C30" s="240"/>
+      <c r="B30" t="s" s="258">
+        <v>446</v>
+      </c>
+      <c r="C30" s="245"/>
       <c r="D30" s="48"/>
       <c r="E30" s="12"/>
     </row>
     <row r="31" ht="16" customHeight="1">
-      <c r="A31" s="241">
+      <c r="A31" s="246">
         <v>29</v>
       </c>
-      <c r="B31" t="s" s="253">
-        <v>443</v>
-      </c>
-      <c r="C31" s="240"/>
+      <c r="B31" t="s" s="258">
+        <v>447</v>
+      </c>
+      <c r="C31" s="245"/>
       <c r="D31" s="48"/>
       <c r="E31" s="12"/>
     </row>
     <row r="32" ht="16" customHeight="1">
-      <c r="A32" s="241">
+      <c r="A32" s="246">
         <v>30</v>
       </c>
-      <c r="B32" t="s" s="254">
-        <v>444</v>
-      </c>
-      <c r="C32" s="240"/>
+      <c r="B32" t="s" s="259">
+        <v>448</v>
+      </c>
+      <c r="C32" s="245"/>
       <c r="D32" s="48"/>
       <c r="E32" s="12"/>
     </row>
     <row r="33" ht="16" customHeight="1">
-      <c r="A33" s="241">
+      <c r="A33" s="246">
         <v>31</v>
       </c>
-      <c r="B33" t="s" s="254">
-        <v>445</v>
-      </c>
-      <c r="C33" s="240"/>
+      <c r="B33" t="s" s="259">
+        <v>449</v>
+      </c>
+      <c r="C33" s="245"/>
       <c r="D33" s="48"/>
       <c r="E33" s="12"/>
     </row>
     <row r="34" ht="16" customHeight="1">
-      <c r="A34" s="241">
+      <c r="A34" s="246">
         <v>32</v>
       </c>
-      <c r="B34" t="s" s="253">
-        <v>446</v>
-      </c>
-      <c r="C34" s="240"/>
+      <c r="B34" t="s" s="258">
+        <v>450</v>
+      </c>
+      <c r="C34" s="245"/>
       <c r="D34" s="48"/>
       <c r="E34" s="12"/>
     </row>
     <row r="35" ht="16" customHeight="1">
-      <c r="A35" s="241">
+      <c r="A35" s="246">
         <v>33</v>
       </c>
-      <c r="B35" t="s" s="253">
-        <v>447</v>
-      </c>
-      <c r="C35" s="240"/>
+      <c r="B35" t="s" s="258">
+        <v>451</v>
+      </c>
+      <c r="C35" s="245"/>
       <c r="D35" s="48"/>
       <c r="E35" s="12"/>
     </row>
     <row r="36" ht="16" customHeight="1">
-      <c r="A36" s="227">
+      <c r="A36" s="232">
         <v>34</v>
       </c>
-      <c r="B36" t="s" s="255">
-        <v>448</v>
+      <c r="B36" t="s" s="260">
+        <v>452</v>
       </c>
       <c r="C36" s="40"/>
       <c r="D36" s="48"/>
       <c r="E36" s="12"/>
     </row>
     <row r="37" ht="16" customHeight="1">
-      <c r="A37" s="241">
+      <c r="A37" s="246">
         <v>35</v>
       </c>
-      <c r="B37" t="s" s="253">
-        <v>449</v>
-      </c>
-      <c r="C37" s="240"/>
+      <c r="B37" t="s" s="258">
+        <v>453</v>
+      </c>
+      <c r="C37" s="245"/>
       <c r="D37" s="48"/>
       <c r="E37" s="12"/>
     </row>
     <row r="38" ht="25" customHeight="1">
-      <c r="A38" s="227">
+      <c r="A38" s="232">
         <v>36</v>
       </c>
-      <c r="B38" t="s" s="255">
-        <v>450</v>
+      <c r="B38" t="s" s="260">
+        <v>454</v>
       </c>
       <c r="C38" s="40"/>
       <c r="D38" s="48"/>
       <c r="E38" s="12"/>
     </row>
     <row r="39" ht="16" customHeight="1">
-      <c r="A39" s="241">
+      <c r="A39" s="246">
         <v>37</v>
       </c>
-      <c r="B39" t="s" s="253">
-        <v>451</v>
-      </c>
-      <c r="C39" s="240"/>
+      <c r="B39" t="s" s="258">
+        <v>455</v>
+      </c>
+      <c r="C39" s="245"/>
       <c r="D39" s="48"/>
       <c r="E39" s="12"/>
     </row>
     <row r="40" ht="15.65" customHeight="1">
-      <c r="A40" s="227">
+      <c r="A40" s="232">
         <v>38</v>
       </c>
-      <c r="B40" t="s" s="256">
-        <v>452</v>
+      <c r="B40" t="s" s="261">
+        <v>456</v>
       </c>
       <c r="C40" s="40"/>
       <c r="D40" s="48"/>
       <c r="E40" s="12"/>
     </row>
     <row r="41" ht="15.35" customHeight="1">
-      <c r="A41" s="227">
+      <c r="A41" s="232">
         <v>39</v>
       </c>
-      <c r="B41" t="s" s="257">
-        <v>453</v>
+      <c r="B41" t="s" s="262">
+        <v>457</v>
       </c>
       <c r="C41" s="40"/>
       <c r="D41" s="48"/>
       <c r="E41" s="12"/>
     </row>
     <row r="42" ht="15.35" customHeight="1">
-      <c r="A42" s="227">
+      <c r="A42" s="232">
         <v>40</v>
       </c>
-      <c r="B42" t="s" s="257">
-        <v>454</v>
+      <c r="B42" t="s" s="262">
+        <v>458</v>
       </c>
       <c r="C42" s="40"/>
       <c r="D42" s="48"/>
       <c r="E42" s="12"/>
     </row>
     <row r="43" ht="15.35" customHeight="1">
-      <c r="A43" s="227">
+      <c r="A43" s="232">
         <v>41</v>
       </c>
-      <c r="B43" t="s" s="257">
-        <v>455</v>
+      <c r="B43" t="s" s="262">
+        <v>459</v>
       </c>
       <c r="C43" s="40"/>
       <c r="D43" s="48"/>
       <c r="E43" s="12"/>
     </row>
     <row r="44" ht="15.35" customHeight="1">
-      <c r="A44" s="227">
+      <c r="A44" s="232">
         <v>42</v>
       </c>
-      <c r="B44" t="s" s="257">
-        <v>456</v>
+      <c r="B44" t="s" s="262">
+        <v>460</v>
       </c>
       <c r="C44" s="40"/>
       <c r="D44" s="48"/>
       <c r="E44" s="12"/>
     </row>
     <row r="45" ht="15.35" customHeight="1">
-      <c r="A45" s="227">
+      <c r="A45" s="232">
         <v>43</v>
       </c>
-      <c r="B45" t="s" s="257">
-        <v>457</v>
+      <c r="B45" t="s" s="262">
+        <v>461</v>
       </c>
       <c r="C45" s="40"/>
       <c r="D45" s="48"/>
       <c r="E45" s="12"/>
     </row>
     <row r="46" ht="15.35" customHeight="1">
-      <c r="A46" s="227">
+      <c r="A46" s="232">
         <v>44</v>
       </c>
-      <c r="B46" t="s" s="257">
-        <v>458</v>
+      <c r="B46" t="s" s="262">
+        <v>462</v>
       </c>
       <c r="C46" s="40"/>
       <c r="D46" s="48"/>
       <c r="E46" s="12"/>
     </row>
     <row r="47" ht="15.35" customHeight="1">
-      <c r="A47" s="227">
+      <c r="A47" s="232">
         <v>45</v>
       </c>
-      <c r="B47" t="s" s="257">
-        <v>459</v>
+      <c r="B47" t="s" s="262">
+        <v>463</v>
       </c>
       <c r="C47" s="40"/>
       <c r="D47" s="48"/>
       <c r="E47" s="12"/>
     </row>
     <row r="48" ht="15.35" customHeight="1">
-      <c r="A48" s="227">
+      <c r="A48" s="232">
         <v>46</v>
       </c>
-      <c r="B48" t="s" s="257">
-        <v>460</v>
+      <c r="B48" t="s" s="262">
+        <v>464</v>
       </c>
       <c r="C48" s="40"/>
       <c r="D48" s="48"/>
       <c r="E48" s="12"/>
     </row>
     <row r="49" ht="15.35" customHeight="1">
-      <c r="A49" s="227">
+      <c r="A49" s="232">
         <v>47</v>
       </c>
-      <c r="B49" t="s" s="257">
-        <v>461</v>
+      <c r="B49" t="s" s="262">
+        <v>465</v>
       </c>
       <c r="C49" s="40"/>
       <c r="D49" s="48"/>
       <c r="E49" s="12"/>
     </row>
     <row r="50" ht="15.35" customHeight="1">
-      <c r="A50" s="227">
+      <c r="A50" s="232">
         <v>48</v>
       </c>
-      <c r="B50" t="s" s="257">
-        <v>462</v>
+      <c r="B50" t="s" s="262">
+        <v>466</v>
       </c>
       <c r="C50" s="40"/>
       <c r="D50" s="48"/>
       <c r="E50" s="12"/>
     </row>
     <row r="51" ht="15.35" customHeight="1">
-      <c r="A51" s="227">
+      <c r="A51" s="232">
         <v>49</v>
       </c>
-      <c r="B51" t="s" s="257">
-        <v>463</v>
+      <c r="B51" t="s" s="262">
+        <v>467</v>
       </c>
       <c r="C51" s="40"/>
       <c r="D51" s="48"/>
       <c r="E51" s="12"/>
     </row>
     <row r="52" ht="15.35" customHeight="1">
-      <c r="A52" s="227">
+      <c r="A52" s="232">
         <v>50</v>
       </c>
-      <c r="B52" t="s" s="257">
-        <v>464</v>
-      </c>
-      <c r="C52" s="40"/>
+      <c r="B52" t="s" s="262">
+        <v>468</v>
+      </c>
+      <c r="C52" t="s" s="190">
+        <v>24</v>
+      </c>
       <c r="D52" s="48"/>
       <c r="E52" s="12"/>
     </row>
     <row r="53" ht="15.35" customHeight="1">
-      <c r="A53" s="227">
+      <c r="A53" s="232">
         <v>51</v>
       </c>
-      <c r="B53" t="s" s="257">
-        <v>465</v>
+      <c r="B53" t="s" s="262">
+        <v>469</v>
       </c>
       <c r="C53" s="40"/>
       <c r="D53" s="48"/>
       <c r="E53" s="12"/>
     </row>
     <row r="54" ht="15.35" customHeight="1">
-      <c r="A54" s="227">
+      <c r="A54" s="232">
         <v>52</v>
       </c>
-      <c r="B54" t="s" s="257">
-        <v>466</v>
+      <c r="B54" t="s" s="262">
+        <v>470</v>
       </c>
       <c r="C54" s="40"/>
       <c r="D54" s="48"/>
       <c r="E54" s="12"/>
     </row>
     <row r="55" ht="15.35" customHeight="1">
-      <c r="A55" s="227">
+      <c r="A55" s="232">
         <v>53</v>
       </c>
-      <c r="B55" t="s" s="257">
-        <v>467</v>
+      <c r="B55" t="s" s="262">
+        <v>471</v>
       </c>
       <c r="C55" s="40"/>
       <c r="D55" s="48"/>
       <c r="E55" s="12"/>
     </row>
     <row r="56" ht="15.35" customHeight="1">
-      <c r="A56" s="227">
+      <c r="A56" s="232">
         <v>54</v>
       </c>
-      <c r="B56" t="s" s="257">
-        <v>468</v>
+      <c r="B56" t="s" s="262">
+        <v>472</v>
       </c>
       <c r="C56" s="40"/>
       <c r="D56" s="48"/>
       <c r="E56" s="12"/>
     </row>
     <row r="57" ht="15.35" customHeight="1">
-      <c r="A57" s="227">
+      <c r="A57" s="232">
         <v>55</v>
       </c>
-      <c r="B57" t="s" s="257">
-        <v>469</v>
+      <c r="B57" t="s" s="262">
+        <v>473</v>
       </c>
       <c r="C57" s="40"/>
       <c r="D57" s="48"/>
       <c r="E57" s="12"/>
     </row>
     <row r="58" ht="15.35" customHeight="1">
-      <c r="A58" s="227">
+      <c r="A58" s="232">
         <v>56</v>
       </c>
-      <c r="B58" t="s" s="257">
-        <v>470</v>
+      <c r="B58" t="s" s="262">
+        <v>474</v>
       </c>
       <c r="C58" s="40"/>
       <c r="D58" s="48"/>
       <c r="E58" s="12"/>
     </row>
     <row r="59" ht="15.35" customHeight="1">
-      <c r="A59" s="227">
+      <c r="A59" s="232">
         <v>57</v>
       </c>
-      <c r="B59" t="s" s="257">
-        <v>471</v>
+      <c r="B59" t="s" s="262">
+        <v>475</v>
       </c>
       <c r="C59" s="40"/>
       <c r="D59" s="48"/>
       <c r="E59" s="12"/>
     </row>
     <row r="60" ht="15.35" customHeight="1">
-      <c r="A60" s="227">
+      <c r="A60" s="232">
         <v>58</v>
       </c>
-      <c r="B60" t="s" s="257">
-        <v>472</v>
+      <c r="B60" t="s" s="262">
+        <v>476</v>
       </c>
       <c r="C60" s="40"/>
       <c r="D60" s="48"/>
       <c r="E60" s="12"/>
     </row>
     <row r="61" ht="15.35" customHeight="1">
-      <c r="A61" s="227">
+      <c r="A61" s="232">
         <v>59</v>
       </c>
-      <c r="B61" t="s" s="257">
-        <v>473</v>
+      <c r="B61" t="s" s="262">
+        <v>477</v>
       </c>
       <c r="C61" s="40"/>
       <c r="D61" s="48"/>
       <c r="E61" s="12"/>
     </row>
     <row r="62" ht="15.35" customHeight="1">
-      <c r="A62" s="227">
+      <c r="A62" s="232">
         <v>60</v>
       </c>
-      <c r="B62" t="s" s="257">
-        <v>474</v>
+      <c r="B62" t="s" s="262">
+        <v>478</v>
       </c>
       <c r="C62" s="40"/>
       <c r="D62" s="48"/>
       <c r="E62" s="12"/>
     </row>
     <row r="63" ht="15.35" customHeight="1">
-      <c r="A63" s="227">
+      <c r="A63" s="232">
         <v>61</v>
       </c>
-      <c r="B63" t="s" s="257">
-        <v>475</v>
+      <c r="B63" t="s" s="262">
+        <v>479</v>
       </c>
       <c r="C63" s="40"/>
       <c r="D63" s="48"/>
       <c r="E63" s="12"/>
     </row>
     <row r="64" ht="15.35" customHeight="1">
-      <c r="A64" s="227">
+      <c r="A64" s="232">
         <v>62</v>
       </c>
-      <c r="B64" t="s" s="258">
-        <v>476</v>
+      <c r="B64" t="s" s="263">
+        <v>480</v>
       </c>
       <c r="C64" s="40"/>
       <c r="D64" s="48"/>
       <c r="E64" s="12"/>
     </row>
     <row r="65" ht="15.35" customHeight="1">
-      <c r="A65" s="227">
+      <c r="A65" s="232">
         <v>63</v>
       </c>
-      <c r="B65" t="s" s="258">
-        <v>477</v>
+      <c r="B65" t="s" s="263">
+        <v>481</v>
       </c>
       <c r="C65" s="40"/>
       <c r="D65" s="48"/>
       <c r="E65" s="12"/>
     </row>
     <row r="66" ht="15.35" customHeight="1">
-      <c r="A66" s="227">
+      <c r="A66" s="232">
         <v>64</v>
       </c>
-      <c r="B66" t="s" s="258">
-        <v>478</v>
+      <c r="B66" t="s" s="263">
+        <v>482</v>
       </c>
       <c r="C66" s="40"/>
       <c r="D66" s="48"/>
       <c r="E66" s="12"/>
     </row>
     <row r="67" ht="15.35" customHeight="1">
-      <c r="A67" s="227">
+      <c r="A67" s="232">
         <v>65</v>
       </c>
-      <c r="B67" t="s" s="258">
-        <v>479</v>
+      <c r="B67" t="s" s="263">
+        <v>483</v>
       </c>
       <c r="C67" s="40"/>
       <c r="D67" s="48"/>
       <c r="E67" s="12"/>
     </row>
     <row r="68" ht="15.35" customHeight="1">
-      <c r="A68" s="227">
+      <c r="A68" s="232">
         <v>66</v>
       </c>
-      <c r="B68" t="s" s="258">
-        <v>480</v>
+      <c r="B68" t="s" s="263">
+        <v>484</v>
       </c>
       <c r="C68" s="40"/>
       <c r="D68" s="48"/>
       <c r="E68" s="12"/>
     </row>
     <row r="69" ht="15.35" customHeight="1">
-      <c r="A69" s="227">
+      <c r="A69" s="232">
         <v>67</v>
       </c>
-      <c r="B69" t="s" s="258">
-        <v>481</v>
-      </c>
-      <c r="C69" s="40"/>
+      <c r="B69" t="s" s="263">
+        <v>485</v>
+      </c>
+      <c r="C69" t="s" s="190">
+        <v>24</v>
+      </c>
       <c r="D69" s="48"/>
       <c r="E69" s="12"/>
     </row>
     <row r="70" ht="15.35" customHeight="1">
-      <c r="A70" s="227">
+      <c r="A70" s="232">
         <v>68</v>
       </c>
-      <c r="B70" t="s" s="258">
-        <v>482</v>
+      <c r="B70" t="s" s="263">
+        <v>486</v>
       </c>
       <c r="C70" s="40"/>
       <c r="D70" s="48"/>
       <c r="E70" s="12"/>
     </row>
     <row r="71" ht="15.35" customHeight="1">
-      <c r="A71" s="227">
+      <c r="A71" s="232">
         <v>69</v>
       </c>
-      <c r="B71" t="s" s="258">
-        <v>483</v>
+      <c r="B71" t="s" s="263">
+        <v>487</v>
       </c>
       <c r="C71" s="40"/>
       <c r="D71" s="48"/>
       <c r="E71" s="12"/>
     </row>
     <row r="72" ht="15.35" customHeight="1">
-      <c r="A72" s="227">
+      <c r="A72" s="232">
         <v>70</v>
       </c>
-      <c r="B72" t="s" s="258">
-        <v>484</v>
+      <c r="B72" t="s" s="263">
+        <v>488</v>
       </c>
       <c r="C72" s="40"/>
       <c r="D72" s="48"/>
       <c r="E72" s="12"/>
     </row>
     <row r="73" ht="15.35" customHeight="1">
-      <c r="A73" s="227">
+      <c r="A73" s="232">
         <v>71</v>
       </c>
-      <c r="B73" t="s" s="258">
-        <v>485</v>
+      <c r="B73" t="s" s="263">
+        <v>489</v>
       </c>
       <c r="C73" s="40"/>
       <c r="D73" s="48"/>
       <c r="E73" s="12"/>
     </row>
     <row r="74" ht="15.35" customHeight="1">
-      <c r="A74" s="227">
+      <c r="A74" s="232">
         <v>72</v>
       </c>
-      <c r="B74" t="s" s="259">
-        <v>486</v>
+      <c r="B74" t="s" s="264">
+        <v>490</v>
       </c>
       <c r="C74" s="40"/>
       <c r="D74" s="48"/>
       <c r="E74" s="12"/>
     </row>
     <row r="75" ht="15.35" customHeight="1">
-      <c r="A75" s="227">
+      <c r="A75" s="232">
         <v>73</v>
       </c>
-      <c r="B75" t="s" s="259">
-        <v>487</v>
+      <c r="B75" t="s" s="264">
+        <v>491</v>
       </c>
       <c r="C75" s="40"/>
       <c r="D75" s="48"/>
       <c r="E75" s="12"/>
     </row>
     <row r="76" ht="15.35" customHeight="1">
-      <c r="A76" s="227">
+      <c r="A76" s="232">
         <v>74</v>
       </c>
-      <c r="B76" t="s" s="259">
-        <v>488</v>
+      <c r="B76" t="s" s="264">
+        <v>492</v>
       </c>
       <c r="C76" s="40"/>
       <c r="D76" s="48"/>
       <c r="E76" s="12"/>
     </row>
     <row r="77" ht="15.35" customHeight="1">
-      <c r="A77" s="227">
+      <c r="A77" s="232">
         <v>75</v>
       </c>
-      <c r="B77" t="s" s="259">
-        <v>489</v>
+      <c r="B77" t="s" s="264">
+        <v>493</v>
       </c>
       <c r="C77" s="40"/>
       <c r="D77" s="48"/>
       <c r="E77" s="12"/>
     </row>
     <row r="78" ht="15.35" customHeight="1">
-      <c r="A78" s="227">
+      <c r="A78" s="232">
         <v>76</v>
       </c>
-      <c r="B78" t="s" s="259">
-        <v>490</v>
+      <c r="B78" t="s" s="264">
+        <v>494</v>
       </c>
       <c r="C78" s="40"/>
       <c r="D78" s="48"/>
       <c r="E78" s="12"/>
     </row>
     <row r="79" ht="15.35" customHeight="1">
-      <c r="A79" s="227">
+      <c r="A79" s="232">
         <v>77</v>
       </c>
-      <c r="B79" t="s" s="259">
-        <v>491</v>
+      <c r="B79" t="s" s="264">
+        <v>495</v>
       </c>
       <c r="C79" s="40"/>
       <c r="D79" s="48"/>
       <c r="E79" s="12"/>
     </row>
     <row r="80" ht="15.35" customHeight="1">
-      <c r="A80" s="227">
+      <c r="A80" s="232">
         <v>78</v>
       </c>
-      <c r="B80" t="s" s="259">
-        <v>492</v>
+      <c r="B80" t="s" s="264">
+        <v>496</v>
       </c>
       <c r="C80" s="40"/>
       <c r="D80" s="48"/>
       <c r="E80" s="12"/>
     </row>
     <row r="81" ht="15.35" customHeight="1">
-      <c r="A81" s="227">
+      <c r="A81" s="232">
         <v>79</v>
       </c>
-      <c r="B81" t="s" s="259">
-        <v>493</v>
+      <c r="B81" t="s" s="264">
+        <v>497</v>
       </c>
       <c r="C81" s="40"/>
       <c r="D81" s="48"/>
       <c r="E81" s="12"/>
     </row>
     <row r="82" ht="15.35" customHeight="1">
-      <c r="A82" s="227">
+      <c r="A82" s="232">
         <v>80</v>
       </c>
-      <c r="B82" t="s" s="259">
-        <v>494</v>
+      <c r="B82" t="s" s="264">
+        <v>498</v>
       </c>
       <c r="C82" s="40"/>
       <c r="D82" s="48"/>
       <c r="E82" s="12"/>
     </row>
     <row r="83" ht="15.35" customHeight="1">
-      <c r="A83" s="227">
+      <c r="A83" s="232">
         <v>81</v>
       </c>
-      <c r="B83" t="s" s="259">
-        <v>495</v>
-      </c>
-      <c r="C83" s="40"/>
+      <c r="B83" t="s" s="264">
+        <v>499</v>
+      </c>
+      <c r="C83" t="s" s="190">
+        <v>24</v>
+      </c>
       <c r="D83" s="48"/>
       <c r="E83" s="12"/>
     </row>
     <row r="84" ht="15.35" customHeight="1">
-      <c r="A84" s="227">
+      <c r="A84" s="232">
         <v>82</v>
       </c>
-      <c r="B84" t="s" s="260">
-        <v>496</v>
+      <c r="B84" t="s" s="265">
+        <v>500</v>
       </c>
       <c r="C84" s="40"/>
       <c r="D84" s="48"/>
       <c r="E84" s="12"/>
     </row>
     <row r="85" ht="15.35" customHeight="1">
-      <c r="A85" s="227">
+      <c r="A85" s="232">
         <v>83</v>
       </c>
-      <c r="B85" t="s" s="260">
-        <v>497</v>
+      <c r="B85" t="s" s="265">
+        <v>501</v>
       </c>
       <c r="C85" s="40"/>
       <c r="D85" s="48"/>
       <c r="E85" s="12"/>
     </row>
     <row r="86" ht="15.35" customHeight="1">
-      <c r="A86" s="227">
+      <c r="A86" s="232">
         <v>84</v>
       </c>
-      <c r="B86" t="s" s="260">
-        <v>498</v>
+      <c r="B86" t="s" s="265">
+        <v>502</v>
       </c>
       <c r="C86" s="40"/>
       <c r="D86" s="48"/>
       <c r="E86" s="12"/>
     </row>
     <row r="87" ht="15.35" customHeight="1">
-      <c r="A87" s="227">
+      <c r="A87" s="232">
         <v>85</v>
       </c>
-      <c r="B87" t="s" s="260">
-        <v>499</v>
+      <c r="B87" t="s" s="265">
+        <v>503</v>
       </c>
       <c r="C87" s="40"/>
       <c r="D87" s="48"/>
       <c r="E87" s="12"/>
     </row>
     <row r="88" ht="15.35" customHeight="1">
-      <c r="A88" s="227">
+      <c r="A88" s="232">
         <v>86</v>
       </c>
-      <c r="B88" t="s" s="260">
-        <v>500</v>
+      <c r="B88" t="s" s="265">
+        <v>504</v>
       </c>
       <c r="C88" s="40"/>
       <c r="D88" s="48"/>
       <c r="E88" s="12"/>
     </row>
     <row r="89" ht="15.35" customHeight="1">
-      <c r="A89" s="227">
+      <c r="A89" s="232">
         <v>87</v>
       </c>
-      <c r="B89" t="s" s="260">
-        <v>501</v>
+      <c r="B89" t="s" s="265">
+        <v>505</v>
       </c>
       <c r="C89" s="40"/>
       <c r="D89" s="48"/>
       <c r="E89" s="12"/>
     </row>
     <row r="90" ht="15.35" customHeight="1">
-      <c r="A90" s="227">
+      <c r="A90" s="232">
         <v>88</v>
       </c>
-      <c r="B90" t="s" s="260">
-        <v>502</v>
+      <c r="B90" t="s" s="265">
+        <v>506</v>
       </c>
       <c r="C90" s="40"/>
       <c r="D90" s="48"/>
       <c r="E90" s="12"/>
     </row>
     <row r="91" ht="15.35" customHeight="1">
-      <c r="A91" s="227">
+      <c r="A91" s="232">
         <v>89</v>
       </c>
-      <c r="B91" t="s" s="260">
-        <v>503</v>
-      </c>
-      <c r="C91" s="40"/>
+      <c r="B91" t="s" s="265">
+        <v>507</v>
+      </c>
+      <c r="C91" t="s" s="190">
+        <v>24</v>
+      </c>
       <c r="D91" s="48"/>
       <c r="E91" s="12"/>
     </row>
     <row r="92" ht="15.35" customHeight="1">
-      <c r="A92" s="227">
+      <c r="A92" s="232">
         <v>90</v>
       </c>
-      <c r="B92" t="s" s="261">
-        <v>504</v>
+      <c r="B92" t="s" s="266">
+        <v>508</v>
       </c>
       <c r="C92" s="40"/>
       <c r="D92" s="48"/>
       <c r="E92" s="12"/>
     </row>
     <row r="93" ht="15.35" customHeight="1">
-      <c r="A93" s="227">
+      <c r="A93" s="232">
         <v>91</v>
       </c>
-      <c r="B93" t="s" s="261">
-        <v>505</v>
-      </c>
-      <c r="C93" s="40"/>
+      <c r="B93" t="s" s="266">
+        <v>509</v>
+      </c>
+      <c r="C93" t="s" s="190">
+        <v>24</v>
+      </c>
       <c r="D93" s="48"/>
       <c r="E93" s="12"/>
     </row>
     <row r="94" ht="15.35" customHeight="1">
-      <c r="A94" s="227">
+      <c r="A94" s="232">
         <v>92</v>
       </c>
-      <c r="B94" t="s" s="261">
-        <v>506</v>
+      <c r="B94" t="s" s="266">
+        <v>510</v>
       </c>
       <c r="C94" s="40"/>
       <c r="D94" s="48"/>
       <c r="E94" s="12"/>
     </row>
     <row r="95" ht="15.35" customHeight="1">
-      <c r="A95" s="227">
+      <c r="A95" s="232">
         <v>93</v>
       </c>
-      <c r="B95" t="s" s="261">
-        <v>507</v>
+      <c r="B95" t="s" s="266">
+        <v>511</v>
       </c>
       <c r="C95" s="40"/>
       <c r="D95" s="48"/>
       <c r="E95" s="12"/>
     </row>
     <row r="96" ht="15.35" customHeight="1">
-      <c r="A96" s="227">
+      <c r="A96" s="232">
         <v>94</v>
       </c>
-      <c r="B96" t="s" s="261">
-        <v>508</v>
+      <c r="B96" t="s" s="266">
+        <v>512</v>
       </c>
       <c r="C96" s="40"/>
       <c r="D96" s="48"/>
       <c r="E96" s="12"/>
     </row>
     <row r="97" ht="15.35" customHeight="1">
-      <c r="A97" s="227">
+      <c r="A97" s="232">
         <v>95</v>
       </c>
-      <c r="B97" t="s" s="261">
-        <v>509</v>
+      <c r="B97" t="s" s="266">
+        <v>513</v>
       </c>
       <c r="C97" s="40"/>
       <c r="D97" s="48"/>
       <c r="E97" s="12"/>
     </row>
     <row r="98" ht="15.35" customHeight="1">
-      <c r="A98" s="227">
+      <c r="A98" s="232">
         <v>96</v>
       </c>
-      <c r="B98" t="s" s="261">
-        <v>510</v>
+      <c r="B98" t="s" s="266">
+        <v>514</v>
       </c>
       <c r="C98" s="40"/>
       <c r="D98" s="48"/>
       <c r="E98" s="12"/>
     </row>
     <row r="99" ht="15.35" customHeight="1">
-      <c r="A99" s="227">
+      <c r="A99" s="232">
         <v>97</v>
       </c>
-      <c r="B99" t="s" s="261">
-        <v>511</v>
+      <c r="B99" t="s" s="266">
+        <v>515</v>
       </c>
       <c r="C99" s="40"/>
       <c r="D99" s="48"/>
       <c r="E99" s="12"/>
     </row>
     <row r="100" ht="15.35" customHeight="1">
-      <c r="A100" s="227">
+      <c r="A100" s="232">
         <v>98</v>
       </c>
-      <c r="B100" t="s" s="261">
-        <v>512</v>
+      <c r="B100" t="s" s="266">
+        <v>516</v>
       </c>
       <c r="C100" s="40"/>
       <c r="D100" s="48"/>
       <c r="E100" s="12"/>
     </row>
     <row r="101" ht="15.35" customHeight="1">
-      <c r="A101" s="227">
+      <c r="A101" s="232">
         <v>99</v>
       </c>
-      <c r="B101" t="s" s="261">
-        <v>513</v>
+      <c r="B101" t="s" s="266">
+        <v>517</v>
       </c>
       <c r="C101" s="40"/>
       <c r="D101" s="48"/>
       <c r="E101" s="12"/>
     </row>
     <row r="102" ht="15.35" customHeight="1">
-      <c r="A102" s="227">
+      <c r="A102" s="232">
         <v>100</v>
       </c>
-      <c r="B102" t="s" s="261">
-        <v>514</v>
+      <c r="B102" t="s" s="266">
+        <v>518</v>
       </c>
       <c r="C102" s="40"/>
       <c r="D102" s="48"/>
       <c r="E102" s="12"/>
     </row>
     <row r="103" ht="15.35" customHeight="1">
-      <c r="A103" s="227">
+      <c r="A103" s="232">
         <v>101</v>
       </c>
-      <c r="B103" t="s" s="261">
-        <v>515</v>
+      <c r="B103" t="s" s="266">
+        <v>519</v>
       </c>
       <c r="C103" s="40"/>
       <c r="D103" s="48"/>
       <c r="E103" s="12"/>
     </row>
     <row r="104" ht="15.35" customHeight="1">
-      <c r="A104" s="227">
+      <c r="A104" s="232">
         <v>102</v>
       </c>
-      <c r="B104" t="s" s="261">
-        <v>516</v>
+      <c r="B104" t="s" s="266">
+        <v>520</v>
       </c>
       <c r="C104" s="40"/>
       <c r="D104" s="48"/>
       <c r="E104" s="12"/>
     </row>
     <row r="105" ht="15.35" customHeight="1">
-      <c r="A105" s="227">
+      <c r="A105" s="232">
         <v>103</v>
       </c>
-      <c r="B105" t="s" s="261">
-        <v>517</v>
+      <c r="B105" t="s" s="266">
+        <v>521</v>
       </c>
       <c r="C105" s="40"/>
       <c r="D105" s="48"/>
       <c r="E105" s="12"/>
     </row>
     <row r="106" ht="15.35" customHeight="1">
-      <c r="A106" s="227">
+      <c r="A106" s="232">
         <v>104</v>
       </c>
-      <c r="B106" t="s" s="260">
-        <v>518</v>
+      <c r="B106" t="s" s="265">
+        <v>522</v>
       </c>
       <c r="C106" s="40"/>
       <c r="D106" s="48"/>
       <c r="E106" s="12"/>
     </row>
     <row r="107" ht="15.35" customHeight="1">
-      <c r="A107" s="227">
+      <c r="A107" s="232">
         <v>105</v>
       </c>
-      <c r="B107" t="s" s="260">
-        <v>519</v>
+      <c r="B107" t="s" s="265">
+        <v>523</v>
       </c>
       <c r="C107" s="40"/>
       <c r="D107" s="48"/>
       <c r="E107" s="12"/>
     </row>
     <row r="108" ht="15.35" customHeight="1">
-      <c r="A108" s="227">
+      <c r="A108" s="232">
         <v>106</v>
       </c>
-      <c r="B108" t="s" s="260">
-        <v>520</v>
+      <c r="B108" t="s" s="265">
+        <v>524</v>
       </c>
       <c r="C108" s="40"/>
       <c r="D108" s="48"/>
       <c r="E108" s="12"/>
     </row>
     <row r="109" ht="15.35" customHeight="1">
-      <c r="A109" s="227">
+      <c r="A109" s="232">
         <v>107</v>
       </c>
-      <c r="B109" t="s" s="260">
-        <v>521</v>
+      <c r="B109" t="s" s="265">
+        <v>525</v>
       </c>
       <c r="C109" s="40"/>
       <c r="D109" s="48"/>
       <c r="E109" s="12"/>
     </row>
     <row r="110" ht="15.35" customHeight="1">
-      <c r="A110" s="227">
+      <c r="A110" s="232">
         <v>108</v>
       </c>
-      <c r="B110" t="s" s="260">
-        <v>522</v>
+      <c r="B110" t="s" s="265">
+        <v>526</v>
       </c>
       <c r="C110" s="40"/>
       <c r="D110" s="48"/>
       <c r="E110" s="12"/>
     </row>
     <row r="111" ht="15.35" customHeight="1">
-      <c r="A111" s="227">
+      <c r="A111" s="232">
         <v>109</v>
       </c>
-      <c r="B111" t="s" s="260">
-        <v>523</v>
-      </c>
-      <c r="C111" s="40"/>
+      <c r="B111" t="s" s="265">
+        <v>527</v>
+      </c>
+      <c r="C111" t="s" s="190">
+        <v>24</v>
+      </c>
       <c r="D111" s="48"/>
       <c r="E111" s="12"/>
     </row>
     <row r="112" ht="15.35" customHeight="1">
-      <c r="A112" s="227">
+      <c r="A112" s="232">
         <v>110</v>
       </c>
-      <c r="B112" t="s" s="260">
-        <v>524</v>
+      <c r="B112" t="s" s="265">
+        <v>528</v>
       </c>
       <c r="C112" s="40"/>
       <c r="D112" s="48"/>
       <c r="E112" s="12"/>
     </row>
     <row r="113" ht="15.35" customHeight="1">
-      <c r="A113" s="227">
+      <c r="A113" s="232">
         <v>111</v>
       </c>
-      <c r="B113" t="s" s="260">
-        <v>525</v>
+      <c r="B113" t="s" s="265">
+        <v>529</v>
       </c>
       <c r="C113" s="40"/>
       <c r="D113" s="48"/>
       <c r="E113" s="12"/>
     </row>
     <row r="114" ht="15.35" customHeight="1">
-      <c r="A114" s="227">
+      <c r="A114" s="232">
         <v>112</v>
       </c>
-      <c r="B114" t="s" s="260">
-        <v>526</v>
+      <c r="B114" t="s" s="265">
+        <v>530</v>
       </c>
       <c r="C114" s="40"/>
       <c r="D114" s="48"/>
       <c r="E114" s="12"/>
     </row>
     <row r="115" ht="15.35" customHeight="1">
-      <c r="A115" s="227">
+      <c r="A115" s="232">
         <v>113</v>
       </c>
-      <c r="B115" t="s" s="260">
-        <v>527</v>
+      <c r="B115" t="s" s="265">
+        <v>531</v>
       </c>
       <c r="C115" s="40"/>
       <c r="D115" s="48"/>
       <c r="E115" s="12"/>
     </row>
     <row r="116" ht="15.35" customHeight="1">
-      <c r="A116" s="227">
+      <c r="A116" s="232">
         <v>114</v>
       </c>
-      <c r="B116" t="s" s="260">
-        <v>528</v>
+      <c r="B116" t="s" s="265">
+        <v>532</v>
       </c>
       <c r="C116" s="40"/>
       <c r="D116" s="48"/>
       <c r="E116" s="12"/>
     </row>
     <row r="117" ht="15.35" customHeight="1">
-      <c r="A117" s="227">
+      <c r="A117" s="232">
         <v>115</v>
       </c>
-      <c r="B117" t="s" s="260">
-        <v>529</v>
+      <c r="B117" t="s" s="265">
+        <v>533</v>
       </c>
       <c r="C117" s="40"/>
       <c r="D117" s="48"/>
       <c r="E117" s="12"/>
     </row>
     <row r="118" ht="15.35" customHeight="1">
-      <c r="A118" s="227">
+      <c r="A118" s="232">
         <v>116</v>
       </c>
-      <c r="B118" t="s" s="260">
-        <v>530</v>
+      <c r="B118" t="s" s="265">
+        <v>534</v>
       </c>
       <c r="C118" s="40"/>
       <c r="D118" s="48"/>
       <c r="E118" s="12"/>
     </row>
     <row r="119" ht="15.35" customHeight="1">
-      <c r="A119" s="227">
+      <c r="A119" s="232">
         <v>117</v>
       </c>
-      <c r="B119" t="s" s="260">
-        <v>531</v>
+      <c r="B119" t="s" s="265">
+        <v>535</v>
       </c>
       <c r="C119" s="40"/>
       <c r="D119" s="48"/>
       <c r="E119" s="12"/>
     </row>
     <row r="120" ht="15.35" customHeight="1">
-      <c r="A120" s="227">
+      <c r="A120" s="232">
         <v>118</v>
       </c>
-      <c r="B120" t="s" s="260">
-        <v>532</v>
+      <c r="B120" t="s" s="265">
+        <v>536</v>
       </c>
       <c r="C120" s="40"/>
       <c r="D120" s="48"/>
       <c r="E120" s="12"/>
     </row>
     <row r="121" ht="15.35" customHeight="1">
-      <c r="A121" s="227">
+      <c r="A121" s="232">
         <v>119</v>
       </c>
-      <c r="B121" t="s" s="260">
-        <v>533</v>
+      <c r="B121" t="s" s="265">
+        <v>537</v>
       </c>
       <c r="C121" s="40"/>
       <c r="D121" s="48"/>
       <c r="E121" s="12"/>
     </row>
     <row r="122" ht="15.35" customHeight="1">
-      <c r="A122" s="227">
+      <c r="A122" s="232">
         <v>120</v>
       </c>
-      <c r="B122" t="s" s="260">
-        <v>534</v>
+      <c r="B122" t="s" s="265">
+        <v>538</v>
       </c>
       <c r="C122" s="40"/>
       <c r="D122" s="48"/>
       <c r="E122" s="12"/>
     </row>
     <row r="123" ht="15.35" customHeight="1">
-      <c r="A123" s="227">
+      <c r="A123" s="232">
         <v>121</v>
       </c>
-      <c r="B123" t="s" s="260">
-        <v>535</v>
+      <c r="B123" t="s" s="265">
+        <v>539</v>
       </c>
       <c r="C123" s="40"/>
       <c r="D123" s="48"/>
       <c r="E123" s="12"/>
     </row>
     <row r="124" ht="15.35" customHeight="1">
-      <c r="A124" s="227">
+      <c r="A124" s="232">
         <v>122</v>
       </c>
-      <c r="B124" t="s" s="260">
-        <v>536</v>
+      <c r="B124" t="s" s="265">
+        <v>540</v>
       </c>
       <c r="C124" s="40"/>
       <c r="D124" s="48"/>
       <c r="E124" s="12"/>
     </row>
     <row r="125" ht="15.35" customHeight="1">
-      <c r="A125" s="227">
+      <c r="A125" s="232">
         <v>123</v>
       </c>
-      <c r="B125" t="s" s="260">
-        <v>537</v>
+      <c r="B125" t="s" s="265">
+        <v>541</v>
       </c>
       <c r="C125" s="40"/>
       <c r="D125" s="48"/>
       <c r="E125" s="12"/>
     </row>
     <row r="126" ht="15.35" customHeight="1">
-      <c r="A126" s="227">
+      <c r="A126" s="232">
         <v>124</v>
       </c>
-      <c r="B126" t="s" s="260">
-        <v>538</v>
+      <c r="B126" t="s" s="265">
+        <v>542</v>
       </c>
       <c r="C126" s="40"/>
       <c r="D126" s="48"/>
       <c r="E126" s="12"/>
     </row>
     <row r="127" ht="15.35" customHeight="1">
-      <c r="A127" s="227">
+      <c r="A127" s="232">
         <v>125</v>
       </c>
-      <c r="B127" t="s" s="260">
-        <v>539</v>
+      <c r="B127" t="s" s="265">
+        <v>543</v>
       </c>
       <c r="C127" s="40"/>
       <c r="D127" s="48"/>
       <c r="E127" s="12"/>
     </row>
     <row r="128" ht="15.65" customHeight="1">
-      <c r="A128" s="227">
+      <c r="A128" s="232">
         <v>126</v>
       </c>
-      <c r="B128" t="s" s="262">
-        <v>540</v>
+      <c r="B128" t="s" s="267">
+        <v>544</v>
       </c>
       <c r="C128" s="40"/>
       <c r="D128" s="48"/>
       <c r="E128" s="12"/>
     </row>
     <row r="129" ht="14.7" customHeight="1">
-      <c r="A129" s="239">
+      <c r="A129" s="244">
         <v>127</v>
       </c>
-      <c r="B129" t="s" s="225">
-        <v>541</v>
+      <c r="B129" t="s" s="230">
+        <v>545</v>
       </c>
       <c r="C129" s="40"/>
       <c r="D129" s="48"/>
       <c r="E129" s="12"/>
     </row>
     <row r="130" ht="14.7" customHeight="1">
-      <c r="A130" s="239">
+      <c r="A130" s="244">
         <v>128</v>
       </c>
-      <c r="B130" t="s" s="185">
-        <v>542</v>
+      <c r="B130" t="s" s="190">
+        <v>546</v>
       </c>
       <c r="C130" s="40"/>
       <c r="D130" s="48"/>
       <c r="E130" s="12"/>
     </row>
     <row r="131" ht="14.7" customHeight="1">
-      <c r="A131" s="239">
+      <c r="A131" s="244">
         <v>129</v>
       </c>
-      <c r="B131" t="s" s="185">
-        <v>543</v>
+      <c r="B131" t="s" s="190">
+        <v>547</v>
       </c>
       <c r="C131" s="40"/>
       <c r="D131" s="48"/>
       <c r="E131" s="12"/>
     </row>
     <row r="132" ht="14.7" customHeight="1">
-      <c r="A132" s="239">
+      <c r="A132" s="244">
         <v>130</v>
       </c>
-      <c r="B132" t="s" s="230">
-        <v>544</v>
+      <c r="B132" t="s" s="235">
+        <v>548</v>
       </c>
       <c r="C132" s="40"/>
       <c r="D132" s="48"/>
       <c r="E132" s="12"/>
     </row>
     <row r="133" ht="15.65" customHeight="1">
-      <c r="A133" s="263"/>
-      <c r="B133" s="264"/>
+      <c r="A133" s="268"/>
+      <c r="B133" s="269"/>
       <c r="C133" s="40"/>
-      <c r="D133" s="265"/>
+      <c r="D133" s="270"/>
       <c r="E133" s="21"/>
     </row>
   </sheetData>

--- a/data/offweb.xlsx
+++ b/data/offweb.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16800" activeTab="5"/>
+    <workbookView windowWidth="28800" windowHeight="13200" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="导出摘要" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,12 @@
     <sheet name="Cooperation" sheetId="7" r:id="rId7"/>
     <sheet name="Image" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553">
   <si>
     <t>此文稿由 Numbers 表格导出。所有表格均已转换为 Excel 工作表。每张 Numbers 工作表上的所有其他对象都已放置在单独的工作表中。请注意其中的公式计算可能与 Excel 不同。</t>
   </si>
@@ -201,8 +201,7 @@
     <t>1591286400000</t>
   </si>
   <si>
-    <t xml:space="preserve">VBP's impact on the Chinese Pharmaceutical Market
-</t>
+    <t>Analysis and Prospects for Broad Medication Market</t>
   </si>
   <si>
     <t>To deeply grasp the developing trend of china’s chronic disease drug (antihypertensive drugs, oral hypoglycemic drugs and lipid-lowering drugs) market in three type sales channels, Pharbers Technology and the E-Pharmaceutical Manager Research Institute released a blue book named Analysis and Prospects for Broad Medication Market.</t>
@@ -211,7 +210,7 @@
     <t>2</t>
   </si>
   <si>
-    <t>Analysis and Prospects for Broad Medication Market</t>
+    <t>VBP's impact on the Chinese Pharmaceutical Market</t>
   </si>
   <si>
     <t>In the book, based on the analysis of 3 years all-channel &amp; all-fields performance, we choose five major fields (hyperlipidemia, hypertension, oral cephalosporins, EGFR-TKI tumor targeting drugs and epilepsy market) to deeply analyze VBP’s impacts on divesified markets and involved pharmaceutical companies. We also predict the market change and related products’ trend after applying VBP all over the country.</t>
@@ -2506,7 +2505,8 @@
     </r>
   </si>
   <si>
-    <t>73
+    <t>72
+73
 74
 75
 76
@@ -4017,6 +4017,9 @@
     <t>/public/photo_events_2020-06-04_boyun_00001.jpg</t>
   </si>
   <si>
+    <t>galleryshow-c</t>
+  </si>
+  <si>
     <t>/public/photo_events_2020-06-04_boyun_00002.jpg</t>
   </si>
   <si>
@@ -4041,12 +4044,18 @@
     <t>/public/photo_events_2020-06-04_boyun_00009.jpg</t>
   </si>
   <si>
+    <t>galleryshow-a</t>
+  </si>
+  <si>
     <t>/public/photo_events_2020-06-04_boyun_00010.jpg</t>
   </si>
   <si>
     <t>/public/photo_events_2020-06-04_boyun_00011.jpg</t>
   </si>
   <si>
+    <t>galleryshow-e</t>
+  </si>
+  <si>
     <t>/public/photo_events_2020-06-04_boyun_00012.jpg</t>
   </si>
   <si>
@@ -4059,6 +4068,9 @@
     <t>/public/photo_events_2020-06-04_boyun_00015.jpg</t>
   </si>
   <si>
+    <t>galleryshow-f</t>
+  </si>
+  <si>
     <t>/public/photo_events_2020-06-04_boyun_00016.jpg</t>
   </si>
   <si>
@@ -4074,6 +4086,9 @@
     <t>/public/photo_events_2020-06-04_boyun_00020.jpg</t>
   </si>
   <si>
+    <t>galleryshow-b</t>
+  </si>
+  <si>
     <t>/public/photo_events_2020-06-04_boyun_00021.jpg</t>
   </si>
   <si>
@@ -4090,6 +4105,9 @@
   </si>
   <si>
     <t>/public/photo_events_2020-06-04_boyun_00037.jpg</t>
+  </si>
+  <si>
+    <t>galleryshow-d</t>
   </si>
   <si>
     <t>/public/photo_events_2020-06-04_boyun_00038.jpg</t>
@@ -4331,10 +4349,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -4444,7 +4462,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4457,14 +4475,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Helvetica Neue"/>
@@ -4472,15 +4482,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4488,9 +4492,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4518,11 +4529,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4531,6 +4541,22 @@
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4544,7 +4570,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4552,13 +4578,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4573,15 +4592,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4748,13 +4766,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4772,49 +4850,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4826,43 +4886,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4880,13 +4904,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4898,37 +4940,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6018,17 +6036,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6048,26 +6060,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6083,15 +6095,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6115,153 +6118,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="52" borderId="85" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="55" borderId="90" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="85" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="87" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="86" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="38" borderId="90" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="88" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="87" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="86" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="85" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="84" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="86" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="84" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="90" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="88" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="85" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="89" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -7107,7 +7125,7 @@
     <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
     <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -7385,7 +7403,7 @@
           <a:round/>
         </a:ln>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -7668,7 +7686,7 @@
           <a:round/>
         </a:ln>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -7944,7 +7962,7 @@
           <a:miter lim="400000"/>
         </a:ln>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -8234,18 +8252,19 @@
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
-    <col min="2" max="4" width="33.6696428571429" style="1" customWidth="1"/>
-    <col min="5" max="256" width="10" style="1" customWidth="1"/>
+    <col min="2" max="4" width="33.6607142857143" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="1" customWidth="1"/>
+    <col min="6" max="256" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.7" customHeight="1" spans="1:5">
+    <row r="1" ht="14.75" customHeight="1" spans="1:5">
       <c r="A1" s="251"/>
       <c r="B1" s="252"/>
       <c r="C1" s="252"/>
       <c r="D1" s="252"/>
       <c r="E1" s="32"/>
     </row>
-    <row r="2" ht="14.7" customHeight="1" spans="1:5">
+    <row r="2" ht="14.75" customHeight="1" spans="1:5">
       <c r="A2" s="240"/>
       <c r="B2" s="241"/>
       <c r="C2" s="241"/>
@@ -8261,21 +8280,21 @@
       <c r="D3" s="241"/>
       <c r="E3" s="33"/>
     </row>
-    <row r="4" ht="14.7" customHeight="1" spans="1:5">
+    <row r="4" ht="14.75" customHeight="1" spans="1:5">
       <c r="A4" s="240"/>
       <c r="B4" s="241"/>
       <c r="C4" s="241"/>
       <c r="D4" s="241"/>
       <c r="E4" s="33"/>
     </row>
-    <row r="5" ht="14.7" customHeight="1" spans="1:5">
+    <row r="5" ht="14.75" customHeight="1" spans="1:5">
       <c r="A5" s="240"/>
       <c r="B5" s="241"/>
       <c r="C5" s="241"/>
       <c r="D5" s="241"/>
       <c r="E5" s="33"/>
     </row>
-    <row r="6" ht="14.7" customHeight="1" spans="1:5">
+    <row r="6" ht="14.75" customHeight="1" spans="1:5">
       <c r="A6" s="240"/>
       <c r="B6" s="241"/>
       <c r="C6" s="241"/>
@@ -8295,7 +8314,7 @@
       </c>
       <c r="E7" s="33"/>
     </row>
-    <row r="8" ht="14.7" customHeight="1" spans="1:5">
+    <row r="8" ht="14.75" customHeight="1" spans="1:5">
       <c r="A8" s="240"/>
       <c r="B8" s="241"/>
       <c r="C8" s="241"/>
@@ -8463,8 +8482,7 @@
       <c r="E24" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B3:D3"/>
+  <mergeCells count="1">
     <mergeCell ref="B3:D3"/>
   </mergeCells>
   <hyperlinks>
@@ -8493,19 +8511,19 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83035714285714" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.84821428571429" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83035714285714" style="1" customWidth="1"/>
     <col min="2" max="2" width="47.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3482142857143" style="1" customWidth="1"/>
-    <col min="4" max="4" width="49.3482142857143" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.1696428571429" style="1" customWidth="1"/>
-    <col min="6" max="11" width="16.3482142857143" style="1" customWidth="1"/>
-    <col min="12" max="12" width="27.3482142857143" style="1" customWidth="1"/>
-    <col min="13" max="256" width="8.84821428571429" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.3303571428571" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.3303571428571" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.1607142857143" style="1" customWidth="1"/>
+    <col min="6" max="11" width="16.3303571428571" style="1" customWidth="1"/>
+    <col min="12" max="12" width="27.3303571428571" style="1" customWidth="1"/>
+    <col min="13" max="256" width="8.83035714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1" spans="1:12">
@@ -8538,7 +8556,7 @@
       <c r="K1" s="3"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" ht="103.9" customHeight="1" spans="1:12">
+    <row r="2" ht="104" customHeight="1" spans="1:12">
       <c r="A2" s="64">
         <v>1</v>
       </c>
@@ -8564,7 +8582,7 @@
       <c r="K2" s="247"/>
       <c r="L2" s="217"/>
     </row>
-    <row r="3" ht="136.3" customHeight="1" spans="1:12">
+    <row r="3" ht="136.25" customHeight="1" spans="1:12">
       <c r="A3" s="64">
         <v>1</v>
       </c>
@@ -8642,7 +8660,7 @@
       <c r="K5" s="241"/>
       <c r="L5" s="33"/>
     </row>
-    <row r="6" ht="14.7" customHeight="1" spans="1:12">
+    <row r="6" ht="14.75" customHeight="1" spans="1:12">
       <c r="A6" s="236"/>
       <c r="B6" s="237"/>
       <c r="C6" s="238"/>
@@ -8656,7 +8674,7 @@
       <c r="K6" s="241"/>
       <c r="L6" s="33"/>
     </row>
-    <row r="7" ht="14.7" customHeight="1" spans="1:12">
+    <row r="7" ht="14.75" customHeight="1" spans="1:12">
       <c r="A7" s="236"/>
       <c r="B7" s="240"/>
       <c r="C7" s="241"/>
@@ -8670,7 +8688,7 @@
       <c r="K7" s="241"/>
       <c r="L7" s="33"/>
     </row>
-    <row r="8" ht="14.7" customHeight="1" spans="1:12">
+    <row r="8" ht="14.75" customHeight="1" spans="1:12">
       <c r="A8" s="236"/>
       <c r="B8" s="240"/>
       <c r="C8" s="241"/>
@@ -8684,7 +8702,7 @@
       <c r="K8" s="241"/>
       <c r="L8" s="33"/>
     </row>
-    <row r="9" ht="14.7" customHeight="1" spans="1:12">
+    <row r="9" ht="14.75" customHeight="1" spans="1:12">
       <c r="A9" s="236"/>
       <c r="B9" s="240"/>
       <c r="C9" s="241"/>
@@ -8698,7 +8716,7 @@
       <c r="K9" s="241"/>
       <c r="L9" s="33"/>
     </row>
-    <row r="10" ht="14.7" customHeight="1" spans="1:12">
+    <row r="10" ht="14.75" customHeight="1" spans="1:12">
       <c r="A10" s="51"/>
       <c r="B10" s="242"/>
       <c r="C10" s="243"/>
@@ -8734,14 +8752,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83035714285714" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.84821428571429" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.3482142857143" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.8482142857143" style="1" customWidth="1"/>
-    <col min="4" max="6" width="16.3482142857143" style="1" customWidth="1"/>
-    <col min="7" max="7" width="26.3482142857143" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83035714285714" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.3303571428571" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.8303571428571" style="1" customWidth="1"/>
+    <col min="4" max="6" width="16.3303571428571" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.3303571428571" style="1" customWidth="1"/>
     <col min="8" max="8" width="35.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.3482142857143" style="1" customWidth="1"/>
-    <col min="10" max="256" width="8.84821428571429" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.3303571428571" style="1" customWidth="1"/>
+    <col min="10" max="256" width="8.83035714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.5" customHeight="1" spans="1:9">
@@ -9249,12 +9267,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83035714285714" defaultRowHeight="20" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="8.84821428571429" style="1" customWidth="1"/>
-    <col min="2" max="3" width="16.3482142857143" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83035714285714" style="1" customWidth="1"/>
+    <col min="2" max="3" width="16.3303571428571" style="1" customWidth="1"/>
     <col min="4" max="4" width="60" style="1" customWidth="1"/>
-    <col min="5" max="5" width="53.1696428571429" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3482142857143" style="1" customWidth="1"/>
-    <col min="7" max="256" width="8.84821428571429" style="1" customWidth="1"/>
+    <col min="5" max="5" width="53.1607142857143" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.3303571428571" style="1" customWidth="1"/>
+    <col min="7" max="256" width="8.83035714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1" spans="1:6">
@@ -10503,13 +10521,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.3482142857143" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3303571428571" style="1" customWidth="1"/>
     <col min="2" max="2" width="34.5" style="1" customWidth="1"/>
-    <col min="3" max="4" width="16.3482142857143" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.6696428571429" style="1" customWidth="1"/>
-    <col min="6" max="8" width="16.3482142857143" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22.3482142857143" style="1" customWidth="1"/>
-    <col min="10" max="256" width="16.3482142857143" style="1" customWidth="1"/>
+    <col min="3" max="4" width="16.3303571428571" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6607142857143" style="1" customWidth="1"/>
+    <col min="6" max="8" width="16.3303571428571" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.3303571428571" style="1" customWidth="1"/>
+    <col min="10" max="256" width="16.3303571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="34.5" customHeight="1" spans="1:9">
@@ -11762,7 +11780,7 @@
         <v>0</v>
       </c>
       <c r="B54" s="87" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C54" s="17"/>
       <c r="D54" s="17"/>
@@ -12949,7 +12967,7 @@
       </c>
       <c r="I105" s="145"/>
     </row>
-    <row r="106" ht="23.45" customHeight="1" spans="1:9">
+    <row r="106" ht="23.5" customHeight="1" spans="1:9">
       <c r="A106" s="151">
         <v>1</v>
       </c>
@@ -12966,7 +12984,7 @@
       </c>
       <c r="I106" s="145"/>
     </row>
-    <row r="107" ht="23.45" customHeight="1" spans="1:9">
+    <row r="107" ht="23.5" customHeight="1" spans="1:9">
       <c r="A107" s="151">
         <v>0</v>
       </c>
@@ -12983,7 +13001,7 @@
       </c>
       <c r="I107" s="145"/>
     </row>
-    <row r="108" ht="23.45" customHeight="1" spans="1:9">
+    <row r="108" ht="23.5" customHeight="1" spans="1:9">
       <c r="A108" s="151">
         <v>1</v>
       </c>
@@ -13000,7 +13018,7 @@
       </c>
       <c r="I108" s="145"/>
     </row>
-    <row r="109" ht="23.45" customHeight="1" spans="1:9">
+    <row r="109" ht="23.5" customHeight="1" spans="1:9">
       <c r="A109" s="151">
         <v>0</v>
       </c>
@@ -13033,28 +13051,28 @@
   </sheetPr>
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J7" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83035714285714" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.84821428571429" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.6696428571429" style="1" customWidth="1"/>
-    <col min="3" max="4" width="16.3482142857143" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.3482142857143" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83035714285714" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.6607142857143" style="1" customWidth="1"/>
+    <col min="3" max="4" width="16.3303571428571" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.3303571428571" style="1" customWidth="1"/>
     <col min="6" max="6" width="19" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.3482142857143" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.1696428571429" style="1" customWidth="1"/>
-    <col min="9" max="10" width="16.3482142857143" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.3303571428571" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.1607142857143" style="1" customWidth="1"/>
+    <col min="9" max="10" width="16.3303571428571" style="1" customWidth="1"/>
     <col min="11" max="11" width="31.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.3482142857143" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.3303571428571" style="1" customWidth="1"/>
     <col min="13" max="13" width="129.5" style="1" customWidth="1"/>
-    <col min="14" max="16" width="16.3482142857143" style="1" customWidth="1"/>
-    <col min="17" max="256" width="8.84821428571429" style="1" customWidth="1"/>
+    <col min="14" max="16" width="16.3303571428571" style="1" customWidth="1"/>
+    <col min="17" max="256" width="8.83035714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32.8" customHeight="1" spans="1:16">
+    <row r="1" ht="32.75" customHeight="1" spans="1:16">
       <c r="A1" s="44" t="s">
         <v>13</v>
       </c>
@@ -13104,7 +13122,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="2" ht="191.7" customHeight="1" spans="1:16">
+    <row r="2" ht="191.75" customHeight="1" spans="1:16">
       <c r="A2" s="58">
         <v>1</v>
       </c>
@@ -13152,7 +13170,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="3" ht="150.8" customHeight="1" spans="1:16">
+    <row r="3" ht="150.75" customHeight="1" spans="1:16">
       <c r="A3" s="58">
         <v>1</v>
       </c>
@@ -13232,7 +13250,7 @@
       </c>
       <c r="P4" s="62"/>
     </row>
-    <row r="5" ht="124.85" customHeight="1" spans="1:16">
+    <row r="5" ht="124.75" customHeight="1" spans="1:16">
       <c r="A5" s="58">
         <v>1</v>
       </c>
@@ -13272,7 +13290,7 @@
       </c>
       <c r="P5" s="62"/>
     </row>
-    <row r="6" ht="200.35" customHeight="1" spans="1:16">
+    <row r="6" ht="200.25" customHeight="1" spans="1:16">
       <c r="A6" s="58">
         <v>1</v>
       </c>
@@ -13404,7 +13422,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="9" ht="14.7" customHeight="1" spans="1:16">
+    <row r="9" ht="14.75" customHeight="1" spans="1:16">
       <c r="A9" s="64">
         <v>0</v>
       </c>
@@ -13444,7 +13462,7 @@
       </c>
       <c r="P9" s="68"/>
     </row>
-    <row r="10" ht="14.7" customHeight="1" spans="1:16">
+    <row r="10" ht="14.75" customHeight="1" spans="1:16">
       <c r="A10" s="64">
         <v>0</v>
       </c>
@@ -13826,14 +13844,15 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="13.9" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="14" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="16.3482142857143" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.34821428571429" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3303571428571" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.33035714285714" style="1" customWidth="1"/>
     <col min="3" max="3" width="38" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3482142857143" style="1" customWidth="1"/>
-    <col min="5" max="5" width="52.8482142857143" style="1" customWidth="1"/>
-    <col min="6" max="256" width="16.3482142857143" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.3303571428571" style="1" customWidth="1"/>
+    <col min="5" max="5" width="52.8303571428571" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.3303571428571" style="1" customWidth="1"/>
+    <col min="7" max="256" width="16.3303571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1" spans="1:6">
@@ -13872,7 +13891,7 @@
       </c>
       <c r="F2" s="55"/>
     </row>
-    <row r="3" ht="16.35" customHeight="1" spans="1:6">
+    <row r="3" ht="16.25" customHeight="1" spans="1:6">
       <c r="A3" s="46">
         <v>1</v>
       </c>
@@ -13890,7 +13909,7 @@
       </c>
       <c r="F3" s="55"/>
     </row>
-    <row r="4" ht="26.05" customHeight="1" spans="1:6">
+    <row r="4" ht="26" customHeight="1" spans="1:6">
       <c r="A4" s="46">
         <v>1</v>
       </c>
@@ -13908,7 +13927,7 @@
       </c>
       <c r="F4" s="55"/>
     </row>
-    <row r="5" ht="26.05" customHeight="1" spans="1:6">
+    <row r="5" ht="26" customHeight="1" spans="1:6">
       <c r="A5" s="46">
         <v>1</v>
       </c>
@@ -13944,7 +13963,7 @@
       </c>
       <c r="F6" s="55"/>
     </row>
-    <row r="7" ht="14.7" customHeight="1" spans="1:6">
+    <row r="7" ht="14.75" customHeight="1" spans="1:6">
       <c r="A7" s="46">
         <v>0</v>
       </c>
@@ -13962,7 +13981,7 @@
       </c>
       <c r="F7" s="55"/>
     </row>
-    <row r="8" ht="14.7" customHeight="1" spans="1:6">
+    <row r="8" ht="14.75" customHeight="1" spans="1:6">
       <c r="A8" s="46">
         <v>0</v>
       </c>
@@ -13980,7 +13999,7 @@
       </c>
       <c r="F8" s="55"/>
     </row>
-    <row r="9" ht="14.7" customHeight="1" spans="1:6">
+    <row r="9" ht="14.75" customHeight="1" spans="1:6">
       <c r="A9" s="46">
         <v>0</v>
       </c>
@@ -13998,7 +14017,7 @@
       </c>
       <c r="F9" s="55"/>
     </row>
-    <row r="10" ht="14.7" customHeight="1" spans="1:6">
+    <row r="10" ht="14.75" customHeight="1" spans="1:6">
       <c r="A10" s="51"/>
       <c r="B10" s="52"/>
       <c r="C10" s="53"/>
@@ -14022,19 +14041,20 @@
   </sheetPr>
   <dimension ref="A1:E134"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B136" sqref="B136"/>
+    <sheetView showGridLines="0" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="13.9" customHeight="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="14" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="16.3482142857143" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3303571428571" style="1" customWidth="1"/>
     <col min="2" max="2" width="90.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45.8482142857143" style="1" customWidth="1"/>
-    <col min="4" max="256" width="16.3482142857143" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.8303571428571" style="1" customWidth="1"/>
+    <col min="4" max="5" width="16.3303571428571" style="1" customWidth="1"/>
+    <col min="6" max="256" width="16.3303571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.35" customHeight="1" spans="1:5">
+    <row r="1" ht="14.25" customHeight="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -14047,7 +14067,7 @@
       <c r="D1" s="4"/>
       <c r="E1" s="32"/>
     </row>
-    <row r="2" ht="14.7" customHeight="1" spans="1:5">
+    <row r="2" ht="14.75" customHeight="1" spans="1:5">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -14058,7 +14078,7 @@
       <c r="D2" s="8"/>
       <c r="E2" s="33"/>
     </row>
-    <row r="3" ht="14.7" customHeight="1" spans="1:5">
+    <row r="3" ht="14.75" customHeight="1" spans="1:5">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -14069,7 +14089,7 @@
       <c r="D3" s="8"/>
       <c r="E3" s="33"/>
     </row>
-    <row r="4" ht="14.7" customHeight="1" spans="1:5">
+    <row r="4" ht="14.75" customHeight="1" spans="1:5">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -14080,7 +14100,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="33"/>
     </row>
-    <row r="5" ht="14.35" customHeight="1" spans="1:5">
+    <row r="5" ht="14.25" customHeight="1" spans="1:5">
       <c r="A5" s="13">
         <v>3</v>
       </c>
@@ -14091,7 +14111,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="33"/>
     </row>
-    <row r="6" ht="14.05" customHeight="1" spans="1:5">
+    <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="13">
         <v>4</v>
       </c>
@@ -14102,7 +14122,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="33"/>
     </row>
-    <row r="7" ht="14.05" customHeight="1" spans="1:5">
+    <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="13">
         <v>5</v>
       </c>
@@ -14113,7 +14133,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="33"/>
     </row>
-    <row r="8" ht="14.05" customHeight="1" spans="1:5">
+    <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="13">
         <v>6</v>
       </c>
@@ -14124,7 +14144,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="33"/>
     </row>
-    <row r="9" ht="14.05" customHeight="1" spans="1:5">
+    <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="13">
         <v>7</v>
       </c>
@@ -14135,7 +14155,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="33"/>
     </row>
-    <row r="10" ht="14.35" customHeight="1" spans="1:5">
+    <row r="10" ht="14.25" customHeight="1" spans="1:5">
       <c r="A10" s="13">
         <v>8</v>
       </c>
@@ -14146,7 +14166,7 @@
       <c r="D10" s="8"/>
       <c r="E10" s="33"/>
     </row>
-    <row r="11" ht="14.7" customHeight="1" spans="1:5">
+    <row r="11" ht="14.75" customHeight="1" spans="1:5">
       <c r="A11" s="9">
         <v>9</v>
       </c>
@@ -14157,7 +14177,7 @@
       <c r="D11" s="8"/>
       <c r="E11" s="33"/>
     </row>
-    <row r="12" ht="14.7" customHeight="1" spans="1:5">
+    <row r="12" ht="14.75" customHeight="1" spans="1:5">
       <c r="A12" s="9">
         <v>10</v>
       </c>
@@ -14168,7 +14188,7 @@
       <c r="D12" s="8"/>
       <c r="E12" s="33"/>
     </row>
-    <row r="13" ht="15.7" customHeight="1" spans="1:5">
+    <row r="13" ht="15.75" customHeight="1" spans="1:5">
       <c r="A13" s="11">
         <v>11</v>
       </c>
@@ -14179,7 +14199,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="33"/>
     </row>
-    <row r="14" ht="15.7" customHeight="1" spans="1:5">
+    <row r="14" ht="15.75" customHeight="1" spans="1:5">
       <c r="A14" s="11">
         <v>12</v>
       </c>
@@ -14190,7 +14210,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="33"/>
     </row>
-    <row r="15" ht="14.7" customHeight="1" spans="1:5">
+    <row r="15" ht="14.75" customHeight="1" spans="1:5">
       <c r="A15" s="11">
         <v>13</v>
       </c>
@@ -14201,7 +14221,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="33"/>
     </row>
-    <row r="16" ht="15.7" customHeight="1" spans="1:5">
+    <row r="16" ht="15.75" customHeight="1" spans="1:5">
       <c r="A16" s="11">
         <v>14</v>
       </c>
@@ -14212,7 +14232,7 @@
       <c r="D16" s="8"/>
       <c r="E16" s="33"/>
     </row>
-    <row r="17" ht="15.7" customHeight="1" spans="1:5">
+    <row r="17" ht="15.75" customHeight="1" spans="1:5">
       <c r="A17" s="11">
         <v>15</v>
       </c>
@@ -14223,7 +14243,7 @@
       <c r="D17" s="8"/>
       <c r="E17" s="33"/>
     </row>
-    <row r="18" ht="15.7" customHeight="1" spans="1:5">
+    <row r="18" ht="15.75" customHeight="1" spans="1:5">
       <c r="A18" s="11">
         <v>16</v>
       </c>
@@ -14234,7 +14254,7 @@
       <c r="D18" s="8"/>
       <c r="E18" s="33"/>
     </row>
-    <row r="19" ht="15.7" customHeight="1" spans="1:5">
+    <row r="19" ht="15.75" customHeight="1" spans="1:5">
       <c r="A19" s="11">
         <v>17</v>
       </c>
@@ -14245,7 +14265,7 @@
       <c r="D19" s="8"/>
       <c r="E19" s="33"/>
     </row>
-    <row r="20" ht="15.7" customHeight="1" spans="1:5">
+    <row r="20" ht="15.75" customHeight="1" spans="1:5">
       <c r="A20" s="11">
         <v>18</v>
       </c>
@@ -14256,7 +14276,7 @@
       <c r="D20" s="8"/>
       <c r="E20" s="33"/>
     </row>
-    <row r="21" ht="15.7" customHeight="1" spans="1:5">
+    <row r="21" ht="15.75" customHeight="1" spans="1:5">
       <c r="A21" s="11">
         <v>19</v>
       </c>
@@ -14267,7 +14287,7 @@
       <c r="D21" s="8"/>
       <c r="E21" s="33"/>
     </row>
-    <row r="22" ht="15.7" customHeight="1" spans="1:5">
+    <row r="22" ht="15.75" customHeight="1" spans="1:5">
       <c r="A22" s="11">
         <v>20</v>
       </c>
@@ -14278,7 +14298,7 @@
       <c r="D22" s="8"/>
       <c r="E22" s="33"/>
     </row>
-    <row r="23" ht="15.7" customHeight="1" spans="1:5">
+    <row r="23" ht="15.75" customHeight="1" spans="1:5">
       <c r="A23" s="11">
         <v>21</v>
       </c>
@@ -14289,7 +14309,7 @@
       <c r="D23" s="8"/>
       <c r="E23" s="33"/>
     </row>
-    <row r="24" ht="14.7" customHeight="1" spans="1:5">
+    <row r="24" ht="14.75" customHeight="1" spans="1:5">
       <c r="A24" s="11">
         <v>22</v>
       </c>
@@ -14300,7 +14320,7 @@
       <c r="D24" s="8"/>
       <c r="E24" s="33"/>
     </row>
-    <row r="25" ht="14.7" customHeight="1" spans="1:5">
+    <row r="25" ht="14.75" customHeight="1" spans="1:5">
       <c r="A25" s="11">
         <v>23</v>
       </c>
@@ -14311,7 +14331,7 @@
       <c r="D25" s="8"/>
       <c r="E25" s="33"/>
     </row>
-    <row r="26" ht="14.7" customHeight="1" spans="1:5">
+    <row r="26" ht="14.75" customHeight="1" spans="1:5">
       <c r="A26" s="11">
         <v>24</v>
       </c>
@@ -14322,7 +14342,7 @@
       <c r="D26" s="8"/>
       <c r="E26" s="33"/>
     </row>
-    <row r="27" ht="14.7" customHeight="1" spans="1:5">
+    <row r="27" ht="14.75" customHeight="1" spans="1:5">
       <c r="A27" s="13">
         <v>25</v>
       </c>
@@ -14333,7 +14353,7 @@
       <c r="D27" s="8"/>
       <c r="E27" s="33"/>
     </row>
-    <row r="28" ht="14.7" customHeight="1" spans="1:5">
+    <row r="28" ht="14.75" customHeight="1" spans="1:5">
       <c r="A28" s="11">
         <v>26</v>
       </c>
@@ -14344,7 +14364,7 @@
       <c r="D28" s="8"/>
       <c r="E28" s="33"/>
     </row>
-    <row r="29" ht="14.7" customHeight="1" spans="1:5">
+    <row r="29" ht="14.75" customHeight="1" spans="1:5">
       <c r="A29" s="11">
         <v>27</v>
       </c>
@@ -14373,7 +14393,9 @@
       <c r="B31" s="25" t="s">
         <v>443</v>
       </c>
-      <c r="C31" s="10"/>
+      <c r="C31" s="17" t="s">
+        <v>444</v>
+      </c>
       <c r="D31" s="8"/>
       <c r="E31" s="33"/>
     </row>
@@ -14382,7 +14404,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="8"/>
@@ -14393,7 +14415,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="8"/>
@@ -14404,7 +14426,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="8"/>
@@ -14415,7 +14437,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="8"/>
@@ -14426,7 +14448,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C36" s="17"/>
       <c r="D36" s="8"/>
@@ -14437,7 +14459,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="8"/>
@@ -14448,7 +14470,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C38" s="17"/>
       <c r="D38" s="8"/>
@@ -14459,150 +14481,158 @@
         <v>37</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>451</v>
-      </c>
-      <c r="C39" s="10"/>
+        <v>452</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>453</v>
+      </c>
       <c r="D39" s="8"/>
       <c r="E39" s="33"/>
     </row>
-    <row r="40" ht="15.65" customHeight="1" spans="1:5">
+    <row r="40" ht="15.75" customHeight="1" spans="1:5">
       <c r="A40" s="13">
         <v>38</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C40" s="17"/>
       <c r="D40" s="8"/>
       <c r="E40" s="33"/>
     </row>
-    <row r="41" ht="15.35" customHeight="1" spans="1:5">
+    <row r="41" ht="15.25" customHeight="1" spans="1:5">
       <c r="A41" s="13">
         <v>39</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>453</v>
-      </c>
-      <c r="C41" s="17"/>
+        <v>455</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>456</v>
+      </c>
       <c r="D41" s="8"/>
       <c r="E41" s="33"/>
     </row>
-    <row r="42" ht="15.35" customHeight="1" spans="1:5">
+    <row r="42" ht="15.25" customHeight="1" spans="1:5">
       <c r="A42" s="13">
         <v>40</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C42" s="17"/>
       <c r="D42" s="8"/>
       <c r="E42" s="33"/>
     </row>
-    <row r="43" ht="15.35" customHeight="1" spans="1:5">
+    <row r="43" ht="15.25" customHeight="1" spans="1:5">
       <c r="A43" s="13">
         <v>41</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="8"/>
       <c r="E43" s="33"/>
     </row>
-    <row r="44" ht="15.35" customHeight="1" spans="1:5">
+    <row r="44" ht="15.25" customHeight="1" spans="1:5">
       <c r="A44" s="13">
         <v>42</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C44" s="17"/>
       <c r="D44" s="8"/>
       <c r="E44" s="33"/>
     </row>
-    <row r="45" ht="15.35" customHeight="1" spans="1:5">
+    <row r="45" ht="15.25" customHeight="1" spans="1:5">
       <c r="A45" s="13">
         <v>43</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>457</v>
-      </c>
-      <c r="C45" s="17"/>
+        <v>460</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>461</v>
+      </c>
       <c r="D45" s="8"/>
       <c r="E45" s="33"/>
     </row>
-    <row r="46" ht="15.35" customHeight="1" spans="1:5">
+    <row r="46" ht="15.25" customHeight="1" spans="1:5">
       <c r="A46" s="13">
         <v>44</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="C46" s="17"/>
       <c r="D46" s="8"/>
       <c r="E46" s="33"/>
     </row>
-    <row r="47" ht="15.35" customHeight="1" spans="1:5">
+    <row r="47" ht="15.25" customHeight="1" spans="1:5">
       <c r="A47" s="13">
         <v>45</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="C47" s="17"/>
       <c r="D47" s="8"/>
       <c r="E47" s="33"/>
     </row>
-    <row r="48" ht="15.35" customHeight="1" spans="1:5">
+    <row r="48" ht="15.25" customHeight="1" spans="1:5">
       <c r="A48" s="13">
         <v>46</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="C48" s="17"/>
       <c r="D48" s="8"/>
       <c r="E48" s="33"/>
     </row>
-    <row r="49" ht="15.35" customHeight="1" spans="1:5">
+    <row r="49" ht="15.25" customHeight="1" spans="1:5">
       <c r="A49" s="13">
         <v>47</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="C49" s="17"/>
       <c r="D49" s="8"/>
       <c r="E49" s="33"/>
     </row>
-    <row r="50" ht="15.35" customHeight="1" spans="1:5">
+    <row r="50" ht="15.25" customHeight="1" spans="1:5">
       <c r="A50" s="13">
         <v>48</v>
       </c>
       <c r="B50" s="29" t="s">
-        <v>462</v>
-      </c>
-      <c r="C50" s="17"/>
+        <v>466</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>467</v>
+      </c>
       <c r="D50" s="8"/>
       <c r="E50" s="33"/>
     </row>
-    <row r="51" ht="15.35" customHeight="1" spans="1:5">
+    <row r="51" ht="15.25" customHeight="1" spans="1:5">
       <c r="A51" s="13">
         <v>49</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="8"/>
       <c r="E51" s="33"/>
     </row>
-    <row r="52" ht="15.35" customHeight="1" spans="1:5">
+    <row r="52" ht="15.25" customHeight="1" spans="1:5">
       <c r="A52" s="13">
         <v>50</v>
       </c>
       <c r="B52" s="29" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="C52" s="30" t="s">
         <v>17</v>
@@ -14610,188 +14640,196 @@
       <c r="D52" s="8"/>
       <c r="E52" s="33"/>
     </row>
-    <row r="53" ht="15.35" customHeight="1" spans="1:5">
+    <row r="53" ht="15.25" customHeight="1" spans="1:5">
       <c r="A53" s="13">
         <v>51</v>
       </c>
       <c r="B53" s="29" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="C53" s="17"/>
       <c r="D53" s="8"/>
       <c r="E53" s="33"/>
     </row>
-    <row r="54" ht="15.35" customHeight="1" spans="1:5">
+    <row r="54" ht="15.25" customHeight="1" spans="1:5">
       <c r="A54" s="13">
         <v>52</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="C54" s="17"/>
       <c r="D54" s="8"/>
       <c r="E54" s="33"/>
     </row>
-    <row r="55" ht="15.35" customHeight="1" spans="1:5">
+    <row r="55" ht="15.25" customHeight="1" spans="1:5">
       <c r="A55" s="13">
         <v>53</v>
       </c>
       <c r="B55" s="29" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="C55" s="17"/>
       <c r="D55" s="8"/>
       <c r="E55" s="33"/>
     </row>
-    <row r="56" ht="15.35" customHeight="1" spans="1:5">
+    <row r="56" ht="15.25" customHeight="1" spans="1:5">
       <c r="A56" s="13">
         <v>54</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>468</v>
-      </c>
-      <c r="C56" s="17"/>
+        <v>473</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>474</v>
+      </c>
       <c r="D56" s="8"/>
       <c r="E56" s="33"/>
     </row>
-    <row r="57" ht="15.35" customHeight="1" spans="1:5">
+    <row r="57" ht="15.25" customHeight="1" spans="1:5">
       <c r="A57" s="13">
         <v>55</v>
       </c>
       <c r="B57" s="29" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="8"/>
       <c r="E57" s="33"/>
     </row>
-    <row r="58" ht="15.35" customHeight="1" spans="1:5">
+    <row r="58" ht="15.25" customHeight="1" spans="1:5">
       <c r="A58" s="13">
         <v>56</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="C58" s="17"/>
       <c r="D58" s="8"/>
       <c r="E58" s="33"/>
     </row>
-    <row r="59" ht="15.35" customHeight="1" spans="1:5">
+    <row r="59" ht="15.25" customHeight="1" spans="1:5">
       <c r="A59" s="13">
         <v>57</v>
       </c>
       <c r="B59" s="29" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="C59" s="17"/>
       <c r="D59" s="8"/>
       <c r="E59" s="33"/>
     </row>
-    <row r="60" ht="15.35" customHeight="1" spans="1:5">
+    <row r="60" ht="15.25" customHeight="1" spans="1:5">
       <c r="A60" s="13">
         <v>58</v>
       </c>
       <c r="B60" s="29" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="C60" s="17"/>
       <c r="D60" s="8"/>
       <c r="E60" s="33"/>
     </row>
-    <row r="61" ht="15.35" customHeight="1" spans="1:5">
+    <row r="61" ht="15.25" customHeight="1" spans="1:5">
       <c r="A61" s="13">
         <v>59</v>
       </c>
       <c r="B61" s="29" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="C61" s="17"/>
       <c r="D61" s="8"/>
       <c r="E61" s="33"/>
     </row>
-    <row r="62" ht="15.35" customHeight="1" spans="1:5">
+    <row r="62" ht="15.25" customHeight="1" spans="1:5">
       <c r="A62" s="13">
         <v>60</v>
       </c>
       <c r="B62" s="29" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="C62" s="17"/>
       <c r="D62" s="8"/>
       <c r="E62" s="33"/>
     </row>
-    <row r="63" ht="15.35" customHeight="1" spans="1:5">
+    <row r="63" ht="15.25" customHeight="1" spans="1:5">
       <c r="A63" s="13">
         <v>61</v>
       </c>
       <c r="B63" s="29" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="C63" s="17"/>
       <c r="D63" s="8"/>
       <c r="E63" s="33"/>
     </row>
-    <row r="64" ht="15.35" customHeight="1" spans="1:5">
+    <row r="64" ht="15.25" customHeight="1" spans="1:5">
       <c r="A64" s="13">
         <v>62</v>
       </c>
       <c r="B64" s="31" t="s">
-        <v>476</v>
-      </c>
-      <c r="C64" s="17"/>
+        <v>482</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>453</v>
+      </c>
       <c r="D64" s="8"/>
       <c r="E64" s="33"/>
     </row>
-    <row r="65" ht="15.35" customHeight="1" spans="1:5">
+    <row r="65" ht="15.25" customHeight="1" spans="1:5">
       <c r="A65" s="13">
         <v>63</v>
       </c>
       <c r="B65" s="31" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="C65" s="17"/>
       <c r="D65" s="8"/>
       <c r="E65" s="33"/>
     </row>
-    <row r="66" ht="15.35" customHeight="1" spans="1:5">
+    <row r="66" ht="15.25" customHeight="1" spans="1:5">
       <c r="A66" s="13">
         <v>64</v>
       </c>
       <c r="B66" s="31" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="C66" s="17"/>
       <c r="D66" s="8"/>
       <c r="E66" s="33"/>
     </row>
-    <row r="67" ht="15.35" customHeight="1" spans="1:5">
+    <row r="67" ht="15.25" customHeight="1" spans="1:5">
       <c r="A67" s="13">
         <v>65</v>
       </c>
       <c r="B67" s="31" t="s">
-        <v>479</v>
-      </c>
-      <c r="C67" s="17"/>
+        <v>485</v>
+      </c>
+      <c r="C67" s="17" t="s">
+        <v>467</v>
+      </c>
       <c r="D67" s="8"/>
       <c r="E67" s="33"/>
     </row>
-    <row r="68" ht="15.35" customHeight="1" spans="1:5">
+    <row r="68" ht="15.25" customHeight="1" spans="1:5">
       <c r="A68" s="13">
         <v>66</v>
       </c>
       <c r="B68" s="31" t="s">
-        <v>480</v>
-      </c>
-      <c r="C68" s="17"/>
+        <v>486</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>456</v>
+      </c>
       <c r="D68" s="8"/>
       <c r="E68" s="33"/>
     </row>
-    <row r="69" ht="15.35" customHeight="1" spans="1:5">
+    <row r="69" ht="15.25" customHeight="1" spans="1:5">
       <c r="A69" s="13">
         <v>67</v>
       </c>
       <c r="B69" s="31" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="C69" s="30" t="s">
         <v>17</v>
@@ -14799,155 +14837,173 @@
       <c r="D69" s="8"/>
       <c r="E69" s="33"/>
     </row>
-    <row r="70" ht="15.35" customHeight="1" spans="1:5">
+    <row r="70" ht="15.25" customHeight="1" spans="1:5">
       <c r="A70" s="13">
         <v>68</v>
       </c>
       <c r="B70" s="31" t="s">
-        <v>482</v>
-      </c>
-      <c r="C70" s="17"/>
+        <v>488</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>461</v>
+      </c>
       <c r="D70" s="8"/>
       <c r="E70" s="33"/>
     </row>
-    <row r="71" ht="15.35" customHeight="1" spans="1:5">
+    <row r="71" ht="15.25" customHeight="1" spans="1:5">
       <c r="A71" s="13">
         <v>69</v>
       </c>
       <c r="B71" s="31" t="s">
-        <v>483</v>
-      </c>
-      <c r="C71" s="17"/>
+        <v>489</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>474</v>
+      </c>
       <c r="D71" s="8"/>
       <c r="E71" s="33"/>
     </row>
-    <row r="72" ht="15.35" customHeight="1" spans="1:5">
+    <row r="72" ht="15.25" customHeight="1" spans="1:5">
       <c r="A72" s="13">
         <v>70</v>
       </c>
       <c r="B72" s="31" t="s">
-        <v>484</v>
-      </c>
-      <c r="C72" s="17"/>
+        <v>490</v>
+      </c>
+      <c r="C72" s="17" t="s">
+        <v>444</v>
+      </c>
       <c r="D72" s="8"/>
       <c r="E72" s="33"/>
     </row>
-    <row r="73" ht="15.35" customHeight="1" spans="1:5">
+    <row r="73" ht="15.25" customHeight="1" spans="1:5">
       <c r="A73" s="13">
         <v>71</v>
       </c>
       <c r="B73" s="31" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="C73" s="17"/>
       <c r="D73" s="8"/>
       <c r="E73" s="33"/>
     </row>
-    <row r="74" ht="15.35" customHeight="1" spans="1:5">
+    <row r="74" ht="15.25" customHeight="1" spans="1:5">
       <c r="A74" s="13">
         <v>72</v>
       </c>
       <c r="B74" s="34" t="s">
-        <v>486</v>
-      </c>
-      <c r="C74" s="17"/>
+        <v>492</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>474</v>
+      </c>
       <c r="D74" s="8"/>
       <c r="E74" s="33"/>
     </row>
-    <row r="75" ht="15.35" customHeight="1" spans="1:5">
+    <row r="75" ht="15.25" customHeight="1" spans="1:5">
       <c r="A75" s="13">
         <v>73</v>
       </c>
       <c r="B75" s="34" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="C75" s="17"/>
       <c r="D75" s="8"/>
       <c r="E75" s="33"/>
     </row>
-    <row r="76" ht="15.35" customHeight="1" spans="1:5">
+    <row r="76" ht="15.25" customHeight="1" spans="1:5">
       <c r="A76" s="13">
         <v>74</v>
       </c>
       <c r="B76" s="34" t="s">
-        <v>488</v>
-      </c>
-      <c r="C76" s="17"/>
+        <v>494</v>
+      </c>
+      <c r="C76" s="17" t="s">
+        <v>467</v>
+      </c>
       <c r="D76" s="8"/>
       <c r="E76" s="33"/>
     </row>
-    <row r="77" ht="15.35" customHeight="1" spans="1:5">
+    <row r="77" ht="15.25" customHeight="1" spans="1:5">
       <c r="A77" s="13">
         <v>75</v>
       </c>
       <c r="B77" s="34" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="C77" s="17"/>
       <c r="D77" s="8"/>
       <c r="E77" s="33"/>
     </row>
-    <row r="78" ht="15.35" customHeight="1" spans="1:5">
+    <row r="78" ht="15.25" customHeight="1" spans="1:5">
       <c r="A78" s="13">
         <v>76</v>
       </c>
       <c r="B78" s="34" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="C78" s="17"/>
       <c r="D78" s="8"/>
       <c r="E78" s="33"/>
     </row>
-    <row r="79" ht="15.35" customHeight="1" spans="1:5">
+    <row r="79" ht="15.25" customHeight="1" spans="1:5">
       <c r="A79" s="13">
         <v>77</v>
       </c>
       <c r="B79" s="34" t="s">
-        <v>491</v>
-      </c>
-      <c r="C79" s="17"/>
+        <v>497</v>
+      </c>
+      <c r="C79" s="17" t="s">
+        <v>456</v>
+      </c>
       <c r="D79" s="8"/>
       <c r="E79" s="33"/>
     </row>
-    <row r="80" ht="15.35" customHeight="1" spans="1:5">
+    <row r="80" ht="15.25" customHeight="1" spans="1:5">
       <c r="A80" s="13">
         <v>78</v>
       </c>
       <c r="B80" s="34" t="s">
-        <v>492</v>
-      </c>
-      <c r="C80" s="17"/>
+        <v>498</v>
+      </c>
+      <c r="C80" s="17" t="s">
+        <v>461</v>
+      </c>
       <c r="D80" s="8"/>
       <c r="E80" s="33"/>
     </row>
-    <row r="81" ht="15.35" customHeight="1" spans="1:5">
+    <row r="81" ht="15.25" customHeight="1" spans="1:5">
       <c r="A81" s="13">
         <v>79</v>
       </c>
       <c r="B81" s="34" t="s">
-        <v>493</v>
-      </c>
-      <c r="C81" s="17"/>
+        <v>499</v>
+      </c>
+      <c r="C81" s="17" t="s">
+        <v>453</v>
+      </c>
       <c r="D81" s="8"/>
       <c r="E81" s="33"/>
     </row>
-    <row r="82" ht="15.35" customHeight="1" spans="1:5">
+    <row r="82" ht="15.25" customHeight="1" spans="1:5">
       <c r="A82" s="13">
         <v>80</v>
       </c>
       <c r="B82" s="34" t="s">
-        <v>494</v>
-      </c>
-      <c r="C82" s="17"/>
+        <v>500</v>
+      </c>
+      <c r="C82" s="17" t="s">
+        <v>444</v>
+      </c>
       <c r="D82" s="8"/>
       <c r="E82" s="33"/>
     </row>
-    <row r="83" ht="15.35" customHeight="1" spans="1:5">
+    <row r="83" ht="15.25" customHeight="1" spans="1:5">
       <c r="A83" s="13">
         <v>81</v>
       </c>
       <c r="B83" s="34" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="C83" s="30" t="s">
         <v>17</v>
@@ -14955,89 +15011,101 @@
       <c r="D83" s="8"/>
       <c r="E83" s="33"/>
     </row>
-    <row r="84" ht="15.35" customHeight="1" spans="1:5">
+    <row r="84" ht="15.25" customHeight="1" spans="1:5">
       <c r="A84" s="13">
         <v>82</v>
       </c>
       <c r="B84" s="35" t="s">
-        <v>496</v>
-      </c>
-      <c r="C84" s="17"/>
+        <v>502</v>
+      </c>
+      <c r="C84" s="17" t="s">
+        <v>453</v>
+      </c>
       <c r="D84" s="8"/>
       <c r="E84" s="33"/>
     </row>
-    <row r="85" ht="15.35" customHeight="1" spans="1:5">
+    <row r="85" ht="15.25" customHeight="1" spans="1:5">
       <c r="A85" s="13">
         <v>83</v>
       </c>
       <c r="B85" s="35" t="s">
-        <v>497</v>
-      </c>
-      <c r="C85" s="17"/>
+        <v>503</v>
+      </c>
+      <c r="C85" s="17" t="s">
+        <v>461</v>
+      </c>
       <c r="D85" s="8"/>
       <c r="E85" s="33"/>
     </row>
-    <row r="86" ht="15.35" customHeight="1" spans="1:5">
+    <row r="86" ht="15.25" customHeight="1" spans="1:5">
       <c r="A86" s="13">
         <v>84</v>
       </c>
       <c r="B86" s="35" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="C86" s="17"/>
       <c r="D86" s="8"/>
       <c r="E86" s="33"/>
     </row>
-    <row r="87" ht="15.35" customHeight="1" spans="1:5">
+    <row r="87" ht="15.25" customHeight="1" spans="1:5">
       <c r="A87" s="13">
         <v>85</v>
       </c>
       <c r="B87" s="35" t="s">
-        <v>499</v>
-      </c>
-      <c r="C87" s="17"/>
+        <v>505</v>
+      </c>
+      <c r="C87" s="17" t="s">
+        <v>444</v>
+      </c>
       <c r="D87" s="8"/>
       <c r="E87" s="33"/>
     </row>
-    <row r="88" ht="15.35" customHeight="1" spans="1:5">
+    <row r="88" ht="15.25" customHeight="1" spans="1:5">
       <c r="A88" s="13">
         <v>86</v>
       </c>
       <c r="B88" s="35" t="s">
-        <v>500</v>
-      </c>
-      <c r="C88" s="17"/>
+        <v>506</v>
+      </c>
+      <c r="C88" s="17" t="s">
+        <v>456</v>
+      </c>
       <c r="D88" s="8"/>
       <c r="E88" s="33"/>
     </row>
-    <row r="89" ht="15.35" customHeight="1" spans="1:5">
+    <row r="89" ht="15.25" customHeight="1" spans="1:5">
       <c r="A89" s="13">
         <v>87</v>
       </c>
       <c r="B89" s="35" t="s">
-        <v>501</v>
-      </c>
-      <c r="C89" s="17"/>
+        <v>507</v>
+      </c>
+      <c r="C89" s="17" t="s">
+        <v>467</v>
+      </c>
       <c r="D89" s="8"/>
       <c r="E89" s="33"/>
     </row>
-    <row r="90" ht="15.35" customHeight="1" spans="1:5">
+    <row r="90" ht="15.25" customHeight="1" spans="1:5">
       <c r="A90" s="13">
         <v>88</v>
       </c>
       <c r="B90" s="35" t="s">
-        <v>502</v>
-      </c>
-      <c r="C90" s="17"/>
+        <v>508</v>
+      </c>
+      <c r="C90" s="17" t="s">
+        <v>474</v>
+      </c>
       <c r="D90" s="8"/>
       <c r="E90" s="33"/>
     </row>
-    <row r="91" ht="15.35" customHeight="1" spans="1:5">
+    <row r="91" ht="15.25" customHeight="1" spans="1:5">
       <c r="A91" s="13">
         <v>89</v>
       </c>
       <c r="B91" s="35" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="C91" s="30" t="s">
         <v>17</v>
@@ -15045,23 +15113,23 @@
       <c r="D91" s="8"/>
       <c r="E91" s="33"/>
     </row>
-    <row r="92" ht="15.35" customHeight="1" spans="1:5">
+    <row r="92" ht="15.25" customHeight="1" spans="1:5">
       <c r="A92" s="13">
         <v>90</v>
       </c>
       <c r="B92" s="36" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="C92" s="17"/>
       <c r="D92" s="8"/>
       <c r="E92" s="33"/>
     </row>
-    <row r="93" ht="15.35" customHeight="1" spans="1:5">
+    <row r="93" ht="15.25" customHeight="1" spans="1:5">
       <c r="A93" s="13">
         <v>91</v>
       </c>
       <c r="B93" s="36" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="C93" s="30" t="s">
         <v>17</v>
@@ -15069,199 +15137,217 @@
       <c r="D93" s="8"/>
       <c r="E93" s="33"/>
     </row>
-    <row r="94" ht="15.35" customHeight="1" spans="1:5">
+    <row r="94" ht="15.25" customHeight="1" spans="1:5">
       <c r="A94" s="13">
         <v>92</v>
       </c>
       <c r="B94" s="36" t="s">
-        <v>506</v>
-      </c>
-      <c r="C94" s="17"/>
+        <v>512</v>
+      </c>
+      <c r="C94" s="17" t="s">
+        <v>444</v>
+      </c>
       <c r="D94" s="8"/>
       <c r="E94" s="33"/>
     </row>
-    <row r="95" ht="15.35" customHeight="1" spans="1:5">
+    <row r="95" ht="15.25" customHeight="1" spans="1:5">
       <c r="A95" s="13">
         <v>93</v>
       </c>
       <c r="B95" s="36" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="C95" s="17"/>
       <c r="D95" s="8"/>
       <c r="E95" s="33"/>
     </row>
-    <row r="96" ht="15.35" customHeight="1" spans="1:5">
+    <row r="96" ht="15.25" customHeight="1" spans="1:5">
       <c r="A96" s="13">
         <v>94</v>
       </c>
       <c r="B96" s="36" t="s">
-        <v>508</v>
-      </c>
-      <c r="C96" s="17"/>
+        <v>514</v>
+      </c>
+      <c r="C96" s="17" t="s">
+        <v>456</v>
+      </c>
       <c r="D96" s="8"/>
       <c r="E96" s="33"/>
     </row>
-    <row r="97" ht="15.35" customHeight="1" spans="1:5">
+    <row r="97" ht="15.25" customHeight="1" spans="1:5">
       <c r="A97" s="13">
         <v>95</v>
       </c>
       <c r="B97" s="36" t="s">
-        <v>509</v>
-      </c>
-      <c r="C97" s="17"/>
+        <v>515</v>
+      </c>
+      <c r="C97" s="17" t="s">
+        <v>467</v>
+      </c>
       <c r="D97" s="8"/>
       <c r="E97" s="33"/>
     </row>
-    <row r="98" ht="15.35" customHeight="1" spans="1:5">
+    <row r="98" ht="15.25" customHeight="1" spans="1:5">
       <c r="A98" s="13">
         <v>96</v>
       </c>
       <c r="B98" s="36" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="C98" s="17"/>
       <c r="D98" s="8"/>
       <c r="E98" s="33"/>
     </row>
-    <row r="99" ht="15.35" customHeight="1" spans="1:5">
+    <row r="99" ht="15.25" customHeight="1" spans="1:5">
       <c r="A99" s="13">
         <v>97</v>
       </c>
       <c r="B99" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C99" s="17"/>
+        <v>517</v>
+      </c>
+      <c r="C99" s="17" t="s">
+        <v>461</v>
+      </c>
       <c r="D99" s="8"/>
       <c r="E99" s="33"/>
     </row>
-    <row r="100" ht="15.35" customHeight="1" spans="1:5">
+    <row r="100" ht="15.25" customHeight="1" spans="1:5">
       <c r="A100" s="13">
         <v>98</v>
       </c>
       <c r="B100" s="36" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="C100" s="17"/>
       <c r="D100" s="8"/>
       <c r="E100" s="33"/>
     </row>
-    <row r="101" ht="15.35" customHeight="1" spans="1:5">
+    <row r="101" ht="15.25" customHeight="1" spans="1:5">
       <c r="A101" s="13">
         <v>99</v>
       </c>
       <c r="B101" s="36" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="C101" s="17"/>
       <c r="D101" s="8"/>
       <c r="E101" s="33"/>
     </row>
-    <row r="102" ht="15.35" customHeight="1" spans="1:5">
+    <row r="102" ht="15.25" customHeight="1" spans="1:5">
       <c r="A102" s="13">
         <v>100</v>
       </c>
       <c r="B102" s="36" t="s">
-        <v>514</v>
-      </c>
-      <c r="C102" s="17"/>
+        <v>520</v>
+      </c>
+      <c r="C102" s="17" t="s">
+        <v>474</v>
+      </c>
       <c r="D102" s="8"/>
       <c r="E102" s="33"/>
     </row>
-    <row r="103" ht="15.35" customHeight="1" spans="1:5">
+    <row r="103" ht="15.25" customHeight="1" spans="1:5">
       <c r="A103" s="13">
         <v>101</v>
       </c>
       <c r="B103" s="36" t="s">
-        <v>515</v>
-      </c>
-      <c r="C103" s="17"/>
+        <v>521</v>
+      </c>
+      <c r="C103" s="17" t="s">
+        <v>453</v>
+      </c>
       <c r="D103" s="8"/>
       <c r="E103" s="33"/>
     </row>
-    <row r="104" ht="15.35" customHeight="1" spans="1:5">
+    <row r="104" ht="15.25" customHeight="1" spans="1:5">
       <c r="A104" s="13">
         <v>102</v>
       </c>
       <c r="B104" s="36" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="C104" s="17"/>
       <c r="D104" s="8"/>
       <c r="E104" s="33"/>
     </row>
-    <row r="105" ht="15.35" customHeight="1" spans="1:5">
+    <row r="105" ht="15.25" customHeight="1" spans="1:5">
       <c r="A105" s="13">
         <v>103</v>
       </c>
       <c r="B105" s="36" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="C105" s="17"/>
       <c r="D105" s="8"/>
       <c r="E105" s="33"/>
     </row>
-    <row r="106" ht="15.35" customHeight="1" spans="1:5">
+    <row r="106" ht="15.25" customHeight="1" spans="1:5">
       <c r="A106" s="13">
         <v>104</v>
       </c>
       <c r="B106" s="35" t="s">
-        <v>518</v>
-      </c>
-      <c r="C106" s="17"/>
+        <v>524</v>
+      </c>
+      <c r="C106" s="17" t="s">
+        <v>453</v>
+      </c>
       <c r="D106" s="8"/>
       <c r="E106" s="33"/>
     </row>
-    <row r="107" ht="15.35" customHeight="1" spans="1:5">
+    <row r="107" ht="15.25" customHeight="1" spans="1:5">
       <c r="A107" s="13">
         <v>105</v>
       </c>
       <c r="B107" s="35" t="s">
-        <v>519</v>
-      </c>
-      <c r="C107" s="17"/>
+        <v>525</v>
+      </c>
+      <c r="C107" s="17" t="s">
+        <v>444</v>
+      </c>
       <c r="D107" s="8"/>
       <c r="E107" s="33"/>
     </row>
-    <row r="108" ht="15.35" customHeight="1" spans="1:5">
+    <row r="108" ht="15.25" customHeight="1" spans="1:5">
       <c r="A108" s="13">
         <v>106</v>
       </c>
       <c r="B108" s="35" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="C108" s="17"/>
       <c r="D108" s="8"/>
       <c r="E108" s="33"/>
     </row>
-    <row r="109" ht="15.35" customHeight="1" spans="1:5">
+    <row r="109" ht="15.25" customHeight="1" spans="1:5">
       <c r="A109" s="13">
         <v>107</v>
       </c>
       <c r="B109" s="35" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="C109" s="17"/>
       <c r="D109" s="8"/>
       <c r="E109" s="33"/>
     </row>
-    <row r="110" ht="15.35" customHeight="1" spans="1:5">
+    <row r="110" ht="15.25" customHeight="1" spans="1:5">
       <c r="A110" s="13">
         <v>108</v>
       </c>
       <c r="B110" s="35" t="s">
-        <v>522</v>
-      </c>
-      <c r="C110" s="17"/>
+        <v>528</v>
+      </c>
+      <c r="C110" s="17" t="s">
+        <v>456</v>
+      </c>
       <c r="D110" s="8"/>
       <c r="E110" s="33"/>
     </row>
-    <row r="111" ht="15.35" customHeight="1" spans="1:5">
+    <row r="111" ht="15.25" customHeight="1" spans="1:5">
       <c r="A111" s="13">
         <v>109</v>
       </c>
       <c r="B111" s="35" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="C111" s="30" t="s">
         <v>17</v>
@@ -15269,243 +15355,249 @@
       <c r="D111" s="8"/>
       <c r="E111" s="33"/>
     </row>
-    <row r="112" ht="15.35" customHeight="1" spans="1:5">
+    <row r="112" ht="15.25" customHeight="1" spans="1:5">
       <c r="A112" s="13">
         <v>110</v>
       </c>
       <c r="B112" s="35" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="C112" s="17"/>
       <c r="D112" s="8"/>
       <c r="E112" s="33"/>
     </row>
-    <row r="113" ht="15.35" customHeight="1" spans="1:5">
+    <row r="113" ht="15.25" customHeight="1" spans="1:5">
       <c r="A113" s="13">
         <v>111</v>
       </c>
       <c r="B113" s="35" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="C113" s="17"/>
       <c r="D113" s="8"/>
       <c r="E113" s="33"/>
     </row>
-    <row r="114" ht="15.35" customHeight="1" spans="1:5">
+    <row r="114" ht="15.25" customHeight="1" spans="1:5">
       <c r="A114" s="13">
         <v>112</v>
       </c>
       <c r="B114" s="35" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="C114" s="17"/>
       <c r="D114" s="8"/>
       <c r="E114" s="33"/>
     </row>
-    <row r="115" ht="15.35" customHeight="1" spans="1:5">
+    <row r="115" ht="15.25" customHeight="1" spans="1:5">
       <c r="A115" s="13">
         <v>113</v>
       </c>
       <c r="B115" s="35" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="C115" s="17"/>
       <c r="D115" s="8"/>
       <c r="E115" s="33"/>
     </row>
-    <row r="116" ht="15.35" customHeight="1" spans="1:5">
+    <row r="116" ht="15.25" customHeight="1" spans="1:5">
       <c r="A116" s="13">
         <v>114</v>
       </c>
       <c r="B116" s="35" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="C116" s="17"/>
       <c r="D116" s="8"/>
       <c r="E116" s="33"/>
     </row>
-    <row r="117" ht="15.35" customHeight="1" spans="1:5">
+    <row r="117" ht="15.25" customHeight="1" spans="1:5">
       <c r="A117" s="13">
         <v>115</v>
       </c>
       <c r="B117" s="35" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="C117" s="17"/>
       <c r="D117" s="8"/>
       <c r="E117" s="33"/>
     </row>
-    <row r="118" ht="15.35" customHeight="1" spans="1:5">
+    <row r="118" ht="15.25" customHeight="1" spans="1:5">
       <c r="A118" s="13">
         <v>116</v>
       </c>
       <c r="B118" s="35" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="C118" s="17"/>
       <c r="D118" s="8"/>
       <c r="E118" s="33"/>
     </row>
-    <row r="119" ht="15.35" customHeight="1" spans="1:5">
+    <row r="119" ht="15.25" customHeight="1" spans="1:5">
       <c r="A119" s="13">
         <v>117</v>
       </c>
       <c r="B119" s="35" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="C119" s="17"/>
       <c r="D119" s="8"/>
       <c r="E119" s="33"/>
     </row>
-    <row r="120" ht="15.35" customHeight="1" spans="1:5">
+    <row r="120" ht="15.25" customHeight="1" spans="1:5">
       <c r="A120" s="13">
         <v>118</v>
       </c>
       <c r="B120" s="35" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="C120" s="17"/>
       <c r="D120" s="8"/>
       <c r="E120" s="33"/>
     </row>
-    <row r="121" ht="15.35" customHeight="1" spans="1:5">
+    <row r="121" ht="15.25" customHeight="1" spans="1:5">
       <c r="A121" s="13">
         <v>119</v>
       </c>
       <c r="B121" s="35" t="s">
-        <v>533</v>
-      </c>
-      <c r="C121" s="17"/>
+        <v>539</v>
+      </c>
+      <c r="C121" s="17" t="s">
+        <v>474</v>
+      </c>
       <c r="D121" s="8"/>
       <c r="E121" s="33"/>
     </row>
-    <row r="122" ht="15.35" customHeight="1" spans="1:5">
+    <row r="122" ht="15.25" customHeight="1" spans="1:5">
       <c r="A122" s="13">
         <v>120</v>
       </c>
       <c r="B122" s="35" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="C122" s="17"/>
       <c r="D122" s="8"/>
       <c r="E122" s="33"/>
     </row>
-    <row r="123" ht="15.35" customHeight="1" spans="1:5">
+    <row r="123" ht="15.25" customHeight="1" spans="1:5">
       <c r="A123" s="13">
         <v>121</v>
       </c>
       <c r="B123" s="35" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="C123" s="17"/>
       <c r="D123" s="8"/>
       <c r="E123" s="33"/>
     </row>
-    <row r="124" ht="15.35" customHeight="1" spans="1:5">
+    <row r="124" ht="15.25" customHeight="1" spans="1:5">
       <c r="A124" s="13">
         <v>122</v>
       </c>
       <c r="B124" s="35" t="s">
-        <v>536</v>
-      </c>
-      <c r="C124" s="17"/>
+        <v>542</v>
+      </c>
+      <c r="C124" s="17" t="s">
+        <v>467</v>
+      </c>
       <c r="D124" s="8"/>
       <c r="E124" s="33"/>
     </row>
-    <row r="125" ht="15.35" customHeight="1" spans="1:5">
+    <row r="125" ht="15.25" customHeight="1" spans="1:5">
       <c r="A125" s="13">
         <v>123</v>
       </c>
       <c r="B125" s="35" t="s">
-        <v>537</v>
-      </c>
-      <c r="C125" s="17"/>
+        <v>543</v>
+      </c>
+      <c r="C125" s="17" t="s">
+        <v>461</v>
+      </c>
       <c r="D125" s="8"/>
       <c r="E125" s="33"/>
     </row>
-    <row r="126" ht="15.35" customHeight="1" spans="1:5">
+    <row r="126" ht="15.25" customHeight="1" spans="1:5">
       <c r="A126" s="13">
         <v>124</v>
       </c>
       <c r="B126" s="35" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="C126" s="17"/>
       <c r="D126" s="8"/>
       <c r="E126" s="33"/>
     </row>
-    <row r="127" ht="15.35" customHeight="1" spans="1:5">
+    <row r="127" ht="15.25" customHeight="1" spans="1:5">
       <c r="A127" s="13">
         <v>125</v>
       </c>
       <c r="B127" s="35" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="C127" s="17"/>
       <c r="D127" s="8"/>
       <c r="E127" s="33"/>
     </row>
-    <row r="128" ht="15.65" customHeight="1" spans="1:5">
+    <row r="128" ht="15.75" customHeight="1" spans="1:5">
       <c r="A128" s="13">
         <v>126</v>
       </c>
       <c r="B128" s="37" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="C128" s="17"/>
       <c r="D128" s="8"/>
       <c r="E128" s="33"/>
     </row>
-    <row r="129" ht="14.7" customHeight="1" spans="1:5">
+    <row r="129" ht="14.75" customHeight="1" spans="1:5">
       <c r="A129" s="9">
         <v>127</v>
       </c>
       <c r="B129" s="38" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="C129" s="17"/>
       <c r="D129" s="8"/>
       <c r="E129" s="33"/>
     </row>
-    <row r="130" ht="14.7" customHeight="1" spans="1:5">
+    <row r="130" ht="14.75" customHeight="1" spans="1:5">
       <c r="A130" s="9">
         <v>128</v>
       </c>
       <c r="B130" s="30" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="C130" s="17"/>
       <c r="D130" s="8"/>
       <c r="E130" s="33"/>
     </row>
-    <row r="131" ht="14.7" customHeight="1" spans="1:5">
+    <row r="131" ht="14.75" customHeight="1" spans="1:5">
       <c r="A131" s="9">
         <v>129</v>
       </c>
       <c r="B131" s="30" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="C131" s="17"/>
       <c r="D131" s="8"/>
       <c r="E131" s="33"/>
     </row>
-    <row r="132" ht="14.7" customHeight="1" spans="1:5">
+    <row r="132" ht="14.75" customHeight="1" spans="1:5">
       <c r="A132" s="9">
         <v>130</v>
       </c>
       <c r="B132" s="39" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="C132" s="17"/>
       <c r="D132" s="8"/>
       <c r="E132" s="33"/>
     </row>
-    <row r="133" ht="15.65" customHeight="1" spans="1:5">
+    <row r="133" ht="15.75" customHeight="1" spans="1:5">
       <c r="A133" s="40">
         <v>131</v>
       </c>
       <c r="B133" s="41" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="C133" s="17"/>
       <c r="D133" s="42"/>
@@ -15516,7 +15608,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="41" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
   </sheetData>

--- a/data/offweb.xlsx
+++ b/data/offweb.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10614"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfredyang/Desktop/code/pharbers/lambda/phlambda/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CF1F7B-7FAA-3F4E-8B6B-6D6F95CA79E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13200" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="13200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="导出摘要" sheetId="1" r:id="rId1"/>
@@ -16,12 +22,12 @@
     <sheet name="Cooperation" sheetId="7" r:id="rId7"/>
     <sheet name="Image" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="553">
   <si>
     <t>此文稿由 Numbers 表格导出。所有表格均已转换为 Excel 工作表。每张 Numbers 工作表上的所有其他对象都已放置在单独的工作表中。请注意其中的公式计算可能与 Excel 不同。</t>
   </si>
@@ -4347,14 +4353,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="38">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -4461,165 +4461,20 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="华文宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="56">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4764,194 +4619,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="91">
+  <borders count="83">
     <border>
       <left/>
       <right/>
@@ -6035,255 +5704,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="55" borderId="90" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="38" borderId="90" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="88" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="39" borderId="87" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="38" borderId="86" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="85" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="84" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="85" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="89" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="263">
+  <cellXfs count="268">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -7019,9 +6446,6 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -7043,88 +6467,59 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -7197,6 +6592,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -8235,248 +7633,247 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelCol="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="13" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
-    <col min="2" max="4" width="33.6607142857143" style="1" customWidth="1"/>
+    <col min="2" max="4" width="33.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="1" customWidth="1"/>
     <col min="6" max="256" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.75" customHeight="1" spans="1:5">
-      <c r="A1" s="251"/>
-      <c r="B1" s="252"/>
-      <c r="C1" s="252"/>
-      <c r="D1" s="252"/>
+    <row r="1" spans="1:5" ht="14.75" customHeight="1">
+      <c r="A1" s="250"/>
+      <c r="B1" s="251"/>
+      <c r="C1" s="251"/>
+      <c r="D1" s="251"/>
       <c r="E1" s="32"/>
     </row>
-    <row r="2" ht="14.75" customHeight="1" spans="1:5">
+    <row r="2" spans="1:5" ht="14.75" customHeight="1">
       <c r="A2" s="240"/>
       <c r="B2" s="241"/>
       <c r="C2" s="241"/>
       <c r="D2" s="241"/>
       <c r="E2" s="33"/>
     </row>
-    <row r="3" ht="50" customHeight="1" spans="1:5">
+    <row r="3" spans="1:5" ht="50" customHeight="1">
       <c r="A3" s="240"/>
-      <c r="B3" s="253" t="s">
+      <c r="B3" s="261" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="241"/>
-      <c r="D3" s="241"/>
+      <c r="C3" s="262"/>
+      <c r="D3" s="262"/>
       <c r="E3" s="33"/>
     </row>
-    <row r="4" ht="14.75" customHeight="1" spans="1:5">
+    <row r="4" spans="1:5" ht="14.75" customHeight="1">
       <c r="A4" s="240"/>
       <c r="B4" s="241"/>
       <c r="C4" s="241"/>
       <c r="D4" s="241"/>
       <c r="E4" s="33"/>
     </row>
-    <row r="5" ht="14.75" customHeight="1" spans="1:5">
+    <row r="5" spans="1:5" ht="14.75" customHeight="1">
       <c r="A5" s="240"/>
       <c r="B5" s="241"/>
       <c r="C5" s="241"/>
       <c r="D5" s="241"/>
       <c r="E5" s="33"/>
     </row>
-    <row r="6" ht="14.75" customHeight="1" spans="1:5">
+    <row r="6" spans="1:5" ht="14.75" customHeight="1">
       <c r="A6" s="240"/>
       <c r="B6" s="241"/>
       <c r="C6" s="241"/>
       <c r="D6" s="241"/>
       <c r="E6" s="33"/>
     </row>
-    <row r="7" ht="17" spans="1:5">
+    <row r="7" spans="1:5" ht="19">
       <c r="A7" s="240"/>
-      <c r="B7" s="254" t="s">
+      <c r="B7" s="252" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="254" t="s">
+      <c r="C7" s="252" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="254" t="s">
+      <c r="D7" s="252" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="33"/>
     </row>
-    <row r="8" ht="14.75" customHeight="1" spans="1:5">
+    <row r="8" spans="1:5" ht="14.75" customHeight="1">
       <c r="A8" s="240"/>
       <c r="B8" s="241"/>
       <c r="C8" s="241"/>
       <c r="D8" s="241"/>
       <c r="E8" s="33"/>
     </row>
-    <row r="9" ht="15" spans="1:5">
+    <row r="9" spans="1:5" ht="17">
       <c r="A9" s="240"/>
-      <c r="B9" s="255" t="s">
+      <c r="B9" s="253" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="256"/>
-      <c r="D9" s="256"/>
+      <c r="C9" s="254"/>
+      <c r="D9" s="254"/>
       <c r="E9" s="33"/>
     </row>
-    <row r="10" ht="15" spans="1:5">
+    <row r="10" spans="1:5" ht="17">
       <c r="A10" s="240"/>
-      <c r="B10" s="257"/>
-      <c r="C10" s="258" t="s">
+      <c r="B10" s="255"/>
+      <c r="C10" s="256" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="259" t="s">
+      <c r="D10" s="257" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="33"/>
     </row>
-    <row r="11" customHeight="1" spans="1:5">
+    <row r="11" spans="1:5" ht="13" customHeight="1">
       <c r="A11" s="240"/>
-      <c r="B11" s="260" t="s">
+      <c r="B11" s="258" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="260"/>
-      <c r="D11" s="260"/>
+      <c r="C11" s="258"/>
+      <c r="D11" s="258"/>
       <c r="E11" s="33"/>
     </row>
-    <row r="12" customHeight="1" spans="1:5">
+    <row r="12" spans="1:5" ht="13" customHeight="1">
       <c r="A12" s="240"/>
-      <c r="B12" s="261"/>
-      <c r="C12" s="261" t="s">
+      <c r="B12" s="259"/>
+      <c r="C12" s="259" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="262" t="s">
+      <c r="D12" s="260" t="s">
         <v>4</v>
       </c>
       <c r="E12" s="33"/>
     </row>
-    <row r="13" customHeight="1" spans="1:5">
+    <row r="13" spans="1:5" ht="13" customHeight="1">
       <c r="A13" s="240"/>
-      <c r="B13" s="260" t="s">
+      <c r="B13" s="258" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="260"/>
-      <c r="D13" s="260"/>
+      <c r="C13" s="258"/>
+      <c r="D13" s="258"/>
       <c r="E13" s="33"/>
     </row>
-    <row r="14" customHeight="1" spans="1:5">
+    <row r="14" spans="1:5" ht="13" customHeight="1">
       <c r="A14" s="240"/>
-      <c r="B14" s="261"/>
-      <c r="C14" s="261" t="s">
+      <c r="B14" s="259"/>
+      <c r="C14" s="259" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="262" t="s">
+      <c r="D14" s="260" t="s">
         <v>7</v>
       </c>
       <c r="E14" s="33"/>
     </row>
-    <row r="15" customHeight="1" spans="1:5">
+    <row r="15" spans="1:5" ht="13" customHeight="1">
       <c r="A15" s="240"/>
-      <c r="B15" s="260" t="s">
+      <c r="B15" s="258" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="260"/>
-      <c r="D15" s="260"/>
+      <c r="C15" s="258"/>
+      <c r="D15" s="258"/>
       <c r="E15" s="33"/>
     </row>
-    <row r="16" customHeight="1" spans="1:5">
+    <row r="16" spans="1:5" ht="13" customHeight="1">
       <c r="A16" s="240"/>
-      <c r="B16" s="261"/>
-      <c r="C16" s="261" t="s">
+      <c r="B16" s="259"/>
+      <c r="C16" s="259" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="262" t="s">
+      <c r="D16" s="260" t="s">
         <v>8</v>
       </c>
       <c r="E16" s="33"/>
     </row>
-    <row r="17" customHeight="1" spans="1:5">
+    <row r="17" spans="1:5" ht="13" customHeight="1">
       <c r="A17" s="240"/>
-      <c r="B17" s="260" t="s">
+      <c r="B17" s="258" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="260"/>
-      <c r="D17" s="260"/>
+      <c r="C17" s="258"/>
+      <c r="D17" s="258"/>
       <c r="E17" s="33"/>
     </row>
-    <row r="18" customHeight="1" spans="1:5">
+    <row r="18" spans="1:5" ht="13" customHeight="1">
       <c r="A18" s="242"/>
-      <c r="B18" s="261"/>
-      <c r="C18" s="261" t="s">
+      <c r="B18" s="259"/>
+      <c r="C18" s="259" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="262" t="s">
+      <c r="D18" s="260" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="43"/>
     </row>
-    <row r="19" customHeight="1" spans="1:5">
-      <c r="A19" s="251"/>
-      <c r="B19" s="260" t="s">
+    <row r="19" spans="1:5" ht="13" customHeight="1">
+      <c r="A19" s="250"/>
+      <c r="B19" s="258" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="260"/>
-      <c r="D19" s="260"/>
+      <c r="C19" s="258"/>
+      <c r="D19" s="258"/>
       <c r="E19" s="32"/>
     </row>
-    <row r="20" customHeight="1" spans="1:5">
+    <row r="20" spans="1:5" ht="13" customHeight="1">
       <c r="A20" s="240"/>
-      <c r="B20" s="261"/>
-      <c r="C20" s="261" t="s">
+      <c r="B20" s="259"/>
+      <c r="C20" s="259" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="262" t="s">
+      <c r="D20" s="260" t="s">
         <v>10</v>
       </c>
       <c r="E20" s="33"/>
     </row>
-    <row r="21" customHeight="1" spans="1:5">
+    <row r="21" spans="1:5" ht="13" customHeight="1">
       <c r="A21" s="240"/>
-      <c r="B21" s="260" t="s">
+      <c r="B21" s="258" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="260"/>
-      <c r="D21" s="260"/>
+      <c r="C21" s="258"/>
+      <c r="D21" s="258"/>
       <c r="E21" s="33"/>
     </row>
-    <row r="22" customHeight="1" spans="1:5">
+    <row r="22" spans="1:5" ht="13" customHeight="1">
       <c r="A22" s="242"/>
-      <c r="B22" s="261"/>
-      <c r="C22" s="261" t="s">
+      <c r="B22" s="259"/>
+      <c r="C22" s="259" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="262" t="s">
+      <c r="D22" s="260" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="43"/>
     </row>
-    <row r="23" customHeight="1" spans="1:5">
-      <c r="A23" s="251"/>
-      <c r="B23" s="260" t="s">
+    <row r="23" spans="1:5" ht="13" customHeight="1">
+      <c r="A23" s="250"/>
+      <c r="B23" s="258" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="260"/>
-      <c r="D23" s="260"/>
+      <c r="C23" s="258"/>
+      <c r="D23" s="258"/>
       <c r="E23" s="32"/>
     </row>
-    <row r="24" customHeight="1" spans="1:5">
+    <row r="24" spans="1:5" ht="13" customHeight="1">
       <c r="A24" s="242"/>
-      <c r="B24" s="261"/>
-      <c r="C24" s="261" t="s">
+      <c r="B24" s="259"/>
+      <c r="C24" s="259" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="262" t="s">
+      <c r="D24" s="260" t="s">
         <v>12</v>
       </c>
       <c r="E24" s="43"/>
@@ -8486,17 +7883,17 @@
     <mergeCell ref="B3:D3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D10" location="'导出摘要'!R1C1" display="Report"/>
-    <hyperlink ref="D12" location="'Report'!R1C1" display="Report"/>
-    <hyperlink ref="D14" location="'Zone'!R1C1" display="Zone"/>
-    <hyperlink ref="D16" location="'Participant'!R1C1" display="Participant"/>
-    <hyperlink ref="D18" location="'Event'!R1C1" display="Event"/>
-    <hyperlink ref="D20" location="'Activity'!R1C1" display="Activity"/>
-    <hyperlink ref="D22" location="'Cooperation'!R1C1" display="Cooperation"/>
-    <hyperlink ref="D24" location="'Image'!R1C1" display="Image"/>
+    <hyperlink ref="D10" location="'导出摘要'!R1C1" display="Report" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D12" location="'Report'!R1C1" display="Report" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D14" location="'Zone'!R1C1" display="Zone" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D16" location="'Participant'!R1C1" display="Participant" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D18" location="'Event'!R1C1" display="Event" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D20" location="'Activity'!R1C1" display="Activity" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D22" location="'Cooperation'!R1C1" display="Cooperation" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D24" location="'Image'!R1C1" display="Image" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -8504,29 +7901,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83035714285714" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.83035714285714" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="47.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3303571428571" style="1" customWidth="1"/>
-    <col min="4" max="4" width="49.3303571428571" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.1607142857143" style="1" customWidth="1"/>
-    <col min="6" max="11" width="16.3303571428571" style="1" customWidth="1"/>
-    <col min="12" max="12" width="27.3303571428571" style="1" customWidth="1"/>
-    <col min="13" max="256" width="8.83035714285714" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.1640625" style="1" customWidth="1"/>
+    <col min="6" max="11" width="16.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="27.33203125" style="1" customWidth="1"/>
+    <col min="13" max="256" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" customHeight="1" spans="1:12">
+    <row r="1" spans="1:12" ht="20.25" customHeight="1">
       <c r="A1" s="44" t="s">
         <v>13</v>
       </c>
@@ -8548,7 +7945,7 @@
       <c r="G1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="263" t="s">
         <v>20</v>
       </c>
       <c r="I1" s="2"/>
@@ -8556,7 +7953,7 @@
       <c r="K1" s="3"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" ht="104" customHeight="1" spans="1:12">
+    <row r="2" spans="1:12" ht="104" customHeight="1">
       <c r="A2" s="64">
         <v>1</v>
       </c>
@@ -8574,15 +7971,15 @@
         <v>24</v>
       </c>
       <c r="G2" s="75"/>
-      <c r="H2" s="245" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="246"/>
-      <c r="J2" s="246"/>
-      <c r="K2" s="247"/>
+      <c r="H2" s="267">
+        <v>0</v>
+      </c>
+      <c r="I2" s="245"/>
+      <c r="J2" s="245"/>
+      <c r="K2" s="246"/>
       <c r="L2" s="217"/>
     </row>
-    <row r="3" ht="136.25" customHeight="1" spans="1:12">
+    <row r="3" spans="1:12" ht="136.25" customHeight="1">
       <c r="A3" s="64">
         <v>1</v>
       </c>
@@ -8600,15 +7997,15 @@
         <v>28</v>
       </c>
       <c r="G3" s="66"/>
-      <c r="H3" s="245" t="s">
-        <v>27</v>
+      <c r="H3" s="267">
+        <v>1</v>
       </c>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
-      <c r="K3" s="247"/>
-      <c r="L3" s="248"/>
-    </row>
-    <row r="4" ht="151" customHeight="1" spans="1:12">
+      <c r="K3" s="246"/>
+      <c r="L3" s="247"/>
+    </row>
+    <row r="4" spans="1:12" ht="151" customHeight="1">
       <c r="A4" s="64">
         <v>0</v>
       </c>
@@ -8626,15 +8023,15 @@
         <v>24</v>
       </c>
       <c r="G4" s="75"/>
-      <c r="H4" s="245" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="249"/>
+      <c r="H4" s="267">
+        <v>2</v>
+      </c>
+      <c r="I4" s="248"/>
       <c r="J4" s="239"/>
       <c r="K4" s="238"/>
-      <c r="L4" s="250"/>
-    </row>
-    <row r="5" ht="107" customHeight="1" spans="1:12">
+      <c r="L4" s="249"/>
+    </row>
+    <row r="5" spans="1:12" ht="107" customHeight="1">
       <c r="A5" s="64">
         <v>0</v>
       </c>
@@ -8652,15 +8049,15 @@
         <v>28</v>
       </c>
       <c r="G5" s="66"/>
-      <c r="H5" s="245" t="s">
-        <v>34</v>
+      <c r="H5" s="267">
+        <v>3</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="241"/>
       <c r="K5" s="241"/>
       <c r="L5" s="33"/>
     </row>
-    <row r="6" ht="14.75" customHeight="1" spans="1:12">
+    <row r="6" spans="1:12" ht="14.75" customHeight="1">
       <c r="A6" s="236"/>
       <c r="B6" s="237"/>
       <c r="C6" s="238"/>
@@ -8668,13 +8065,13 @@
       <c r="E6" s="238"/>
       <c r="F6" s="238"/>
       <c r="G6" s="238"/>
-      <c r="H6" s="238"/>
+      <c r="H6" s="264"/>
       <c r="I6" s="241"/>
       <c r="J6" s="241"/>
       <c r="K6" s="241"/>
       <c r="L6" s="33"/>
     </row>
-    <row r="7" ht="14.75" customHeight="1" spans="1:12">
+    <row r="7" spans="1:12" ht="14.75" customHeight="1">
       <c r="A7" s="236"/>
       <c r="B7" s="240"/>
       <c r="C7" s="241"/>
@@ -8682,13 +8079,13 @@
       <c r="E7" s="241"/>
       <c r="F7" s="241"/>
       <c r="G7" s="241"/>
-      <c r="H7" s="241"/>
+      <c r="H7" s="265"/>
       <c r="I7" s="241"/>
       <c r="J7" s="241"/>
       <c r="K7" s="241"/>
       <c r="L7" s="33"/>
     </row>
-    <row r="8" ht="14.75" customHeight="1" spans="1:12">
+    <row r="8" spans="1:12" ht="14.75" customHeight="1">
       <c r="A8" s="236"/>
       <c r="B8" s="240"/>
       <c r="C8" s="241"/>
@@ -8696,13 +8093,13 @@
       <c r="E8" s="241"/>
       <c r="F8" s="241"/>
       <c r="G8" s="241"/>
-      <c r="H8" s="241"/>
+      <c r="H8" s="265"/>
       <c r="I8" s="241"/>
       <c r="J8" s="241"/>
       <c r="K8" s="241"/>
       <c r="L8" s="33"/>
     </row>
-    <row r="9" ht="14.75" customHeight="1" spans="1:12">
+    <row r="9" spans="1:12" ht="14.75" customHeight="1">
       <c r="A9" s="236"/>
       <c r="B9" s="240"/>
       <c r="C9" s="241"/>
@@ -8710,13 +8107,13 @@
       <c r="E9" s="241"/>
       <c r="F9" s="241"/>
       <c r="G9" s="241"/>
-      <c r="H9" s="241"/>
+      <c r="H9" s="265"/>
       <c r="I9" s="241"/>
       <c r="J9" s="241"/>
       <c r="K9" s="241"/>
       <c r="L9" s="33"/>
     </row>
-    <row r="10" ht="14.75" customHeight="1" spans="1:12">
+    <row r="10" spans="1:12" ht="14.75" customHeight="1">
       <c r="A10" s="51"/>
       <c r="B10" s="242"/>
       <c r="C10" s="243"/>
@@ -8724,7 +8121,7 @@
       <c r="E10" s="243"/>
       <c r="F10" s="243"/>
       <c r="G10" s="243"/>
-      <c r="H10" s="243"/>
+      <c r="H10" s="266"/>
       <c r="I10" s="243"/>
       <c r="J10" s="243"/>
       <c r="K10" s="243"/>
@@ -8732,7 +8129,7 @@
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -8740,7 +8137,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -8750,19 +8147,19 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83035714285714" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.83035714285714" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.3303571428571" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.8303571428571" style="1" customWidth="1"/>
-    <col min="4" max="6" width="16.3303571428571" style="1" customWidth="1"/>
-    <col min="7" max="7" width="26.3303571428571" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.83203125" style="1" customWidth="1"/>
+    <col min="4" max="6" width="16.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="35.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.3303571428571" style="1" customWidth="1"/>
-    <col min="10" max="256" width="8.83035714285714" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" customWidth="1"/>
+    <col min="10" max="256" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.5" customHeight="1" spans="1:9">
+    <row r="1" spans="1:9" ht="25.5" customHeight="1">
       <c r="A1" s="44" t="s">
         <v>13</v>
       </c>
@@ -8791,7 +8188,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" ht="20.25" customHeight="1" spans="1:9">
+    <row r="2" spans="1:9" ht="20.25" customHeight="1">
       <c r="A2" s="64">
         <v>1</v>
       </c>
@@ -8814,7 +8211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:9">
+    <row r="3" spans="1:9" ht="20" customHeight="1">
       <c r="A3" s="64">
         <v>1</v>
       </c>
@@ -8835,7 +8232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:9">
+    <row r="4" spans="1:9" ht="20" customHeight="1">
       <c r="A4" s="64">
         <v>1</v>
       </c>
@@ -8856,7 +8253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:9">
+    <row r="5" spans="1:9" ht="20" customHeight="1">
       <c r="A5" s="64">
         <v>1</v>
       </c>
@@ -8879,7 +8276,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:9">
+    <row r="6" spans="1:9" ht="20" customHeight="1">
       <c r="A6" s="64">
         <v>1</v>
       </c>
@@ -8898,7 +8295,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:9">
+    <row r="7" spans="1:9" ht="20" customHeight="1">
       <c r="A7" s="64">
         <v>1</v>
       </c>
@@ -8917,7 +8314,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" ht="14.75" customHeight="1" spans="1:9">
+    <row r="8" spans="1:9" ht="14.75" customHeight="1">
       <c r="A8" s="64">
         <v>1</v>
       </c>
@@ -8936,7 +8333,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" ht="14.75" customHeight="1" spans="1:9">
+    <row r="9" spans="1:9" ht="14.75" customHeight="1">
       <c r="A9" s="64">
         <v>1</v>
       </c>
@@ -8955,7 +8352,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" ht="14.75" customHeight="1" spans="1:9">
+    <row r="10" spans="1:9" ht="14.75" customHeight="1">
       <c r="A10" s="64">
         <v>1</v>
       </c>
@@ -8974,7 +8371,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:9">
+    <row r="11" spans="1:9" ht="20" customHeight="1">
       <c r="A11" s="208">
         <v>0</v>
       </c>
@@ -8997,7 +8394,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:9">
+    <row r="12" spans="1:9" ht="20" customHeight="1">
       <c r="A12" s="208">
         <v>0</v>
       </c>
@@ -9018,7 +8415,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:9">
+    <row r="13" spans="1:9" ht="20" customHeight="1">
       <c r="A13" s="208">
         <v>0</v>
       </c>
@@ -9039,7 +8436,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:9">
+    <row r="14" spans="1:9" ht="20" customHeight="1">
       <c r="A14" s="208">
         <v>0</v>
       </c>
@@ -9062,7 +8459,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:9">
+    <row r="15" spans="1:9" ht="20" customHeight="1">
       <c r="A15" s="208">
         <v>0</v>
       </c>
@@ -9081,7 +8478,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:9">
+    <row r="16" spans="1:9" ht="20" customHeight="1">
       <c r="A16" s="208">
         <v>0</v>
       </c>
@@ -9100,7 +8497,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:9">
+    <row r="17" spans="1:9" ht="20" customHeight="1">
       <c r="A17" s="208">
         <v>0</v>
       </c>
@@ -9119,7 +8516,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:9">
+    <row r="18" spans="1:9" ht="20" customHeight="1">
       <c r="A18" s="208">
         <v>0</v>
       </c>
@@ -9138,7 +8535,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="1:9">
+    <row r="19" spans="1:9" ht="20" customHeight="1">
       <c r="A19" s="208">
         <v>0</v>
       </c>
@@ -9157,7 +8554,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:9">
+    <row r="20" spans="1:9" ht="20" customHeight="1">
       <c r="A20" s="214"/>
       <c r="B20" s="213"/>
       <c r="C20" s="210"/>
@@ -9168,7 +8565,7 @@
       <c r="H20" s="210"/>
       <c r="I20" s="230"/>
     </row>
-    <row r="21" customHeight="1" spans="1:9">
+    <row r="21" spans="1:9" ht="20" customHeight="1">
       <c r="A21" s="214"/>
       <c r="B21" s="213"/>
       <c r="C21" s="210"/>
@@ -9179,7 +8576,7 @@
       <c r="H21" s="210"/>
       <c r="I21" s="230"/>
     </row>
-    <row r="22" customHeight="1" spans="1:9">
+    <row r="22" spans="1:9" ht="20" customHeight="1">
       <c r="A22" s="214"/>
       <c r="B22" s="213"/>
       <c r="C22" s="210"/>
@@ -9190,7 +8587,7 @@
       <c r="H22" s="210"/>
       <c r="I22" s="230"/>
     </row>
-    <row r="23" customHeight="1" spans="1:9">
+    <row r="23" spans="1:9" ht="20" customHeight="1">
       <c r="A23" s="214"/>
       <c r="B23" s="213"/>
       <c r="C23" s="210"/>
@@ -9201,7 +8598,7 @@
       <c r="H23" s="210"/>
       <c r="I23" s="230"/>
     </row>
-    <row r="24" customHeight="1" spans="1:9">
+    <row r="24" spans="1:9" ht="20" customHeight="1">
       <c r="A24" s="214"/>
       <c r="B24" s="213"/>
       <c r="C24" s="210"/>
@@ -9212,7 +8609,7 @@
       <c r="H24" s="210"/>
       <c r="I24" s="230"/>
     </row>
-    <row r="25" customHeight="1" spans="1:9">
+    <row r="25" spans="1:9" ht="20" customHeight="1">
       <c r="A25" s="214"/>
       <c r="B25" s="213"/>
       <c r="C25" s="210"/>
@@ -9223,7 +8620,7 @@
       <c r="H25" s="210"/>
       <c r="I25" s="230"/>
     </row>
-    <row r="26" customHeight="1" spans="1:9">
+    <row r="26" spans="1:9" ht="20" customHeight="1">
       <c r="A26" s="214"/>
       <c r="B26" s="213"/>
       <c r="C26" s="210"/>
@@ -9234,7 +8631,7 @@
       <c r="H26" s="210"/>
       <c r="I26" s="230"/>
     </row>
-    <row r="27" customHeight="1" spans="1:9">
+    <row r="27" spans="1:9" ht="20" customHeight="1">
       <c r="A27" s="215"/>
       <c r="B27" s="213"/>
       <c r="C27" s="210"/>
@@ -9247,7 +8644,7 @@
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -9255,27 +8652,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83035714285714" defaultRowHeight="20" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.83035714285714" style="1" customWidth="1"/>
-    <col min="2" max="3" width="16.3303571428571" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="16.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="60" style="1" customWidth="1"/>
-    <col min="5" max="5" width="53.1607142857143" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3303571428571" style="1" customWidth="1"/>
-    <col min="7" max="256" width="8.83035714285714" customWidth="1"/>
+    <col min="5" max="5" width="53.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="1" customWidth="1"/>
+    <col min="7" max="256" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" customHeight="1" spans="1:6">
+    <row r="1" spans="1:6" ht="20.25" customHeight="1">
       <c r="A1" s="44" t="s">
         <v>13</v>
       </c>
@@ -9295,7 +8692,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" ht="20.25" customHeight="1" spans="1:6">
+    <row r="2" spans="1:6" ht="20.25" customHeight="1">
       <c r="A2" s="64">
         <v>1</v>
       </c>
@@ -9313,7 +8710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:6">
+    <row r="3" spans="1:6" ht="20" customHeight="1">
       <c r="A3" s="64">
         <v>1</v>
       </c>
@@ -9331,7 +8728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:6">
+    <row r="4" spans="1:6" ht="20" customHeight="1">
       <c r="A4" s="88">
         <v>1</v>
       </c>
@@ -9349,7 +8746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:6">
+    <row r="5" spans="1:6" ht="20" customHeight="1">
       <c r="A5" s="88">
         <v>1</v>
       </c>
@@ -9367,7 +8764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:6">
+    <row r="6" spans="1:6" ht="20" customHeight="1">
       <c r="A6" s="88">
         <v>1</v>
       </c>
@@ -9385,7 +8782,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:6">
+    <row r="7" spans="1:6" ht="20" customHeight="1">
       <c r="A7" s="88">
         <v>1</v>
       </c>
@@ -9403,7 +8800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:6">
+    <row r="8" spans="1:6" ht="20" customHeight="1">
       <c r="A8" s="88">
         <v>1</v>
       </c>
@@ -9421,7 +8818,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:6">
+    <row r="9" spans="1:6" ht="20" customHeight="1">
       <c r="A9" s="88">
         <v>1</v>
       </c>
@@ -9439,7 +8836,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:6">
+    <row r="10" spans="1:6" ht="20" customHeight="1">
       <c r="A10" s="88">
         <v>1</v>
       </c>
@@ -9457,7 +8854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:6">
+    <row r="11" spans="1:6" ht="20" customHeight="1">
       <c r="A11" s="64">
         <v>1</v>
       </c>
@@ -9475,7 +8872,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:6">
+    <row r="12" spans="1:6" ht="20" customHeight="1">
       <c r="A12" s="64">
         <v>1</v>
       </c>
@@ -9493,7 +8890,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:6">
+    <row r="13" spans="1:6" ht="20" customHeight="1">
       <c r="A13" s="64">
         <v>1</v>
       </c>
@@ -9511,7 +8908,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:6">
+    <row r="14" spans="1:6" ht="20" customHeight="1">
       <c r="A14" s="64">
         <v>1</v>
       </c>
@@ -9529,7 +8926,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:6">
+    <row r="15" spans="1:6" ht="20" customHeight="1">
       <c r="A15" s="64">
         <v>1</v>
       </c>
@@ -9547,7 +8944,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:6">
+    <row r="16" spans="1:6" ht="20" customHeight="1">
       <c r="A16" s="64">
         <v>1</v>
       </c>
@@ -9565,7 +8962,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:6">
+    <row r="17" spans="1:6" ht="20" customHeight="1">
       <c r="A17" s="64">
         <v>1</v>
       </c>
@@ -9583,7 +8980,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:6">
+    <row r="18" spans="1:6" ht="20" customHeight="1">
       <c r="A18" s="64">
         <v>1</v>
       </c>
@@ -9601,7 +8998,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="1:6">
+    <row r="19" spans="1:6" ht="20" customHeight="1">
       <c r="A19" s="64">
         <v>1</v>
       </c>
@@ -9619,7 +9016,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:6">
+    <row r="20" spans="1:6" ht="20" customHeight="1">
       <c r="A20" s="64">
         <v>1</v>
       </c>
@@ -9637,7 +9034,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="1:6">
+    <row r="21" spans="1:6" ht="20" customHeight="1">
       <c r="A21" s="64">
         <v>1</v>
       </c>
@@ -9655,7 +9052,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="1:6">
+    <row r="22" spans="1:6" ht="20" customHeight="1">
       <c r="A22" s="64">
         <v>1</v>
       </c>
@@ -9673,7 +9070,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="1:6">
+    <row r="23" spans="1:6" ht="20" customHeight="1">
       <c r="A23" s="64">
         <v>1</v>
       </c>
@@ -9691,7 +9088,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="1:6">
+    <row r="24" spans="1:6" ht="20" customHeight="1">
       <c r="A24" s="64">
         <v>1</v>
       </c>
@@ -9709,7 +9106,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="1:6">
+    <row r="25" spans="1:6" ht="20" customHeight="1">
       <c r="A25" s="64">
         <v>1</v>
       </c>
@@ -9725,7 +9122,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="1:6">
+    <row r="26" spans="1:6" ht="20" customHeight="1">
       <c r="A26" s="64">
         <v>1</v>
       </c>
@@ -9741,7 +9138,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="1:6">
+    <row r="27" spans="1:6" ht="20" customHeight="1">
       <c r="A27" s="64">
         <v>1</v>
       </c>
@@ -9757,7 +9154,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="1:6">
+    <row r="28" spans="1:6" ht="20" customHeight="1">
       <c r="A28" s="64">
         <v>1</v>
       </c>
@@ -9773,7 +9170,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" customHeight="1" spans="1:6">
+    <row r="29" spans="1:6" ht="20" customHeight="1">
       <c r="A29" s="64">
         <v>1</v>
       </c>
@@ -9789,7 +9186,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" customHeight="1" spans="1:6">
+    <row r="30" spans="1:6" ht="20" customHeight="1">
       <c r="A30" s="64">
         <v>1</v>
       </c>
@@ -9805,7 +9202,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" customHeight="1" spans="1:6">
+    <row r="31" spans="1:6" ht="20" customHeight="1">
       <c r="A31" s="88">
         <v>1</v>
       </c>
@@ -9823,7 +9220,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" customHeight="1" spans="1:6">
+    <row r="32" spans="1:6" ht="20" customHeight="1">
       <c r="A32" s="64">
         <v>0</v>
       </c>
@@ -9841,7 +9238,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" customHeight="1" spans="1:6">
+    <row r="33" spans="1:6" ht="20" customHeight="1">
       <c r="A33" s="64">
         <v>0</v>
       </c>
@@ -9859,7 +9256,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" customHeight="1" spans="1:6">
+    <row r="34" spans="1:6" ht="20" customHeight="1">
       <c r="A34" s="88">
         <v>0</v>
       </c>
@@ -9877,7 +9274,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" customHeight="1" spans="1:6">
+    <row r="35" spans="1:6" ht="20" customHeight="1">
       <c r="A35" s="88">
         <v>0</v>
       </c>
@@ -9895,7 +9292,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" customHeight="1" spans="1:6">
+    <row r="36" spans="1:6" ht="20" customHeight="1">
       <c r="A36" s="88">
         <v>0</v>
       </c>
@@ -9913,7 +9310,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" customHeight="1" spans="1:6">
+    <row r="37" spans="1:6" ht="20" customHeight="1">
       <c r="A37" s="88">
         <v>0</v>
       </c>
@@ -9931,7 +9328,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" customHeight="1" spans="1:6">
+    <row r="38" spans="1:6" ht="20" customHeight="1">
       <c r="A38" s="88">
         <v>0</v>
       </c>
@@ -9949,7 +9346,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" customHeight="1" spans="1:6">
+    <row r="39" spans="1:6" ht="20" customHeight="1">
       <c r="A39" s="88">
         <v>0</v>
       </c>
@@ -9967,7 +9364,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" customHeight="1" spans="1:6">
+    <row r="40" spans="1:6" ht="20" customHeight="1">
       <c r="A40" s="88">
         <v>0</v>
       </c>
@@ -9985,7 +9382,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" customHeight="1" spans="1:6">
+    <row r="41" spans="1:6" ht="20" customHeight="1">
       <c r="A41" s="64">
         <v>0</v>
       </c>
@@ -10003,7 +9400,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" customHeight="1" spans="1:6">
+    <row r="42" spans="1:6" ht="20" customHeight="1">
       <c r="A42" s="64">
         <v>0</v>
       </c>
@@ -10021,7 +9418,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" customHeight="1" spans="1:6">
+    <row r="43" spans="1:6" ht="20" customHeight="1">
       <c r="A43" s="64">
         <v>0</v>
       </c>
@@ -10039,7 +9436,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" customHeight="1" spans="1:6">
+    <row r="44" spans="1:6" ht="20" customHeight="1">
       <c r="A44" s="64">
         <v>0</v>
       </c>
@@ -10057,7 +9454,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" customHeight="1" spans="1:6">
+    <row r="45" spans="1:6" ht="20" customHeight="1">
       <c r="A45" s="64">
         <v>0</v>
       </c>
@@ -10075,7 +9472,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" customHeight="1" spans="1:6">
+    <row r="46" spans="1:6" ht="20" customHeight="1">
       <c r="A46" s="64">
         <v>0</v>
       </c>
@@ -10093,7 +9490,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" customHeight="1" spans="1:6">
+    <row r="47" spans="1:6" ht="20" customHeight="1">
       <c r="A47" s="64">
         <v>0</v>
       </c>
@@ -10111,7 +9508,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" customHeight="1" spans="1:6">
+    <row r="48" spans="1:6" ht="20" customHeight="1">
       <c r="A48" s="64">
         <v>0</v>
       </c>
@@ -10129,7 +9526,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" customHeight="1" spans="1:6">
+    <row r="49" spans="1:6" ht="20" customHeight="1">
       <c r="A49" s="64">
         <v>0</v>
       </c>
@@ -10147,7 +9544,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" customHeight="1" spans="1:6">
+    <row r="50" spans="1:6" ht="20" customHeight="1">
       <c r="A50" s="64">
         <v>0</v>
       </c>
@@ -10165,7 +9562,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" customHeight="1" spans="1:6">
+    <row r="51" spans="1:6" ht="20" customHeight="1">
       <c r="A51" s="64">
         <v>0</v>
       </c>
@@ -10183,7 +9580,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" customHeight="1" spans="1:6">
+    <row r="52" spans="1:6" ht="20" customHeight="1">
       <c r="A52" s="64">
         <v>0</v>
       </c>
@@ -10201,7 +9598,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" customHeight="1" spans="1:6">
+    <row r="53" spans="1:6" ht="20" customHeight="1">
       <c r="A53" s="64">
         <v>0</v>
       </c>
@@ -10219,7 +9616,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" customHeight="1" spans="1:6">
+    <row r="54" spans="1:6" ht="20" customHeight="1">
       <c r="A54" s="64">
         <v>0</v>
       </c>
@@ -10237,7 +9634,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" customHeight="1" spans="1:6">
+    <row r="55" spans="1:6" ht="20" customHeight="1">
       <c r="A55" s="64">
         <v>0</v>
       </c>
@@ -10253,7 +9650,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" customHeight="1" spans="1:6">
+    <row r="56" spans="1:6" ht="20" customHeight="1">
       <c r="A56" s="64">
         <v>0</v>
       </c>
@@ -10269,7 +9666,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" customHeight="1" spans="1:6">
+    <row r="57" spans="1:6" ht="20" customHeight="1">
       <c r="A57" s="64">
         <v>0</v>
       </c>
@@ -10285,7 +9682,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" customHeight="1" spans="1:6">
+    <row r="58" spans="1:6" ht="20" customHeight="1">
       <c r="A58" s="64">
         <v>0</v>
       </c>
@@ -10301,7 +9698,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" customHeight="1" spans="1:6">
+    <row r="59" spans="1:6" ht="20" customHeight="1">
       <c r="A59" s="64">
         <v>0</v>
       </c>
@@ -10317,7 +9714,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" customHeight="1" spans="1:6">
+    <row r="60" spans="1:6" ht="20" customHeight="1">
       <c r="A60" s="64">
         <v>0</v>
       </c>
@@ -10333,7 +9730,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" customHeight="1" spans="1:6">
+    <row r="61" spans="1:6" ht="20" customHeight="1">
       <c r="A61" s="88">
         <v>0</v>
       </c>
@@ -10351,7 +9748,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" customHeight="1" spans="1:6">
+    <row r="62" spans="1:6" ht="20" customHeight="1">
       <c r="A62" s="64">
         <v>1</v>
       </c>
@@ -10369,7 +9766,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" customHeight="1" spans="1:6">
+    <row r="63" spans="1:6" ht="20" customHeight="1">
       <c r="A63" s="64">
         <v>0</v>
       </c>
@@ -10387,7 +9784,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" customHeight="1" spans="1:6">
+    <row r="64" spans="1:6" ht="20" customHeight="1">
       <c r="A64" s="88">
         <v>1</v>
       </c>
@@ -10407,7 +9804,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" customHeight="1" spans="1:6">
+    <row r="65" spans="1:6" ht="20" customHeight="1">
       <c r="A65" s="88">
         <v>0</v>
       </c>
@@ -10427,7 +9824,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" customHeight="1" spans="1:6">
+    <row r="66" spans="1:6" ht="20" customHeight="1">
       <c r="A66" s="64">
         <v>1</v>
       </c>
@@ -10445,7 +9842,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" customHeight="1" spans="1:6">
+    <row r="67" spans="1:6" ht="20" customHeight="1">
       <c r="A67" s="204">
         <v>0</v>
       </c>
@@ -10463,7 +9860,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="68" customHeight="1" spans="1:6">
+    <row r="68" spans="1:6" ht="20" customHeight="1">
       <c r="A68" s="88">
         <v>1</v>
       </c>
@@ -10481,7 +9878,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" customHeight="1" spans="1:6">
+    <row r="69" spans="1:6" ht="20" customHeight="1">
       <c r="A69" s="88">
         <v>0</v>
       </c>
@@ -10501,7 +9898,7 @@
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -10509,28 +9906,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I109"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.3303571428571" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="34.5" style="1" customWidth="1"/>
-    <col min="3" max="4" width="16.3303571428571" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.6607142857143" style="1" customWidth="1"/>
-    <col min="6" max="8" width="16.3303571428571" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22.3303571428571" style="1" customWidth="1"/>
-    <col min="10" max="256" width="16.3303571428571" customWidth="1"/>
+    <col min="3" max="4" width="16.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="1" customWidth="1"/>
+    <col min="6" max="8" width="16.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" style="1" customWidth="1"/>
+    <col min="10" max="256" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="34.5" customHeight="1" spans="1:9">
+    <row r="1" spans="1:9" ht="34.5" customHeight="1">
       <c r="A1" s="44" t="s">
         <v>13</v>
       </c>
@@ -10559,7 +9956,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="2" ht="35" customHeight="1" spans="1:9">
+    <row r="2" spans="1:9" ht="35" customHeight="1">
       <c r="A2" s="46">
         <v>1</v>
       </c>
@@ -10582,7 +9979,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="3" ht="14.75" customHeight="1" spans="1:9">
+    <row r="3" spans="1:9" ht="14.75" customHeight="1">
       <c r="A3" s="46">
         <v>1</v>
       </c>
@@ -10605,7 +10002,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="4" ht="14.75" customHeight="1" spans="1:9">
+    <row r="4" spans="1:9" ht="14.75" customHeight="1">
       <c r="A4" s="46">
         <v>1</v>
       </c>
@@ -10626,7 +10023,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="5" ht="14.75" customHeight="1" spans="1:9">
+    <row r="5" spans="1:9" ht="14.75" customHeight="1">
       <c r="A5" s="88">
         <v>1</v>
       </c>
@@ -10649,7 +10046,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="6" ht="14.75" customHeight="1" spans="1:9">
+    <row r="6" spans="1:9" ht="14.75" customHeight="1">
       <c r="A6" s="46">
         <v>1</v>
       </c>
@@ -10674,7 +10071,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="7" ht="14.75" customHeight="1" spans="1:9">
+    <row r="7" spans="1:9" ht="14.75" customHeight="1">
       <c r="A7" s="46">
         <v>1</v>
       </c>
@@ -10699,7 +10096,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="8" ht="14.75" customHeight="1" spans="1:9">
+    <row r="8" spans="1:9" ht="14.75" customHeight="1">
       <c r="A8" s="46">
         <v>1</v>
       </c>
@@ -10724,7 +10121,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="9" ht="14.75" customHeight="1" spans="1:9">
+    <row r="9" spans="1:9" ht="14.75" customHeight="1">
       <c r="A9" s="46">
         <v>1</v>
       </c>
@@ -10747,7 +10144,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="10" ht="14.75" customHeight="1" spans="1:9">
+    <row r="10" spans="1:9" ht="14.75" customHeight="1">
       <c r="A10" s="46">
         <v>1</v>
       </c>
@@ -10772,7 +10169,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:9">
+    <row r="11" spans="1:9" ht="20" customHeight="1">
       <c r="A11" s="46">
         <v>1</v>
       </c>
@@ -10797,7 +10194,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:9">
+    <row r="12" spans="1:9" ht="20" customHeight="1">
       <c r="A12" s="46">
         <v>1</v>
       </c>
@@ -10820,7 +10217,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:9">
+    <row r="13" spans="1:9" ht="20" customHeight="1">
       <c r="A13" s="88">
         <v>1</v>
       </c>
@@ -10843,7 +10240,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:9">
+    <row r="14" spans="1:9" ht="20" customHeight="1">
       <c r="A14" s="46">
         <v>1</v>
       </c>
@@ -10868,7 +10265,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:9">
+    <row r="15" spans="1:9" ht="20" customHeight="1">
       <c r="A15" s="46">
         <v>1</v>
       </c>
@@ -10893,7 +10290,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:9">
+    <row r="16" spans="1:9" ht="20" customHeight="1">
       <c r="A16" s="46">
         <v>1</v>
       </c>
@@ -10918,7 +10315,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:9">
+    <row r="17" spans="1:9" ht="20" customHeight="1">
       <c r="A17" s="46">
         <v>1</v>
       </c>
@@ -10941,7 +10338,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:9">
+    <row r="18" spans="1:9" ht="20" customHeight="1">
       <c r="A18" s="46">
         <v>1</v>
       </c>
@@ -10966,7 +10363,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="1:9">
+    <row r="19" spans="1:9" ht="20" customHeight="1">
       <c r="A19" s="46">
         <v>1</v>
       </c>
@@ -10991,7 +10388,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:9">
+    <row r="20" spans="1:9" ht="20" customHeight="1">
       <c r="A20" s="46">
         <v>1</v>
       </c>
@@ -11014,7 +10411,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="1:9">
+    <row r="21" spans="1:9" ht="20" customHeight="1">
       <c r="A21" s="46">
         <v>1</v>
       </c>
@@ -11037,7 +10434,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="1:9">
+    <row r="22" spans="1:9" ht="20" customHeight="1">
       <c r="A22" s="46">
         <v>1</v>
       </c>
@@ -11062,7 +10459,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="1:9">
+    <row r="23" spans="1:9" ht="20" customHeight="1">
       <c r="A23" s="46">
         <v>1</v>
       </c>
@@ -11087,7 +10484,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="1:9">
+    <row r="24" spans="1:9" ht="20" customHeight="1">
       <c r="A24" s="46">
         <v>1</v>
       </c>
@@ -11112,7 +10509,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="1:9">
+    <row r="25" spans="1:9" ht="20" customHeight="1">
       <c r="A25" s="46">
         <v>1</v>
       </c>
@@ -11135,7 +10532,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="1:9">
+    <row r="26" spans="1:9" ht="20" customHeight="1">
       <c r="A26" s="46">
         <v>1</v>
       </c>
@@ -11160,7 +10557,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="1:9">
+    <row r="27" spans="1:9" ht="20" customHeight="1">
       <c r="A27" s="46">
         <v>1</v>
       </c>
@@ -11185,7 +10582,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="1:9">
+    <row r="28" spans="1:9" ht="20" customHeight="1">
       <c r="A28" s="46">
         <v>1</v>
       </c>
@@ -11208,7 +10605,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="29" customHeight="1" spans="1:9">
+    <row r="29" spans="1:9" ht="20" customHeight="1">
       <c r="A29" s="46">
         <v>1</v>
       </c>
@@ -11231,7 +10628,7 @@
       </c>
       <c r="I29" s="140"/>
     </row>
-    <row r="30" customHeight="1" spans="1:9">
+    <row r="30" spans="1:9" ht="20" customHeight="1">
       <c r="A30" s="46">
         <v>1</v>
       </c>
@@ -11254,7 +10651,7 @@
       </c>
       <c r="I30" s="140"/>
     </row>
-    <row r="31" customHeight="1" spans="1:9">
+    <row r="31" spans="1:9" ht="20" customHeight="1">
       <c r="A31" s="46">
         <v>1</v>
       </c>
@@ -11277,7 +10674,7 @@
       </c>
       <c r="I31" s="140"/>
     </row>
-    <row r="32" customHeight="1" spans="1:9">
+    <row r="32" spans="1:9" ht="20" customHeight="1">
       <c r="A32" s="46">
         <v>1</v>
       </c>
@@ -11298,7 +10695,7 @@
       </c>
       <c r="I32" s="140"/>
     </row>
-    <row r="33" customHeight="1" spans="1:9">
+    <row r="33" spans="1:9" ht="20" customHeight="1">
       <c r="A33" s="46">
         <v>1</v>
       </c>
@@ -11321,7 +10718,7 @@
       </c>
       <c r="I33" s="140"/>
     </row>
-    <row r="34" customHeight="1" spans="1:9">
+    <row r="34" spans="1:9" ht="20" customHeight="1">
       <c r="A34" s="46">
         <v>1</v>
       </c>
@@ -11344,7 +10741,7 @@
       </c>
       <c r="I34" s="140"/>
     </row>
-    <row r="35" customHeight="1" spans="1:9">
+    <row r="35" spans="1:9" ht="20" customHeight="1">
       <c r="A35" s="46">
         <v>1</v>
       </c>
@@ -11367,7 +10764,7 @@
       </c>
       <c r="I35" s="140"/>
     </row>
-    <row r="36" customHeight="1" spans="1:9">
+    <row r="36" spans="1:9" ht="20" customHeight="1">
       <c r="A36" s="46">
         <v>1</v>
       </c>
@@ -11390,7 +10787,7 @@
       </c>
       <c r="I36" s="140"/>
     </row>
-    <row r="37" customHeight="1" spans="1:9">
+    <row r="37" spans="1:9" ht="20" customHeight="1">
       <c r="A37" s="46">
         <v>1</v>
       </c>
@@ -11413,7 +10810,7 @@
       </c>
       <c r="I37" s="141"/>
     </row>
-    <row r="38" customHeight="1" spans="1:9">
+    <row r="38" spans="1:9" ht="20" customHeight="1">
       <c r="A38" s="46">
         <v>1</v>
       </c>
@@ -11436,7 +10833,7 @@
       </c>
       <c r="I38" s="141"/>
     </row>
-    <row r="39" customHeight="1" spans="1:9">
+    <row r="39" spans="1:9" ht="20" customHeight="1">
       <c r="A39" s="46">
         <v>1</v>
       </c>
@@ -11459,7 +10856,7 @@
       </c>
       <c r="I39" s="141"/>
     </row>
-    <row r="40" customHeight="1" spans="1:9">
+    <row r="40" spans="1:9" ht="20" customHeight="1">
       <c r="A40" s="46">
         <v>1</v>
       </c>
@@ -11482,7 +10879,7 @@
       </c>
       <c r="I40" s="141"/>
     </row>
-    <row r="41" customHeight="1" spans="1:9">
+    <row r="41" spans="1:9" ht="20" customHeight="1">
       <c r="A41" s="46">
         <v>1</v>
       </c>
@@ -11505,7 +10902,7 @@
       </c>
       <c r="I41" s="141"/>
     </row>
-    <row r="42" customHeight="1" spans="1:9">
+    <row r="42" spans="1:9" ht="20" customHeight="1">
       <c r="A42" s="46">
         <v>1</v>
       </c>
@@ -11526,7 +10923,7 @@
       </c>
       <c r="I42" s="142"/>
     </row>
-    <row r="43" customHeight="1" spans="1:9">
+    <row r="43" spans="1:9" ht="20" customHeight="1">
       <c r="A43" s="46">
         <v>1</v>
       </c>
@@ -11547,7 +10944,7 @@
       </c>
       <c r="I43" s="142"/>
     </row>
-    <row r="44" customHeight="1" spans="1:9">
+    <row r="44" spans="1:9" ht="20" customHeight="1">
       <c r="A44" s="46">
         <v>1</v>
       </c>
@@ -11570,7 +10967,7 @@
       </c>
       <c r="I44" s="143"/>
     </row>
-    <row r="45" customHeight="1" spans="1:9">
+    <row r="45" spans="1:9" ht="20" customHeight="1">
       <c r="A45" s="46">
         <v>1</v>
       </c>
@@ -11593,7 +10990,7 @@
       </c>
       <c r="I45" s="143"/>
     </row>
-    <row r="46" customHeight="1" spans="1:9">
+    <row r="46" spans="1:9" ht="20" customHeight="1">
       <c r="A46" s="46">
         <v>1</v>
       </c>
@@ -11616,7 +11013,7 @@
       </c>
       <c r="I46" s="143"/>
     </row>
-    <row r="47" customHeight="1" spans="1:9">
+    <row r="47" spans="1:9" ht="20" customHeight="1">
       <c r="A47" s="46">
         <v>1</v>
       </c>
@@ -11637,7 +11034,7 @@
       </c>
       <c r="I47" s="144"/>
     </row>
-    <row r="48" customHeight="1" spans="1:9">
+    <row r="48" spans="1:9" ht="20" customHeight="1">
       <c r="A48" s="46">
         <v>1</v>
       </c>
@@ -11660,7 +11057,7 @@
       </c>
       <c r="I48" s="145"/>
     </row>
-    <row r="49" customHeight="1" spans="1:9">
+    <row r="49" spans="1:9" ht="20" customHeight="1">
       <c r="A49" s="46">
         <v>1</v>
       </c>
@@ -11683,7 +11080,7 @@
       </c>
       <c r="I49" s="145"/>
     </row>
-    <row r="50" customHeight="1" spans="1:9">
+    <row r="50" spans="1:9" ht="20" customHeight="1">
       <c r="A50" s="46">
         <v>1</v>
       </c>
@@ -11706,7 +11103,7 @@
       </c>
       <c r="I50" s="145"/>
     </row>
-    <row r="51" customHeight="1" spans="1:9">
+    <row r="51" spans="1:9" ht="20" customHeight="1">
       <c r="A51" s="46">
         <v>1</v>
       </c>
@@ -11729,7 +11126,7 @@
       </c>
       <c r="I51" s="145"/>
     </row>
-    <row r="52" customHeight="1" spans="1:9">
+    <row r="52" spans="1:9" ht="20" customHeight="1">
       <c r="A52" s="46">
         <v>0</v>
       </c>
@@ -11752,7 +11149,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="53" customHeight="1" spans="1:9">
+    <row r="53" spans="1:9" ht="20" customHeight="1">
       <c r="A53" s="46">
         <v>0</v>
       </c>
@@ -11775,7 +11172,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="54" customHeight="1" spans="1:9">
+    <row r="54" spans="1:9" ht="20" customHeight="1">
       <c r="A54" s="46">
         <v>0</v>
       </c>
@@ -11796,7 +11193,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="55" customHeight="1" spans="1:9">
+    <row r="55" spans="1:9" ht="20" customHeight="1">
       <c r="A55" s="88">
         <v>0</v>
       </c>
@@ -11819,7 +11216,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="56" customHeight="1" spans="1:9">
+    <row r="56" spans="1:9" ht="20" customHeight="1">
       <c r="A56" s="46">
         <v>0</v>
       </c>
@@ -11844,7 +11241,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="57" customHeight="1" spans="1:9">
+    <row r="57" spans="1:9" ht="20" customHeight="1">
       <c r="A57" s="46">
         <v>0</v>
       </c>
@@ -11869,7 +11266,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="58" customHeight="1" spans="1:9">
+    <row r="58" spans="1:9" ht="20" customHeight="1">
       <c r="A58" s="46">
         <v>0</v>
       </c>
@@ -11894,7 +11291,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="59" customHeight="1" spans="1:9">
+    <row r="59" spans="1:9" ht="20" customHeight="1">
       <c r="A59" s="46">
         <v>0</v>
       </c>
@@ -11917,7 +11314,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="60" customHeight="1" spans="1:9">
+    <row r="60" spans="1:9" ht="20" customHeight="1">
       <c r="A60" s="46">
         <v>0</v>
       </c>
@@ -11942,7 +11339,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="61" customHeight="1" spans="1:9">
+    <row r="61" spans="1:9" ht="20" customHeight="1">
       <c r="A61" s="46">
         <v>0</v>
       </c>
@@ -11967,7 +11364,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="62" customHeight="1" spans="1:9">
+    <row r="62" spans="1:9" ht="20" customHeight="1">
       <c r="A62" s="46">
         <v>0</v>
       </c>
@@ -11990,7 +11387,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="63" customHeight="1" spans="1:9">
+    <row r="63" spans="1:9" ht="20" customHeight="1">
       <c r="A63" s="88">
         <v>0</v>
       </c>
@@ -12013,7 +11410,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="64" customHeight="1" spans="1:9">
+    <row r="64" spans="1:9" ht="20" customHeight="1">
       <c r="A64" s="46">
         <v>0</v>
       </c>
@@ -12038,7 +11435,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="65" customHeight="1" spans="1:9">
+    <row r="65" spans="1:9" ht="20" customHeight="1">
       <c r="A65" s="46">
         <v>0</v>
       </c>
@@ -12063,7 +11460,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="66" customHeight="1" spans="1:9">
+    <row r="66" spans="1:9" ht="20" customHeight="1">
       <c r="A66" s="46">
         <v>0</v>
       </c>
@@ -12088,7 +11485,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="67" customHeight="1" spans="1:9">
+    <row r="67" spans="1:9" ht="20" customHeight="1">
       <c r="A67" s="46">
         <v>0</v>
       </c>
@@ -12111,7 +11508,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="68" customHeight="1" spans="1:9">
+    <row r="68" spans="1:9" ht="20" customHeight="1">
       <c r="A68" s="46">
         <v>0</v>
       </c>
@@ -12136,7 +11533,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="69" customHeight="1" spans="1:9">
+    <row r="69" spans="1:9" ht="20" customHeight="1">
       <c r="A69" s="46">
         <v>0</v>
       </c>
@@ -12161,7 +11558,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="70" customHeight="1" spans="1:9">
+    <row r="70" spans="1:9" ht="20" customHeight="1">
       <c r="A70" s="46">
         <v>0</v>
       </c>
@@ -12184,7 +11581,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="71" customHeight="1" spans="1:9">
+    <row r="71" spans="1:9" ht="20" customHeight="1">
       <c r="A71" s="46">
         <v>0</v>
       </c>
@@ -12207,7 +11604,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="72" customHeight="1" spans="1:9">
+    <row r="72" spans="1:9" ht="20" customHeight="1">
       <c r="A72" s="46">
         <v>0</v>
       </c>
@@ -12232,7 +11629,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="73" customHeight="1" spans="1:9">
+    <row r="73" spans="1:9" ht="20" customHeight="1">
       <c r="A73" s="46">
         <v>0</v>
       </c>
@@ -12257,7 +11654,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="74" customHeight="1" spans="1:9">
+    <row r="74" spans="1:9" ht="20" customHeight="1">
       <c r="A74" s="46">
         <v>0</v>
       </c>
@@ -12282,7 +11679,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="75" customHeight="1" spans="1:9">
+    <row r="75" spans="1:9" ht="20" customHeight="1">
       <c r="A75" s="46">
         <v>0</v>
       </c>
@@ -12305,7 +11702,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="76" customHeight="1" spans="1:9">
+    <row r="76" spans="1:9" ht="20" customHeight="1">
       <c r="A76" s="46">
         <v>0</v>
       </c>
@@ -12330,7 +11727,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="77" customHeight="1" spans="1:9">
+    <row r="77" spans="1:9" ht="20" customHeight="1">
       <c r="A77" s="46">
         <v>0</v>
       </c>
@@ -12355,7 +11752,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="78" customHeight="1" spans="1:9">
+    <row r="78" spans="1:9" ht="20" customHeight="1">
       <c r="A78" s="46">
         <v>0</v>
       </c>
@@ -12378,7 +11775,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="79" customHeight="1" spans="1:9">
+    <row r="79" spans="1:9" ht="20" customHeight="1">
       <c r="A79" s="46">
         <v>0</v>
       </c>
@@ -12401,7 +11798,7 @@
       </c>
       <c r="I79" s="140"/>
     </row>
-    <row r="80" customHeight="1" spans="1:9">
+    <row r="80" spans="1:9" ht="20" customHeight="1">
       <c r="A80" s="46">
         <v>0</v>
       </c>
@@ -12424,7 +11821,7 @@
       </c>
       <c r="I80" s="140"/>
     </row>
-    <row r="81" customHeight="1" spans="1:9">
+    <row r="81" spans="1:9" ht="20" customHeight="1">
       <c r="A81" s="46">
         <v>0</v>
       </c>
@@ -12447,7 +11844,7 @@
       </c>
       <c r="I81" s="140"/>
     </row>
-    <row r="82" customHeight="1" spans="1:9">
+    <row r="82" spans="1:9" ht="20" customHeight="1">
       <c r="A82" s="46">
         <v>0</v>
       </c>
@@ -12468,7 +11865,7 @@
       </c>
       <c r="I82" s="140"/>
     </row>
-    <row r="83" customHeight="1" spans="1:9">
+    <row r="83" spans="1:9" ht="20" customHeight="1">
       <c r="A83" s="46">
         <v>0</v>
       </c>
@@ -12491,7 +11888,7 @@
       </c>
       <c r="I83" s="140"/>
     </row>
-    <row r="84" customHeight="1" spans="1:9">
+    <row r="84" spans="1:9" ht="20" customHeight="1">
       <c r="A84" s="46">
         <v>0</v>
       </c>
@@ -12514,7 +11911,7 @@
       </c>
       <c r="I84" s="140"/>
     </row>
-    <row r="85" customHeight="1" spans="1:9">
+    <row r="85" spans="1:9" ht="20" customHeight="1">
       <c r="A85" s="46">
         <v>0</v>
       </c>
@@ -12537,7 +11934,7 @@
       </c>
       <c r="I85" s="140"/>
     </row>
-    <row r="86" customHeight="1" spans="1:9">
+    <row r="86" spans="1:9" ht="20" customHeight="1">
       <c r="A86" s="46">
         <v>0</v>
       </c>
@@ -12560,7 +11957,7 @@
       </c>
       <c r="I86" s="140"/>
     </row>
-    <row r="87" customHeight="1" spans="1:9">
+    <row r="87" spans="1:9" ht="20" customHeight="1">
       <c r="A87" s="46">
         <v>0</v>
       </c>
@@ -12583,7 +11980,7 @@
       </c>
       <c r="I87" s="141"/>
     </row>
-    <row r="88" customHeight="1" spans="1:9">
+    <row r="88" spans="1:9" ht="20" customHeight="1">
       <c r="A88" s="46">
         <v>0</v>
       </c>
@@ -12606,7 +12003,7 @@
       </c>
       <c r="I88" s="141"/>
     </row>
-    <row r="89" customHeight="1" spans="1:9">
+    <row r="89" spans="1:9" ht="20" customHeight="1">
       <c r="A89" s="46">
         <v>0</v>
       </c>
@@ -12629,7 +12026,7 @@
       </c>
       <c r="I89" s="141"/>
     </row>
-    <row r="90" customHeight="1" spans="1:9">
+    <row r="90" spans="1:9" ht="20" customHeight="1">
       <c r="A90" s="46">
         <v>0</v>
       </c>
@@ -12652,7 +12049,7 @@
       </c>
       <c r="I90" s="141"/>
     </row>
-    <row r="91" customHeight="1" spans="1:9">
+    <row r="91" spans="1:9" ht="20" customHeight="1">
       <c r="A91" s="46">
         <v>0</v>
       </c>
@@ -12675,7 +12072,7 @@
       </c>
       <c r="I91" s="141"/>
     </row>
-    <row r="92" customHeight="1" spans="1:9">
+    <row r="92" spans="1:9" ht="20" customHeight="1">
       <c r="A92" s="46">
         <v>0</v>
       </c>
@@ -12696,7 +12093,7 @@
       </c>
       <c r="I92" s="142"/>
     </row>
-    <row r="93" customHeight="1" spans="1:9">
+    <row r="93" spans="1:9" ht="20" customHeight="1">
       <c r="A93" s="46">
         <v>0</v>
       </c>
@@ -12717,7 +12114,7 @@
       </c>
       <c r="I93" s="142"/>
     </row>
-    <row r="94" customHeight="1" spans="1:9">
+    <row r="94" spans="1:9" ht="20" customHeight="1">
       <c r="A94" s="46">
         <v>0</v>
       </c>
@@ -12740,7 +12137,7 @@
       </c>
       <c r="I94" s="143"/>
     </row>
-    <row r="95" customHeight="1" spans="1:9">
+    <row r="95" spans="1:9" ht="20" customHeight="1">
       <c r="A95" s="46">
         <v>0</v>
       </c>
@@ -12763,7 +12160,7 @@
       </c>
       <c r="I95" s="143"/>
     </row>
-    <row r="96" customHeight="1" spans="1:9">
+    <row r="96" spans="1:9" ht="20" customHeight="1">
       <c r="A96" s="46">
         <v>0</v>
       </c>
@@ -12786,7 +12183,7 @@
       </c>
       <c r="I96" s="143"/>
     </row>
-    <row r="97" customHeight="1" spans="1:9">
+    <row r="97" spans="1:9" ht="20" customHeight="1">
       <c r="A97" s="46">
         <v>0</v>
       </c>
@@ -12807,7 +12204,7 @@
       </c>
       <c r="I97" s="144"/>
     </row>
-    <row r="98" customHeight="1" spans="1:9">
+    <row r="98" spans="1:9" ht="20" customHeight="1">
       <c r="A98" s="46">
         <v>0</v>
       </c>
@@ -12830,7 +12227,7 @@
       </c>
       <c r="I98" s="145"/>
     </row>
-    <row r="99" customHeight="1" spans="1:9">
+    <row r="99" spans="1:9" ht="20" customHeight="1">
       <c r="A99" s="46">
         <v>0</v>
       </c>
@@ -12853,7 +12250,7 @@
       </c>
       <c r="I99" s="145"/>
     </row>
-    <row r="100" customHeight="1" spans="1:9">
+    <row r="100" spans="1:9" ht="20" customHeight="1">
       <c r="A100" s="46">
         <v>0</v>
       </c>
@@ -12876,7 +12273,7 @@
       </c>
       <c r="I100" s="145"/>
     </row>
-    <row r="101" customHeight="1" spans="1:9">
+    <row r="101" spans="1:9" ht="20" customHeight="1">
       <c r="A101" s="149">
         <v>0</v>
       </c>
@@ -12899,7 +12296,7 @@
       </c>
       <c r="I101" s="145"/>
     </row>
-    <row r="102" customHeight="1" spans="1:9">
+    <row r="102" spans="1:9" ht="20" customHeight="1">
       <c r="A102" s="151">
         <v>1</v>
       </c>
@@ -12916,7 +12313,7 @@
       </c>
       <c r="I102" s="145"/>
     </row>
-    <row r="103" customHeight="1" spans="1:9">
+    <row r="103" spans="1:9" ht="20" customHeight="1">
       <c r="A103" s="151">
         <v>0</v>
       </c>
@@ -12933,7 +12330,7 @@
       </c>
       <c r="I103" s="145"/>
     </row>
-    <row r="104" customHeight="1" spans="1:9">
+    <row r="104" spans="1:9" ht="20" customHeight="1">
       <c r="A104" s="151">
         <v>1</v>
       </c>
@@ -12950,7 +12347,7 @@
       </c>
       <c r="I104" s="145"/>
     </row>
-    <row r="105" customHeight="1" spans="1:9">
+    <row r="105" spans="1:9" ht="20" customHeight="1">
       <c r="A105" s="151">
         <v>0</v>
       </c>
@@ -12967,7 +12364,7 @@
       </c>
       <c r="I105" s="145"/>
     </row>
-    <row r="106" ht="23.5" customHeight="1" spans="1:9">
+    <row r="106" spans="1:9" ht="23.5" customHeight="1">
       <c r="A106" s="151">
         <v>1</v>
       </c>
@@ -12984,7 +12381,7 @@
       </c>
       <c r="I106" s="145"/>
     </row>
-    <row r="107" ht="23.5" customHeight="1" spans="1:9">
+    <row r="107" spans="1:9" ht="23.5" customHeight="1">
       <c r="A107" s="151">
         <v>0</v>
       </c>
@@ -13001,7 +12398,7 @@
       </c>
       <c r="I107" s="145"/>
     </row>
-    <row r="108" ht="23.5" customHeight="1" spans="1:9">
+    <row r="108" spans="1:9" ht="23.5" customHeight="1">
       <c r="A108" s="151">
         <v>1</v>
       </c>
@@ -13018,7 +12415,7 @@
       </c>
       <c r="I108" s="145"/>
     </row>
-    <row r="109" ht="23.5" customHeight="1" spans="1:9">
+    <row r="109" spans="1:9" ht="23.5" customHeight="1">
       <c r="A109" s="151">
         <v>0</v>
       </c>
@@ -13037,7 +12434,7 @@
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -13045,34 +12442,34 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J7" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView showGridLines="0" topLeftCell="M7" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83035714285714" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.83035714285714" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.6607142857143" style="1" customWidth="1"/>
-    <col min="3" max="4" width="16.3303571428571" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.3303571428571" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="16.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="19" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.3303571428571" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.1607142857143" style="1" customWidth="1"/>
-    <col min="9" max="10" width="16.3303571428571" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.1640625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="16.33203125" style="1" customWidth="1"/>
     <col min="11" max="11" width="31.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.3303571428571" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" style="1" customWidth="1"/>
     <col min="13" max="13" width="129.5" style="1" customWidth="1"/>
-    <col min="14" max="16" width="16.3303571428571" style="1" customWidth="1"/>
-    <col min="17" max="256" width="8.83035714285714" customWidth="1"/>
+    <col min="14" max="16" width="16.33203125" style="1" customWidth="1"/>
+    <col min="17" max="256" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32.75" customHeight="1" spans="1:16">
+    <row r="1" spans="1:16" ht="32.75" customHeight="1">
       <c r="A1" s="44" t="s">
         <v>13</v>
       </c>
@@ -13122,7 +12519,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="2" ht="191.75" customHeight="1" spans="1:16">
+    <row r="2" spans="1:16" ht="191.75" customHeight="1">
       <c r="A2" s="58">
         <v>1</v>
       </c>
@@ -13170,7 +12567,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="3" ht="150.75" customHeight="1" spans="1:16">
+    <row r="3" spans="1:16" ht="150.75" customHeight="1">
       <c r="A3" s="58">
         <v>1</v>
       </c>
@@ -13210,7 +12607,7 @@
       </c>
       <c r="P3" s="62"/>
     </row>
-    <row r="4" ht="146.75" customHeight="1" spans="1:16">
+    <row r="4" spans="1:16" ht="146.75" customHeight="1">
       <c r="A4" s="58">
         <v>1</v>
       </c>
@@ -13250,7 +12647,7 @@
       </c>
       <c r="P4" s="62"/>
     </row>
-    <row r="5" ht="124.75" customHeight="1" spans="1:16">
+    <row r="5" spans="1:16" ht="124.75" customHeight="1">
       <c r="A5" s="58">
         <v>1</v>
       </c>
@@ -13290,7 +12687,7 @@
       </c>
       <c r="P5" s="62"/>
     </row>
-    <row r="6" ht="200.25" customHeight="1" spans="1:16">
+    <row r="6" spans="1:16" ht="200.25" customHeight="1">
       <c r="A6" s="58">
         <v>1</v>
       </c>
@@ -13332,7 +12729,7 @@
       </c>
       <c r="P6" s="62"/>
     </row>
-    <row r="7" ht="296" customHeight="1" spans="1:16">
+    <row r="7" spans="1:16" ht="296" customHeight="1">
       <c r="A7" s="58">
         <v>1</v>
       </c>
@@ -13374,7 +12771,7 @@
       </c>
       <c r="P7" s="62"/>
     </row>
-    <row r="8" ht="32" customHeight="1" spans="1:16">
+    <row r="8" spans="1:16" ht="32" customHeight="1">
       <c r="A8" s="64">
         <v>0</v>
       </c>
@@ -13422,7 +12819,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="9" ht="14.75" customHeight="1" spans="1:16">
+    <row r="9" spans="1:16" ht="14.75" customHeight="1">
       <c r="A9" s="64">
         <v>0</v>
       </c>
@@ -13462,7 +12859,7 @@
       </c>
       <c r="P9" s="68"/>
     </row>
-    <row r="10" ht="14.75" customHeight="1" spans="1:16">
+    <row r="10" spans="1:16" ht="14.75" customHeight="1">
       <c r="A10" s="64">
         <v>0</v>
       </c>
@@ -13502,7 +12899,7 @@
       </c>
       <c r="P10" s="68"/>
     </row>
-    <row r="11" customHeight="1" spans="1:16">
+    <row r="11" spans="1:16" ht="20" customHeight="1">
       <c r="A11" s="64">
         <v>0</v>
       </c>
@@ -13542,7 +12939,7 @@
       </c>
       <c r="P11" s="68"/>
     </row>
-    <row r="12" customHeight="1" spans="1:16">
+    <row r="12" spans="1:16" ht="20" customHeight="1">
       <c r="A12" s="64">
         <v>0</v>
       </c>
@@ -13584,7 +12981,7 @@
       </c>
       <c r="P12" s="68"/>
     </row>
-    <row r="13" customHeight="1" spans="1:16">
+    <row r="13" spans="1:16" ht="20" customHeight="1">
       <c r="A13" s="70">
         <v>0</v>
       </c>
@@ -13626,7 +13023,7 @@
       </c>
       <c r="P13" s="68"/>
     </row>
-    <row r="14" customHeight="1" spans="1:16">
+    <row r="14" spans="1:16" ht="20" customHeight="1">
       <c r="A14" s="71"/>
       <c r="B14" s="69"/>
       <c r="C14" s="69"/>
@@ -13644,7 +13041,7 @@
       <c r="O14" s="68"/>
       <c r="P14" s="68"/>
     </row>
-    <row r="15" customHeight="1" spans="1:16">
+    <row r="15" spans="1:16" ht="20" customHeight="1">
       <c r="A15" s="71"/>
       <c r="B15" s="69"/>
       <c r="C15" s="69"/>
@@ -13662,7 +13059,7 @@
       <c r="O15" s="68"/>
       <c r="P15" s="68"/>
     </row>
-    <row r="16" customHeight="1" spans="1:16">
+    <row r="16" spans="1:16" ht="20" customHeight="1">
       <c r="A16" s="71"/>
       <c r="B16" s="69"/>
       <c r="C16" s="69"/>
@@ -13680,7 +13077,7 @@
       <c r="O16" s="68"/>
       <c r="P16" s="68"/>
     </row>
-    <row r="17" customHeight="1" spans="1:16">
+    <row r="17" spans="1:16" ht="20" customHeight="1">
       <c r="A17" s="71"/>
       <c r="B17" s="69"/>
       <c r="C17" s="69"/>
@@ -13698,7 +13095,7 @@
       <c r="O17" s="68"/>
       <c r="P17" s="68"/>
     </row>
-    <row r="18" customHeight="1" spans="1:16">
+    <row r="18" spans="1:16" ht="20" customHeight="1">
       <c r="A18" s="71"/>
       <c r="B18" s="69"/>
       <c r="C18" s="69"/>
@@ -13716,7 +13113,7 @@
       <c r="O18" s="68"/>
       <c r="P18" s="68"/>
     </row>
-    <row r="19" customHeight="1" spans="1:16">
+    <row r="19" spans="1:16" ht="20" customHeight="1">
       <c r="A19" s="71"/>
       <c r="B19" s="69"/>
       <c r="C19" s="69"/>
@@ -13734,7 +13131,7 @@
       <c r="O19" s="68"/>
       <c r="P19" s="68"/>
     </row>
-    <row r="20" customHeight="1" spans="1:16">
+    <row r="20" spans="1:16" ht="20" customHeight="1">
       <c r="A20" s="71"/>
       <c r="B20" s="69"/>
       <c r="C20" s="69"/>
@@ -13752,7 +13149,7 @@
       <c r="O20" s="68"/>
       <c r="P20" s="68"/>
     </row>
-    <row r="21" customHeight="1" spans="1:16">
+    <row r="21" spans="1:16" ht="20" customHeight="1">
       <c r="A21" s="71"/>
       <c r="B21" s="69"/>
       <c r="C21" s="69"/>
@@ -13770,7 +13167,7 @@
       <c r="O21" s="68"/>
       <c r="P21" s="68"/>
     </row>
-    <row r="22" customHeight="1" spans="1:16">
+    <row r="22" spans="1:16" ht="20" customHeight="1">
       <c r="A22" s="71"/>
       <c r="B22" s="69"/>
       <c r="C22" s="69"/>
@@ -13788,7 +13185,7 @@
       <c r="O22" s="68"/>
       <c r="P22" s="68"/>
     </row>
-    <row r="23" customHeight="1" spans="1:16">
+    <row r="23" spans="1:16" ht="20" customHeight="1">
       <c r="A23" s="71"/>
       <c r="B23" s="69"/>
       <c r="C23" s="69"/>
@@ -13806,7 +13203,7 @@
       <c r="O23" s="68"/>
       <c r="P23" s="68"/>
     </row>
-    <row r="24" customHeight="1" spans="1:16">
+    <row r="24" spans="1:16" ht="20" customHeight="1">
       <c r="A24" s="71"/>
       <c r="B24" s="69"/>
       <c r="C24" s="69"/>
@@ -13826,7 +13223,7 @@
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -13834,28 +13231,26 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="14" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="14" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.3303571428571" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.33035714285714" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="38" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3303571428571" style="1" customWidth="1"/>
-    <col min="5" max="5" width="52.8303571428571" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3303571428571" style="1" customWidth="1"/>
-    <col min="7" max="256" width="16.3303571428571" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="52.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="1" customWidth="1"/>
+    <col min="7" max="256" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1" spans="1:6">
+    <row r="1" spans="1:6" ht="14.25" customHeight="1">
       <c r="A1" s="44" t="s">
         <v>13</v>
       </c>
@@ -13873,7 +13268,7 @@
       </c>
       <c r="F1" s="54"/>
     </row>
-    <row r="2" ht="50.25" customHeight="1" spans="1:6">
+    <row r="2" spans="1:6" ht="50.25" customHeight="1">
       <c r="A2" s="46">
         <v>1</v>
       </c>
@@ -13891,7 +13286,7 @@
       </c>
       <c r="F2" s="55"/>
     </row>
-    <row r="3" ht="16.25" customHeight="1" spans="1:6">
+    <row r="3" spans="1:6" ht="16.25" customHeight="1">
       <c r="A3" s="46">
         <v>1</v>
       </c>
@@ -13909,7 +13304,7 @@
       </c>
       <c r="F3" s="55"/>
     </row>
-    <row r="4" ht="26" customHeight="1" spans="1:6">
+    <row r="4" spans="1:6" ht="26" customHeight="1">
       <c r="A4" s="46">
         <v>1</v>
       </c>
@@ -13927,7 +13322,7 @@
       </c>
       <c r="F4" s="55"/>
     </row>
-    <row r="5" ht="26" customHeight="1" spans="1:6">
+    <row r="5" spans="1:6" ht="26" customHeight="1">
       <c r="A5" s="46">
         <v>1</v>
       </c>
@@ -13945,7 +13340,7 @@
       </c>
       <c r="F5" s="55"/>
     </row>
-    <row r="6" ht="51" customHeight="1" spans="1:6">
+    <row r="6" spans="1:6" ht="51" customHeight="1">
       <c r="A6" s="46">
         <v>0</v>
       </c>
@@ -13963,7 +13358,7 @@
       </c>
       <c r="F6" s="55"/>
     </row>
-    <row r="7" ht="14.75" customHeight="1" spans="1:6">
+    <row r="7" spans="1:6" ht="14.75" customHeight="1">
       <c r="A7" s="46">
         <v>0</v>
       </c>
@@ -13981,7 +13376,7 @@
       </c>
       <c r="F7" s="55"/>
     </row>
-    <row r="8" ht="14.75" customHeight="1" spans="1:6">
+    <row r="8" spans="1:6" ht="14.75" customHeight="1">
       <c r="A8" s="46">
         <v>0</v>
       </c>
@@ -13999,7 +13394,7 @@
       </c>
       <c r="F8" s="55"/>
     </row>
-    <row r="9" ht="14.75" customHeight="1" spans="1:6">
+    <row r="9" spans="1:6" ht="14.75" customHeight="1">
       <c r="A9" s="46">
         <v>0</v>
       </c>
@@ -14017,7 +13412,7 @@
       </c>
       <c r="F9" s="55"/>
     </row>
-    <row r="10" ht="14.75" customHeight="1" spans="1:6">
+    <row r="10" spans="1:6" ht="14.75" customHeight="1">
       <c r="A10" s="51"/>
       <c r="B10" s="52"/>
       <c r="C10" s="53"/>
@@ -14027,7 +13422,7 @@
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -14035,26 +13430,26 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E134"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="14" customHeight="1" outlineLevelCol="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="14" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.3303571428571" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="90.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45.8303571428571" style="1" customWidth="1"/>
-    <col min="4" max="5" width="16.3303571428571" style="1" customWidth="1"/>
-    <col min="6" max="256" width="16.3303571428571" customWidth="1"/>
+    <col min="3" max="3" width="45.83203125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="16.33203125" style="1" customWidth="1"/>
+    <col min="6" max="256" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1" spans="1:5">
+    <row r="1" spans="1:5" ht="14.25" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -14067,7 +13462,7 @@
       <c r="D1" s="4"/>
       <c r="E1" s="32"/>
     </row>
-    <row r="2" ht="14.75" customHeight="1" spans="1:5">
+    <row r="2" spans="1:5" ht="14.75" customHeight="1">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -14078,7 +13473,7 @@
       <c r="D2" s="8"/>
       <c r="E2" s="33"/>
     </row>
-    <row r="3" ht="14.75" customHeight="1" spans="1:5">
+    <row r="3" spans="1:5" ht="14.75" customHeight="1">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -14089,7 +13484,7 @@
       <c r="D3" s="8"/>
       <c r="E3" s="33"/>
     </row>
-    <row r="4" ht="14.75" customHeight="1" spans="1:5">
+    <row r="4" spans="1:5" ht="14.75" customHeight="1">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -14100,7 +13495,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="33"/>
     </row>
-    <row r="5" ht="14.25" customHeight="1" spans="1:5">
+    <row r="5" spans="1:5" ht="14.25" customHeight="1">
       <c r="A5" s="13">
         <v>3</v>
       </c>
@@ -14111,7 +13506,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="33"/>
     </row>
-    <row r="6" customHeight="1" spans="1:5">
+    <row r="6" spans="1:5" ht="14" customHeight="1">
       <c r="A6" s="13">
         <v>4</v>
       </c>
@@ -14122,7 +13517,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="33"/>
     </row>
-    <row r="7" customHeight="1" spans="1:5">
+    <row r="7" spans="1:5" ht="14" customHeight="1">
       <c r="A7" s="13">
         <v>5</v>
       </c>
@@ -14133,7 +13528,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="33"/>
     </row>
-    <row r="8" customHeight="1" spans="1:5">
+    <row r="8" spans="1:5" ht="14" customHeight="1">
       <c r="A8" s="13">
         <v>6</v>
       </c>
@@ -14144,7 +13539,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="33"/>
     </row>
-    <row r="9" customHeight="1" spans="1:5">
+    <row r="9" spans="1:5" ht="14" customHeight="1">
       <c r="A9" s="13">
         <v>7</v>
       </c>
@@ -14155,7 +13550,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="33"/>
     </row>
-    <row r="10" ht="14.25" customHeight="1" spans="1:5">
+    <row r="10" spans="1:5" ht="14.25" customHeight="1">
       <c r="A10" s="13">
         <v>8</v>
       </c>
@@ -14166,7 +13561,7 @@
       <c r="D10" s="8"/>
       <c r="E10" s="33"/>
     </row>
-    <row r="11" ht="14.75" customHeight="1" spans="1:5">
+    <row r="11" spans="1:5" ht="14.75" customHeight="1">
       <c r="A11" s="9">
         <v>9</v>
       </c>
@@ -14177,7 +13572,7 @@
       <c r="D11" s="8"/>
       <c r="E11" s="33"/>
     </row>
-    <row r="12" ht="14.75" customHeight="1" spans="1:5">
+    <row r="12" spans="1:5" ht="14.75" customHeight="1">
       <c r="A12" s="9">
         <v>10</v>
       </c>
@@ -14188,7 +13583,7 @@
       <c r="D12" s="8"/>
       <c r="E12" s="33"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1" spans="1:5">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1">
       <c r="A13" s="11">
         <v>11</v>
       </c>
@@ -14199,7 +13594,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="33"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1" spans="1:5">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1">
       <c r="A14" s="11">
         <v>12</v>
       </c>
@@ -14210,7 +13605,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="33"/>
     </row>
-    <row r="15" ht="14.75" customHeight="1" spans="1:5">
+    <row r="15" spans="1:5" ht="14.75" customHeight="1">
       <c r="A15" s="11">
         <v>13</v>
       </c>
@@ -14221,7 +13616,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="33"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1" spans="1:5">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1">
       <c r="A16" s="11">
         <v>14</v>
       </c>
@@ -14232,7 +13627,7 @@
       <c r="D16" s="8"/>
       <c r="E16" s="33"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1" spans="1:5">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1">
       <c r="A17" s="11">
         <v>15</v>
       </c>
@@ -14243,7 +13638,7 @@
       <c r="D17" s="8"/>
       <c r="E17" s="33"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1" spans="1:5">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1">
       <c r="A18" s="11">
         <v>16</v>
       </c>
@@ -14254,7 +13649,7 @@
       <c r="D18" s="8"/>
       <c r="E18" s="33"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1" spans="1:5">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1">
       <c r="A19" s="11">
         <v>17</v>
       </c>
@@ -14265,7 +13660,7 @@
       <c r="D19" s="8"/>
       <c r="E19" s="33"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1" spans="1:5">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1">
       <c r="A20" s="11">
         <v>18</v>
       </c>
@@ -14276,7 +13671,7 @@
       <c r="D20" s="8"/>
       <c r="E20" s="33"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1" spans="1:5">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1">
       <c r="A21" s="11">
         <v>19</v>
       </c>
@@ -14287,7 +13682,7 @@
       <c r="D21" s="8"/>
       <c r="E21" s="33"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1" spans="1:5">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1">
       <c r="A22" s="11">
         <v>20</v>
       </c>
@@ -14298,7 +13693,7 @@
       <c r="D22" s="8"/>
       <c r="E22" s="33"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1" spans="1:5">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1">
       <c r="A23" s="11">
         <v>21</v>
       </c>
@@ -14309,7 +13704,7 @@
       <c r="D23" s="8"/>
       <c r="E23" s="33"/>
     </row>
-    <row r="24" ht="14.75" customHeight="1" spans="1:5">
+    <row r="24" spans="1:5" ht="14.75" customHeight="1">
       <c r="A24" s="11">
         <v>22</v>
       </c>
@@ -14320,7 +13715,7 @@
       <c r="D24" s="8"/>
       <c r="E24" s="33"/>
     </row>
-    <row r="25" ht="14.75" customHeight="1" spans="1:5">
+    <row r="25" spans="1:5" ht="14.75" customHeight="1">
       <c r="A25" s="11">
         <v>23</v>
       </c>
@@ -14331,7 +13726,7 @@
       <c r="D25" s="8"/>
       <c r="E25" s="33"/>
     </row>
-    <row r="26" ht="14.75" customHeight="1" spans="1:5">
+    <row r="26" spans="1:5" ht="14.75" customHeight="1">
       <c r="A26" s="11">
         <v>24</v>
       </c>
@@ -14342,7 +13737,7 @@
       <c r="D26" s="8"/>
       <c r="E26" s="33"/>
     </row>
-    <row r="27" ht="14.75" customHeight="1" spans="1:5">
+    <row r="27" spans="1:5" ht="14.75" customHeight="1">
       <c r="A27" s="13">
         <v>25</v>
       </c>
@@ -14353,7 +13748,7 @@
       <c r="D27" s="8"/>
       <c r="E27" s="33"/>
     </row>
-    <row r="28" ht="14.75" customHeight="1" spans="1:5">
+    <row r="28" spans="1:5" ht="14.75" customHeight="1">
       <c r="A28" s="11">
         <v>26</v>
       </c>
@@ -14364,7 +13759,7 @@
       <c r="D28" s="8"/>
       <c r="E28" s="33"/>
     </row>
-    <row r="29" ht="14.75" customHeight="1" spans="1:5">
+    <row r="29" spans="1:5" ht="14.75" customHeight="1">
       <c r="A29" s="11">
         <v>27</v>
       </c>
@@ -14375,7 +13770,7 @@
       <c r="D29" s="8"/>
       <c r="E29" s="33"/>
     </row>
-    <row r="30" ht="16" customHeight="1" spans="1:5">
+    <row r="30" spans="1:5" ht="16" customHeight="1">
       <c r="A30" s="11">
         <v>28</v>
       </c>
@@ -14386,7 +13781,7 @@
       <c r="D30" s="8"/>
       <c r="E30" s="33"/>
     </row>
-    <row r="31" ht="16" customHeight="1" spans="1:5">
+    <row r="31" spans="1:5" ht="16" customHeight="1">
       <c r="A31" s="11">
         <v>29</v>
       </c>
@@ -14399,7 +13794,7 @@
       <c r="D31" s="8"/>
       <c r="E31" s="33"/>
     </row>
-    <row r="32" ht="16" customHeight="1" spans="1:5">
+    <row r="32" spans="1:5" ht="16" customHeight="1">
       <c r="A32" s="11">
         <v>30</v>
       </c>
@@ -14410,7 +13805,7 @@
       <c r="D32" s="8"/>
       <c r="E32" s="33"/>
     </row>
-    <row r="33" ht="16" customHeight="1" spans="1:5">
+    <row r="33" spans="1:5" ht="16" customHeight="1">
       <c r="A33" s="11">
         <v>31</v>
       </c>
@@ -14421,7 +13816,7 @@
       <c r="D33" s="8"/>
       <c r="E33" s="33"/>
     </row>
-    <row r="34" ht="16" customHeight="1" spans="1:5">
+    <row r="34" spans="1:5" ht="16" customHeight="1">
       <c r="A34" s="11">
         <v>32</v>
       </c>
@@ -14432,7 +13827,7 @@
       <c r="D34" s="8"/>
       <c r="E34" s="33"/>
     </row>
-    <row r="35" ht="16" customHeight="1" spans="1:5">
+    <row r="35" spans="1:5" ht="16" customHeight="1">
       <c r="A35" s="11">
         <v>33</v>
       </c>
@@ -14443,7 +13838,7 @@
       <c r="D35" s="8"/>
       <c r="E35" s="33"/>
     </row>
-    <row r="36" ht="16" customHeight="1" spans="1:5">
+    <row r="36" spans="1:5" ht="16" customHeight="1">
       <c r="A36" s="13">
         <v>34</v>
       </c>
@@ -14454,7 +13849,7 @@
       <c r="D36" s="8"/>
       <c r="E36" s="33"/>
     </row>
-    <row r="37" ht="16" customHeight="1" spans="1:5">
+    <row r="37" spans="1:5" ht="16" customHeight="1">
       <c r="A37" s="11">
         <v>35</v>
       </c>
@@ -14465,7 +13860,7 @@
       <c r="D37" s="8"/>
       <c r="E37" s="33"/>
     </row>
-    <row r="38" ht="25" customHeight="1" spans="1:5">
+    <row r="38" spans="1:5" ht="25" customHeight="1">
       <c r="A38" s="13">
         <v>36</v>
       </c>
@@ -14476,7 +13871,7 @@
       <c r="D38" s="8"/>
       <c r="E38" s="33"/>
     </row>
-    <row r="39" ht="16" customHeight="1" spans="1:5">
+    <row r="39" spans="1:5" ht="16" customHeight="1">
       <c r="A39" s="11">
         <v>37</v>
       </c>
@@ -14489,7 +13884,7 @@
       <c r="D39" s="8"/>
       <c r="E39" s="33"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1" spans="1:5">
+    <row r="40" spans="1:5" ht="15.75" customHeight="1">
       <c r="A40" s="13">
         <v>38</v>
       </c>
@@ -14500,7 +13895,7 @@
       <c r="D40" s="8"/>
       <c r="E40" s="33"/>
     </row>
-    <row r="41" ht="15.25" customHeight="1" spans="1:5">
+    <row r="41" spans="1:5" ht="15.25" customHeight="1">
       <c r="A41" s="13">
         <v>39</v>
       </c>
@@ -14513,7 +13908,7 @@
       <c r="D41" s="8"/>
       <c r="E41" s="33"/>
     </row>
-    <row r="42" ht="15.25" customHeight="1" spans="1:5">
+    <row r="42" spans="1:5" ht="15.25" customHeight="1">
       <c r="A42" s="13">
         <v>40</v>
       </c>
@@ -14524,7 +13919,7 @@
       <c r="D42" s="8"/>
       <c r="E42" s="33"/>
     </row>
-    <row r="43" ht="15.25" customHeight="1" spans="1:5">
+    <row r="43" spans="1:5" ht="15.25" customHeight="1">
       <c r="A43" s="13">
         <v>41</v>
       </c>
@@ -14535,7 +13930,7 @@
       <c r="D43" s="8"/>
       <c r="E43" s="33"/>
     </row>
-    <row r="44" ht="15.25" customHeight="1" spans="1:5">
+    <row r="44" spans="1:5" ht="15.25" customHeight="1">
       <c r="A44" s="13">
         <v>42</v>
       </c>
@@ -14546,7 +13941,7 @@
       <c r="D44" s="8"/>
       <c r="E44" s="33"/>
     </row>
-    <row r="45" ht="15.25" customHeight="1" spans="1:5">
+    <row r="45" spans="1:5" ht="15.25" customHeight="1">
       <c r="A45" s="13">
         <v>43</v>
       </c>
@@ -14559,7 +13954,7 @@
       <c r="D45" s="8"/>
       <c r="E45" s="33"/>
     </row>
-    <row r="46" ht="15.25" customHeight="1" spans="1:5">
+    <row r="46" spans="1:5" ht="15.25" customHeight="1">
       <c r="A46" s="13">
         <v>44</v>
       </c>
@@ -14570,7 +13965,7 @@
       <c r="D46" s="8"/>
       <c r="E46" s="33"/>
     </row>
-    <row r="47" ht="15.25" customHeight="1" spans="1:5">
+    <row r="47" spans="1:5" ht="15.25" customHeight="1">
       <c r="A47" s="13">
         <v>45</v>
       </c>
@@ -14581,7 +13976,7 @@
       <c r="D47" s="8"/>
       <c r="E47" s="33"/>
     </row>
-    <row r="48" ht="15.25" customHeight="1" spans="1:5">
+    <row r="48" spans="1:5" ht="15.25" customHeight="1">
       <c r="A48" s="13">
         <v>46</v>
       </c>
@@ -14592,7 +13987,7 @@
       <c r="D48" s="8"/>
       <c r="E48" s="33"/>
     </row>
-    <row r="49" ht="15.25" customHeight="1" spans="1:5">
+    <row r="49" spans="1:5" ht="15.25" customHeight="1">
       <c r="A49" s="13">
         <v>47</v>
       </c>
@@ -14603,7 +13998,7 @@
       <c r="D49" s="8"/>
       <c r="E49" s="33"/>
     </row>
-    <row r="50" ht="15.25" customHeight="1" spans="1:5">
+    <row r="50" spans="1:5" ht="15.25" customHeight="1">
       <c r="A50" s="13">
         <v>48</v>
       </c>
@@ -14616,7 +14011,7 @@
       <c r="D50" s="8"/>
       <c r="E50" s="33"/>
     </row>
-    <row r="51" ht="15.25" customHeight="1" spans="1:5">
+    <row r="51" spans="1:5" ht="15.25" customHeight="1">
       <c r="A51" s="13">
         <v>49</v>
       </c>
@@ -14627,7 +14022,7 @@
       <c r="D51" s="8"/>
       <c r="E51" s="33"/>
     </row>
-    <row r="52" ht="15.25" customHeight="1" spans="1:5">
+    <row r="52" spans="1:5" ht="15.25" customHeight="1">
       <c r="A52" s="13">
         <v>50</v>
       </c>
@@ -14640,7 +14035,7 @@
       <c r="D52" s="8"/>
       <c r="E52" s="33"/>
     </row>
-    <row r="53" ht="15.25" customHeight="1" spans="1:5">
+    <row r="53" spans="1:5" ht="15.25" customHeight="1">
       <c r="A53" s="13">
         <v>51</v>
       </c>
@@ -14651,7 +14046,7 @@
       <c r="D53" s="8"/>
       <c r="E53" s="33"/>
     </row>
-    <row r="54" ht="15.25" customHeight="1" spans="1:5">
+    <row r="54" spans="1:5" ht="15.25" customHeight="1">
       <c r="A54" s="13">
         <v>52</v>
       </c>
@@ -14662,7 +14057,7 @@
       <c r="D54" s="8"/>
       <c r="E54" s="33"/>
     </row>
-    <row r="55" ht="15.25" customHeight="1" spans="1:5">
+    <row r="55" spans="1:5" ht="15.25" customHeight="1">
       <c r="A55" s="13">
         <v>53</v>
       </c>
@@ -14673,7 +14068,7 @@
       <c r="D55" s="8"/>
       <c r="E55" s="33"/>
     </row>
-    <row r="56" ht="15.25" customHeight="1" spans="1:5">
+    <row r="56" spans="1:5" ht="15.25" customHeight="1">
       <c r="A56" s="13">
         <v>54</v>
       </c>
@@ -14686,7 +14081,7 @@
       <c r="D56" s="8"/>
       <c r="E56" s="33"/>
     </row>
-    <row r="57" ht="15.25" customHeight="1" spans="1:5">
+    <row r="57" spans="1:5" ht="15.25" customHeight="1">
       <c r="A57" s="13">
         <v>55</v>
       </c>
@@ -14697,7 +14092,7 @@
       <c r="D57" s="8"/>
       <c r="E57" s="33"/>
     </row>
-    <row r="58" ht="15.25" customHeight="1" spans="1:5">
+    <row r="58" spans="1:5" ht="15.25" customHeight="1">
       <c r="A58" s="13">
         <v>56</v>
       </c>
@@ -14708,7 +14103,7 @@
       <c r="D58" s="8"/>
       <c r="E58" s="33"/>
     </row>
-    <row r="59" ht="15.25" customHeight="1" spans="1:5">
+    <row r="59" spans="1:5" ht="15.25" customHeight="1">
       <c r="A59" s="13">
         <v>57</v>
       </c>
@@ -14719,7 +14114,7 @@
       <c r="D59" s="8"/>
       <c r="E59" s="33"/>
     </row>
-    <row r="60" ht="15.25" customHeight="1" spans="1:5">
+    <row r="60" spans="1:5" ht="15.25" customHeight="1">
       <c r="A60" s="13">
         <v>58</v>
       </c>
@@ -14730,7 +14125,7 @@
       <c r="D60" s="8"/>
       <c r="E60" s="33"/>
     </row>
-    <row r="61" ht="15.25" customHeight="1" spans="1:5">
+    <row r="61" spans="1:5" ht="15.25" customHeight="1">
       <c r="A61" s="13">
         <v>59</v>
       </c>
@@ -14741,7 +14136,7 @@
       <c r="D61" s="8"/>
       <c r="E61" s="33"/>
     </row>
-    <row r="62" ht="15.25" customHeight="1" spans="1:5">
+    <row r="62" spans="1:5" ht="15.25" customHeight="1">
       <c r="A62" s="13">
         <v>60</v>
       </c>
@@ -14752,7 +14147,7 @@
       <c r="D62" s="8"/>
       <c r="E62" s="33"/>
     </row>
-    <row r="63" ht="15.25" customHeight="1" spans="1:5">
+    <row r="63" spans="1:5" ht="15.25" customHeight="1">
       <c r="A63" s="13">
         <v>61</v>
       </c>
@@ -14763,7 +14158,7 @@
       <c r="D63" s="8"/>
       <c r="E63" s="33"/>
     </row>
-    <row r="64" ht="15.25" customHeight="1" spans="1:5">
+    <row r="64" spans="1:5" ht="15.25" customHeight="1">
       <c r="A64" s="13">
         <v>62</v>
       </c>
@@ -14776,7 +14171,7 @@
       <c r="D64" s="8"/>
       <c r="E64" s="33"/>
     </row>
-    <row r="65" ht="15.25" customHeight="1" spans="1:5">
+    <row r="65" spans="1:5" ht="15.25" customHeight="1">
       <c r="A65" s="13">
         <v>63</v>
       </c>
@@ -14787,7 +14182,7 @@
       <c r="D65" s="8"/>
       <c r="E65" s="33"/>
     </row>
-    <row r="66" ht="15.25" customHeight="1" spans="1:5">
+    <row r="66" spans="1:5" ht="15.25" customHeight="1">
       <c r="A66" s="13">
         <v>64</v>
       </c>
@@ -14798,7 +14193,7 @@
       <c r="D66" s="8"/>
       <c r="E66" s="33"/>
     </row>
-    <row r="67" ht="15.25" customHeight="1" spans="1:5">
+    <row r="67" spans="1:5" ht="15.25" customHeight="1">
       <c r="A67" s="13">
         <v>65</v>
       </c>
@@ -14811,7 +14206,7 @@
       <c r="D67" s="8"/>
       <c r="E67" s="33"/>
     </row>
-    <row r="68" ht="15.25" customHeight="1" spans="1:5">
+    <row r="68" spans="1:5" ht="15.25" customHeight="1">
       <c r="A68" s="13">
         <v>66</v>
       </c>
@@ -14824,7 +14219,7 @@
       <c r="D68" s="8"/>
       <c r="E68" s="33"/>
     </row>
-    <row r="69" ht="15.25" customHeight="1" spans="1:5">
+    <row r="69" spans="1:5" ht="15.25" customHeight="1">
       <c r="A69" s="13">
         <v>67</v>
       </c>
@@ -14837,7 +14232,7 @@
       <c r="D69" s="8"/>
       <c r="E69" s="33"/>
     </row>
-    <row r="70" ht="15.25" customHeight="1" spans="1:5">
+    <row r="70" spans="1:5" ht="15.25" customHeight="1">
       <c r="A70" s="13">
         <v>68</v>
       </c>
@@ -14850,7 +14245,7 @@
       <c r="D70" s="8"/>
       <c r="E70" s="33"/>
     </row>
-    <row r="71" ht="15.25" customHeight="1" spans="1:5">
+    <row r="71" spans="1:5" ht="15.25" customHeight="1">
       <c r="A71" s="13">
         <v>69</v>
       </c>
@@ -14863,7 +14258,7 @@
       <c r="D71" s="8"/>
       <c r="E71" s="33"/>
     </row>
-    <row r="72" ht="15.25" customHeight="1" spans="1:5">
+    <row r="72" spans="1:5" ht="15.25" customHeight="1">
       <c r="A72" s="13">
         <v>70</v>
       </c>
@@ -14876,7 +14271,7 @@
       <c r="D72" s="8"/>
       <c r="E72" s="33"/>
     </row>
-    <row r="73" ht="15.25" customHeight="1" spans="1:5">
+    <row r="73" spans="1:5" ht="15.25" customHeight="1">
       <c r="A73" s="13">
         <v>71</v>
       </c>
@@ -14887,7 +14282,7 @@
       <c r="D73" s="8"/>
       <c r="E73" s="33"/>
     </row>
-    <row r="74" ht="15.25" customHeight="1" spans="1:5">
+    <row r="74" spans="1:5" ht="15.25" customHeight="1">
       <c r="A74" s="13">
         <v>72</v>
       </c>
@@ -14900,7 +14295,7 @@
       <c r="D74" s="8"/>
       <c r="E74" s="33"/>
     </row>
-    <row r="75" ht="15.25" customHeight="1" spans="1:5">
+    <row r="75" spans="1:5" ht="15.25" customHeight="1">
       <c r="A75" s="13">
         <v>73</v>
       </c>
@@ -14911,7 +14306,7 @@
       <c r="D75" s="8"/>
       <c r="E75" s="33"/>
     </row>
-    <row r="76" ht="15.25" customHeight="1" spans="1:5">
+    <row r="76" spans="1:5" ht="15.25" customHeight="1">
       <c r="A76" s="13">
         <v>74</v>
       </c>
@@ -14924,7 +14319,7 @@
       <c r="D76" s="8"/>
       <c r="E76" s="33"/>
     </row>
-    <row r="77" ht="15.25" customHeight="1" spans="1:5">
+    <row r="77" spans="1:5" ht="15.25" customHeight="1">
       <c r="A77" s="13">
         <v>75</v>
       </c>
@@ -14935,7 +14330,7 @@
       <c r="D77" s="8"/>
       <c r="E77" s="33"/>
     </row>
-    <row r="78" ht="15.25" customHeight="1" spans="1:5">
+    <row r="78" spans="1:5" ht="15.25" customHeight="1">
       <c r="A78" s="13">
         <v>76</v>
       </c>
@@ -14946,7 +14341,7 @@
       <c r="D78" s="8"/>
       <c r="E78" s="33"/>
     </row>
-    <row r="79" ht="15.25" customHeight="1" spans="1:5">
+    <row r="79" spans="1:5" ht="15.25" customHeight="1">
       <c r="A79" s="13">
         <v>77</v>
       </c>
@@ -14959,7 +14354,7 @@
       <c r="D79" s="8"/>
       <c r="E79" s="33"/>
     </row>
-    <row r="80" ht="15.25" customHeight="1" spans="1:5">
+    <row r="80" spans="1:5" ht="15.25" customHeight="1">
       <c r="A80" s="13">
         <v>78</v>
       </c>
@@ -14972,7 +14367,7 @@
       <c r="D80" s="8"/>
       <c r="E80" s="33"/>
     </row>
-    <row r="81" ht="15.25" customHeight="1" spans="1:5">
+    <row r="81" spans="1:5" ht="15.25" customHeight="1">
       <c r="A81" s="13">
         <v>79</v>
       </c>
@@ -14985,7 +14380,7 @@
       <c r="D81" s="8"/>
       <c r="E81" s="33"/>
     </row>
-    <row r="82" ht="15.25" customHeight="1" spans="1:5">
+    <row r="82" spans="1:5" ht="15.25" customHeight="1">
       <c r="A82" s="13">
         <v>80</v>
       </c>
@@ -14998,7 +14393,7 @@
       <c r="D82" s="8"/>
       <c r="E82" s="33"/>
     </row>
-    <row r="83" ht="15.25" customHeight="1" spans="1:5">
+    <row r="83" spans="1:5" ht="15.25" customHeight="1">
       <c r="A83" s="13">
         <v>81</v>
       </c>
@@ -15011,7 +14406,7 @@
       <c r="D83" s="8"/>
       <c r="E83" s="33"/>
     </row>
-    <row r="84" ht="15.25" customHeight="1" spans="1:5">
+    <row r="84" spans="1:5" ht="15.25" customHeight="1">
       <c r="A84" s="13">
         <v>82</v>
       </c>
@@ -15024,7 +14419,7 @@
       <c r="D84" s="8"/>
       <c r="E84" s="33"/>
     </row>
-    <row r="85" ht="15.25" customHeight="1" spans="1:5">
+    <row r="85" spans="1:5" ht="15.25" customHeight="1">
       <c r="A85" s="13">
         <v>83</v>
       </c>
@@ -15037,7 +14432,7 @@
       <c r="D85" s="8"/>
       <c r="E85" s="33"/>
     </row>
-    <row r="86" ht="15.25" customHeight="1" spans="1:5">
+    <row r="86" spans="1:5" ht="15.25" customHeight="1">
       <c r="A86" s="13">
         <v>84</v>
       </c>
@@ -15048,7 +14443,7 @@
       <c r="D86" s="8"/>
       <c r="E86" s="33"/>
     </row>
-    <row r="87" ht="15.25" customHeight="1" spans="1:5">
+    <row r="87" spans="1:5" ht="15.25" customHeight="1">
       <c r="A87" s="13">
         <v>85</v>
       </c>
@@ -15061,7 +14456,7 @@
       <c r="D87" s="8"/>
       <c r="E87" s="33"/>
     </row>
-    <row r="88" ht="15.25" customHeight="1" spans="1:5">
+    <row r="88" spans="1:5" ht="15.25" customHeight="1">
       <c r="A88" s="13">
         <v>86</v>
       </c>
@@ -15074,7 +14469,7 @@
       <c r="D88" s="8"/>
       <c r="E88" s="33"/>
     </row>
-    <row r="89" ht="15.25" customHeight="1" spans="1:5">
+    <row r="89" spans="1:5" ht="15.25" customHeight="1">
       <c r="A89" s="13">
         <v>87</v>
       </c>
@@ -15087,7 +14482,7 @@
       <c r="D89" s="8"/>
       <c r="E89" s="33"/>
     </row>
-    <row r="90" ht="15.25" customHeight="1" spans="1:5">
+    <row r="90" spans="1:5" ht="15.25" customHeight="1">
       <c r="A90" s="13">
         <v>88</v>
       </c>
@@ -15100,7 +14495,7 @@
       <c r="D90" s="8"/>
       <c r="E90" s="33"/>
     </row>
-    <row r="91" ht="15.25" customHeight="1" spans="1:5">
+    <row r="91" spans="1:5" ht="15.25" customHeight="1">
       <c r="A91" s="13">
         <v>89</v>
       </c>
@@ -15113,7 +14508,7 @@
       <c r="D91" s="8"/>
       <c r="E91" s="33"/>
     </row>
-    <row r="92" ht="15.25" customHeight="1" spans="1:5">
+    <row r="92" spans="1:5" ht="15.25" customHeight="1">
       <c r="A92" s="13">
         <v>90</v>
       </c>
@@ -15124,7 +14519,7 @@
       <c r="D92" s="8"/>
       <c r="E92" s="33"/>
     </row>
-    <row r="93" ht="15.25" customHeight="1" spans="1:5">
+    <row r="93" spans="1:5" ht="15.25" customHeight="1">
       <c r="A93" s="13">
         <v>91</v>
       </c>
@@ -15137,7 +14532,7 @@
       <c r="D93" s="8"/>
       <c r="E93" s="33"/>
     </row>
-    <row r="94" ht="15.25" customHeight="1" spans="1:5">
+    <row r="94" spans="1:5" ht="15.25" customHeight="1">
       <c r="A94" s="13">
         <v>92</v>
       </c>
@@ -15150,7 +14545,7 @@
       <c r="D94" s="8"/>
       <c r="E94" s="33"/>
     </row>
-    <row r="95" ht="15.25" customHeight="1" spans="1:5">
+    <row r="95" spans="1:5" ht="15.25" customHeight="1">
       <c r="A95" s="13">
         <v>93</v>
       </c>
@@ -15161,7 +14556,7 @@
       <c r="D95" s="8"/>
       <c r="E95" s="33"/>
     </row>
-    <row r="96" ht="15.25" customHeight="1" spans="1:5">
+    <row r="96" spans="1:5" ht="15.25" customHeight="1">
       <c r="A96" s="13">
         <v>94</v>
       </c>
@@ -15174,7 +14569,7 @@
       <c r="D96" s="8"/>
       <c r="E96" s="33"/>
     </row>
-    <row r="97" ht="15.25" customHeight="1" spans="1:5">
+    <row r="97" spans="1:5" ht="15.25" customHeight="1">
       <c r="A97" s="13">
         <v>95</v>
       </c>
@@ -15187,7 +14582,7 @@
       <c r="D97" s="8"/>
       <c r="E97" s="33"/>
     </row>
-    <row r="98" ht="15.25" customHeight="1" spans="1:5">
+    <row r="98" spans="1:5" ht="15.25" customHeight="1">
       <c r="A98" s="13">
         <v>96</v>
       </c>
@@ -15198,7 +14593,7 @@
       <c r="D98" s="8"/>
       <c r="E98" s="33"/>
     </row>
-    <row r="99" ht="15.25" customHeight="1" spans="1:5">
+    <row r="99" spans="1:5" ht="15.25" customHeight="1">
       <c r="A99" s="13">
         <v>97</v>
       </c>
@@ -15211,7 +14606,7 @@
       <c r="D99" s="8"/>
       <c r="E99" s="33"/>
     </row>
-    <row r="100" ht="15.25" customHeight="1" spans="1:5">
+    <row r="100" spans="1:5" ht="15.25" customHeight="1">
       <c r="A100" s="13">
         <v>98</v>
       </c>
@@ -15222,7 +14617,7 @@
       <c r="D100" s="8"/>
       <c r="E100" s="33"/>
     </row>
-    <row r="101" ht="15.25" customHeight="1" spans="1:5">
+    <row r="101" spans="1:5" ht="15.25" customHeight="1">
       <c r="A101" s="13">
         <v>99</v>
       </c>
@@ -15233,7 +14628,7 @@
       <c r="D101" s="8"/>
       <c r="E101" s="33"/>
     </row>
-    <row r="102" ht="15.25" customHeight="1" spans="1:5">
+    <row r="102" spans="1:5" ht="15.25" customHeight="1">
       <c r="A102" s="13">
         <v>100</v>
       </c>
@@ -15246,7 +14641,7 @@
       <c r="D102" s="8"/>
       <c r="E102" s="33"/>
     </row>
-    <row r="103" ht="15.25" customHeight="1" spans="1:5">
+    <row r="103" spans="1:5" ht="15.25" customHeight="1">
       <c r="A103" s="13">
         <v>101</v>
       </c>
@@ -15259,7 +14654,7 @@
       <c r="D103" s="8"/>
       <c r="E103" s="33"/>
     </row>
-    <row r="104" ht="15.25" customHeight="1" spans="1:5">
+    <row r="104" spans="1:5" ht="15.25" customHeight="1">
       <c r="A104" s="13">
         <v>102</v>
       </c>
@@ -15270,7 +14665,7 @@
       <c r="D104" s="8"/>
       <c r="E104" s="33"/>
     </row>
-    <row r="105" ht="15.25" customHeight="1" spans="1:5">
+    <row r="105" spans="1:5" ht="15.25" customHeight="1">
       <c r="A105" s="13">
         <v>103</v>
       </c>
@@ -15281,7 +14676,7 @@
       <c r="D105" s="8"/>
       <c r="E105" s="33"/>
     </row>
-    <row r="106" ht="15.25" customHeight="1" spans="1:5">
+    <row r="106" spans="1:5" ht="15.25" customHeight="1">
       <c r="A106" s="13">
         <v>104</v>
       </c>
@@ -15294,7 +14689,7 @@
       <c r="D106" s="8"/>
       <c r="E106" s="33"/>
     </row>
-    <row r="107" ht="15.25" customHeight="1" spans="1:5">
+    <row r="107" spans="1:5" ht="15.25" customHeight="1">
       <c r="A107" s="13">
         <v>105</v>
       </c>
@@ -15307,7 +14702,7 @@
       <c r="D107" s="8"/>
       <c r="E107" s="33"/>
     </row>
-    <row r="108" ht="15.25" customHeight="1" spans="1:5">
+    <row r="108" spans="1:5" ht="15.25" customHeight="1">
       <c r="A108" s="13">
         <v>106</v>
       </c>
@@ -15318,7 +14713,7 @@
       <c r="D108" s="8"/>
       <c r="E108" s="33"/>
     </row>
-    <row r="109" ht="15.25" customHeight="1" spans="1:5">
+    <row r="109" spans="1:5" ht="15.25" customHeight="1">
       <c r="A109" s="13">
         <v>107</v>
       </c>
@@ -15329,7 +14724,7 @@
       <c r="D109" s="8"/>
       <c r="E109" s="33"/>
     </row>
-    <row r="110" ht="15.25" customHeight="1" spans="1:5">
+    <row r="110" spans="1:5" ht="15.25" customHeight="1">
       <c r="A110" s="13">
         <v>108</v>
       </c>
@@ -15342,7 +14737,7 @@
       <c r="D110" s="8"/>
       <c r="E110" s="33"/>
     </row>
-    <row r="111" ht="15.25" customHeight="1" spans="1:5">
+    <row r="111" spans="1:5" ht="15.25" customHeight="1">
       <c r="A111" s="13">
         <v>109</v>
       </c>
@@ -15355,7 +14750,7 @@
       <c r="D111" s="8"/>
       <c r="E111" s="33"/>
     </row>
-    <row r="112" ht="15.25" customHeight="1" spans="1:5">
+    <row r="112" spans="1:5" ht="15.25" customHeight="1">
       <c r="A112" s="13">
         <v>110</v>
       </c>
@@ -15366,7 +14761,7 @@
       <c r="D112" s="8"/>
       <c r="E112" s="33"/>
     </row>
-    <row r="113" ht="15.25" customHeight="1" spans="1:5">
+    <row r="113" spans="1:5" ht="15.25" customHeight="1">
       <c r="A113" s="13">
         <v>111</v>
       </c>
@@ -15377,7 +14772,7 @@
       <c r="D113" s="8"/>
       <c r="E113" s="33"/>
     </row>
-    <row r="114" ht="15.25" customHeight="1" spans="1:5">
+    <row r="114" spans="1:5" ht="15.25" customHeight="1">
       <c r="A114" s="13">
         <v>112</v>
       </c>
@@ -15388,7 +14783,7 @@
       <c r="D114" s="8"/>
       <c r="E114" s="33"/>
     </row>
-    <row r="115" ht="15.25" customHeight="1" spans="1:5">
+    <row r="115" spans="1:5" ht="15.25" customHeight="1">
       <c r="A115" s="13">
         <v>113</v>
       </c>
@@ -15399,7 +14794,7 @@
       <c r="D115" s="8"/>
       <c r="E115" s="33"/>
     </row>
-    <row r="116" ht="15.25" customHeight="1" spans="1:5">
+    <row r="116" spans="1:5" ht="15.25" customHeight="1">
       <c r="A116" s="13">
         <v>114</v>
       </c>
@@ -15410,7 +14805,7 @@
       <c r="D116" s="8"/>
       <c r="E116" s="33"/>
     </row>
-    <row r="117" ht="15.25" customHeight="1" spans="1:5">
+    <row r="117" spans="1:5" ht="15.25" customHeight="1">
       <c r="A117" s="13">
         <v>115</v>
       </c>
@@ -15421,7 +14816,7 @@
       <c r="D117" s="8"/>
       <c r="E117" s="33"/>
     </row>
-    <row r="118" ht="15.25" customHeight="1" spans="1:5">
+    <row r="118" spans="1:5" ht="15.25" customHeight="1">
       <c r="A118" s="13">
         <v>116</v>
       </c>
@@ -15432,7 +14827,7 @@
       <c r="D118" s="8"/>
       <c r="E118" s="33"/>
     </row>
-    <row r="119" ht="15.25" customHeight="1" spans="1:5">
+    <row r="119" spans="1:5" ht="15.25" customHeight="1">
       <c r="A119" s="13">
         <v>117</v>
       </c>
@@ -15443,7 +14838,7 @@
       <c r="D119" s="8"/>
       <c r="E119" s="33"/>
     </row>
-    <row r="120" ht="15.25" customHeight="1" spans="1:5">
+    <row r="120" spans="1:5" ht="15.25" customHeight="1">
       <c r="A120" s="13">
         <v>118</v>
       </c>
@@ -15454,7 +14849,7 @@
       <c r="D120" s="8"/>
       <c r="E120" s="33"/>
     </row>
-    <row r="121" ht="15.25" customHeight="1" spans="1:5">
+    <row r="121" spans="1:5" ht="15.25" customHeight="1">
       <c r="A121" s="13">
         <v>119</v>
       </c>
@@ -15467,7 +14862,7 @@
       <c r="D121" s="8"/>
       <c r="E121" s="33"/>
     </row>
-    <row r="122" ht="15.25" customHeight="1" spans="1:5">
+    <row r="122" spans="1:5" ht="15.25" customHeight="1">
       <c r="A122" s="13">
         <v>120</v>
       </c>
@@ -15478,7 +14873,7 @@
       <c r="D122" s="8"/>
       <c r="E122" s="33"/>
     </row>
-    <row r="123" ht="15.25" customHeight="1" spans="1:5">
+    <row r="123" spans="1:5" ht="15.25" customHeight="1">
       <c r="A123" s="13">
         <v>121</v>
       </c>
@@ -15489,7 +14884,7 @@
       <c r="D123" s="8"/>
       <c r="E123" s="33"/>
     </row>
-    <row r="124" ht="15.25" customHeight="1" spans="1:5">
+    <row r="124" spans="1:5" ht="15.25" customHeight="1">
       <c r="A124" s="13">
         <v>122</v>
       </c>
@@ -15502,7 +14897,7 @@
       <c r="D124" s="8"/>
       <c r="E124" s="33"/>
     </row>
-    <row r="125" ht="15.25" customHeight="1" spans="1:5">
+    <row r="125" spans="1:5" ht="15.25" customHeight="1">
       <c r="A125" s="13">
         <v>123</v>
       </c>
@@ -15515,7 +14910,7 @@
       <c r="D125" s="8"/>
       <c r="E125" s="33"/>
     </row>
-    <row r="126" ht="15.25" customHeight="1" spans="1:5">
+    <row r="126" spans="1:5" ht="15.25" customHeight="1">
       <c r="A126" s="13">
         <v>124</v>
       </c>
@@ -15526,7 +14921,7 @@
       <c r="D126" s="8"/>
       <c r="E126" s="33"/>
     </row>
-    <row r="127" ht="15.25" customHeight="1" spans="1:5">
+    <row r="127" spans="1:5" ht="15.25" customHeight="1">
       <c r="A127" s="13">
         <v>125</v>
       </c>
@@ -15537,7 +14932,7 @@
       <c r="D127" s="8"/>
       <c r="E127" s="33"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1" spans="1:5">
+    <row r="128" spans="1:5" ht="15.75" customHeight="1">
       <c r="A128" s="13">
         <v>126</v>
       </c>
@@ -15548,7 +14943,7 @@
       <c r="D128" s="8"/>
       <c r="E128" s="33"/>
     </row>
-    <row r="129" ht="14.75" customHeight="1" spans="1:5">
+    <row r="129" spans="1:5" ht="14.75" customHeight="1">
       <c r="A129" s="9">
         <v>127</v>
       </c>
@@ -15559,7 +14954,7 @@
       <c r="D129" s="8"/>
       <c r="E129" s="33"/>
     </row>
-    <row r="130" ht="14.75" customHeight="1" spans="1:5">
+    <row r="130" spans="1:5" ht="14.75" customHeight="1">
       <c r="A130" s="9">
         <v>128</v>
       </c>
@@ -15570,7 +14965,7 @@
       <c r="D130" s="8"/>
       <c r="E130" s="33"/>
     </row>
-    <row r="131" ht="14.75" customHeight="1" spans="1:5">
+    <row r="131" spans="1:5" ht="14.75" customHeight="1">
       <c r="A131" s="9">
         <v>129</v>
       </c>
@@ -15581,7 +14976,7 @@
       <c r="D131" s="8"/>
       <c r="E131" s="33"/>
     </row>
-    <row r="132" ht="14.75" customHeight="1" spans="1:5">
+    <row r="132" spans="1:5" ht="14.75" customHeight="1">
       <c r="A132" s="9">
         <v>130</v>
       </c>
@@ -15592,7 +14987,7 @@
       <c r="D132" s="8"/>
       <c r="E132" s="33"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1" spans="1:5">
+    <row r="133" spans="1:5" ht="15.75" customHeight="1">
       <c r="A133" s="40">
         <v>131</v>
       </c>
@@ -15603,7 +14998,7 @@
       <c r="D133" s="42"/>
       <c r="E133" s="43"/>
     </row>
-    <row r="134" customHeight="1" spans="1:2">
+    <row r="134" spans="1:5" ht="14" customHeight="1">
       <c r="A134" s="40">
         <v>132</v>
       </c>
@@ -15613,7 +15008,7 @@
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/data/offweb.xlsx
+++ b/data/offweb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfredyang/Desktop/code/pharbers/lambda/phlambda/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CF1F7B-7FAA-3F4E-8B6B-6D6F95CA79E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB36FBC2-F32F-7649-AF88-8E76D984F77F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="13200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8980" yWindow="2680" windowWidth="28800" windowHeight="13200" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="导出摘要" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,12 @@
     <sheet name="Cooperation" sheetId="7" r:id="rId7"/>
     <sheet name="Image" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="528">
   <si>
     <t>此文稿由 Numbers 表格导出。所有表格均已转换为 Excel 工作表。每张 Numbers 工作表上的所有其他对象都已放置在单独的工作表中。请注意其中的公式计算可能与 Excel 不同。</t>
   </si>
@@ -220,9 +220,6 @@
   </si>
   <si>
     <t>In the book, based on the analysis of 3 years all-channel &amp; all-fields performance, we choose five major fields (hyperlipidemia, hypertension, oral cephalosporins, EGFR-TKI tumor targeting drugs and epilepsy market) to deeply analyze VBP’s impacts on divesified markets and involved pharmaceutical companies. We also predict the market change and related products’ trend after applying VBP all over the country.</t>
-  </si>
-  <si>
-    <t>3</t>
   </si>
   <si>
     <t>startDate</t>
@@ -565,9 +562,6 @@
     </r>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>向娟</t>
   </si>
   <si>
@@ -582,9 +576,6 @@
     </r>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>王威</t>
   </si>
   <si>
@@ -599,16 +590,10 @@
     </r>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>黄鑫</t>
   </si>
   <si>
     <t>法伯科技</t>
-  </si>
-  <si>
-    <t>7</t>
   </si>
   <si>
     <t>刘治军</t>
@@ -625,9 +610,6 @@
     </r>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>张自然</t>
   </si>
   <si>
@@ -642,16 +624,10 @@
     </r>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>王黎丽</t>
   </si>
   <si>
     <t>中国卫生信息与健康医疗大数据学会·秘书长</t>
-  </si>
-  <si>
-    <t>10</t>
   </si>
   <si>
     <t>郭云沛</t>
@@ -686,9 +662,6 @@
     </r>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>顾晋</t>
   </si>
   <si>
@@ -721,9 +694,6 @@
     </r>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>陈白平</t>
   </si>
   <si>
@@ -756,9 +726,6 @@
     </r>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>胡善联</t>
   </si>
   <si>
@@ -791,9 +758,6 @@
     </r>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>史录文</t>
   </si>
   <si>
@@ -826,9 +790,6 @@
     </r>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>杜金林</t>
   </si>
   <si>
@@ -861,9 +822,6 @@
     </r>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
     <t>黄东临</t>
   </si>
   <si>
@@ -905,9 +863,6 @@
     </r>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
     <t>张继国</t>
   </si>
   <si>
@@ -950,9 +905,6 @@
     </r>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
     <t>沈飞雁</t>
   </si>
   <si>
@@ -985,9 +937,6 @@
     </r>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>郑灏</t>
   </si>
   <si>
@@ -1020,22 +969,13 @@
     </r>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>赛诺菲·业务洞察与分析负责人</t>
   </si>
   <si>
-    <t>21</t>
-  </si>
-  <si>
     <t>程涛</t>
   </si>
   <si>
     <t>信立泰新专药总部·副总经理</t>
-  </si>
-  <si>
-    <t>22</t>
   </si>
   <si>
     <t>黄诚</t>
@@ -1106,16 +1046,10 @@
     </r>
   </si>
   <si>
-    <t>23</t>
-  </si>
-  <si>
     <t>马雅斌</t>
   </si>
   <si>
     <t>同济大学附属东方医院·药剂科主任</t>
-  </si>
-  <si>
-    <t>24</t>
   </si>
   <si>
     <t>邓逢春</t>
@@ -1163,9 +1097,6 @@
       </rPr>
       <t>中国信息协会医药委员会·会长</t>
     </r>
-  </si>
-  <si>
-    <t>25</t>
   </si>
   <si>
     <t>Lintong XUE</t>
@@ -1377,12 +1308,6 @@
   </si>
   <si>
     <t>Presenter</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>132</t>
   </si>
   <si>
     <t>speakers</t>
@@ -5710,7 +5635,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="268">
+  <cellXfs count="274">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -6179,18 +6104,12 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -6203,9 +6122,6 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -6235,12 +6151,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -6260,9 +6170,6 @@
     <xf numFmtId="49" fontId="10" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="3" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -6270,15 +6177,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="3" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6290,46 +6188,16 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6494,26 +6362,101 @@
     <xf numFmtId="0" fontId="16" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7655,225 +7598,225 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.75" customHeight="1">
-      <c r="A1" s="250"/>
-      <c r="B1" s="251"/>
-      <c r="C1" s="251"/>
-      <c r="D1" s="251"/>
+      <c r="A1" s="231"/>
+      <c r="B1" s="232"/>
+      <c r="C1" s="232"/>
+      <c r="D1" s="232"/>
       <c r="E1" s="32"/>
     </row>
     <row r="2" spans="1:5" ht="14.75" customHeight="1">
-      <c r="A2" s="240"/>
-      <c r="B2" s="241"/>
-      <c r="C2" s="241"/>
-      <c r="D2" s="241"/>
+      <c r="A2" s="221"/>
+      <c r="B2" s="222"/>
+      <c r="C2" s="222"/>
+      <c r="D2" s="222"/>
       <c r="E2" s="33"/>
     </row>
     <row r="3" spans="1:5" ht="50" customHeight="1">
-      <c r="A3" s="240"/>
-      <c r="B3" s="261" t="s">
+      <c r="A3" s="221"/>
+      <c r="B3" s="247" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="262"/>
-      <c r="D3" s="262"/>
+      <c r="C3" s="248"/>
+      <c r="D3" s="248"/>
       <c r="E3" s="33"/>
     </row>
     <row r="4" spans="1:5" ht="14.75" customHeight="1">
-      <c r="A4" s="240"/>
-      <c r="B4" s="241"/>
-      <c r="C4" s="241"/>
-      <c r="D4" s="241"/>
+      <c r="A4" s="221"/>
+      <c r="B4" s="222"/>
+      <c r="C4" s="222"/>
+      <c r="D4" s="222"/>
       <c r="E4" s="33"/>
     </row>
     <row r="5" spans="1:5" ht="14.75" customHeight="1">
-      <c r="A5" s="240"/>
-      <c r="B5" s="241"/>
-      <c r="C5" s="241"/>
-      <c r="D5" s="241"/>
+      <c r="A5" s="221"/>
+      <c r="B5" s="222"/>
+      <c r="C5" s="222"/>
+      <c r="D5" s="222"/>
       <c r="E5" s="33"/>
     </row>
     <row r="6" spans="1:5" ht="14.75" customHeight="1">
-      <c r="A6" s="240"/>
-      <c r="B6" s="241"/>
-      <c r="C6" s="241"/>
-      <c r="D6" s="241"/>
+      <c r="A6" s="221"/>
+      <c r="B6" s="222"/>
+      <c r="C6" s="222"/>
+      <c r="D6" s="222"/>
       <c r="E6" s="33"/>
     </row>
     <row r="7" spans="1:5" ht="19">
-      <c r="A7" s="240"/>
-      <c r="B7" s="252" t="s">
+      <c r="A7" s="221"/>
+      <c r="B7" s="233" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="252" t="s">
+      <c r="C7" s="233" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="252" t="s">
+      <c r="D7" s="233" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="33"/>
     </row>
     <row r="8" spans="1:5" ht="14.75" customHeight="1">
-      <c r="A8" s="240"/>
-      <c r="B8" s="241"/>
-      <c r="C8" s="241"/>
-      <c r="D8" s="241"/>
+      <c r="A8" s="221"/>
+      <c r="B8" s="222"/>
+      <c r="C8" s="222"/>
+      <c r="D8" s="222"/>
       <c r="E8" s="33"/>
     </row>
     <row r="9" spans="1:5" ht="17">
-      <c r="A9" s="240"/>
-      <c r="B9" s="253" t="s">
+      <c r="A9" s="221"/>
+      <c r="B9" s="234" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="254"/>
-      <c r="D9" s="254"/>
+      <c r="C9" s="235"/>
+      <c r="D9" s="235"/>
       <c r="E9" s="33"/>
     </row>
     <row r="10" spans="1:5" ht="17">
-      <c r="A10" s="240"/>
-      <c r="B10" s="255"/>
-      <c r="C10" s="256" t="s">
+      <c r="A10" s="221"/>
+      <c r="B10" s="236"/>
+      <c r="C10" s="237" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="257" t="s">
+      <c r="D10" s="238" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="33"/>
     </row>
     <row r="11" spans="1:5" ht="13" customHeight="1">
-      <c r="A11" s="240"/>
-      <c r="B11" s="258" t="s">
+      <c r="A11" s="221"/>
+      <c r="B11" s="239" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="258"/>
-      <c r="D11" s="258"/>
+      <c r="C11" s="239"/>
+      <c r="D11" s="239"/>
       <c r="E11" s="33"/>
     </row>
     <row r="12" spans="1:5" ht="13" customHeight="1">
-      <c r="A12" s="240"/>
-      <c r="B12" s="259"/>
-      <c r="C12" s="259" t="s">
+      <c r="A12" s="221"/>
+      <c r="B12" s="240"/>
+      <c r="C12" s="240" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="260" t="s">
+      <c r="D12" s="241" t="s">
         <v>4</v>
       </c>
       <c r="E12" s="33"/>
     </row>
     <row r="13" spans="1:5" ht="13" customHeight="1">
-      <c r="A13" s="240"/>
-      <c r="B13" s="258" t="s">
+      <c r="A13" s="221"/>
+      <c r="B13" s="239" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="258"/>
-      <c r="D13" s="258"/>
+      <c r="C13" s="239"/>
+      <c r="D13" s="239"/>
       <c r="E13" s="33"/>
     </row>
     <row r="14" spans="1:5" ht="13" customHeight="1">
-      <c r="A14" s="240"/>
-      <c r="B14" s="259"/>
-      <c r="C14" s="259" t="s">
+      <c r="A14" s="221"/>
+      <c r="B14" s="240"/>
+      <c r="C14" s="240" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="260" t="s">
+      <c r="D14" s="241" t="s">
         <v>7</v>
       </c>
       <c r="E14" s="33"/>
     </row>
     <row r="15" spans="1:5" ht="13" customHeight="1">
-      <c r="A15" s="240"/>
-      <c r="B15" s="258" t="s">
+      <c r="A15" s="221"/>
+      <c r="B15" s="239" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="258"/>
-      <c r="D15" s="258"/>
+      <c r="C15" s="239"/>
+      <c r="D15" s="239"/>
       <c r="E15" s="33"/>
     </row>
     <row r="16" spans="1:5" ht="13" customHeight="1">
-      <c r="A16" s="240"/>
-      <c r="B16" s="259"/>
-      <c r="C16" s="259" t="s">
+      <c r="A16" s="221"/>
+      <c r="B16" s="240"/>
+      <c r="C16" s="240" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="260" t="s">
+      <c r="D16" s="241" t="s">
         <v>8</v>
       </c>
       <c r="E16" s="33"/>
     </row>
     <row r="17" spans="1:5" ht="13" customHeight="1">
-      <c r="A17" s="240"/>
-      <c r="B17" s="258" t="s">
+      <c r="A17" s="221"/>
+      <c r="B17" s="239" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="258"/>
-      <c r="D17" s="258"/>
+      <c r="C17" s="239"/>
+      <c r="D17" s="239"/>
       <c r="E17" s="33"/>
     </row>
     <row r="18" spans="1:5" ht="13" customHeight="1">
-      <c r="A18" s="242"/>
-      <c r="B18" s="259"/>
-      <c r="C18" s="259" t="s">
+      <c r="A18" s="223"/>
+      <c r="B18" s="240"/>
+      <c r="C18" s="240" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="260" t="s">
+      <c r="D18" s="241" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="43"/>
     </row>
     <row r="19" spans="1:5" ht="13" customHeight="1">
-      <c r="A19" s="250"/>
-      <c r="B19" s="258" t="s">
+      <c r="A19" s="231"/>
+      <c r="B19" s="239" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="258"/>
-      <c r="D19" s="258"/>
+      <c r="C19" s="239"/>
+      <c r="D19" s="239"/>
       <c r="E19" s="32"/>
     </row>
     <row r="20" spans="1:5" ht="13" customHeight="1">
-      <c r="A20" s="240"/>
-      <c r="B20" s="259"/>
-      <c r="C20" s="259" t="s">
+      <c r="A20" s="221"/>
+      <c r="B20" s="240"/>
+      <c r="C20" s="240" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="260" t="s">
+      <c r="D20" s="241" t="s">
         <v>10</v>
       </c>
       <c r="E20" s="33"/>
     </row>
     <row r="21" spans="1:5" ht="13" customHeight="1">
-      <c r="A21" s="240"/>
-      <c r="B21" s="258" t="s">
+      <c r="A21" s="221"/>
+      <c r="B21" s="239" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="258"/>
-      <c r="D21" s="258"/>
+      <c r="C21" s="239"/>
+      <c r="D21" s="239"/>
       <c r="E21" s="33"/>
     </row>
     <row r="22" spans="1:5" ht="13" customHeight="1">
-      <c r="A22" s="242"/>
-      <c r="B22" s="259"/>
-      <c r="C22" s="259" t="s">
+      <c r="A22" s="223"/>
+      <c r="B22" s="240"/>
+      <c r="C22" s="240" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="260" t="s">
+      <c r="D22" s="241" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="43"/>
     </row>
     <row r="23" spans="1:5" ht="13" customHeight="1">
-      <c r="A23" s="250"/>
-      <c r="B23" s="258" t="s">
+      <c r="A23" s="231"/>
+      <c r="B23" s="239" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="258"/>
-      <c r="D23" s="258"/>
+      <c r="C23" s="239"/>
+      <c r="D23" s="239"/>
       <c r="E23" s="32"/>
     </row>
     <row r="24" spans="1:5" ht="13" customHeight="1">
-      <c r="A24" s="242"/>
-      <c r="B24" s="259"/>
-      <c r="C24" s="259" t="s">
+      <c r="A24" s="223"/>
+      <c r="B24" s="240"/>
+      <c r="C24" s="240" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="260" t="s">
+      <c r="D24" s="241" t="s">
         <v>12</v>
       </c>
       <c r="E24" s="43"/>
@@ -7907,7 +7850,7 @@
   </sheetPr>
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
@@ -7945,7 +7888,7 @@
       <c r="G1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="263" t="s">
+      <c r="H1" s="242" t="s">
         <v>20</v>
       </c>
       <c r="I1" s="2"/>
@@ -7960,24 +7903,24 @@
       <c r="B2" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="231"/>
-      <c r="D2" s="232" t="s">
+      <c r="C2" s="212"/>
+      <c r="D2" s="213" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="244" t="s">
+      <c r="E2" s="225" t="s">
         <v>23</v>
       </c>
       <c r="F2" s="66" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="75"/>
-      <c r="H2" s="267">
+      <c r="H2" s="246">
         <v>0</v>
       </c>
-      <c r="I2" s="245"/>
-      <c r="J2" s="245"/>
-      <c r="K2" s="246"/>
-      <c r="L2" s="217"/>
+      <c r="I2" s="226"/>
+      <c r="J2" s="226"/>
+      <c r="K2" s="227"/>
+      <c r="L2" s="198"/>
     </row>
     <row r="3" spans="1:12" ht="136.25" customHeight="1">
       <c r="A3" s="64">
@@ -7986,145 +7929,145 @@
       <c r="B3" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="231"/>
-      <c r="D3" s="233" t="s">
+      <c r="C3" s="212"/>
+      <c r="D3" s="214" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="244" t="s">
+      <c r="E3" s="225" t="s">
         <v>27</v>
       </c>
       <c r="F3" s="66" t="s">
         <v>28</v>
       </c>
       <c r="G3" s="66"/>
-      <c r="H3" s="267">
+      <c r="H3" s="246">
         <v>1</v>
       </c>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
-      <c r="K3" s="246"/>
-      <c r="L3" s="247"/>
+      <c r="K3" s="227"/>
+      <c r="L3" s="228"/>
     </row>
     <row r="4" spans="1:12" ht="151" customHeight="1">
       <c r="A4" s="64">
         <v>0</v>
       </c>
-      <c r="B4" s="234" t="s">
+      <c r="B4" s="215" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="231"/>
-      <c r="D4" s="232" t="s">
+      <c r="C4" s="212"/>
+      <c r="D4" s="213" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="244" t="s">
+      <c r="E4" s="225" t="s">
         <v>23</v>
       </c>
       <c r="F4" s="66" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="75"/>
-      <c r="H4" s="267">
+      <c r="H4" s="246">
         <v>2</v>
       </c>
-      <c r="I4" s="248"/>
-      <c r="J4" s="239"/>
-      <c r="K4" s="238"/>
-      <c r="L4" s="249"/>
+      <c r="I4" s="229"/>
+      <c r="J4" s="220"/>
+      <c r="K4" s="219"/>
+      <c r="L4" s="230"/>
     </row>
     <row r="5" spans="1:12" ht="107" customHeight="1">
       <c r="A5" s="64">
         <v>0</v>
       </c>
-      <c r="B5" s="234" t="s">
+      <c r="B5" s="215" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="231"/>
-      <c r="D5" s="235" t="s">
+      <c r="C5" s="212"/>
+      <c r="D5" s="216" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="244" t="s">
+      <c r="E5" s="225" t="s">
         <v>27</v>
       </c>
       <c r="F5" s="66" t="s">
         <v>28</v>
       </c>
       <c r="G5" s="66"/>
-      <c r="H5" s="267">
+      <c r="H5" s="246">
         <v>3</v>
       </c>
       <c r="I5" s="8"/>
-      <c r="J5" s="241"/>
-      <c r="K5" s="241"/>
+      <c r="J5" s="222"/>
+      <c r="K5" s="222"/>
       <c r="L5" s="33"/>
     </row>
     <row r="6" spans="1:12" ht="14.75" customHeight="1">
-      <c r="A6" s="236"/>
-      <c r="B6" s="237"/>
-      <c r="C6" s="238"/>
-      <c r="D6" s="239"/>
-      <c r="E6" s="238"/>
-      <c r="F6" s="238"/>
-      <c r="G6" s="238"/>
-      <c r="H6" s="264"/>
-      <c r="I6" s="241"/>
-      <c r="J6" s="241"/>
-      <c r="K6" s="241"/>
+      <c r="A6" s="217"/>
+      <c r="B6" s="218"/>
+      <c r="C6" s="219"/>
+      <c r="D6" s="220"/>
+      <c r="E6" s="219"/>
+      <c r="F6" s="219"/>
+      <c r="G6" s="219"/>
+      <c r="H6" s="243"/>
+      <c r="I6" s="222"/>
+      <c r="J6" s="222"/>
+      <c r="K6" s="222"/>
       <c r="L6" s="33"/>
     </row>
     <row r="7" spans="1:12" ht="14.75" customHeight="1">
-      <c r="A7" s="236"/>
-      <c r="B7" s="240"/>
-      <c r="C7" s="241"/>
-      <c r="D7" s="241"/>
-      <c r="E7" s="241"/>
-      <c r="F7" s="241"/>
-      <c r="G7" s="241"/>
-      <c r="H7" s="265"/>
-      <c r="I7" s="241"/>
-      <c r="J7" s="241"/>
-      <c r="K7" s="241"/>
+      <c r="A7" s="217"/>
+      <c r="B7" s="221"/>
+      <c r="C7" s="222"/>
+      <c r="D7" s="222"/>
+      <c r="E7" s="222"/>
+      <c r="F7" s="222"/>
+      <c r="G7" s="222"/>
+      <c r="H7" s="244"/>
+      <c r="I7" s="222"/>
+      <c r="J7" s="222"/>
+      <c r="K7" s="222"/>
       <c r="L7" s="33"/>
     </row>
     <row r="8" spans="1:12" ht="14.75" customHeight="1">
-      <c r="A8" s="236"/>
-      <c r="B8" s="240"/>
-      <c r="C8" s="241"/>
-      <c r="D8" s="241"/>
-      <c r="E8" s="241"/>
-      <c r="F8" s="241"/>
-      <c r="G8" s="241"/>
-      <c r="H8" s="265"/>
-      <c r="I8" s="241"/>
-      <c r="J8" s="241"/>
-      <c r="K8" s="241"/>
+      <c r="A8" s="217"/>
+      <c r="B8" s="221"/>
+      <c r="C8" s="222"/>
+      <c r="D8" s="222"/>
+      <c r="E8" s="222"/>
+      <c r="F8" s="222"/>
+      <c r="G8" s="222"/>
+      <c r="H8" s="244"/>
+      <c r="I8" s="222"/>
+      <c r="J8" s="222"/>
+      <c r="K8" s="222"/>
       <c r="L8" s="33"/>
     </row>
     <row r="9" spans="1:12" ht="14.75" customHeight="1">
-      <c r="A9" s="236"/>
-      <c r="B9" s="240"/>
-      <c r="C9" s="241"/>
-      <c r="D9" s="241"/>
-      <c r="E9" s="241"/>
-      <c r="F9" s="241"/>
-      <c r="G9" s="241"/>
-      <c r="H9" s="265"/>
-      <c r="I9" s="241"/>
-      <c r="J9" s="241"/>
-      <c r="K9" s="241"/>
+      <c r="A9" s="217"/>
+      <c r="B9" s="221"/>
+      <c r="C9" s="222"/>
+      <c r="D9" s="222"/>
+      <c r="E9" s="222"/>
+      <c r="F9" s="222"/>
+      <c r="G9" s="222"/>
+      <c r="H9" s="244"/>
+      <c r="I9" s="222"/>
+      <c r="J9" s="222"/>
+      <c r="K9" s="222"/>
       <c r="L9" s="33"/>
     </row>
     <row r="10" spans="1:12" ht="14.75" customHeight="1">
       <c r="A10" s="51"/>
-      <c r="B10" s="242"/>
-      <c r="C10" s="243"/>
-      <c r="D10" s="243"/>
-      <c r="E10" s="243"/>
-      <c r="F10" s="243"/>
-      <c r="G10" s="243"/>
-      <c r="H10" s="266"/>
-      <c r="I10" s="243"/>
-      <c r="J10" s="243"/>
-      <c r="K10" s="243"/>
+      <c r="B10" s="223"/>
+      <c r="C10" s="224"/>
+      <c r="D10" s="224"/>
+      <c r="E10" s="224"/>
+      <c r="F10" s="224"/>
+      <c r="G10" s="224"/>
+      <c r="H10" s="245"/>
+      <c r="I10" s="224"/>
+      <c r="J10" s="224"/>
+      <c r="K10" s="224"/>
       <c r="L10" s="43"/>
     </row>
   </sheetData>
@@ -8172,19 +8115,19 @@
       <c r="D1" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="216" t="s">
+      <c r="E1" s="197" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="197" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="216" t="s">
+      <c r="G1" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="H1" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" s="216" t="s">
+      <c r="I1" s="197" t="s">
         <v>20</v>
       </c>
     </row>
@@ -8193,21 +8136,21 @@
         <v>1</v>
       </c>
       <c r="B2" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="D2" s="188"/>
+      <c r="E2" s="198"/>
+      <c r="F2" s="199"/>
+      <c r="G2" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="207"/>
-      <c r="E2" s="217"/>
-      <c r="F2" s="218"/>
-      <c r="G2" s="66" t="s">
+      <c r="H2" s="200" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="219" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="226">
+      <c r="I2" s="207">
         <v>0</v>
       </c>
     </row>
@@ -8216,19 +8159,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="66" t="s">
         <v>43</v>
-      </c>
-      <c r="C3" s="66" t="s">
-        <v>44</v>
       </c>
       <c r="D3" s="66"/>
       <c r="E3" s="66"/>
       <c r="F3" s="66"/>
       <c r="G3" s="66"/>
-      <c r="H3" s="220" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="227">
+      <c r="H3" s="201" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="208">
         <v>1</v>
       </c>
     </row>
@@ -8237,19 +8180,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="66" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="66" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" s="66"/>
       <c r="E4" s="66"/>
       <c r="F4" s="66"/>
       <c r="G4" s="66"/>
-      <c r="H4" s="220" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="227">
+      <c r="H4" s="201" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="208">
         <v>2</v>
       </c>
     </row>
@@ -8258,19 +8201,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="66" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" s="66"/>
       <c r="E5" s="66"/>
       <c r="F5" s="66"/>
       <c r="G5" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="201" t="s">
         <v>49</v>
-      </c>
-      <c r="H5" s="220" t="s">
-        <v>50</v>
       </c>
       <c r="I5" s="82">
         <v>3</v>
@@ -8282,16 +8225,16 @@
       </c>
       <c r="B6" s="66"/>
       <c r="C6" s="66" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" s="66"/>
       <c r="E6" s="66"/>
       <c r="F6" s="66"/>
       <c r="G6" s="66"/>
-      <c r="H6" s="220" t="s">
-        <v>52</v>
-      </c>
-      <c r="I6" s="228">
+      <c r="H6" s="201" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="209">
         <v>4</v>
       </c>
     </row>
@@ -8301,16 +8244,16 @@
       </c>
       <c r="B7" s="66"/>
       <c r="C7" s="66" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" s="66"/>
       <c r="E7" s="66"/>
       <c r="F7" s="66"/>
       <c r="G7" s="66"/>
-      <c r="H7" s="220" t="s">
-        <v>54</v>
-      </c>
-      <c r="I7" s="228">
+      <c r="H7" s="201" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="209">
         <v>5</v>
       </c>
     </row>
@@ -8320,14 +8263,14 @@
       </c>
       <c r="B8" s="68"/>
       <c r="C8" s="67" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8" s="68"/>
       <c r="E8" s="68"/>
       <c r="F8" s="68"/>
       <c r="G8" s="68"/>
       <c r="H8" s="67" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I8" s="82">
         <v>6</v>
@@ -8339,16 +8282,16 @@
       </c>
       <c r="B9" s="68"/>
       <c r="C9" s="67" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" s="68"/>
       <c r="E9" s="68"/>
       <c r="F9" s="68"/>
       <c r="G9" s="68"/>
       <c r="H9" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="I9" s="228">
+        <v>57</v>
+      </c>
+      <c r="I9" s="209">
         <v>7</v>
       </c>
     </row>
@@ -8358,289 +8301,289 @@
       </c>
       <c r="B10" s="68"/>
       <c r="C10" s="67" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" s="68"/>
-      <c r="E10" s="221"/>
-      <c r="F10" s="221"/>
+      <c r="E10" s="202"/>
+      <c r="F10" s="202"/>
       <c r="G10" s="68"/>
       <c r="H10" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="228">
+      <c r="I10" s="209">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
-      <c r="A11" s="208">
+      <c r="A11" s="189">
         <v>0</v>
       </c>
-      <c r="B11" s="209" t="s">
+      <c r="B11" s="190" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="191" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="192"/>
+      <c r="E11" s="203"/>
+      <c r="F11" s="204"/>
+      <c r="G11" s="193" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="210" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="211"/>
-      <c r="E11" s="222"/>
-      <c r="F11" s="223"/>
-      <c r="G11" s="212" t="s">
+      <c r="H11" s="205" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="224" t="s">
+      <c r="I11" s="210">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="20" customHeight="1">
+      <c r="A12" s="189">
+        <v>0</v>
+      </c>
+      <c r="B12" s="190" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="229">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1">
-      <c r="A12" s="208">
+      <c r="C12" s="193" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="193"/>
+      <c r="E12" s="193"/>
+      <c r="F12" s="193"/>
+      <c r="G12" s="193"/>
+      <c r="H12" s="206" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" s="210">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="20" customHeight="1">
+      <c r="A13" s="189">
         <v>0</v>
       </c>
-      <c r="B12" s="209" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="212" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="212"/>
-      <c r="E12" s="212"/>
-      <c r="F12" s="212"/>
-      <c r="G12" s="212"/>
-      <c r="H12" s="225" t="s">
+      <c r="B13" s="193" t="s">
         <v>64</v>
       </c>
-      <c r="I12" s="229">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="20" customHeight="1">
-      <c r="A13" s="208">
+      <c r="C13" s="193" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="193"/>
+      <c r="E13" s="193"/>
+      <c r="F13" s="193"/>
+      <c r="G13" s="193"/>
+      <c r="H13" s="206" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" s="210">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="20" customHeight="1">
+      <c r="A14" s="189">
         <v>0</v>
       </c>
-      <c r="B13" s="212" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="212" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="212"/>
-      <c r="E13" s="212"/>
-      <c r="F13" s="212"/>
-      <c r="G13" s="212"/>
-      <c r="H13" s="225" t="s">
+      <c r="B14" s="190" t="s">
         <v>66</v>
       </c>
-      <c r="I13" s="229">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="20" customHeight="1">
-      <c r="A14" s="208">
+      <c r="C14" s="193" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="193"/>
+      <c r="E14" s="193"/>
+      <c r="F14" s="193"/>
+      <c r="G14" s="193" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="206" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" s="210">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="20" customHeight="1">
+      <c r="A15" s="189">
         <v>0</v>
       </c>
-      <c r="B14" s="209" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="212" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="212"/>
-      <c r="E14" s="212"/>
-      <c r="F14" s="212"/>
-      <c r="G14" s="212" t="s">
-        <v>68</v>
-      </c>
-      <c r="H14" s="225" t="s">
+      <c r="B15" s="193"/>
+      <c r="C15" s="193" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="193"/>
+      <c r="E15" s="193"/>
+      <c r="F15" s="193"/>
+      <c r="G15" s="193"/>
+      <c r="H15" s="206" t="s">
         <v>69</v>
       </c>
-      <c r="I14" s="229">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="20" customHeight="1">
-      <c r="A15" s="208">
+      <c r="I15" s="210">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="20" customHeight="1">
+      <c r="A16" s="189">
         <v>0</v>
       </c>
-      <c r="B15" s="212"/>
-      <c r="C15" s="212" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="212"/>
-      <c r="E15" s="212"/>
-      <c r="F15" s="212"/>
-      <c r="G15" s="212"/>
-      <c r="H15" s="225" t="s">
+      <c r="B16" s="193"/>
+      <c r="C16" s="193" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="193"/>
+      <c r="E16" s="193"/>
+      <c r="F16" s="193"/>
+      <c r="G16" s="193"/>
+      <c r="H16" s="206" t="s">
         <v>70</v>
       </c>
-      <c r="I15" s="229">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="20" customHeight="1">
-      <c r="A16" s="208">
+      <c r="I16" s="210">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="20" customHeight="1">
+      <c r="A17" s="189">
         <v>0</v>
       </c>
-      <c r="B16" s="212"/>
-      <c r="C16" s="212" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="212"/>
-      <c r="E16" s="212"/>
-      <c r="F16" s="212"/>
-      <c r="G16" s="212"/>
-      <c r="H16" s="225" t="s">
+      <c r="B17" s="194"/>
+      <c r="C17" s="191" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="194"/>
+      <c r="E17" s="194"/>
+      <c r="F17" s="194"/>
+      <c r="G17" s="194"/>
+      <c r="H17" s="191" t="s">
         <v>71</v>
       </c>
-      <c r="I16" s="229">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="20" customHeight="1">
-      <c r="A17" s="208">
+      <c r="I17" s="210">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="20" customHeight="1">
+      <c r="A18" s="189">
         <v>0</v>
       </c>
-      <c r="B17" s="213"/>
-      <c r="C17" s="210" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="213"/>
-      <c r="E17" s="213"/>
-      <c r="F17" s="213"/>
-      <c r="G17" s="213"/>
-      <c r="H17" s="210" t="s">
+      <c r="B18" s="194"/>
+      <c r="C18" s="191" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="194"/>
+      <c r="E18" s="194"/>
+      <c r="F18" s="194"/>
+      <c r="G18" s="194"/>
+      <c r="H18" s="191" t="s">
         <v>72</v>
       </c>
-      <c r="I17" s="229">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="20" customHeight="1">
-      <c r="A18" s="208">
+      <c r="I18" s="210">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="20" customHeight="1">
+      <c r="A19" s="189">
         <v>0</v>
       </c>
-      <c r="B18" s="213"/>
-      <c r="C18" s="210" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="213"/>
-      <c r="E18" s="213"/>
-      <c r="F18" s="213"/>
-      <c r="G18" s="213"/>
-      <c r="H18" s="210" t="s">
+      <c r="B19" s="194"/>
+      <c r="C19" s="191" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="194"/>
+      <c r="E19" s="194"/>
+      <c r="F19" s="194"/>
+      <c r="G19" s="194"/>
+      <c r="H19" s="191" t="s">
         <v>73</v>
       </c>
-      <c r="I18" s="229">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="20" customHeight="1">
-      <c r="A19" s="208">
-        <v>0</v>
-      </c>
-      <c r="B19" s="213"/>
-      <c r="C19" s="210" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="213"/>
-      <c r="E19" s="213"/>
-      <c r="F19" s="213"/>
-      <c r="G19" s="213"/>
-      <c r="H19" s="210" t="s">
-        <v>74</v>
-      </c>
-      <c r="I19" s="229">
+      <c r="I19" s="210">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="20" customHeight="1">
-      <c r="A20" s="214"/>
-      <c r="B20" s="213"/>
-      <c r="C20" s="210"/>
-      <c r="D20" s="213"/>
-      <c r="E20" s="213"/>
-      <c r="F20" s="213"/>
-      <c r="G20" s="213"/>
-      <c r="H20" s="210"/>
-      <c r="I20" s="230"/>
+      <c r="A20" s="195"/>
+      <c r="B20" s="194"/>
+      <c r="C20" s="191"/>
+      <c r="D20" s="194"/>
+      <c r="E20" s="194"/>
+      <c r="F20" s="194"/>
+      <c r="G20" s="194"/>
+      <c r="H20" s="191"/>
+      <c r="I20" s="211"/>
     </row>
     <row r="21" spans="1:9" ht="20" customHeight="1">
-      <c r="A21" s="214"/>
-      <c r="B21" s="213"/>
-      <c r="C21" s="210"/>
-      <c r="D21" s="213"/>
-      <c r="E21" s="213"/>
-      <c r="F21" s="213"/>
-      <c r="G21" s="213"/>
-      <c r="H21" s="210"/>
-      <c r="I21" s="230"/>
+      <c r="A21" s="195"/>
+      <c r="B21" s="194"/>
+      <c r="C21" s="191"/>
+      <c r="D21" s="194"/>
+      <c r="E21" s="194"/>
+      <c r="F21" s="194"/>
+      <c r="G21" s="194"/>
+      <c r="H21" s="191"/>
+      <c r="I21" s="211"/>
     </row>
     <row r="22" spans="1:9" ht="20" customHeight="1">
-      <c r="A22" s="214"/>
-      <c r="B22" s="213"/>
-      <c r="C22" s="210"/>
-      <c r="D22" s="213"/>
-      <c r="E22" s="213"/>
-      <c r="F22" s="213"/>
-      <c r="G22" s="213"/>
-      <c r="H22" s="210"/>
-      <c r="I22" s="230"/>
+      <c r="A22" s="195"/>
+      <c r="B22" s="194"/>
+      <c r="C22" s="191"/>
+      <c r="D22" s="194"/>
+      <c r="E22" s="194"/>
+      <c r="F22" s="194"/>
+      <c r="G22" s="194"/>
+      <c r="H22" s="191"/>
+      <c r="I22" s="211"/>
     </row>
     <row r="23" spans="1:9" ht="20" customHeight="1">
-      <c r="A23" s="214"/>
-      <c r="B23" s="213"/>
-      <c r="C23" s="210"/>
-      <c r="D23" s="213"/>
-      <c r="E23" s="213"/>
-      <c r="F23" s="213"/>
-      <c r="G23" s="213"/>
-      <c r="H23" s="210"/>
-      <c r="I23" s="230"/>
+      <c r="A23" s="195"/>
+      <c r="B23" s="194"/>
+      <c r="C23" s="191"/>
+      <c r="D23" s="194"/>
+      <c r="E23" s="194"/>
+      <c r="F23" s="194"/>
+      <c r="G23" s="194"/>
+      <c r="H23" s="191"/>
+      <c r="I23" s="211"/>
     </row>
     <row r="24" spans="1:9" ht="20" customHeight="1">
-      <c r="A24" s="214"/>
-      <c r="B24" s="213"/>
-      <c r="C24" s="210"/>
-      <c r="D24" s="213"/>
-      <c r="E24" s="213"/>
-      <c r="F24" s="213"/>
-      <c r="G24" s="213"/>
-      <c r="H24" s="210"/>
-      <c r="I24" s="230"/>
+      <c r="A24" s="195"/>
+      <c r="B24" s="194"/>
+      <c r="C24" s="191"/>
+      <c r="D24" s="194"/>
+      <c r="E24" s="194"/>
+      <c r="F24" s="194"/>
+      <c r="G24" s="194"/>
+      <c r="H24" s="191"/>
+      <c r="I24" s="211"/>
     </row>
     <row r="25" spans="1:9" ht="20" customHeight="1">
-      <c r="A25" s="214"/>
-      <c r="B25" s="213"/>
-      <c r="C25" s="210"/>
-      <c r="D25" s="213"/>
-      <c r="E25" s="213"/>
-      <c r="F25" s="213"/>
-      <c r="G25" s="213"/>
-      <c r="H25" s="210"/>
-      <c r="I25" s="230"/>
+      <c r="A25" s="195"/>
+      <c r="B25" s="194"/>
+      <c r="C25" s="191"/>
+      <c r="D25" s="194"/>
+      <c r="E25" s="194"/>
+      <c r="F25" s="194"/>
+      <c r="G25" s="194"/>
+      <c r="H25" s="191"/>
+      <c r="I25" s="211"/>
     </row>
     <row r="26" spans="1:9" ht="20" customHeight="1">
-      <c r="A26" s="214"/>
-      <c r="B26" s="213"/>
-      <c r="C26" s="210"/>
-      <c r="D26" s="213"/>
-      <c r="E26" s="213"/>
-      <c r="F26" s="213"/>
-      <c r="G26" s="213"/>
-      <c r="H26" s="210"/>
-      <c r="I26" s="230"/>
+      <c r="A26" s="195"/>
+      <c r="B26" s="194"/>
+      <c r="C26" s="191"/>
+      <c r="D26" s="194"/>
+      <c r="E26" s="194"/>
+      <c r="F26" s="194"/>
+      <c r="G26" s="194"/>
+      <c r="H26" s="191"/>
+      <c r="I26" s="211"/>
     </row>
     <row r="27" spans="1:9" ht="20" customHeight="1">
-      <c r="A27" s="215"/>
-      <c r="B27" s="213"/>
-      <c r="C27" s="210"/>
-      <c r="D27" s="213"/>
-      <c r="E27" s="213"/>
-      <c r="F27" s="213"/>
-      <c r="G27" s="213"/>
-      <c r="H27" s="210"/>
-      <c r="I27" s="230"/>
+      <c r="A27" s="196"/>
+      <c r="B27" s="194"/>
+      <c r="C27" s="191"/>
+      <c r="D27" s="194"/>
+      <c r="E27" s="194"/>
+      <c r="F27" s="194"/>
+      <c r="G27" s="194"/>
+      <c r="H27" s="191"/>
+      <c r="I27" s="211"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -8658,8 +8601,8 @@
   </sheetPr>
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -8677,16 +8620,16 @@
         <v>13</v>
       </c>
       <c r="B1" s="154" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C1" s="155" t="s">
         <v>14</v>
       </c>
       <c r="D1" s="154" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="154" t="s">
         <v>76</v>
-      </c>
-      <c r="E1" s="154" t="s">
-        <v>77</v>
       </c>
       <c r="F1" s="154" t="s">
         <v>20</v>
@@ -8694,1209 +8637,1212 @@
     </row>
     <row r="2" spans="1:6" ht="20.25" customHeight="1">
       <c r="A2" s="64">
-        <v>1</v>
-      </c>
-      <c r="B2" s="156" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="157"/>
-      <c r="D2" s="158" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" s="191" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="192">
         <v>0</v>
+      </c>
+      <c r="B2" s="249" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="156"/>
+      <c r="D2" s="255" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" s="183">
+        <v>13</v>
+      </c>
+      <c r="F2" s="183">
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1">
       <c r="A3" s="64">
-        <v>1</v>
-      </c>
-      <c r="B3" s="159" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="160"/>
-      <c r="D3" s="161" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="193" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="192">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B3" s="249" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" s="158"/>
+      <c r="D3" s="177" t="s">
+        <v>177</v>
+      </c>
+      <c r="E3" s="265">
+        <v>23</v>
+      </c>
+      <c r="F3" s="183">
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
       <c r="A4" s="88">
-        <v>1</v>
-      </c>
-      <c r="B4" s="162" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="160"/>
-      <c r="D4" s="161" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" s="194" t="s">
-        <v>84</v>
-      </c>
-      <c r="F4" s="192">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="B4" s="175" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="158"/>
+      <c r="D4" s="174" t="s">
+        <v>140</v>
+      </c>
+      <c r="E4" s="266">
+        <v>4</v>
+      </c>
+      <c r="F4" s="183">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20" customHeight="1">
       <c r="A5" s="88">
-        <v>1</v>
-      </c>
-      <c r="B5" s="163" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" s="160"/>
-      <c r="D5" s="161" t="s">
-        <v>86</v>
-      </c>
-      <c r="E5" s="195" t="s">
-        <v>87</v>
-      </c>
-      <c r="F5" s="192">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="B5" s="176" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="158"/>
+      <c r="D5" s="174" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5" s="266">
+        <v>132</v>
+      </c>
+      <c r="F5" s="183">
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20" customHeight="1">
       <c r="A6" s="88">
-        <v>1</v>
-      </c>
-      <c r="B6" s="164" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="160"/>
-      <c r="D6" s="161" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" s="194" t="s">
-        <v>90</v>
-      </c>
-      <c r="F6" s="192">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="B6" s="176" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" s="158"/>
+      <c r="D6" s="261" t="s">
+        <v>166</v>
+      </c>
+      <c r="E6" s="267">
+        <v>17</v>
+      </c>
+      <c r="F6" s="183">
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20" customHeight="1">
       <c r="A7" s="88">
-        <v>1</v>
-      </c>
-      <c r="B7" s="163" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" s="160"/>
-      <c r="D7" s="161" t="s">
-        <v>92</v>
-      </c>
-      <c r="E7" s="194" t="s">
-        <v>93</v>
-      </c>
-      <c r="F7" s="196">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="B7" s="176" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7" s="158"/>
+      <c r="D7" s="260" t="s">
+        <v>170</v>
+      </c>
+      <c r="E7" s="266">
+        <v>19</v>
+      </c>
+      <c r="F7" s="184">
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="20" customHeight="1">
       <c r="A8" s="88">
-        <v>1</v>
-      </c>
-      <c r="B8" s="163" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8" s="160"/>
-      <c r="D8" s="161" t="s">
-        <v>95</v>
-      </c>
-      <c r="E8" s="197" t="s">
-        <v>96</v>
-      </c>
-      <c r="F8" s="198">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="B8" s="176" t="s">
+        <v>180</v>
+      </c>
+      <c r="C8" s="158"/>
+      <c r="D8" s="177" t="s">
+        <v>181</v>
+      </c>
+      <c r="E8" s="263"/>
+      <c r="F8" s="185">
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="20" customHeight="1">
       <c r="A9" s="88">
-        <v>1</v>
-      </c>
-      <c r="B9" s="163" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" s="160"/>
-      <c r="D9" s="165" t="s">
-        <v>98</v>
-      </c>
-      <c r="E9" s="199" t="s">
-        <v>99</v>
-      </c>
-      <c r="F9" s="198">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="B9" s="176" t="s">
+        <v>171</v>
+      </c>
+      <c r="C9" s="158"/>
+      <c r="D9" s="256" t="s">
+        <v>172</v>
+      </c>
+      <c r="E9" s="268">
+        <v>20</v>
+      </c>
+      <c r="F9" s="185">
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="20" customHeight="1">
       <c r="A10" s="88">
-        <v>1</v>
-      </c>
-      <c r="B10" s="166" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="167"/>
-      <c r="D10" s="168" t="s">
-        <v>101</v>
-      </c>
-      <c r="E10" s="168" t="s">
-        <v>102</v>
+        <v>0</v>
+      </c>
+      <c r="B10" s="178" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" s="164"/>
+      <c r="D10" s="179" t="s">
+        <v>173</v>
+      </c>
+      <c r="E10" s="152">
+        <v>21</v>
       </c>
       <c r="F10" s="152">
-        <v>8</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="20" customHeight="1">
       <c r="A11" s="64">
-        <v>1</v>
-      </c>
-      <c r="B11" s="169" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="170"/>
-      <c r="D11" s="169" t="s">
-        <v>104</v>
-      </c>
-      <c r="E11" s="191" t="s">
-        <v>105</v>
-      </c>
-      <c r="F11" s="192">
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="B11" s="168" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" s="167"/>
+      <c r="D11" s="168" t="s">
+        <v>189</v>
+      </c>
+      <c r="E11" s="167"/>
+      <c r="F11" s="183">
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="20" customHeight="1">
       <c r="A12" s="64">
-        <v>1</v>
-      </c>
-      <c r="B12" s="169" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" s="170"/>
-      <c r="D12" s="169" t="s">
-        <v>107</v>
-      </c>
-      <c r="E12" s="169" t="s">
-        <v>108</v>
-      </c>
-      <c r="F12" s="192">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="B12" s="168" t="s">
+        <v>188</v>
+      </c>
+      <c r="C12" s="166" t="s">
+        <v>195</v>
+      </c>
+      <c r="D12" s="168" t="s">
+        <v>189</v>
+      </c>
+      <c r="E12" s="167"/>
+      <c r="F12" s="183">
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="20" customHeight="1">
       <c r="A13" s="64">
-        <v>1</v>
-      </c>
-      <c r="B13" s="169" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" s="170"/>
-      <c r="D13" s="169" t="s">
-        <v>110</v>
-      </c>
-      <c r="E13" s="169" t="s">
-        <v>111</v>
-      </c>
-      <c r="F13" s="192">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="B13" s="168" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13" s="167"/>
+      <c r="D13" s="166" t="s">
+        <v>191</v>
+      </c>
+      <c r="E13" s="167"/>
+      <c r="F13" s="183">
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="20" customHeight="1">
       <c r="A14" s="64">
-        <v>1</v>
-      </c>
-      <c r="B14" s="169" t="s">
-        <v>112</v>
-      </c>
-      <c r="C14" s="170"/>
-      <c r="D14" s="169" t="s">
-        <v>113</v>
-      </c>
-      <c r="E14" s="191" t="s">
-        <v>114</v>
-      </c>
-      <c r="F14" s="192">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="B14" s="168" t="s">
+        <v>184</v>
+      </c>
+      <c r="C14" s="167"/>
+      <c r="D14" s="168" t="s">
+        <v>185</v>
+      </c>
+      <c r="E14" s="167"/>
+      <c r="F14" s="183">
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="20" customHeight="1">
       <c r="A15" s="64">
-        <v>1</v>
-      </c>
-      <c r="B15" s="169" t="s">
-        <v>115</v>
-      </c>
-      <c r="C15" s="170"/>
-      <c r="D15" s="169" t="s">
-        <v>116</v>
-      </c>
-      <c r="E15" s="169" t="s">
-        <v>117</v>
-      </c>
-      <c r="F15" s="192">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="B15" s="168" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" s="167"/>
+      <c r="D15" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="E15" s="183">
+        <v>18</v>
+      </c>
+      <c r="F15" s="183">
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="20" customHeight="1">
       <c r="A16" s="64">
-        <v>1</v>
-      </c>
-      <c r="B16" s="169" t="s">
-        <v>118</v>
-      </c>
-      <c r="C16" s="170"/>
-      <c r="D16" s="169" t="s">
-        <v>119</v>
-      </c>
-      <c r="E16" s="169" t="s">
-        <v>120</v>
-      </c>
-      <c r="F16" s="192">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="B16" s="168" t="s">
+        <v>155</v>
+      </c>
+      <c r="C16" s="167"/>
+      <c r="D16" s="69" t="s">
+        <v>156</v>
+      </c>
+      <c r="E16" s="269">
+        <v>12</v>
+      </c>
+      <c r="F16" s="183">
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="20" customHeight="1">
       <c r="A17" s="64">
-        <v>1</v>
-      </c>
-      <c r="B17" s="169" t="s">
-        <v>121</v>
-      </c>
-      <c r="C17" s="170"/>
-      <c r="D17" s="169" t="s">
-        <v>122</v>
-      </c>
-      <c r="E17" s="191" t="s">
-        <v>123</v>
-      </c>
-      <c r="F17" s="192">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="B17" s="168" t="s">
+        <v>163</v>
+      </c>
+      <c r="C17" s="167"/>
+      <c r="D17" s="69" t="s">
+        <v>164</v>
+      </c>
+      <c r="E17" s="269">
+        <v>16</v>
+      </c>
+      <c r="F17" s="183">
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="20" customHeight="1">
       <c r="A18" s="64">
-        <v>1</v>
-      </c>
-      <c r="B18" s="169" t="s">
-        <v>124</v>
-      </c>
-      <c r="C18" s="170"/>
-      <c r="D18" s="169" t="s">
-        <v>125</v>
-      </c>
-      <c r="E18" s="191" t="s">
-        <v>126</v>
-      </c>
-      <c r="F18" s="192">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="B18" s="168" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" s="167"/>
+      <c r="D18" s="258" t="s">
+        <v>142</v>
+      </c>
+      <c r="E18" s="183">
+        <v>5</v>
+      </c>
+      <c r="F18" s="183">
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="20" customHeight="1">
       <c r="A19" s="64">
-        <v>1</v>
-      </c>
-      <c r="B19" s="169" t="s">
-        <v>127</v>
-      </c>
-      <c r="C19" s="170"/>
-      <c r="D19" s="169" t="s">
-        <v>128</v>
-      </c>
-      <c r="E19" s="169" t="s">
-        <v>129</v>
-      </c>
-      <c r="F19" s="192">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="B19" s="168" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" s="167"/>
+      <c r="D19" s="168" t="s">
+        <v>152</v>
+      </c>
+      <c r="E19" s="269">
+        <v>10</v>
+      </c>
+      <c r="F19" s="183">
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="20" customHeight="1">
       <c r="A20" s="64">
-        <v>1</v>
-      </c>
-      <c r="B20" s="169" t="s">
-        <v>130</v>
-      </c>
-      <c r="C20" s="170"/>
-      <c r="D20" s="169" t="s">
-        <v>131</v>
-      </c>
-      <c r="E20" s="169" t="s">
-        <v>132</v>
-      </c>
-      <c r="F20" s="192">
-        <v>18</v>
+        <v>0</v>
+      </c>
+      <c r="B20" s="254" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="167"/>
+      <c r="D20" s="258" t="s">
+        <v>136</v>
+      </c>
+      <c r="E20" s="183">
+        <v>2</v>
+      </c>
+      <c r="F20" s="183">
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="20" customHeight="1">
       <c r="A21" s="64">
-        <v>1</v>
-      </c>
-      <c r="B21" s="169" t="s">
-        <v>130</v>
-      </c>
-      <c r="C21" s="170"/>
-      <c r="D21" s="169" t="s">
-        <v>133</v>
-      </c>
-      <c r="E21" s="191" t="s">
-        <v>134</v>
-      </c>
-      <c r="F21" s="192">
-        <v>19</v>
+        <v>0</v>
+      </c>
+      <c r="B21" s="254" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="167"/>
+      <c r="D21" s="258" t="s">
+        <v>136</v>
+      </c>
+      <c r="E21" s="183">
+        <v>131</v>
+      </c>
+      <c r="F21" s="183">
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="20" customHeight="1">
       <c r="A22" s="64">
-        <v>1</v>
-      </c>
-      <c r="B22" s="169" t="s">
-        <v>135</v>
-      </c>
-      <c r="C22" s="170"/>
-      <c r="D22" s="169" t="s">
-        <v>136</v>
-      </c>
-      <c r="E22" s="191" t="s">
-        <v>137</v>
-      </c>
-      <c r="F22" s="192">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="B22" s="168" t="s">
+        <v>161</v>
+      </c>
+      <c r="C22" s="167"/>
+      <c r="D22" s="69" t="s">
+        <v>162</v>
+      </c>
+      <c r="E22" s="269">
+        <v>15</v>
+      </c>
+      <c r="F22" s="183">
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="20" customHeight="1">
       <c r="A23" s="64">
-        <v>1</v>
-      </c>
-      <c r="B23" s="169" t="s">
-        <v>138</v>
-      </c>
-      <c r="C23" s="170"/>
-      <c r="D23" s="169" t="s">
-        <v>139</v>
-      </c>
-      <c r="E23" s="169" t="s">
-        <v>140</v>
-      </c>
-      <c r="F23" s="192">
-        <v>21</v>
+        <v>0</v>
+      </c>
+      <c r="B23" s="168" t="s">
+        <v>186</v>
+      </c>
+      <c r="C23" s="167"/>
+      <c r="D23" s="168" t="s">
+        <v>187</v>
+      </c>
+      <c r="E23" s="167"/>
+      <c r="F23" s="183">
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="20" customHeight="1">
       <c r="A24" s="64">
-        <v>1</v>
-      </c>
-      <c r="B24" s="169" t="s">
-        <v>141</v>
-      </c>
-      <c r="C24" s="170"/>
-      <c r="D24" s="169" t="s">
-        <v>142</v>
-      </c>
-      <c r="E24" s="169" t="s">
-        <v>143</v>
-      </c>
-      <c r="F24" s="192">
-        <v>22</v>
+        <v>0</v>
+      </c>
+      <c r="B24" s="168" t="s">
+        <v>182</v>
+      </c>
+      <c r="C24" s="167"/>
+      <c r="D24" s="168" t="s">
+        <v>183</v>
+      </c>
+      <c r="E24" s="167"/>
+      <c r="F24" s="183">
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="20" customHeight="1">
       <c r="A25" s="64">
-        <v>1</v>
-      </c>
-      <c r="B25" s="169" t="s">
-        <v>144</v>
-      </c>
-      <c r="C25" s="170"/>
-      <c r="D25" s="169" t="s">
-        <v>145</v>
-      </c>
-      <c r="E25" s="170"/>
-      <c r="F25" s="192">
-        <v>23</v>
+        <v>0</v>
+      </c>
+      <c r="B25" s="168" t="s">
+        <v>159</v>
+      </c>
+      <c r="C25" s="167"/>
+      <c r="D25" s="69" t="s">
+        <v>160</v>
+      </c>
+      <c r="E25" s="183">
+        <v>14</v>
+      </c>
+      <c r="F25" s="183">
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="20" customHeight="1">
       <c r="A26" s="64">
-        <v>1</v>
-      </c>
-      <c r="B26" s="169" t="s">
-        <v>146</v>
-      </c>
-      <c r="C26" s="170"/>
-      <c r="D26" s="169" t="s">
-        <v>147</v>
-      </c>
-      <c r="E26" s="170"/>
-      <c r="F26" s="192">
-        <v>24</v>
+        <v>0</v>
+      </c>
+      <c r="B26" s="168" t="s">
+        <v>174</v>
+      </c>
+      <c r="C26" s="167"/>
+      <c r="D26" s="168" t="s">
+        <v>175</v>
+      </c>
+      <c r="E26" s="183">
+        <v>22</v>
+      </c>
+      <c r="F26" s="183">
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="20" customHeight="1">
       <c r="A27" s="64">
-        <v>1</v>
-      </c>
-      <c r="B27" s="169" t="s">
-        <v>148</v>
-      </c>
-      <c r="C27" s="170"/>
-      <c r="D27" s="169" t="s">
-        <v>149</v>
-      </c>
-      <c r="E27" s="170"/>
-      <c r="F27" s="192">
-        <v>25</v>
+        <v>0</v>
+      </c>
+      <c r="B27" s="168" t="s">
+        <v>143</v>
+      </c>
+      <c r="C27" s="167"/>
+      <c r="D27" s="258" t="s">
+        <v>144</v>
+      </c>
+      <c r="E27" s="269">
+        <v>6</v>
+      </c>
+      <c r="F27" s="183">
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="20" customHeight="1">
       <c r="A28" s="64">
-        <v>1</v>
-      </c>
-      <c r="B28" s="169" t="s">
-        <v>150</v>
-      </c>
-      <c r="C28" s="170"/>
-      <c r="D28" s="169" t="s">
-        <v>151</v>
-      </c>
-      <c r="E28" s="170"/>
-      <c r="F28" s="192">
-        <v>26</v>
+        <v>0</v>
+      </c>
+      <c r="B28" s="168" t="s">
+        <v>143</v>
+      </c>
+      <c r="C28" s="167"/>
+      <c r="D28" s="258" t="s">
+        <v>192</v>
+      </c>
+      <c r="E28" s="269">
+        <v>25</v>
+      </c>
+      <c r="F28" s="183">
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="20" customHeight="1">
       <c r="A29" s="64">
-        <v>1</v>
-      </c>
-      <c r="B29" s="171" t="s">
-        <v>152</v>
-      </c>
-      <c r="C29" s="170"/>
-      <c r="D29" s="169" t="s">
-        <v>153</v>
-      </c>
-      <c r="E29" s="170"/>
-      <c r="F29" s="192">
-        <v>27</v>
+        <v>0</v>
+      </c>
+      <c r="B29" s="168" t="s">
+        <v>143</v>
+      </c>
+      <c r="C29" s="166" t="s">
+        <v>195</v>
+      </c>
+      <c r="D29" s="258" t="s">
+        <v>192</v>
+      </c>
+      <c r="E29" s="269">
+        <v>25</v>
+      </c>
+      <c r="F29" s="183">
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="20" customHeight="1">
       <c r="A30" s="64">
-        <v>1</v>
-      </c>
-      <c r="B30" s="169" t="s">
-        <v>154</v>
-      </c>
-      <c r="C30" s="172"/>
-      <c r="D30" s="169" t="s">
-        <v>155</v>
-      </c>
-      <c r="E30" s="170"/>
-      <c r="F30" s="192">
-        <v>28</v>
+        <v>0</v>
+      </c>
+      <c r="B30" s="168" t="s">
+        <v>145</v>
+      </c>
+      <c r="C30" s="169"/>
+      <c r="D30" s="168" t="s">
+        <v>146</v>
+      </c>
+      <c r="E30" s="269">
+        <v>7</v>
+      </c>
+      <c r="F30" s="183">
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="20" customHeight="1">
       <c r="A31" s="88">
-        <v>1</v>
-      </c>
-      <c r="B31" s="173" t="s">
-        <v>88</v>
-      </c>
-      <c r="C31" s="174"/>
-      <c r="D31" s="175" t="s">
-        <v>156</v>
-      </c>
-      <c r="E31" s="200" t="s">
-        <v>157</v>
-      </c>
-      <c r="F31" s="192">
-        <v>29</v>
+        <v>0</v>
+      </c>
+      <c r="B31" s="180" t="s">
+        <v>178</v>
+      </c>
+      <c r="C31" s="171"/>
+      <c r="D31" s="257" t="s">
+        <v>179</v>
+      </c>
+      <c r="E31" s="270">
+        <v>24</v>
+      </c>
+      <c r="F31" s="183">
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="20" customHeight="1">
       <c r="A32" s="64">
         <v>0</v>
       </c>
-      <c r="B32" s="176" t="s">
-        <v>158</v>
-      </c>
-      <c r="C32" s="157"/>
-      <c r="D32" s="177" t="s">
-        <v>159</v>
-      </c>
-      <c r="E32" s="191" t="s">
+      <c r="B32" s="173" t="s">
+        <v>137</v>
+      </c>
+      <c r="C32" s="156"/>
+      <c r="D32" s="172" t="s">
+        <v>138</v>
+      </c>
+      <c r="E32" s="269">
+        <v>3</v>
+      </c>
+      <c r="F32" s="183">
         <v>31</v>
-      </c>
-      <c r="F32" s="192">
-        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="20" customHeight="1">
       <c r="A33" s="64">
         <v>0</v>
       </c>
-      <c r="B33" s="178" t="s">
-        <v>160</v>
-      </c>
-      <c r="C33" s="160"/>
-      <c r="D33" s="179" t="s">
-        <v>161</v>
-      </c>
-      <c r="E33" s="193" t="s">
-        <v>34</v>
-      </c>
-      <c r="F33" s="192">
-        <v>31</v>
+      <c r="B33" s="249" t="s">
+        <v>153</v>
+      </c>
+      <c r="C33" s="158"/>
+      <c r="D33" s="260" t="s">
+        <v>154</v>
+      </c>
+      <c r="E33" s="271">
+        <v>11</v>
+      </c>
+      <c r="F33" s="183">
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="20" customHeight="1">
       <c r="A34" s="88">
         <v>0</v>
       </c>
-      <c r="B34" s="180" t="s">
-        <v>162</v>
-      </c>
-      <c r="C34" s="160"/>
-      <c r="D34" s="179" t="s">
-        <v>163</v>
-      </c>
-      <c r="E34" s="194" t="s">
-        <v>84</v>
-      </c>
-      <c r="F34" s="192">
-        <v>32</v>
+      <c r="B34" s="175" t="s">
+        <v>147</v>
+      </c>
+      <c r="C34" s="158"/>
+      <c r="D34" s="174" t="s">
+        <v>148</v>
+      </c>
+      <c r="E34" s="267">
+        <v>8</v>
+      </c>
+      <c r="F34" s="183">
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="20" customHeight="1">
       <c r="A35" s="88">
         <v>0</v>
       </c>
-      <c r="B35" s="181" t="s">
-        <v>164</v>
-      </c>
-      <c r="C35" s="160"/>
-      <c r="D35" s="179" t="s">
-        <v>165</v>
-      </c>
-      <c r="E35" s="195" t="s">
-        <v>87</v>
-      </c>
-      <c r="F35" s="192">
-        <v>33</v>
+      <c r="B35" s="176" t="s">
+        <v>149</v>
+      </c>
+      <c r="C35" s="158"/>
+      <c r="D35" s="174" t="s">
+        <v>150</v>
+      </c>
+      <c r="E35" s="266">
+        <v>9</v>
+      </c>
+      <c r="F35" s="183">
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="20" customHeight="1">
       <c r="A36" s="88">
-        <v>0</v>
-      </c>
-      <c r="B36" s="181" t="s">
-        <v>166</v>
-      </c>
-      <c r="C36" s="160"/>
-      <c r="D36" s="179" t="s">
-        <v>167</v>
-      </c>
-      <c r="E36" s="194" t="s">
-        <v>90</v>
-      </c>
-      <c r="F36" s="192">
-        <v>34</v>
+        <v>1</v>
+      </c>
+      <c r="B36" s="161" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" s="158"/>
+      <c r="D36" s="159" t="s">
+        <v>133</v>
+      </c>
+      <c r="E36" s="264"/>
+      <c r="F36" s="183">
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="20" customHeight="1">
       <c r="A37" s="88">
-        <v>0</v>
-      </c>
-      <c r="B37" s="181" t="s">
-        <v>168</v>
-      </c>
-      <c r="C37" s="160"/>
-      <c r="D37" s="182" t="s">
-        <v>169</v>
-      </c>
-      <c r="E37" s="194" t="s">
-        <v>93</v>
-      </c>
-      <c r="F37" s="192">
-        <v>35</v>
+        <v>1</v>
+      </c>
+      <c r="B37" s="161" t="s">
+        <v>124</v>
+      </c>
+      <c r="C37" s="158"/>
+      <c r="D37" s="159" t="s">
+        <v>125</v>
+      </c>
+      <c r="E37" s="264"/>
+      <c r="F37" s="183">
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="20" customHeight="1">
       <c r="A38" s="88">
-        <v>0</v>
-      </c>
-      <c r="B38" s="181" t="s">
-        <v>170</v>
-      </c>
-      <c r="C38" s="160"/>
-      <c r="D38" s="179" t="s">
-        <v>171</v>
-      </c>
-      <c r="E38" s="197" t="s">
-        <v>96</v>
-      </c>
-      <c r="F38" s="201">
-        <v>36</v>
+        <v>1</v>
+      </c>
+      <c r="B38" s="161" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="158"/>
+      <c r="D38" s="159" t="s">
+        <v>90</v>
+      </c>
+      <c r="E38" s="272">
+        <v>8</v>
+      </c>
+      <c r="F38" s="186">
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="20" customHeight="1">
       <c r="A39" s="88">
-        <v>0</v>
-      </c>
-      <c r="B39" s="181" t="s">
-        <v>172</v>
-      </c>
-      <c r="C39" s="160"/>
-      <c r="D39" s="183" t="s">
-        <v>173</v>
-      </c>
-      <c r="E39" s="199" t="s">
-        <v>99</v>
-      </c>
-      <c r="F39" s="201">
-        <v>37</v>
+        <v>1</v>
+      </c>
+      <c r="B39" s="161" t="s">
+        <v>103</v>
+      </c>
+      <c r="C39" s="158"/>
+      <c r="D39" s="162" t="s">
+        <v>104</v>
+      </c>
+      <c r="E39" s="268">
+        <v>15</v>
+      </c>
+      <c r="F39" s="186">
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="20" customHeight="1">
       <c r="A40" s="88">
-        <v>0</v>
-      </c>
-      <c r="B40" s="184" t="s">
-        <v>174</v>
-      </c>
-      <c r="C40" s="167"/>
-      <c r="D40" s="185" t="s">
-        <v>175</v>
-      </c>
-      <c r="E40" s="168" t="s">
-        <v>102</v>
-      </c>
-      <c r="F40" s="201">
-        <v>38</v>
+        <v>1</v>
+      </c>
+      <c r="B40" s="163" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="164"/>
+      <c r="D40" s="165" t="s">
+        <v>84</v>
+      </c>
+      <c r="E40" s="152">
+        <v>5</v>
+      </c>
+      <c r="F40" s="186">
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="20" customHeight="1">
       <c r="A41" s="64">
-        <v>0</v>
-      </c>
-      <c r="B41" s="171" t="s">
-        <v>176</v>
-      </c>
-      <c r="C41" s="170"/>
-      <c r="D41" s="69" t="s">
-        <v>177</v>
-      </c>
-      <c r="E41" s="191" t="s">
-        <v>105</v>
-      </c>
-      <c r="F41" s="192">
-        <v>39</v>
+        <v>1</v>
+      </c>
+      <c r="B41" s="182" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="167"/>
+      <c r="D41" s="166" t="s">
+        <v>80</v>
+      </c>
+      <c r="E41" s="269">
+        <v>3</v>
+      </c>
+      <c r="F41" s="183">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="20" customHeight="1">
       <c r="A42" s="64">
-        <v>0</v>
-      </c>
-      <c r="B42" s="171" t="s">
-        <v>178</v>
-      </c>
-      <c r="C42" s="170"/>
-      <c r="D42" s="69" t="s">
-        <v>179</v>
-      </c>
-      <c r="E42" s="169" t="s">
-        <v>108</v>
-      </c>
-      <c r="F42" s="192">
-        <v>40</v>
+        <v>1</v>
+      </c>
+      <c r="B42" s="166" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" s="167"/>
+      <c r="D42" s="166" t="s">
+        <v>110</v>
+      </c>
+      <c r="E42" s="183">
+        <v>18</v>
+      </c>
+      <c r="F42" s="183">
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="20" customHeight="1">
       <c r="A43" s="64">
-        <v>0</v>
-      </c>
-      <c r="B43" s="171" t="s">
-        <v>180</v>
-      </c>
-      <c r="C43" s="170"/>
-      <c r="D43" s="69" t="s">
-        <v>181</v>
-      </c>
-      <c r="E43" s="169" t="s">
-        <v>111</v>
-      </c>
-      <c r="F43" s="192">
-        <v>41</v>
+        <v>1</v>
+      </c>
+      <c r="B43" s="166" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="167"/>
+      <c r="D43" s="166" t="s">
+        <v>92</v>
+      </c>
+      <c r="E43" s="269">
+        <v>9</v>
+      </c>
+      <c r="F43" s="183">
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="20" customHeight="1">
       <c r="A44" s="64">
-        <v>0</v>
-      </c>
-      <c r="B44" s="171" t="s">
-        <v>182</v>
-      </c>
-      <c r="C44" s="170"/>
-      <c r="D44" s="69" t="s">
-        <v>183</v>
-      </c>
-      <c r="E44" s="191" t="s">
-        <v>114</v>
-      </c>
-      <c r="F44" s="192">
-        <v>42</v>
+        <v>1</v>
+      </c>
+      <c r="B44" s="166" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" s="167"/>
+      <c r="D44" s="166" t="s">
+        <v>106</v>
+      </c>
+      <c r="E44" s="269">
+        <v>16</v>
+      </c>
+      <c r="F44" s="183">
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="20" customHeight="1">
       <c r="A45" s="64">
-        <v>0</v>
-      </c>
-      <c r="B45" s="171" t="s">
-        <v>184</v>
-      </c>
-      <c r="C45" s="170"/>
-      <c r="D45" s="69" t="s">
-        <v>185</v>
-      </c>
-      <c r="E45" s="169" t="s">
-        <v>117</v>
-      </c>
-      <c r="F45" s="192">
-        <v>43</v>
+        <v>1</v>
+      </c>
+      <c r="B45" s="168" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" s="167"/>
+      <c r="D45" s="166" t="s">
+        <v>131</v>
+      </c>
+      <c r="E45" s="167"/>
+      <c r="F45" s="183">
+        <v>27</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="20" customHeight="1">
       <c r="A46" s="64">
-        <v>0</v>
-      </c>
-      <c r="B46" s="171" t="s">
-        <v>186</v>
-      </c>
-      <c r="C46" s="170"/>
-      <c r="D46" s="69" t="s">
-        <v>187</v>
-      </c>
-      <c r="E46" s="169" t="s">
-        <v>120</v>
-      </c>
-      <c r="F46" s="192">
-        <v>44</v>
+        <v>1</v>
+      </c>
+      <c r="B46" s="168" t="s">
+        <v>130</v>
+      </c>
+      <c r="C46" s="168" t="s">
+        <v>193</v>
+      </c>
+      <c r="D46" s="168" t="s">
+        <v>194</v>
+      </c>
+      <c r="E46" s="167"/>
+      <c r="F46" s="183">
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="20" customHeight="1">
       <c r="A47" s="64">
-        <v>0</v>
-      </c>
-      <c r="B47" s="171" t="s">
-        <v>188</v>
-      </c>
-      <c r="C47" s="170"/>
-      <c r="D47" s="67" t="s">
-        <v>189</v>
-      </c>
-      <c r="E47" s="191" t="s">
-        <v>123</v>
-      </c>
-      <c r="F47" s="192">
-        <v>45</v>
+        <v>1</v>
+      </c>
+      <c r="B47" s="166" t="s">
+        <v>126</v>
+      </c>
+      <c r="C47" s="167"/>
+      <c r="D47" s="166" t="s">
+        <v>127</v>
+      </c>
+      <c r="E47" s="167"/>
+      <c r="F47" s="183">
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="20" customHeight="1">
       <c r="A48" s="64">
-        <v>0</v>
-      </c>
-      <c r="B48" s="171" t="s">
-        <v>190</v>
-      </c>
-      <c r="C48" s="170"/>
-      <c r="D48" s="67" t="s">
-        <v>191</v>
-      </c>
-      <c r="E48" s="191" t="s">
-        <v>126</v>
-      </c>
-      <c r="F48" s="192">
-        <v>46</v>
+        <v>1</v>
+      </c>
+      <c r="B48" s="166" t="s">
+        <v>111</v>
+      </c>
+      <c r="C48" s="167"/>
+      <c r="D48" s="166" t="s">
+        <v>112</v>
+      </c>
+      <c r="E48" s="269">
+        <v>19</v>
+      </c>
+      <c r="F48" s="183">
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="20" customHeight="1">
       <c r="A49" s="64">
-        <v>0</v>
-      </c>
-      <c r="B49" s="171" t="s">
-        <v>192</v>
-      </c>
-      <c r="C49" s="170"/>
-      <c r="D49" s="69" t="s">
-        <v>193</v>
-      </c>
-      <c r="E49" s="169" t="s">
-        <v>129</v>
-      </c>
-      <c r="F49" s="192">
-        <v>47</v>
+        <v>1</v>
+      </c>
+      <c r="B49" s="253" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="167"/>
+      <c r="D49" s="166" t="s">
+        <v>86</v>
+      </c>
+      <c r="E49" s="269">
+        <v>6</v>
+      </c>
+      <c r="F49" s="183">
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="20" customHeight="1">
       <c r="A50" s="64">
-        <v>0</v>
-      </c>
-      <c r="B50" s="171" t="s">
-        <v>194</v>
-      </c>
-      <c r="C50" s="170"/>
-      <c r="D50" s="171" t="s">
-        <v>195</v>
-      </c>
-      <c r="E50" s="169" t="s">
-        <v>132</v>
-      </c>
-      <c r="F50" s="192">
-        <v>48</v>
+        <v>1</v>
+      </c>
+      <c r="B50" s="166" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" s="167"/>
+      <c r="D50" s="166" t="s">
+        <v>134</v>
+      </c>
+      <c r="E50" s="269">
+        <v>25</v>
+      </c>
+      <c r="F50" s="183">
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="20" customHeight="1">
       <c r="A51" s="64">
-        <v>0</v>
-      </c>
-      <c r="B51" s="171" t="s">
-        <v>194</v>
-      </c>
-      <c r="C51" s="170"/>
-      <c r="D51" s="171" t="s">
-        <v>196</v>
-      </c>
-      <c r="E51" s="191" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="166" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" s="168" t="s">
+        <v>193</v>
+      </c>
+      <c r="D51" s="166" t="s">
         <v>134</v>
       </c>
-      <c r="F51" s="192">
-        <v>49</v>
+      <c r="E51" s="269">
+        <v>25</v>
+      </c>
+      <c r="F51" s="183">
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="20" customHeight="1">
       <c r="A52" s="64">
-        <v>0</v>
-      </c>
-      <c r="B52" s="171" t="s">
-        <v>197</v>
-      </c>
-      <c r="C52" s="170"/>
-      <c r="D52" s="171" t="s">
-        <v>198</v>
-      </c>
-      <c r="E52" s="191" t="s">
-        <v>137</v>
-      </c>
-      <c r="F52" s="192">
-        <v>50</v>
+        <v>1</v>
+      </c>
+      <c r="B52" s="166" t="s">
+        <v>128</v>
+      </c>
+      <c r="C52" s="167"/>
+      <c r="D52" s="166" t="s">
+        <v>129</v>
+      </c>
+      <c r="E52" s="167"/>
+      <c r="F52" s="183">
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="20" customHeight="1">
       <c r="A53" s="64">
-        <v>0</v>
-      </c>
-      <c r="B53" s="171" t="s">
-        <v>199</v>
-      </c>
-      <c r="C53" s="170"/>
-      <c r="D53" s="171" t="s">
-        <v>200</v>
-      </c>
-      <c r="E53" s="169" t="s">
-        <v>140</v>
-      </c>
-      <c r="F53" s="192">
-        <v>51</v>
+        <v>1</v>
+      </c>
+      <c r="B53" s="166" t="s">
+        <v>93</v>
+      </c>
+      <c r="C53" s="167"/>
+      <c r="D53" s="166" t="s">
+        <v>94</v>
+      </c>
+      <c r="E53" s="269">
+        <v>10</v>
+      </c>
+      <c r="F53" s="183">
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="20" customHeight="1">
       <c r="A54" s="64">
-        <v>0</v>
-      </c>
-      <c r="B54" s="171" t="s">
-        <v>201</v>
-      </c>
-      <c r="C54" s="170"/>
-      <c r="D54" s="171" t="s">
-        <v>202</v>
-      </c>
-      <c r="E54" s="169" t="s">
-        <v>143</v>
-      </c>
-      <c r="F54" s="192">
-        <v>52</v>
+        <v>1</v>
+      </c>
+      <c r="B54" s="166" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="167"/>
+      <c r="D54" s="166" t="s">
+        <v>117</v>
+      </c>
+      <c r="E54" s="183">
+        <v>22</v>
+      </c>
+      <c r="F54" s="183">
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="20" customHeight="1">
       <c r="A55" s="64">
-        <v>0</v>
-      </c>
-      <c r="B55" s="171" t="s">
-        <v>203</v>
-      </c>
-      <c r="C55" s="170"/>
-      <c r="D55" s="171" t="s">
-        <v>204</v>
-      </c>
-      <c r="E55" s="170"/>
-      <c r="F55" s="192">
-        <v>53</v>
+        <v>1</v>
+      </c>
+      <c r="B55" s="166" t="s">
+        <v>101</v>
+      </c>
+      <c r="C55" s="167"/>
+      <c r="D55" s="166" t="s">
+        <v>102</v>
+      </c>
+      <c r="E55" s="183">
+        <v>14</v>
+      </c>
+      <c r="F55" s="183">
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="20" customHeight="1">
       <c r="A56" s="64">
+        <v>1</v>
+      </c>
+      <c r="B56" s="251" t="s">
+        <v>77</v>
+      </c>
+      <c r="C56" s="167"/>
+      <c r="D56" s="166" t="s">
+        <v>78</v>
+      </c>
+      <c r="E56" s="183">
+        <v>2</v>
+      </c>
+      <c r="F56" s="183">
         <v>0</v>
-      </c>
-      <c r="B56" s="171" t="s">
-        <v>205</v>
-      </c>
-      <c r="C56" s="170"/>
-      <c r="D56" s="171" t="s">
-        <v>206</v>
-      </c>
-      <c r="E56" s="170"/>
-      <c r="F56" s="192">
-        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="20" customHeight="1">
       <c r="A57" s="64">
-        <v>0</v>
-      </c>
-      <c r="B57" s="171" t="s">
-        <v>207</v>
-      </c>
-      <c r="C57" s="170"/>
-      <c r="D57" s="171" t="s">
-        <v>208</v>
-      </c>
-      <c r="E57" s="170"/>
-      <c r="F57" s="192">
-        <v>55</v>
+        <v>1</v>
+      </c>
+      <c r="B57" s="251" t="s">
+        <v>77</v>
+      </c>
+      <c r="C57" s="167"/>
+      <c r="D57" s="166" t="s">
+        <v>78</v>
+      </c>
+      <c r="E57" s="183">
+        <v>131</v>
+      </c>
+      <c r="F57" s="183">
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="20" customHeight="1">
       <c r="A58" s="64">
-        <v>0</v>
-      </c>
-      <c r="B58" s="171" t="s">
-        <v>209</v>
-      </c>
-      <c r="C58" s="170"/>
-      <c r="D58" s="171" t="s">
-        <v>210</v>
-      </c>
-      <c r="E58" s="170"/>
-      <c r="F58" s="192">
-        <v>56</v>
+        <v>1</v>
+      </c>
+      <c r="B58" s="166" t="s">
+        <v>81</v>
+      </c>
+      <c r="C58" s="167"/>
+      <c r="D58" s="166" t="s">
+        <v>82</v>
+      </c>
+      <c r="E58" s="269">
+        <v>4</v>
+      </c>
+      <c r="F58" s="183">
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="20" customHeight="1">
       <c r="A59" s="64">
-        <v>0</v>
-      </c>
-      <c r="B59" s="171" t="s">
-        <v>211</v>
-      </c>
-      <c r="C59" s="170"/>
-      <c r="D59" s="171" t="s">
-        <v>212</v>
-      </c>
-      <c r="E59" s="170"/>
-      <c r="F59" s="192">
-        <v>57</v>
+        <v>1</v>
+      </c>
+      <c r="B59" s="166" t="s">
+        <v>81</v>
+      </c>
+      <c r="C59" s="167"/>
+      <c r="D59" s="166" t="s">
+        <v>82</v>
+      </c>
+      <c r="E59" s="269">
+        <v>132</v>
+      </c>
+      <c r="F59" s="183">
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="20" customHeight="1">
       <c r="A60" s="64">
-        <v>0</v>
-      </c>
-      <c r="B60" s="171" t="s">
-        <v>213</v>
-      </c>
-      <c r="C60" s="172"/>
-      <c r="D60" s="169" t="s">
-        <v>214</v>
-      </c>
-      <c r="E60" s="170"/>
-      <c r="F60" s="192">
-        <v>58</v>
+        <v>1</v>
+      </c>
+      <c r="B60" s="166" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" s="169"/>
+      <c r="D60" s="166" t="s">
+        <v>123</v>
+      </c>
+      <c r="E60" s="167"/>
+      <c r="F60" s="183">
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="20" customHeight="1">
       <c r="A61" s="88">
-        <v>0</v>
-      </c>
-      <c r="B61" s="186" t="s">
-        <v>166</v>
-      </c>
-      <c r="C61" s="167"/>
-      <c r="D61" s="187" t="s">
-        <v>215</v>
-      </c>
-      <c r="E61" s="169" t="s">
-        <v>157</v>
-      </c>
-      <c r="F61" s="192">
-        <v>59</v>
+        <v>1</v>
+      </c>
+      <c r="B61" s="170" t="s">
+        <v>113</v>
+      </c>
+      <c r="C61" s="164"/>
+      <c r="D61" s="181" t="s">
+        <v>114</v>
+      </c>
+      <c r="E61" s="269">
+        <v>20</v>
+      </c>
+      <c r="F61" s="183">
+        <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="20" customHeight="1">
       <c r="A62" s="64">
         <v>1</v>
       </c>
-      <c r="B62" s="171" t="s">
-        <v>152</v>
-      </c>
-      <c r="C62" s="171" t="s">
-        <v>216</v>
-      </c>
-      <c r="D62" s="171" t="s">
-        <v>217</v>
-      </c>
-      <c r="E62" s="170"/>
-      <c r="F62" s="192">
-        <v>60</v>
+      <c r="B62" s="166" t="s">
+        <v>113</v>
+      </c>
+      <c r="C62" s="167"/>
+      <c r="D62" s="166" t="s">
+        <v>115</v>
+      </c>
+      <c r="E62" s="183">
+        <v>21</v>
+      </c>
+      <c r="F62" s="183">
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="20" customHeight="1">
       <c r="A63" s="64">
-        <v>0</v>
-      </c>
-      <c r="B63" s="171" t="s">
-        <v>211</v>
-      </c>
-      <c r="C63" s="188" t="s">
-        <v>218</v>
-      </c>
-      <c r="D63" s="171" t="s">
-        <v>212</v>
-      </c>
-      <c r="E63" s="170"/>
-      <c r="F63" s="192">
-        <v>61</v>
+        <v>1</v>
+      </c>
+      <c r="B63" s="166" t="s">
+        <v>95</v>
+      </c>
+      <c r="C63" s="169"/>
+      <c r="D63" s="166" t="s">
+        <v>96</v>
+      </c>
+      <c r="E63" s="183">
+        <v>11</v>
+      </c>
+      <c r="F63" s="183">
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="20" customHeight="1">
       <c r="A64" s="88">
         <v>1</v>
       </c>
-      <c r="B64" s="173" t="s">
-        <v>88</v>
-      </c>
-      <c r="C64" s="189" t="s">
-        <v>216</v>
-      </c>
-      <c r="D64" s="190" t="s">
-        <v>156</v>
-      </c>
-      <c r="E64" s="169" t="s">
-        <v>157</v>
-      </c>
-      <c r="F64" s="192">
-        <v>62</v>
+      <c r="B64" s="170" t="s">
+        <v>99</v>
+      </c>
+      <c r="C64" s="158"/>
+      <c r="D64" s="181" t="s">
+        <v>100</v>
+      </c>
+      <c r="E64" s="269">
+        <v>13</v>
+      </c>
+      <c r="F64" s="183">
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="20" customHeight="1">
       <c r="A65" s="88">
-        <v>0</v>
-      </c>
-      <c r="B65" s="202" t="s">
-        <v>166</v>
-      </c>
-      <c r="C65" s="199" t="s">
-        <v>218</v>
-      </c>
-      <c r="D65" s="203" t="s">
-        <v>215</v>
-      </c>
-      <c r="E65" s="206" t="s">
-        <v>157</v>
-      </c>
-      <c r="F65" s="192">
-        <v>63</v>
+        <v>1</v>
+      </c>
+      <c r="B65" s="250" t="s">
+        <v>97</v>
+      </c>
+      <c r="C65" s="158"/>
+      <c r="D65" s="259" t="s">
+        <v>98</v>
+      </c>
+      <c r="E65" s="273">
+        <v>12</v>
+      </c>
+      <c r="F65" s="183">
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="20" customHeight="1">
       <c r="A66" s="64">
         <v>1</v>
       </c>
-      <c r="B66" s="156" t="s">
-        <v>78</v>
-      </c>
-      <c r="C66" s="157"/>
-      <c r="D66" s="158" t="s">
-        <v>79</v>
-      </c>
-      <c r="E66" s="191" t="s">
-        <v>219</v>
-      </c>
-      <c r="F66" s="192">
-        <v>64</v>
+      <c r="B66" s="252" t="s">
+        <v>120</v>
+      </c>
+      <c r="C66" s="156"/>
+      <c r="D66" s="157" t="s">
+        <v>121</v>
+      </c>
+      <c r="E66" s="269">
+        <v>24</v>
+      </c>
+      <c r="F66" s="183">
+        <v>22</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="20" customHeight="1">
-      <c r="A67" s="204">
-        <v>0</v>
-      </c>
-      <c r="B67" s="176" t="s">
-        <v>158</v>
-      </c>
-      <c r="C67" s="157"/>
-      <c r="D67" s="205" t="s">
-        <v>159</v>
-      </c>
-      <c r="E67" s="191" t="s">
-        <v>219</v>
-      </c>
-      <c r="F67" s="192">
-        <v>65</v>
+      <c r="A67" s="187">
+        <v>1</v>
+      </c>
+      <c r="B67" s="252" t="s">
+        <v>107</v>
+      </c>
+      <c r="C67" s="156"/>
+      <c r="D67" s="262" t="s">
+        <v>108</v>
+      </c>
+      <c r="E67" s="183">
+        <v>17</v>
+      </c>
+      <c r="F67" s="183">
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="20" customHeight="1">
       <c r="A68" s="88">
         <v>1</v>
       </c>
-      <c r="B68" s="162" t="s">
-        <v>82</v>
-      </c>
-      <c r="C68" s="160"/>
-      <c r="D68" s="161" t="s">
-        <v>83</v>
-      </c>
-      <c r="E68" s="194" t="s">
-        <v>220</v>
-      </c>
-      <c r="F68" s="192">
-        <v>66</v>
+      <c r="B68" s="160" t="s">
+        <v>118</v>
+      </c>
+      <c r="C68" s="158"/>
+      <c r="D68" s="159" t="s">
+        <v>119</v>
+      </c>
+      <c r="E68" s="266">
+        <v>23</v>
+      </c>
+      <c r="F68" s="183">
+        <v>21</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="20" customHeight="1">
       <c r="A69" s="88">
-        <v>0</v>
-      </c>
-      <c r="B69" s="180" t="s">
-        <v>162</v>
-      </c>
-      <c r="C69" s="160"/>
-      <c r="D69" s="179" t="s">
-        <v>163</v>
-      </c>
-      <c r="E69" s="194" t="s">
-        <v>220</v>
-      </c>
-      <c r="F69" s="192">
-        <v>67</v>
+        <v>1</v>
+      </c>
+      <c r="B69" s="160" t="s">
+        <v>87</v>
+      </c>
+      <c r="C69" s="158"/>
+      <c r="D69" s="159" t="s">
+        <v>88</v>
+      </c>
+      <c r="E69" s="266">
+        <v>7</v>
+      </c>
+      <c r="F69" s="183">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F69">
+    <sortCondition ref="B2:B69"/>
+  </sortState>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
@@ -9941,19 +9887,19 @@
         <v>16</v>
       </c>
       <c r="E1" s="84" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="84" t="s">
-        <v>36</v>
-      </c>
       <c r="G1" s="84" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="H1" s="84" t="s">
         <v>20</v>
       </c>
       <c r="I1" s="132" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="35" customHeight="1">
@@ -9961,11 +9907,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="85" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C2" s="86"/>
       <c r="D2" s="85" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="E2" s="86"/>
       <c r="F2" s="86"/>
@@ -9976,7 +9922,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="133" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.75" customHeight="1">
@@ -9984,11 +9930,11 @@
         <v>1</v>
       </c>
       <c r="B3" s="85" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="C3" s="86"/>
       <c r="D3" s="85" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="E3" s="86"/>
       <c r="F3" s="86"/>
@@ -9999,7 +9945,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="133" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.75" customHeight="1">
@@ -10007,7 +9953,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="87" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -10020,7 +9966,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="134" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.75" customHeight="1">
@@ -10028,7 +9974,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="89" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="C5" s="90"/>
       <c r="D5" s="90"/>
@@ -10043,7 +9989,7 @@
         <v>3</v>
       </c>
       <c r="I5" s="135" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.75" customHeight="1">
@@ -10051,7 +9997,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="91" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="C6" s="90"/>
       <c r="D6" s="90"/>
@@ -10062,13 +10008,13 @@
         <v>1578550200000</v>
       </c>
       <c r="G6" s="91" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="H6" s="112">
         <v>4</v>
       </c>
       <c r="I6" s="135" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.75" customHeight="1">
@@ -10076,7 +10022,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="91" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="C7" s="90"/>
       <c r="D7" s="90"/>
@@ -10093,7 +10039,7 @@
         <v>5</v>
       </c>
       <c r="I7" s="135" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.75" customHeight="1">
@@ -10101,7 +10047,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="92" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="C8" s="90"/>
       <c r="D8" s="90"/>
@@ -10118,7 +10064,7 @@
         <v>6</v>
       </c>
       <c r="I8" s="135" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.75" customHeight="1">
@@ -10126,7 +10072,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="91" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="C9" s="90"/>
       <c r="D9" s="90"/>
@@ -10141,7 +10087,7 @@
         <v>7</v>
       </c>
       <c r="I9" s="135" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.75" customHeight="1">
@@ -10149,7 +10095,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="91" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="C10" s="90"/>
       <c r="D10" s="90"/>
@@ -10166,7 +10112,7 @@
         <v>8</v>
       </c>
       <c r="I10" s="135" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
@@ -10174,7 +10120,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="91" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="C11" s="90"/>
       <c r="D11" s="90"/>
@@ -10191,7 +10137,7 @@
         <v>9</v>
       </c>
       <c r="I11" s="135" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1">
@@ -10199,7 +10145,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="91" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="C12" s="90"/>
       <c r="D12" s="90"/>
@@ -10214,7 +10160,7 @@
         <v>10</v>
       </c>
       <c r="I12" s="135" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -10222,7 +10168,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="93" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="C13" s="94"/>
       <c r="D13" s="94"/>
@@ -10237,7 +10183,7 @@
         <v>11</v>
       </c>
       <c r="I13" s="136" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -10245,7 +10191,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="95" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="C14" s="94"/>
       <c r="D14" s="94"/>
@@ -10262,7 +10208,7 @@
         <v>12</v>
       </c>
       <c r="I14" s="136" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -10270,7 +10216,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="96" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="C15" s="94"/>
       <c r="D15" s="94"/>
@@ -10287,7 +10233,7 @@
         <v>13</v>
       </c>
       <c r="I15" s="136" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -10295,7 +10241,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="96" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="C16" s="94"/>
       <c r="D16" s="94"/>
@@ -10312,7 +10258,7 @@
         <v>14</v>
       </c>
       <c r="I16" s="136" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="20" customHeight="1">
@@ -10320,7 +10266,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="96" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="C17" s="94"/>
       <c r="D17" s="94"/>
@@ -10335,7 +10281,7 @@
         <v>15</v>
       </c>
       <c r="I17" s="137" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="20" customHeight="1">
@@ -10343,7 +10289,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="96" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="C18" s="94"/>
       <c r="D18" s="94"/>
@@ -10360,7 +10306,7 @@
         <v>16</v>
       </c>
       <c r="I18" s="136" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="20" customHeight="1">
@@ -10368,7 +10314,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="96" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="C19" s="94"/>
       <c r="D19" s="94"/>
@@ -10385,7 +10331,7 @@
         <v>17</v>
       </c>
       <c r="I19" s="136" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="20" customHeight="1">
@@ -10393,7 +10339,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="96" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="C20" s="94"/>
       <c r="D20" s="94"/>
@@ -10408,7 +10354,7 @@
         <v>18</v>
       </c>
       <c r="I20" s="137" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="20" customHeight="1">
@@ -10416,7 +10362,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="97" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="C21" s="98"/>
       <c r="D21" s="98"/>
@@ -10431,7 +10377,7 @@
         <v>19</v>
       </c>
       <c r="I21" s="138" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="20" customHeight="1">
@@ -10439,7 +10385,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="97" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="C22" s="98"/>
       <c r="D22" s="98"/>
@@ -10456,7 +10402,7 @@
         <v>20</v>
       </c>
       <c r="I22" s="139" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="20" customHeight="1">
@@ -10464,7 +10410,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="97" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="C23" s="98"/>
       <c r="D23" s="98"/>
@@ -10481,7 +10427,7 @@
         <v>21</v>
       </c>
       <c r="I23" s="139" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="20" customHeight="1">
@@ -10489,7 +10435,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="97" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="C24" s="98"/>
       <c r="D24" s="98"/>
@@ -10506,7 +10452,7 @@
         <v>22</v>
       </c>
       <c r="I24" s="139" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="20" customHeight="1">
@@ -10514,7 +10460,7 @@
         <v>1</v>
       </c>
       <c r="B25" s="97" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="C25" s="98"/>
       <c r="D25" s="98"/>
@@ -10529,7 +10475,7 @@
         <v>23</v>
       </c>
       <c r="I25" s="138" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="20" customHeight="1">
@@ -10537,7 +10483,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="97" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="C26" s="98"/>
       <c r="D26" s="98"/>
@@ -10554,7 +10500,7 @@
         <v>24</v>
       </c>
       <c r="I26" s="139" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="20" customHeight="1">
@@ -10562,7 +10508,7 @@
         <v>1</v>
       </c>
       <c r="B27" s="97" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="C27" s="98"/>
       <c r="D27" s="98"/>
@@ -10579,7 +10525,7 @@
         <v>25</v>
       </c>
       <c r="I27" s="139" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="20" customHeight="1">
@@ -10587,7 +10533,7 @@
         <v>1</v>
       </c>
       <c r="B28" s="97" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="C28" s="98"/>
       <c r="D28" s="98"/>
@@ -10602,7 +10548,7 @@
         <v>26</v>
       </c>
       <c r="I28" s="138" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="20" customHeight="1">
@@ -10610,7 +10556,7 @@
         <v>1</v>
       </c>
       <c r="B29" s="99" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="C29" s="100"/>
       <c r="D29" s="100"/>
@@ -10633,7 +10579,7 @@
         <v>1</v>
       </c>
       <c r="B30" s="99" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="C30" s="100"/>
       <c r="D30" s="100"/>
@@ -10656,7 +10602,7 @@
         <v>1</v>
       </c>
       <c r="B31" s="99" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="C31" s="100"/>
       <c r="D31" s="100"/>
@@ -10679,7 +10625,7 @@
         <v>1</v>
       </c>
       <c r="B32" s="99" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="C32" s="100"/>
       <c r="D32" s="100"/>
@@ -10700,7 +10646,7 @@
         <v>1</v>
       </c>
       <c r="B33" s="99" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="C33" s="100"/>
       <c r="D33" s="100"/>
@@ -10723,7 +10669,7 @@
         <v>1</v>
       </c>
       <c r="B34" s="99" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="C34" s="100"/>
       <c r="D34" s="100"/>
@@ -10746,7 +10692,7 @@
         <v>1</v>
       </c>
       <c r="B35" s="99" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="C35" s="100"/>
       <c r="D35" s="100"/>
@@ -10769,7 +10715,7 @@
         <v>1</v>
       </c>
       <c r="B36" s="99" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="C36" s="100"/>
       <c r="D36" s="100"/>
@@ -10792,7 +10738,7 @@
         <v>1</v>
       </c>
       <c r="B37" s="101" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="C37" s="102"/>
       <c r="D37" s="102"/>
@@ -10815,7 +10761,7 @@
         <v>1</v>
       </c>
       <c r="B38" s="101" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="C38" s="102"/>
       <c r="D38" s="102"/>
@@ -10838,7 +10784,7 @@
         <v>1</v>
       </c>
       <c r="B39" s="101" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="C39" s="102"/>
       <c r="D39" s="102"/>
@@ -10861,7 +10807,7 @@
         <v>1</v>
       </c>
       <c r="B40" s="101" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="C40" s="102"/>
       <c r="D40" s="102"/>
@@ -10884,7 +10830,7 @@
         <v>1</v>
       </c>
       <c r="B41" s="101" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="C41" s="102"/>
       <c r="D41" s="102"/>
@@ -10907,7 +10853,7 @@
         <v>1</v>
       </c>
       <c r="B42" s="101" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="C42" s="102"/>
       <c r="D42" s="102"/>
@@ -10928,7 +10874,7 @@
         <v>1</v>
       </c>
       <c r="B43" s="101" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="C43" s="102"/>
       <c r="D43" s="102"/>
@@ -10949,7 +10895,7 @@
         <v>1</v>
       </c>
       <c r="B44" s="30" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="C44" s="17"/>
       <c r="D44" s="17"/>
@@ -10972,7 +10918,7 @@
         <v>1</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="C45" s="17"/>
       <c r="D45" s="17"/>
@@ -10995,7 +10941,7 @@
         <v>1</v>
       </c>
       <c r="B46" s="30" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="C46" s="17"/>
       <c r="D46" s="17"/>
@@ -11018,7 +10964,7 @@
         <v>1</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="C47" s="17"/>
       <c r="D47" s="17"/>
@@ -11039,7 +10985,7 @@
         <v>1</v>
       </c>
       <c r="B48" s="103" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="C48" s="104"/>
       <c r="D48" s="104"/>
@@ -11062,7 +11008,7 @@
         <v>1</v>
       </c>
       <c r="B49" s="103" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="C49" s="104"/>
       <c r="D49" s="104"/>
@@ -11085,7 +11031,7 @@
         <v>1</v>
       </c>
       <c r="B50" s="103" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="C50" s="104"/>
       <c r="D50" s="104"/>
@@ -11108,7 +11054,7 @@
         <v>1</v>
       </c>
       <c r="B51" s="103" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="C51" s="104"/>
       <c r="D51" s="104"/>
@@ -11131,11 +11077,11 @@
         <v>0</v>
       </c>
       <c r="B52" s="85" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="C52" s="86"/>
       <c r="D52" s="85" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="E52" s="86"/>
       <c r="F52" s="86"/>
@@ -11146,7 +11092,7 @@
         <v>50</v>
       </c>
       <c r="I52" s="133" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="20" customHeight="1">
@@ -11154,11 +11100,11 @@
         <v>0</v>
       </c>
       <c r="B53" s="85" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="C53" s="86"/>
       <c r="D53" s="85" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="E53" s="86"/>
       <c r="F53" s="86"/>
@@ -11169,7 +11115,7 @@
         <v>51</v>
       </c>
       <c r="I53" s="133" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="20" customHeight="1">
@@ -11190,7 +11136,7 @@
         <v>52</v>
       </c>
       <c r="I54" s="134" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="20" customHeight="1">
@@ -11198,7 +11144,7 @@
         <v>0</v>
       </c>
       <c r="B55" s="89" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="C55" s="90"/>
       <c r="D55" s="90"/>
@@ -11213,7 +11159,7 @@
         <v>53</v>
       </c>
       <c r="I55" s="135" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="20" customHeight="1">
@@ -11221,7 +11167,7 @@
         <v>0</v>
       </c>
       <c r="B56" s="91" t="s">
-        <v>278</v>
+        <v>253</v>
       </c>
       <c r="C56" s="90"/>
       <c r="D56" s="90"/>
@@ -11232,13 +11178,13 @@
         <v>1578550200000</v>
       </c>
       <c r="G56" s="91" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="H56" s="131">
         <v>54</v>
       </c>
       <c r="I56" s="135" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="20" customHeight="1">
@@ -11246,7 +11192,7 @@
         <v>0</v>
       </c>
       <c r="B57" s="91" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="C57" s="90"/>
       <c r="D57" s="90"/>
@@ -11263,7 +11209,7 @@
         <v>55</v>
       </c>
       <c r="I57" s="135" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="20" customHeight="1">
@@ -11271,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="B58" s="92" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="C58" s="90"/>
       <c r="D58" s="90"/>
@@ -11288,7 +11234,7 @@
         <v>56</v>
       </c>
       <c r="I58" s="135" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="20" customHeight="1">
@@ -11296,7 +11242,7 @@
         <v>0</v>
       </c>
       <c r="B59" s="91" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c r="C59" s="90"/>
       <c r="D59" s="90"/>
@@ -11311,7 +11257,7 @@
         <v>57</v>
       </c>
       <c r="I59" s="135" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="20" customHeight="1">
@@ -11319,7 +11265,7 @@
         <v>0</v>
       </c>
       <c r="B60" s="91" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="C60" s="90"/>
       <c r="D60" s="90"/>
@@ -11336,7 +11282,7 @@
         <v>58</v>
       </c>
       <c r="I60" s="135" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="20" customHeight="1">
@@ -11344,7 +11290,7 @@
         <v>0</v>
       </c>
       <c r="B61" s="91" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="C61" s="90"/>
       <c r="D61" s="90"/>
@@ -11361,7 +11307,7 @@
         <v>59</v>
       </c>
       <c r="I61" s="135" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="20" customHeight="1">
@@ -11369,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="B62" s="91" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="C62" s="90"/>
       <c r="D62" s="90"/>
@@ -11384,7 +11330,7 @@
         <v>60</v>
       </c>
       <c r="I62" s="135" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="20" customHeight="1">
@@ -11392,7 +11338,7 @@
         <v>0</v>
       </c>
       <c r="B63" s="93" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="C63" s="94"/>
       <c r="D63" s="94"/>
@@ -11407,7 +11353,7 @@
         <v>61</v>
       </c>
       <c r="I63" s="136" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="20" customHeight="1">
@@ -11415,7 +11361,7 @@
         <v>0</v>
       </c>
       <c r="B64" s="95" t="s">
-        <v>278</v>
+        <v>253</v>
       </c>
       <c r="C64" s="94"/>
       <c r="D64" s="94"/>
@@ -11432,7 +11378,7 @@
         <v>62</v>
       </c>
       <c r="I64" s="136" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="20" customHeight="1">
@@ -11440,7 +11386,7 @@
         <v>0</v>
       </c>
       <c r="B65" s="96" t="s">
-        <v>286</v>
+        <v>261</v>
       </c>
       <c r="C65" s="94"/>
       <c r="D65" s="94"/>
@@ -11457,7 +11403,7 @@
         <v>63</v>
       </c>
       <c r="I65" s="136" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="20" customHeight="1">
@@ -11465,7 +11411,7 @@
         <v>0</v>
       </c>
       <c r="B66" s="95" t="s">
-        <v>287</v>
+        <v>262</v>
       </c>
       <c r="C66" s="94"/>
       <c r="D66" s="94"/>
@@ -11482,7 +11428,7 @@
         <v>64</v>
       </c>
       <c r="I66" s="136" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="20" customHeight="1">
@@ -11490,7 +11436,7 @@
         <v>0</v>
       </c>
       <c r="B67" s="95" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c r="C67" s="94"/>
       <c r="D67" s="94"/>
@@ -11505,7 +11451,7 @@
         <v>65</v>
       </c>
       <c r="I67" s="136" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="20" customHeight="1">
@@ -11513,7 +11459,7 @@
         <v>0</v>
       </c>
       <c r="B68" s="95" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="C68" s="94"/>
       <c r="D68" s="94"/>
@@ -11530,7 +11476,7 @@
         <v>66</v>
       </c>
       <c r="I68" s="136" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="20" customHeight="1">
@@ -11538,7 +11484,7 @@
         <v>0</v>
       </c>
       <c r="B69" s="95" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="C69" s="94"/>
       <c r="D69" s="94"/>
@@ -11555,7 +11501,7 @@
         <v>67</v>
       </c>
       <c r="I69" s="136" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="20" customHeight="1">
@@ -11563,7 +11509,7 @@
         <v>0</v>
       </c>
       <c r="B70" s="96" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="C70" s="94"/>
       <c r="D70" s="94"/>
@@ -11578,7 +11524,7 @@
         <v>68</v>
       </c>
       <c r="I70" s="136" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="20" customHeight="1">
@@ -11586,7 +11532,7 @@
         <v>0</v>
       </c>
       <c r="B71" s="146" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="C71" s="98"/>
       <c r="D71" s="98"/>
@@ -11601,7 +11547,7 @@
         <v>69</v>
       </c>
       <c r="I71" s="138" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="20" customHeight="1">
@@ -11609,7 +11555,7 @@
         <v>0</v>
       </c>
       <c r="B72" s="146" t="s">
-        <v>278</v>
+        <v>253</v>
       </c>
       <c r="C72" s="98"/>
       <c r="D72" s="98"/>
@@ -11626,7 +11572,7 @@
         <v>70</v>
       </c>
       <c r="I72" s="138" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="20" customHeight="1">
@@ -11634,7 +11580,7 @@
         <v>0</v>
       </c>
       <c r="B73" s="97" t="s">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="C73" s="98"/>
       <c r="D73" s="98"/>
@@ -11651,7 +11597,7 @@
         <v>71</v>
       </c>
       <c r="I73" s="138" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="20" customHeight="1">
@@ -11659,7 +11605,7 @@
         <v>0</v>
       </c>
       <c r="B74" s="146" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="C74" s="98"/>
       <c r="D74" s="98"/>
@@ -11676,7 +11622,7 @@
         <v>72</v>
       </c>
       <c r="I74" s="138" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="20" customHeight="1">
@@ -11684,7 +11630,7 @@
         <v>0</v>
       </c>
       <c r="B75" s="146" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c r="C75" s="98"/>
       <c r="D75" s="98"/>
@@ -11699,7 +11645,7 @@
         <v>73</v>
       </c>
       <c r="I75" s="138" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="20" customHeight="1">
@@ -11707,7 +11653,7 @@
         <v>0</v>
       </c>
       <c r="B76" s="146" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="C76" s="98"/>
       <c r="D76" s="98"/>
@@ -11724,7 +11670,7 @@
         <v>74</v>
       </c>
       <c r="I76" s="138" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="20" customHeight="1">
@@ -11732,7 +11678,7 @@
         <v>0</v>
       </c>
       <c r="B77" s="146" t="s">
-        <v>287</v>
+        <v>262</v>
       </c>
       <c r="C77" s="98"/>
       <c r="D77" s="98"/>
@@ -11749,7 +11695,7 @@
         <v>75</v>
       </c>
       <c r="I77" s="138" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="20" customHeight="1">
@@ -11757,7 +11703,7 @@
         <v>0</v>
       </c>
       <c r="B78" s="146" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="C78" s="98"/>
       <c r="D78" s="98"/>
@@ -11772,7 +11718,7 @@
         <v>76</v>
       </c>
       <c r="I78" s="138" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="20" customHeight="1">
@@ -11780,7 +11726,7 @@
         <v>0</v>
       </c>
       <c r="B79" s="147" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="C79" s="100"/>
       <c r="D79" s="100"/>
@@ -11803,7 +11749,7 @@
         <v>0</v>
       </c>
       <c r="B80" s="147" t="s">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="C80" s="100"/>
       <c r="D80" s="100"/>
@@ -11826,7 +11772,7 @@
         <v>0</v>
       </c>
       <c r="B81" s="147" t="s">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="C81" s="100"/>
       <c r="D81" s="100"/>
@@ -11849,7 +11795,7 @@
         <v>0</v>
       </c>
       <c r="B82" s="147" t="s">
-        <v>296</v>
+        <v>271</v>
       </c>
       <c r="C82" s="100"/>
       <c r="D82" s="100"/>
@@ -11870,7 +11816,7 @@
         <v>0</v>
       </c>
       <c r="B83" s="147" t="s">
-        <v>297</v>
+        <v>272</v>
       </c>
       <c r="C83" s="100"/>
       <c r="D83" s="100"/>
@@ -11893,7 +11839,7 @@
         <v>0</v>
       </c>
       <c r="B84" s="99" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="C84" s="100"/>
       <c r="D84" s="100"/>
@@ -11916,7 +11862,7 @@
         <v>0</v>
       </c>
       <c r="B85" s="147" t="s">
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="C85" s="100"/>
       <c r="D85" s="100"/>
@@ -11939,7 +11885,7 @@
         <v>0</v>
       </c>
       <c r="B86" s="99" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="C86" s="100"/>
       <c r="D86" s="100"/>
@@ -11962,7 +11908,7 @@
         <v>0</v>
       </c>
       <c r="B87" s="148" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="C87" s="102"/>
       <c r="D87" s="102"/>
@@ -11985,7 +11931,7 @@
         <v>0</v>
       </c>
       <c r="B88" s="148" t="s">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="C88" s="102"/>
       <c r="D88" s="102"/>
@@ -12008,7 +11954,7 @@
         <v>0</v>
       </c>
       <c r="B89" s="148" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="C89" s="102"/>
       <c r="D89" s="102"/>
@@ -12031,7 +11977,7 @@
         <v>0</v>
       </c>
       <c r="B90" s="148" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="C90" s="102"/>
       <c r="D90" s="102"/>
@@ -12054,7 +12000,7 @@
         <v>0</v>
       </c>
       <c r="B91" s="101" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="C91" s="102"/>
       <c r="D91" s="102"/>
@@ -12077,7 +12023,7 @@
         <v>0</v>
       </c>
       <c r="B92" s="148" t="s">
-        <v>304</v>
+        <v>279</v>
       </c>
       <c r="C92" s="102"/>
       <c r="D92" s="102"/>
@@ -12098,7 +12044,7 @@
         <v>0</v>
       </c>
       <c r="B93" s="148" t="s">
-        <v>305</v>
+        <v>280</v>
       </c>
       <c r="C93" s="102"/>
       <c r="D93" s="102"/>
@@ -12119,7 +12065,7 @@
         <v>0</v>
       </c>
       <c r="B94" s="87" t="s">
-        <v>306</v>
+        <v>281</v>
       </c>
       <c r="C94" s="17"/>
       <c r="D94" s="17"/>
@@ -12142,7 +12088,7 @@
         <v>0</v>
       </c>
       <c r="B95" s="87" t="s">
-        <v>307</v>
+        <v>282</v>
       </c>
       <c r="C95" s="17"/>
       <c r="D95" s="17"/>
@@ -12165,7 +12111,7 @@
         <v>0</v>
       </c>
       <c r="B96" s="87" t="s">
-        <v>308</v>
+        <v>283</v>
       </c>
       <c r="C96" s="17"/>
       <c r="D96" s="17"/>
@@ -12188,7 +12134,7 @@
         <v>0</v>
       </c>
       <c r="B97" s="87" t="s">
-        <v>296</v>
+        <v>271</v>
       </c>
       <c r="C97" s="17"/>
       <c r="D97" s="17"/>
@@ -12209,7 +12155,7 @@
         <v>0</v>
       </c>
       <c r="B98" s="103" t="s">
-        <v>309</v>
+        <v>284</v>
       </c>
       <c r="C98" s="104"/>
       <c r="D98" s="104"/>
@@ -12232,7 +12178,7 @@
         <v>0</v>
       </c>
       <c r="B99" s="103" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="C99" s="104"/>
       <c r="D99" s="104"/>
@@ -12255,7 +12201,7 @@
         <v>0</v>
       </c>
       <c r="B100" s="103" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="C100" s="104"/>
       <c r="D100" s="104"/>
@@ -12278,7 +12224,7 @@
         <v>0</v>
       </c>
       <c r="B101" s="150" t="s">
-        <v>312</v>
+        <v>287</v>
       </c>
       <c r="C101" s="104"/>
       <c r="D101" s="104"/>
@@ -12480,43 +12426,43 @@
         <v>15</v>
       </c>
       <c r="D1" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="57" t="s">
-        <v>36</v>
-      </c>
       <c r="F1" s="57" t="s">
-        <v>313</v>
+        <v>288</v>
       </c>
       <c r="G1" s="57" t="s">
-        <v>314</v>
+        <v>289</v>
       </c>
       <c r="H1" s="72" t="s">
-        <v>315</v>
+        <v>290</v>
       </c>
       <c r="I1" s="78" t="s">
-        <v>316</v>
+        <v>291</v>
       </c>
       <c r="J1" s="78" t="s">
-        <v>317</v>
+        <v>292</v>
       </c>
       <c r="K1" s="78" t="s">
-        <v>318</v>
+        <v>293</v>
       </c>
       <c r="L1" s="78" t="s">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="M1" s="78" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="N1" s="78" t="s">
-        <v>321</v>
+        <v>296</v>
       </c>
       <c r="O1" s="80" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P1" s="81" t="s">
-        <v>322</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="191.75" customHeight="1">
@@ -12524,47 +12470,47 @@
         <v>1</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>323</v>
+        <v>298</v>
       </c>
       <c r="C2" s="59" t="s">
-        <v>324</v>
+        <v>299</v>
       </c>
       <c r="D2" s="59" t="s">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="E2" s="61" t="s">
         <v>28</v>
       </c>
       <c r="F2" s="59" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G2" s="63" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="H2" s="60" t="s">
-        <v>328</v>
+        <v>303</v>
       </c>
       <c r="I2" s="79"/>
       <c r="J2" s="63" t="s">
-        <v>329</v>
+        <v>304</v>
       </c>
       <c r="K2" s="63" t="s">
-        <v>330</v>
+        <v>305</v>
       </c>
       <c r="L2" s="63" t="s">
-        <v>331</v>
+        <v>306</v>
       </c>
       <c r="M2" s="61" t="s">
-        <v>332</v>
+        <v>307</v>
       </c>
       <c r="N2" s="79">
         <v>1</v>
       </c>
       <c r="O2" s="61" t="s">
-        <v>333</v>
+        <v>308</v>
       </c>
       <c r="P2" s="61" t="s">
-        <v>333</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="150.75" customHeight="1">
@@ -12572,34 +12518,34 @@
         <v>1</v>
       </c>
       <c r="B3" s="59" t="s">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="C3" s="60"/>
       <c r="D3" s="59" t="s">
-        <v>335</v>
+        <v>310</v>
       </c>
       <c r="E3" s="73"/>
       <c r="F3" s="59" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="G3" s="63" t="s">
-        <v>337</v>
+        <v>312</v>
       </c>
       <c r="H3" s="61" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="I3" s="79"/>
       <c r="J3" s="61" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="K3" s="63" t="s">
-        <v>340</v>
+        <v>315</v>
       </c>
       <c r="L3" s="61" t="s">
-        <v>341</v>
+        <v>316</v>
       </c>
       <c r="M3" s="61" t="s">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c r="N3" s="62"/>
       <c r="O3" s="79">
@@ -12612,34 +12558,34 @@
         <v>1</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>343</v>
+        <v>318</v>
       </c>
       <c r="C4" s="60"/>
       <c r="D4" s="59" t="s">
-        <v>344</v>
+        <v>319</v>
       </c>
       <c r="E4" s="73"/>
       <c r="F4" s="74" t="s">
-        <v>345</v>
+        <v>320</v>
       </c>
       <c r="G4" s="63" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
       <c r="H4" s="61" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="I4" s="62"/>
       <c r="J4" s="61" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="K4" s="63" t="s">
-        <v>347</v>
+        <v>322</v>
       </c>
       <c r="L4" s="63" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="M4" s="61" t="s">
-        <v>349</v>
+        <v>324</v>
       </c>
       <c r="N4" s="62"/>
       <c r="O4" s="79">
@@ -12652,34 +12598,34 @@
         <v>1</v>
       </c>
       <c r="B5" s="61" t="s">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="C5" s="62"/>
       <c r="D5" s="61" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
       <c r="E5" s="62"/>
       <c r="F5" s="63" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="G5" s="63" t="s">
-        <v>337</v>
+        <v>312</v>
       </c>
       <c r="H5" s="61" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="I5" s="62"/>
       <c r="J5" s="61" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="K5" s="63" t="s">
-        <v>352</v>
+        <v>327</v>
       </c>
       <c r="L5" s="61" t="s">
-        <v>353</v>
+        <v>328</v>
       </c>
       <c r="M5" s="61" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="N5" s="62"/>
       <c r="O5" s="79">
@@ -12692,36 +12638,36 @@
         <v>1</v>
       </c>
       <c r="B6" s="63" t="s">
-        <v>355</v>
+        <v>330</v>
       </c>
       <c r="C6" s="63" t="s">
-        <v>356</v>
+        <v>331</v>
       </c>
       <c r="D6" s="61" t="s">
-        <v>357</v>
+        <v>332</v>
       </c>
       <c r="E6" s="61" t="s">
-        <v>358</v>
+        <v>333</v>
       </c>
       <c r="F6" s="63" t="s">
-        <v>359</v>
+        <v>334</v>
       </c>
       <c r="G6" s="63" t="s">
-        <v>360</v>
+        <v>335</v>
       </c>
       <c r="H6" s="62"/>
       <c r="I6" s="62"/>
       <c r="J6" s="61" t="s">
-        <v>361</v>
+        <v>336</v>
       </c>
       <c r="K6" s="61" t="s">
-        <v>362</v>
+        <v>337</v>
       </c>
       <c r="L6" s="63" t="s">
-        <v>363</v>
+        <v>338</v>
       </c>
       <c r="M6" s="61" t="s">
-        <v>364</v>
+        <v>339</v>
       </c>
       <c r="N6" s="62"/>
       <c r="O6" s="79">
@@ -12734,34 +12680,34 @@
         <v>1</v>
       </c>
       <c r="B7" s="63" t="s">
-        <v>365</v>
+        <v>340</v>
       </c>
       <c r="C7" s="63" t="s">
-        <v>366</v>
+        <v>341</v>
       </c>
       <c r="D7" s="61" t="s">
-        <v>367</v>
+        <v>342</v>
       </c>
       <c r="E7" s="62"/>
       <c r="F7" s="63" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
       <c r="G7" s="63" t="s">
-        <v>369</v>
+        <v>344</v>
       </c>
       <c r="H7" s="62"/>
       <c r="I7" s="62"/>
       <c r="J7" s="61" t="s">
-        <v>361</v>
+        <v>336</v>
       </c>
       <c r="K7" s="61" t="s">
-        <v>370</v>
+        <v>345</v>
       </c>
       <c r="L7" s="63" t="s">
-        <v>371</v>
+        <v>346</v>
       </c>
       <c r="M7" s="61" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="N7" s="79">
         <v>0</v>
@@ -12776,47 +12722,47 @@
         <v>0</v>
       </c>
       <c r="B8" s="65" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="C8" s="65" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="D8" s="65" t="s">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="E8" s="67" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="65" t="s">
-        <v>374</v>
+        <v>349</v>
       </c>
       <c r="G8" s="69" t="s">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="H8" s="60" t="s">
-        <v>328</v>
+        <v>303</v>
       </c>
       <c r="I8" s="68"/>
       <c r="J8" s="69" t="s">
-        <v>329</v>
+        <v>304</v>
       </c>
       <c r="K8" s="69" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
       <c r="L8" s="69" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="M8" s="67" t="s">
-        <v>332</v>
+        <v>307</v>
       </c>
       <c r="N8" s="82">
         <v>3</v>
       </c>
       <c r="O8" s="67" t="s">
-        <v>378</v>
+        <v>353</v>
       </c>
       <c r="P8" s="67" t="s">
-        <v>379</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="14.75" customHeight="1">
@@ -12824,34 +12770,34 @@
         <v>0</v>
       </c>
       <c r="B9" s="65" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="C9" s="66"/>
       <c r="D9" s="65" t="s">
-        <v>335</v>
+        <v>310</v>
       </c>
       <c r="E9" s="75"/>
       <c r="F9" s="76" t="s">
-        <v>380</v>
+        <v>355</v>
       </c>
       <c r="G9" s="69" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="H9" s="61" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="I9" s="68"/>
       <c r="J9" s="67" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="K9" s="69" t="s">
-        <v>382</v>
+        <v>357</v>
       </c>
       <c r="L9" s="67" t="s">
-        <v>383</v>
+        <v>358</v>
       </c>
       <c r="M9" s="67" t="s">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c r="N9" s="68"/>
       <c r="O9" s="82">
@@ -12864,34 +12810,34 @@
         <v>0</v>
       </c>
       <c r="B10" s="65" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="C10" s="66"/>
       <c r="D10" s="65" t="s">
-        <v>344</v>
+        <v>319</v>
       </c>
       <c r="E10" s="75"/>
       <c r="F10" s="77" t="s">
-        <v>384</v>
+        <v>359</v>
       </c>
       <c r="G10" s="69" t="s">
-        <v>385</v>
+        <v>360</v>
       </c>
       <c r="H10" s="61" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="I10" s="68"/>
       <c r="J10" s="67" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="K10" s="69" t="s">
-        <v>386</v>
+        <v>361</v>
       </c>
       <c r="L10" s="69" t="s">
-        <v>387</v>
+        <v>362</v>
       </c>
       <c r="M10" s="67" t="s">
-        <v>349</v>
+        <v>324</v>
       </c>
       <c r="N10" s="68"/>
       <c r="O10" s="82">
@@ -12904,34 +12850,34 @@
         <v>0</v>
       </c>
       <c r="B11" s="67" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
       <c r="C11" s="68"/>
       <c r="D11" s="67" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
       <c r="E11" s="68"/>
       <c r="F11" s="69" t="s">
-        <v>388</v>
+        <v>363</v>
       </c>
       <c r="G11" s="69" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="H11" s="61" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="I11" s="68"/>
       <c r="J11" s="67" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="K11" s="69" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="L11" s="67" t="s">
-        <v>390</v>
+        <v>365</v>
       </c>
       <c r="M11" s="67" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="N11" s="68"/>
       <c r="O11" s="82">
@@ -12944,36 +12890,36 @@
         <v>0</v>
       </c>
       <c r="B12" s="69" t="s">
-        <v>391</v>
+        <v>366</v>
       </c>
       <c r="C12" s="69" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
       <c r="D12" s="67" t="s">
-        <v>357</v>
+        <v>332</v>
       </c>
       <c r="E12" s="67" t="s">
-        <v>358</v>
+        <v>333</v>
       </c>
       <c r="F12" s="69" t="s">
-        <v>393</v>
+        <v>368</v>
       </c>
       <c r="G12" s="69" t="s">
-        <v>394</v>
+        <v>369</v>
       </c>
       <c r="H12" s="68"/>
       <c r="I12" s="68"/>
       <c r="J12" s="67" t="s">
-        <v>361</v>
+        <v>336</v>
       </c>
       <c r="K12" s="67" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="L12" s="69" t="s">
-        <v>396</v>
+        <v>371</v>
       </c>
       <c r="M12" s="67" t="s">
-        <v>364</v>
+        <v>339</v>
       </c>
       <c r="N12" s="68"/>
       <c r="O12" s="82">
@@ -12986,34 +12932,34 @@
         <v>0</v>
       </c>
       <c r="B13" s="69" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
       <c r="C13" s="69" t="s">
-        <v>398</v>
+        <v>373</v>
       </c>
       <c r="D13" s="67" t="s">
-        <v>367</v>
+        <v>342</v>
       </c>
       <c r="E13" s="68"/>
       <c r="F13" s="69" t="s">
-        <v>399</v>
+        <v>374</v>
       </c>
       <c r="G13" s="69" t="s">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="H13" s="68"/>
       <c r="I13" s="68"/>
       <c r="J13" s="67" t="s">
-        <v>361</v>
+        <v>336</v>
       </c>
       <c r="K13" s="67" t="s">
-        <v>401</v>
+        <v>376</v>
       </c>
       <c r="L13" s="69" t="s">
-        <v>402</v>
+        <v>377</v>
       </c>
       <c r="M13" s="67" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="N13" s="82">
         <v>2</v>
@@ -13258,13 +13204,13 @@
         <v>20</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D1" s="45" t="s">
-        <v>403</v>
+        <v>378</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>315</v>
+        <v>290</v>
       </c>
       <c r="F1" s="54"/>
     </row>
@@ -13276,13 +13222,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="48" t="s">
-        <v>404</v>
+        <v>379</v>
       </c>
       <c r="D2" s="38" t="s">
-        <v>405</v>
+        <v>380</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>406</v>
+        <v>381</v>
       </c>
       <c r="F2" s="55"/>
     </row>
@@ -13294,13 +13240,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="49" t="s">
-        <v>407</v>
+        <v>382</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>405</v>
+        <v>380</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>408</v>
+        <v>383</v>
       </c>
       <c r="F3" s="55"/>
     </row>
@@ -13312,13 +13258,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="49" t="s">
-        <v>409</v>
+        <v>384</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>410</v>
+        <v>385</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>411</v>
+        <v>386</v>
       </c>
       <c r="F4" s="55"/>
     </row>
@@ -13330,13 +13276,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>410</v>
+        <v>385</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>412</v>
+        <v>387</v>
       </c>
       <c r="F5" s="55"/>
     </row>
@@ -13348,13 +13294,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>404</v>
+        <v>379</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>405</v>
+        <v>380</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>406</v>
+        <v>381</v>
       </c>
       <c r="F6" s="55"/>
     </row>
@@ -13366,13 +13312,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="49" t="s">
-        <v>407</v>
+        <v>382</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>405</v>
+        <v>380</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>408</v>
+        <v>383</v>
       </c>
       <c r="F7" s="55"/>
     </row>
@@ -13384,13 +13330,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="49" t="s">
-        <v>409</v>
+        <v>384</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>410</v>
+        <v>385</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>411</v>
+        <v>386</v>
       </c>
       <c r="F8" s="55"/>
     </row>
@@ -13402,13 +13348,13 @@
         <v>7</v>
       </c>
       <c r="C9" s="49" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>410</v>
+        <v>385</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>412</v>
+        <v>387</v>
       </c>
       <c r="F9" s="55"/>
     </row>
@@ -13437,7 +13383,7 @@
   <dimension ref="A1:E134"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="14" customHeight="1"/>
@@ -13454,10 +13400,10 @@
         <v>20</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>413</v>
+        <v>388</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>414</v>
+        <v>389</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="32"/>
@@ -13467,7 +13413,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>415</v>
+        <v>390</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="8"/>
@@ -13478,7 +13424,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>416</v>
+        <v>391</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="8"/>
@@ -13489,7 +13435,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>417</v>
+        <v>392</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="8"/>
@@ -13500,7 +13446,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>418</v>
+        <v>393</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="8"/>
@@ -13511,7 +13457,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>419</v>
+        <v>394</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="8"/>
@@ -13522,7 +13468,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>420</v>
+        <v>395</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="8"/>
@@ -13533,7 +13479,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>421</v>
+        <v>396</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="8"/>
@@ -13544,7 +13490,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>422</v>
+        <v>397</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="8"/>
@@ -13555,7 +13501,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>423</v>
+        <v>398</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="8"/>
@@ -13566,7 +13512,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>424</v>
+        <v>399</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="8"/>
@@ -13577,7 +13523,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>425</v>
+        <v>400</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="8"/>
@@ -13588,7 +13534,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>426</v>
+        <v>401</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="8"/>
@@ -13599,7 +13545,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>427</v>
+        <v>402</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="8"/>
@@ -13610,7 +13556,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="8"/>
@@ -13621,7 +13567,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>429</v>
+        <v>404</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="8"/>
@@ -13632,7 +13578,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>430</v>
+        <v>405</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="8"/>
@@ -13643,7 +13589,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>431</v>
+        <v>406</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="8"/>
@@ -13654,7 +13600,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>432</v>
+        <v>407</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="8"/>
@@ -13665,7 +13611,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>433</v>
+        <v>408</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="8"/>
@@ -13676,7 +13622,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>434</v>
+        <v>409</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="8"/>
@@ -13687,7 +13633,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>435</v>
+        <v>410</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="8"/>
@@ -13698,7 +13644,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>435</v>
+        <v>410</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="8"/>
@@ -13709,7 +13655,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>436</v>
+        <v>411</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="8"/>
@@ -13720,7 +13666,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="8"/>
@@ -13731,7 +13677,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>438</v>
+        <v>413</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="8"/>
@@ -13742,7 +13688,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>439</v>
+        <v>414</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="8"/>
@@ -13753,7 +13699,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>440</v>
+        <v>415</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="8"/>
@@ -13764,7 +13710,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>441</v>
+        <v>416</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="8"/>
@@ -13775,7 +13721,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>442</v>
+        <v>417</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="8"/>
@@ -13786,10 +13732,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>443</v>
+        <v>418</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>444</v>
+        <v>419</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="33"/>
@@ -13799,7 +13745,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>445</v>
+        <v>420</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="8"/>
@@ -13810,7 +13756,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>446</v>
+        <v>421</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="8"/>
@@ -13821,7 +13767,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>447</v>
+        <v>422</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="8"/>
@@ -13832,7 +13778,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>448</v>
+        <v>423</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="8"/>
@@ -13843,7 +13789,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>449</v>
+        <v>424</v>
       </c>
       <c r="C36" s="17"/>
       <c r="D36" s="8"/>
@@ -13854,7 +13800,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="8"/>
@@ -13865,7 +13811,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>451</v>
+        <v>426</v>
       </c>
       <c r="C38" s="17"/>
       <c r="D38" s="8"/>
@@ -13876,10 +13822,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>452</v>
+        <v>427</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>453</v>
+        <v>428</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="33"/>
@@ -13889,7 +13835,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>454</v>
+        <v>429</v>
       </c>
       <c r="C40" s="17"/>
       <c r="D40" s="8"/>
@@ -13900,10 +13846,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>455</v>
+        <v>430</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="33"/>
@@ -13913,7 +13859,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>457</v>
+        <v>432</v>
       </c>
       <c r="C42" s="17"/>
       <c r="D42" s="8"/>
@@ -13924,7 +13870,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>458</v>
+        <v>433</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="8"/>
@@ -13935,7 +13881,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>459</v>
+        <v>434</v>
       </c>
       <c r="C44" s="17"/>
       <c r="D44" s="8"/>
@@ -13946,10 +13892,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>460</v>
+        <v>435</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>461</v>
+        <v>436</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="33"/>
@@ -13959,7 +13905,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>462</v>
+        <v>437</v>
       </c>
       <c r="C46" s="17"/>
       <c r="D46" s="8"/>
@@ -13970,7 +13916,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>463</v>
+        <v>438</v>
       </c>
       <c r="C47" s="17"/>
       <c r="D47" s="8"/>
@@ -13981,7 +13927,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>464</v>
+        <v>439</v>
       </c>
       <c r="C48" s="17"/>
       <c r="D48" s="8"/>
@@ -13992,7 +13938,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>465</v>
+        <v>440</v>
       </c>
       <c r="C49" s="17"/>
       <c r="D49" s="8"/>
@@ -14003,10 +13949,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="29" t="s">
-        <v>466</v>
+        <v>441</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>467</v>
+        <v>442</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="33"/>
@@ -14016,7 +13962,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>468</v>
+        <v>443</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="8"/>
@@ -14027,7 +13973,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="29" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="C52" s="30" t="s">
         <v>17</v>
@@ -14040,7 +13986,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="29" t="s">
-        <v>470</v>
+        <v>445</v>
       </c>
       <c r="C53" s="17"/>
       <c r="D53" s="8"/>
@@ -14051,7 +13997,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>471</v>
+        <v>446</v>
       </c>
       <c r="C54" s="17"/>
       <c r="D54" s="8"/>
@@ -14062,7 +14008,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="29" t="s">
-        <v>472</v>
+        <v>447</v>
       </c>
       <c r="C55" s="17"/>
       <c r="D55" s="8"/>
@@ -14073,10 +14019,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>473</v>
+        <v>448</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>474</v>
+        <v>449</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="33"/>
@@ -14086,7 +14032,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="29" t="s">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="8"/>
@@ -14097,7 +14043,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>476</v>
+        <v>451</v>
       </c>
       <c r="C58" s="17"/>
       <c r="D58" s="8"/>
@@ -14108,7 +14054,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="29" t="s">
-        <v>477</v>
+        <v>452</v>
       </c>
       <c r="C59" s="17"/>
       <c r="D59" s="8"/>
@@ -14119,7 +14065,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="29" t="s">
-        <v>478</v>
+        <v>453</v>
       </c>
       <c r="C60" s="17"/>
       <c r="D60" s="8"/>
@@ -14130,7 +14076,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="29" t="s">
-        <v>479</v>
+        <v>454</v>
       </c>
       <c r="C61" s="17"/>
       <c r="D61" s="8"/>
@@ -14141,7 +14087,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="29" t="s">
-        <v>480</v>
+        <v>455</v>
       </c>
       <c r="C62" s="17"/>
       <c r="D62" s="8"/>
@@ -14152,7 +14098,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="29" t="s">
-        <v>481</v>
+        <v>456</v>
       </c>
       <c r="C63" s="17"/>
       <c r="D63" s="8"/>
@@ -14163,10 +14109,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="31" t="s">
-        <v>482</v>
+        <v>457</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>453</v>
+        <v>428</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="33"/>
@@ -14176,7 +14122,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="31" t="s">
-        <v>483</v>
+        <v>458</v>
       </c>
       <c r="C65" s="17"/>
       <c r="D65" s="8"/>
@@ -14187,7 +14133,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="31" t="s">
-        <v>484</v>
+        <v>459</v>
       </c>
       <c r="C66" s="17"/>
       <c r="D66" s="8"/>
@@ -14198,10 +14144,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="31" t="s">
-        <v>485</v>
+        <v>460</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>467</v>
+        <v>442</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="33"/>
@@ -14211,10 +14157,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="31" t="s">
-        <v>486</v>
+        <v>461</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="33"/>
@@ -14224,7 +14170,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="31" t="s">
-        <v>487</v>
+        <v>462</v>
       </c>
       <c r="C69" s="30" t="s">
         <v>17</v>
@@ -14237,10 +14183,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="31" t="s">
-        <v>488</v>
+        <v>463</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>461</v>
+        <v>436</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="33"/>
@@ -14250,10 +14196,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="31" t="s">
-        <v>489</v>
+        <v>464</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>474</v>
+        <v>449</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="33"/>
@@ -14263,10 +14209,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="31" t="s">
-        <v>490</v>
+        <v>465</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>444</v>
+        <v>419</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="33"/>
@@ -14276,7 +14222,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="31" t="s">
-        <v>491</v>
+        <v>466</v>
       </c>
       <c r="C73" s="17"/>
       <c r="D73" s="8"/>
@@ -14287,10 +14233,10 @@
         <v>72</v>
       </c>
       <c r="B74" s="34" t="s">
-        <v>492</v>
+        <v>467</v>
       </c>
       <c r="C74" s="17" t="s">
-        <v>474</v>
+        <v>449</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="33"/>
@@ -14300,7 +14246,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="34" t="s">
-        <v>493</v>
+        <v>468</v>
       </c>
       <c r="C75" s="17"/>
       <c r="D75" s="8"/>
@@ -14311,10 +14257,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="34" t="s">
-        <v>494</v>
+        <v>469</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>467</v>
+        <v>442</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="33"/>
@@ -14324,7 +14270,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="34" t="s">
-        <v>495</v>
+        <v>470</v>
       </c>
       <c r="C77" s="17"/>
       <c r="D77" s="8"/>
@@ -14335,7 +14281,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="34" t="s">
-        <v>496</v>
+        <v>471</v>
       </c>
       <c r="C78" s="17"/>
       <c r="D78" s="8"/>
@@ -14346,10 +14292,10 @@
         <v>77</v>
       </c>
       <c r="B79" s="34" t="s">
-        <v>497</v>
+        <v>472</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="33"/>
@@ -14359,10 +14305,10 @@
         <v>78</v>
       </c>
       <c r="B80" s="34" t="s">
-        <v>498</v>
+        <v>473</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>461</v>
+        <v>436</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="33"/>
@@ -14372,10 +14318,10 @@
         <v>79</v>
       </c>
       <c r="B81" s="34" t="s">
-        <v>499</v>
+        <v>474</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>453</v>
+        <v>428</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="33"/>
@@ -14385,10 +14331,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="34" t="s">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>444</v>
+        <v>419</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="33"/>
@@ -14398,7 +14344,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="34" t="s">
-        <v>501</v>
+        <v>476</v>
       </c>
       <c r="C83" s="30" t="s">
         <v>17</v>
@@ -14411,10 +14357,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="35" t="s">
-        <v>502</v>
+        <v>477</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>453</v>
+        <v>428</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="33"/>
@@ -14424,10 +14370,10 @@
         <v>83</v>
       </c>
       <c r="B85" s="35" t="s">
-        <v>503</v>
+        <v>478</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>461</v>
+        <v>436</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="33"/>
@@ -14437,7 +14383,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="35" t="s">
-        <v>504</v>
+        <v>479</v>
       </c>
       <c r="C86" s="17"/>
       <c r="D86" s="8"/>
@@ -14448,10 +14394,10 @@
         <v>85</v>
       </c>
       <c r="B87" s="35" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>444</v>
+        <v>419</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="33"/>
@@ -14461,10 +14407,10 @@
         <v>86</v>
       </c>
       <c r="B88" s="35" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="33"/>
@@ -14474,10 +14420,10 @@
         <v>87</v>
       </c>
       <c r="B89" s="35" t="s">
-        <v>507</v>
+        <v>482</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>467</v>
+        <v>442</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="33"/>
@@ -14487,10 +14433,10 @@
         <v>88</v>
       </c>
       <c r="B90" s="35" t="s">
-        <v>508</v>
+        <v>483</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>474</v>
+        <v>449</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="33"/>
@@ -14500,7 +14446,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="35" t="s">
-        <v>509</v>
+        <v>484</v>
       </c>
       <c r="C91" s="30" t="s">
         <v>17</v>
@@ -14513,7 +14459,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="36" t="s">
-        <v>510</v>
+        <v>485</v>
       </c>
       <c r="C92" s="17"/>
       <c r="D92" s="8"/>
@@ -14524,7 +14470,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="36" t="s">
-        <v>511</v>
+        <v>486</v>
       </c>
       <c r="C93" s="30" t="s">
         <v>17</v>
@@ -14537,10 +14483,10 @@
         <v>92</v>
       </c>
       <c r="B94" s="36" t="s">
-        <v>512</v>
+        <v>487</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>444</v>
+        <v>419</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="33"/>
@@ -14550,7 +14496,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="36" t="s">
-        <v>513</v>
+        <v>488</v>
       </c>
       <c r="C95" s="17"/>
       <c r="D95" s="8"/>
@@ -14561,10 +14507,10 @@
         <v>94</v>
       </c>
       <c r="B96" s="36" t="s">
-        <v>514</v>
+        <v>489</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="33"/>
@@ -14574,10 +14520,10 @@
         <v>95</v>
       </c>
       <c r="B97" s="36" t="s">
-        <v>515</v>
+        <v>490</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>467</v>
+        <v>442</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="33"/>
@@ -14587,7 +14533,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="36" t="s">
-        <v>516</v>
+        <v>491</v>
       </c>
       <c r="C98" s="17"/>
       <c r="D98" s="8"/>
@@ -14598,10 +14544,10 @@
         <v>97</v>
       </c>
       <c r="B99" s="36" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>461</v>
+        <v>436</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="33"/>
@@ -14611,7 +14557,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="36" t="s">
-        <v>518</v>
+        <v>493</v>
       </c>
       <c r="C100" s="17"/>
       <c r="D100" s="8"/>
@@ -14622,7 +14568,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="36" t="s">
-        <v>519</v>
+        <v>494</v>
       </c>
       <c r="C101" s="17"/>
       <c r="D101" s="8"/>
@@ -14633,10 +14579,10 @@
         <v>100</v>
       </c>
       <c r="B102" s="36" t="s">
-        <v>520</v>
+        <v>495</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>474</v>
+        <v>449</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="33"/>
@@ -14646,10 +14592,10 @@
         <v>101</v>
       </c>
       <c r="B103" s="36" t="s">
-        <v>521</v>
+        <v>496</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>453</v>
+        <v>428</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="33"/>
@@ -14659,7 +14605,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="36" t="s">
-        <v>522</v>
+        <v>497</v>
       </c>
       <c r="C104" s="17"/>
       <c r="D104" s="8"/>
@@ -14670,7 +14616,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="36" t="s">
-        <v>523</v>
+        <v>498</v>
       </c>
       <c r="C105" s="17"/>
       <c r="D105" s="8"/>
@@ -14681,10 +14627,10 @@
         <v>104</v>
       </c>
       <c r="B106" s="35" t="s">
-        <v>524</v>
+        <v>499</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>453</v>
+        <v>428</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="33"/>
@@ -14694,10 +14640,10 @@
         <v>105</v>
       </c>
       <c r="B107" s="35" t="s">
-        <v>525</v>
+        <v>500</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>444</v>
+        <v>419</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="33"/>
@@ -14707,7 +14653,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="35" t="s">
-        <v>526</v>
+        <v>501</v>
       </c>
       <c r="C108" s="17"/>
       <c r="D108" s="8"/>
@@ -14718,7 +14664,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="35" t="s">
-        <v>527</v>
+        <v>502</v>
       </c>
       <c r="C109" s="17"/>
       <c r="D109" s="8"/>
@@ -14729,10 +14675,10 @@
         <v>108</v>
       </c>
       <c r="B110" s="35" t="s">
-        <v>528</v>
+        <v>503</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="33"/>
@@ -14742,7 +14688,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="35" t="s">
-        <v>529</v>
+        <v>504</v>
       </c>
       <c r="C111" s="30" t="s">
         <v>17</v>
@@ -14755,7 +14701,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="35" t="s">
-        <v>530</v>
+        <v>505</v>
       </c>
       <c r="C112" s="17"/>
       <c r="D112" s="8"/>
@@ -14766,7 +14712,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="35" t="s">
-        <v>531</v>
+        <v>506</v>
       </c>
       <c r="C113" s="17"/>
       <c r="D113" s="8"/>
@@ -14777,7 +14723,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="35" t="s">
-        <v>532</v>
+        <v>507</v>
       </c>
       <c r="C114" s="17"/>
       <c r="D114" s="8"/>
@@ -14788,7 +14734,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="35" t="s">
-        <v>533</v>
+        <v>508</v>
       </c>
       <c r="C115" s="17"/>
       <c r="D115" s="8"/>
@@ -14799,7 +14745,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="35" t="s">
-        <v>534</v>
+        <v>509</v>
       </c>
       <c r="C116" s="17"/>
       <c r="D116" s="8"/>
@@ -14810,7 +14756,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="35" t="s">
-        <v>535</v>
+        <v>510</v>
       </c>
       <c r="C117" s="17"/>
       <c r="D117" s="8"/>
@@ -14821,7 +14767,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="35" t="s">
-        <v>536</v>
+        <v>511</v>
       </c>
       <c r="C118" s="17"/>
       <c r="D118" s="8"/>
@@ -14832,7 +14778,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="35" t="s">
-        <v>537</v>
+        <v>512</v>
       </c>
       <c r="C119" s="17"/>
       <c r="D119" s="8"/>
@@ -14843,7 +14789,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="35" t="s">
-        <v>538</v>
+        <v>513</v>
       </c>
       <c r="C120" s="17"/>
       <c r="D120" s="8"/>
@@ -14854,10 +14800,10 @@
         <v>119</v>
       </c>
       <c r="B121" s="35" t="s">
-        <v>539</v>
+        <v>514</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>474</v>
+        <v>449</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="33"/>
@@ -14867,7 +14813,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="35" t="s">
-        <v>540</v>
+        <v>515</v>
       </c>
       <c r="C122" s="17"/>
       <c r="D122" s="8"/>
@@ -14878,7 +14824,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="35" t="s">
-        <v>541</v>
+        <v>516</v>
       </c>
       <c r="C123" s="17"/>
       <c r="D123" s="8"/>
@@ -14889,10 +14835,10 @@
         <v>122</v>
       </c>
       <c r="B124" s="35" t="s">
-        <v>542</v>
+        <v>517</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>467</v>
+        <v>442</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="33"/>
@@ -14902,10 +14848,10 @@
         <v>123</v>
       </c>
       <c r="B125" s="35" t="s">
-        <v>543</v>
+        <v>518</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>461</v>
+        <v>436</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="33"/>
@@ -14915,7 +14861,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="35" t="s">
-        <v>544</v>
+        <v>519</v>
       </c>
       <c r="C126" s="17"/>
       <c r="D126" s="8"/>
@@ -14926,7 +14872,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="35" t="s">
-        <v>545</v>
+        <v>520</v>
       </c>
       <c r="C127" s="17"/>
       <c r="D127" s="8"/>
@@ -14937,7 +14883,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="37" t="s">
-        <v>546</v>
+        <v>521</v>
       </c>
       <c r="C128" s="17"/>
       <c r="D128" s="8"/>
@@ -14948,7 +14894,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="38" t="s">
-        <v>547</v>
+        <v>522</v>
       </c>
       <c r="C129" s="17"/>
       <c r="D129" s="8"/>
@@ -14959,7 +14905,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="30" t="s">
-        <v>548</v>
+        <v>523</v>
       </c>
       <c r="C130" s="17"/>
       <c r="D130" s="8"/>
@@ -14970,7 +14916,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="30" t="s">
-        <v>549</v>
+        <v>524</v>
       </c>
       <c r="C131" s="17"/>
       <c r="D131" s="8"/>
@@ -14981,7 +14927,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="39" t="s">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="C132" s="17"/>
       <c r="D132" s="8"/>
@@ -14992,7 +14938,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="41" t="s">
-        <v>551</v>
+        <v>526</v>
       </c>
       <c r="C133" s="17"/>
       <c r="D133" s="42"/>
@@ -15003,7 +14949,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="41" t="s">
-        <v>552</v>
+        <v>527</v>
       </c>
     </row>
   </sheetData>
